--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock-internal\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0878AD-E13B-416C-8F60-4B2E530543D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95747AC8-956C-46FC-85F3-4170987305CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="2505" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="29580" yWindow="-4620" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2403,9 +2403,6 @@
     <t>com_report_hvac_vrf_cooling_design_cop_110_f</t>
   </si>
   <si>
-    <t>com_report_hvac_vrf_heating_design_cop_minus22_f</t>
-  </si>
-  <si>
     <t>com_report_hvac_vrf_heating_design_cop_0_f</t>
   </si>
   <si>
@@ -2863,6 +2860,9 @@
   </si>
   <si>
     <t>Smallest space</t>
+  </si>
+  <si>
+    <t>com_report_hvac_vrf_heating_design_cop_minus_22_f</t>
   </si>
 </sst>
 </file>
@@ -4679,8 +4679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
   <dimension ref="A1:K334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J19"/>
+    <sheetView tabSelected="1" topLeftCell="D63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5087,13 +5087,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B16" t="s">
         <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E16" t="s">
         <v>153</v>
@@ -5108,18 +5108,18 @@
         <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B17" t="s">
         <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E17" t="s">
         <v>153</v>
@@ -5134,18 +5134,18 @@
         <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B18" t="s">
         <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E18" t="s">
         <v>153</v>
@@ -5160,18 +5160,18 @@
         <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B19" t="s">
         <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E19" t="s">
         <v>153</v>
@@ -5186,7 +5186,7 @@
         <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6788,13 +6788,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B84" t="s">
         <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E84" t="s">
         <v>153</v>
@@ -6809,18 +6809,18 @@
         <v>119</v>
       </c>
       <c r="J84" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B85" t="s">
         <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E85" t="s">
         <v>153</v>
@@ -6835,18 +6835,18 @@
         <v>119</v>
       </c>
       <c r="J85" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B86" t="s">
         <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E86" t="s">
         <v>153</v>
@@ -6861,18 +6861,18 @@
         <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B87" t="s">
         <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -6887,18 +6887,18 @@
         <v>119</v>
       </c>
       <c r="J87" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B88" t="s">
         <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E88" t="s">
         <v>153</v>
@@ -6913,18 +6913,18 @@
         <v>119</v>
       </c>
       <c r="J88" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B89" t="s">
         <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E89" t="s">
         <v>153</v>
@@ -6939,7 +6939,7 @@
         <v>119</v>
       </c>
       <c r="J89" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B94" t="s">
         <v>106</v>
@@ -7069,12 +7069,12 @@
         <v>119</v>
       </c>
       <c r="J94" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
@@ -7095,12 +7095,12 @@
         <v>119</v>
       </c>
       <c r="J95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B96" t="s">
         <v>106</v>
@@ -7121,12 +7121,12 @@
         <v>119</v>
       </c>
       <c r="J96" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
@@ -7147,7 +7147,7 @@
         <v>119</v>
       </c>
       <c r="J97" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -7178,13 +7178,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>787</v>
+        <v>940</v>
       </c>
       <c r="E99" t="s">
         <v>153</v>
@@ -7199,18 +7199,18 @@
         <v>119</v>
       </c>
       <c r="J99" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E100" t="s">
         <v>153</v>
@@ -7225,18 +7225,18 @@
         <v>119</v>
       </c>
       <c r="J100" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E101" t="s">
         <v>153</v>
@@ -7251,18 +7251,18 @@
         <v>119</v>
       </c>
       <c r="J101" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E102" t="s">
         <v>153</v>
@@ -7277,18 +7277,18 @@
         <v>119</v>
       </c>
       <c r="J102" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B103" t="s">
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E103" t="s">
         <v>153</v>
@@ -7303,7 +7303,7 @@
         <v>119</v>
       </c>
       <c r="J103" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E146" t="s">
         <v>119</v>
@@ -8434,19 +8434,19 @@
         <v>119</v>
       </c>
       <c r="J146" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K146" s="3"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B147" t="s">
         <v>106</v>
       </c>
       <c r="D147" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E147" t="s">
         <v>119</v>
@@ -8461,19 +8461,19 @@
         <v>119</v>
       </c>
       <c r="J147" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K147" s="3"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B148" t="s">
         <v>106</v>
       </c>
       <c r="D148" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E148" t="s">
         <v>119</v>
@@ -8488,7 +8488,7 @@
         <v>119</v>
       </c>
       <c r="J148" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K148" s="3"/>
     </row>
@@ -8497,7 +8497,7 @@
         <v>106</v>
       </c>
       <c r="D149" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E149" t="s">
         <v>119</v>
@@ -8512,7 +8512,7 @@
         <v>119</v>
       </c>
       <c r="J149" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K149" s="3"/>
     </row>
@@ -8521,7 +8521,7 @@
         <v>106</v>
       </c>
       <c r="D150" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E150" t="s">
         <v>119</v>
@@ -8536,7 +8536,7 @@
         <v>119</v>
       </c>
       <c r="J150" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K150" s="3"/>
     </row>
@@ -8545,7 +8545,7 @@
         <v>106</v>
       </c>
       <c r="D151" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E151" t="s">
         <v>119</v>
@@ -8560,19 +8560,19 @@
         <v>119</v>
       </c>
       <c r="J151" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K151" s="3"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B152" t="s">
         <v>106</v>
       </c>
       <c r="D152" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E152" t="s">
         <v>119</v>
@@ -8587,19 +8587,19 @@
         <v>119</v>
       </c>
       <c r="J152" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K152" s="3"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B153" t="s">
         <v>106</v>
       </c>
       <c r="D153" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E153" t="s">
         <v>119</v>
@@ -8614,7 +8614,7 @@
         <v>119</v>
       </c>
       <c r="J153" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K153" s="3"/>
     </row>
@@ -8623,7 +8623,7 @@
         <v>106</v>
       </c>
       <c r="D154" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E154" t="s">
         <v>119</v>
@@ -8638,7 +8638,7 @@
         <v>119</v>
       </c>
       <c r="J154" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K154" s="3"/>
     </row>
@@ -8647,7 +8647,7 @@
         <v>106</v>
       </c>
       <c r="D155" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E155" t="s">
         <v>119</v>
@@ -8662,7 +8662,7 @@
         <v>119</v>
       </c>
       <c r="J155" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K155" s="3"/>
     </row>
@@ -8741,7 +8741,7 @@
         <v>119</v>
       </c>
       <c r="J158" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -9838,13 +9838,13 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B201" t="s">
         <v>106</v>
       </c>
       <c r="D201" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E201" t="s">
         <v>153</v>
@@ -9859,18 +9859,18 @@
         <v>119</v>
       </c>
       <c r="J201" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B202" t="s">
         <v>106</v>
       </c>
       <c r="D202" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E202" t="s">
         <v>153</v>
@@ -9885,7 +9885,7 @@
         <v>119</v>
       </c>
       <c r="J202" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -9916,13 +9916,13 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>830</v>
+      </c>
+      <c r="B204" t="s">
+        <v>106</v>
+      </c>
+      <c r="D204" t="s">
         <v>831</v>
-      </c>
-      <c r="B204" t="s">
-        <v>106</v>
-      </c>
-      <c r="D204" t="s">
-        <v>832</v>
       </c>
       <c r="E204" t="s">
         <v>119</v>
@@ -9942,13 +9942,13 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>832</v>
+      </c>
+      <c r="B205" t="s">
+        <v>106</v>
+      </c>
+      <c r="D205" t="s">
         <v>833</v>
-      </c>
-      <c r="B205" t="s">
-        <v>106</v>
-      </c>
-      <c r="D205" t="s">
-        <v>834</v>
       </c>
       <c r="E205" t="s">
         <v>119</v>
@@ -9968,13 +9968,13 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>834</v>
+      </c>
+      <c r="B206" t="s">
+        <v>106</v>
+      </c>
+      <c r="D206" t="s">
         <v>835</v>
-      </c>
-      <c r="B206" t="s">
-        <v>106</v>
-      </c>
-      <c r="D206" t="s">
-        <v>836</v>
       </c>
       <c r="E206" t="s">
         <v>119</v>
@@ -9994,13 +9994,13 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>836</v>
+      </c>
+      <c r="B207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" t="s">
         <v>837</v>
-      </c>
-      <c r="B207" t="s">
-        <v>106</v>
-      </c>
-      <c r="D207" t="s">
-        <v>838</v>
       </c>
       <c r="E207" t="s">
         <v>119</v>
@@ -10020,13 +10020,13 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>838</v>
+      </c>
+      <c r="B208" t="s">
+        <v>106</v>
+      </c>
+      <c r="D208" t="s">
         <v>839</v>
-      </c>
-      <c r="B208" t="s">
-        <v>106</v>
-      </c>
-      <c r="D208" t="s">
-        <v>840</v>
       </c>
       <c r="E208" t="s">
         <v>153</v>
@@ -10046,65 +10046,65 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>840</v>
+      </c>
+      <c r="B209" t="s">
+        <v>106</v>
+      </c>
+      <c r="D209" t="s">
         <v>841</v>
       </c>
-      <c r="B209" t="s">
-        <v>106</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
+        <v>153</v>
+      </c>
+      <c r="F209" t="s">
+        <v>141</v>
+      </c>
+      <c r="H209" t="s">
+        <v>119</v>
+      </c>
+      <c r="I209" t="s">
+        <v>119</v>
+      </c>
+      <c r="J209" t="s">
         <v>842</v>
-      </c>
-      <c r="E209" t="s">
-        <v>153</v>
-      </c>
-      <c r="F209" t="s">
-        <v>141</v>
-      </c>
-      <c r="H209" t="s">
-        <v>119</v>
-      </c>
-      <c r="I209" t="s">
-        <v>119</v>
-      </c>
-      <c r="J209" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>843</v>
+      </c>
+      <c r="B210" t="s">
+        <v>106</v>
+      </c>
+      <c r="D210" t="s">
         <v>844</v>
       </c>
-      <c r="B210" t="s">
-        <v>106</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
+        <v>153</v>
+      </c>
+      <c r="F210" t="s">
+        <v>141</v>
+      </c>
+      <c r="H210" t="s">
+        <v>119</v>
+      </c>
+      <c r="I210" t="s">
+        <v>119</v>
+      </c>
+      <c r="J210" t="s">
         <v>845</v>
-      </c>
-      <c r="E210" t="s">
-        <v>153</v>
-      </c>
-      <c r="F210" t="s">
-        <v>141</v>
-      </c>
-      <c r="H210" t="s">
-        <v>119</v>
-      </c>
-      <c r="I210" t="s">
-        <v>119</v>
-      </c>
-      <c r="J210" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B211" t="s">
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E211" t="s">
         <v>153</v>
@@ -10119,18 +10119,18 @@
         <v>119</v>
       </c>
       <c r="J211" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B212" t="s">
         <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E212" t="s">
         <v>119</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B213" t="s">
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E213" t="s">
         <v>119</v>
@@ -10176,13 +10176,13 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B214" t="s">
         <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E214" t="s">
         <v>119</v>
@@ -10202,13 +10202,13 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B215" t="s">
         <v>106</v>
       </c>
       <c r="D215" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E215" t="s">
         <v>119</v>
@@ -10228,13 +10228,13 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B216" t="s">
         <v>106</v>
       </c>
       <c r="D216" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E216" t="s">
         <v>153</v>
@@ -10254,13 +10254,13 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B217" t="s">
         <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E217" t="s">
         <v>153</v>
@@ -10280,13 +10280,13 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B218" t="s">
         <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E218" t="s">
         <v>153</v>
@@ -10301,18 +10301,18 @@
         <v>119</v>
       </c>
       <c r="J218" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B219" t="s">
         <v>106</v>
       </c>
       <c r="D219" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E219" t="s">
         <v>153</v>
@@ -10332,13 +10332,13 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B220" t="s">
         <v>106</v>
       </c>
       <c r="D220" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E220" t="s">
         <v>153</v>
@@ -10358,13 +10358,13 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
       </c>
       <c r="D221" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E221" t="s">
         <v>153</v>
@@ -10384,13 +10384,13 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B222" t="s">
         <v>106</v>
       </c>
       <c r="D222" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E222" t="s">
         <v>153</v>
@@ -10405,18 +10405,18 @@
         <v>119</v>
       </c>
       <c r="J222" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B223" t="s">
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E223" t="s">
         <v>153</v>
@@ -10431,18 +10431,18 @@
         <v>119</v>
       </c>
       <c r="J223" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E224" t="s">
         <v>153</v>
@@ -10457,18 +10457,18 @@
         <v>119</v>
       </c>
       <c r="J224" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B225" t="s">
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E225" t="s">
         <v>153</v>
@@ -10483,18 +10483,18 @@
         <v>119</v>
       </c>
       <c r="J225" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B226" t="s">
         <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E226" t="s">
         <v>153</v>
@@ -10509,18 +10509,18 @@
         <v>119</v>
       </c>
       <c r="J226" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B227" t="s">
         <v>106</v>
       </c>
       <c r="D227" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E227" t="s">
         <v>153</v>
@@ -10535,18 +10535,18 @@
         <v>119</v>
       </c>
       <c r="J227" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B228" t="s">
         <v>106</v>
       </c>
       <c r="D228" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E228" t="s">
         <v>153</v>
@@ -10561,18 +10561,18 @@
         <v>119</v>
       </c>
       <c r="J228" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B229" t="s">
         <v>106</v>
       </c>
       <c r="D229" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E229" t="s">
         <v>153</v>
@@ -10587,18 +10587,18 @@
         <v>119</v>
       </c>
       <c r="J229" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E230" t="s">
         <v>153</v>
@@ -10613,7 +10613,7 @@
         <v>119</v>
       </c>
       <c r="J230" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -11814,28 +11814,28 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B277" t="s">
         <v>602</v>
       </c>
       <c r="D277" t="s">
+        <v>868</v>
+      </c>
+      <c r="E277" t="s">
+        <v>153</v>
+      </c>
+      <c r="F277" t="s">
+        <v>141</v>
+      </c>
+      <c r="H277" t="s">
+        <v>119</v>
+      </c>
+      <c r="I277" t="s">
+        <v>119</v>
+      </c>
+      <c r="J277" t="s">
         <v>869</v>
-      </c>
-      <c r="E277" t="s">
-        <v>153</v>
-      </c>
-      <c r="F277" t="s">
-        <v>141</v>
-      </c>
-      <c r="H277" t="s">
-        <v>119</v>
-      </c>
-      <c r="I277" t="s">
-        <v>119</v>
-      </c>
-      <c r="J277" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -13136,7 +13136,7 @@
       <sortCondition ref="B1:B334"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J84:J89 J103 J146 J211 E2:E334 H2:I334 J16:J19">
+  <conditionalFormatting sqref="E2:E334 H2:I334 J16:J19 J84:J89 J103 J146 J211">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkim4\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95747AC8-956C-46FC-85F3-4170987305CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5FB5D-3D5E-47DD-8948-C310BBB7A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-4620" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="945">
   <si>
     <t>Input List</t>
   </si>
@@ -2863,6 +2863,18 @@
   </si>
   <si>
     <t>com_report_hvac_vrf_heating_design_cop_minus_22_f</t>
+  </si>
+  <si>
+    <t>Heat pump heating cycling ratio weighted by heating rate</t>
+  </si>
+  <si>
+    <t>com_report_hvac_heat_pump_heating_cycling_ratio</t>
+  </si>
+  <si>
+    <t>Heat pump cooling cycling ratio weighted by cooling rate</t>
+  </si>
+  <si>
+    <t>com_report_hvac_heat_pump_cooling_cycling_ratio</t>
   </si>
 </sst>
 </file>
@@ -3020,9 +3032,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3060,7 +3072,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3166,7 +3178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3308,7 +3320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3322,16 +3334,16 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3382,7 +3394,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -3410,7 +3422,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3452,7 +3464,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3480,7 +3492,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3511,7 +3523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3525,7 +3537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3570,7 +3582,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3598,7 +3610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3612,7 +3624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3626,7 +3638,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3643,7 +3655,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3674,7 +3686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3722,7 +3734,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3784,7 +3796,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3798,7 +3810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3815,7 +3827,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3829,7 +3841,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3860,7 +3872,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3905,7 +3917,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3919,7 +3931,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3947,7 +3959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3961,7 +3973,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3975,7 +3987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3989,7 +4001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -4020,7 +4032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4037,7 +4049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -4051,7 +4063,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4065,7 +4077,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -4079,7 +4091,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4096,7 +4108,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4124,7 +4136,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4138,7 +4150,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -4169,7 +4181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4183,7 +4195,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4211,7 +4223,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -4239,7 +4251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4281,7 +4293,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4295,7 +4307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4326,7 +4338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4354,7 +4366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4399,7 +4411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4475,7 +4487,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -4503,7 +4515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -4531,7 +4543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -4559,7 +4571,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4576,7 +4588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4590,7 +4602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4621,7 +4633,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4652,7 +4664,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -4677,28 +4689,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -4733,7 +4746,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>525</v>
       </c>
@@ -4759,7 +4772,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>526</v>
       </c>
@@ -4785,7 +4798,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>523</v>
       </c>
@@ -4811,7 +4824,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -4837,7 +4850,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>533</v>
       </c>
@@ -4863,7 +4876,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>453</v>
       </c>
@@ -4889,7 +4902,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -4915,7 +4928,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -4941,7 +4954,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>534</v>
       </c>
@@ -4967,7 +4980,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -4993,7 +5006,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -5016,7 +5029,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5045,7 +5058,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -5065,7 +5078,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -5085,7 +5098,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>936</v>
       </c>
@@ -5111,7 +5124,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>938</v>
       </c>
@@ -5137,7 +5150,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>939</v>
       </c>
@@ -5163,7 +5176,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>937</v>
       </c>
@@ -5189,7 +5202,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -5215,7 +5228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5267,7 +5280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>475</v>
       </c>
@@ -5293,7 +5306,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -5322,7 +5335,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>472</v>
       </c>
@@ -5348,7 +5361,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>479</v>
       </c>
@@ -5374,7 +5387,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -5400,7 +5413,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5426,7 +5439,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5452,7 +5465,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -5478,7 +5491,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5501,7 +5514,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -5524,7 +5537,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -5547,7 +5560,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -5570,7 +5583,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5596,7 +5609,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -5616,7 +5629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -5656,7 +5669,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -5676,7 +5689,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -5696,7 +5709,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -5716,7 +5729,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5736,7 +5749,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -5756,7 +5769,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -5776,7 +5789,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -5796,7 +5809,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>266</v>
       </c>
@@ -5822,7 +5835,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>268</v>
       </c>
@@ -5848,7 +5861,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>267</v>
       </c>
@@ -5874,7 +5887,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>230</v>
       </c>
@@ -5900,7 +5913,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>231</v>
       </c>
@@ -5926,7 +5939,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -5952,7 +5965,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -5978,7 +5991,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -6004,7 +6017,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>205</v>
       </c>
@@ -6031,7 +6044,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -6058,7 +6071,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>265</v>
       </c>
@@ -6084,7 +6097,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>777</v>
       </c>
@@ -6110,7 +6123,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>781</v>
       </c>
@@ -6136,7 +6149,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>776</v>
       </c>
@@ -6162,7 +6175,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>775</v>
       </c>
@@ -6188,7 +6201,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>388</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>393</v>
       </c>
@@ -6240,7 +6253,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -6266,7 +6279,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -6292,7 +6305,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>390</v>
       </c>
@@ -6318,7 +6331,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>391</v>
       </c>
@@ -6344,7 +6357,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>392</v>
       </c>
@@ -6370,7 +6383,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>729</v>
       </c>
@@ -6396,7 +6409,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>730</v>
       </c>
@@ -6422,7 +6435,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>733</v>
       </c>
@@ -6448,7 +6461,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>731</v>
       </c>
@@ -6474,7 +6487,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>732</v>
       </c>
@@ -6500,7 +6513,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>735</v>
       </c>
@@ -6526,7 +6539,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>734</v>
       </c>
@@ -6552,7 +6565,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>737</v>
       </c>
@@ -6578,7 +6591,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>738</v>
       </c>
@@ -6604,7 +6617,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>736</v>
       </c>
@@ -6630,7 +6643,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>741</v>
       </c>
@@ -6656,7 +6669,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>739</v>
       </c>
@@ -6682,7 +6695,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>740</v>
       </c>
@@ -6708,7 +6721,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>742</v>
       </c>
@@ -6734,7 +6747,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>743</v>
       </c>
@@ -6760,7 +6773,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>744</v>
       </c>
@@ -6786,7 +6799,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>916</v>
       </c>
@@ -6812,7 +6825,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>917</v>
       </c>
@@ -6838,7 +6851,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>919</v>
       </c>
@@ -6864,7 +6877,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>918</v>
       </c>
@@ -6890,7 +6903,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>920</v>
       </c>
@@ -6916,7 +6929,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>921</v>
       </c>
@@ -6942,7 +6955,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>746</v>
       </c>
@@ -6968,7 +6981,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>745</v>
       </c>
@@ -6994,7 +7007,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>752</v>
       </c>
@@ -7020,7 +7033,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>747</v>
       </c>
@@ -7046,7 +7059,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>795</v>
       </c>
@@ -7072,7 +7085,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>796</v>
       </c>
@@ -7098,7 +7111,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>797</v>
       </c>
@@ -7124,7 +7137,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>798</v>
       </c>
@@ -7150,7 +7163,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>748</v>
       </c>
@@ -7176,7 +7189,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>791</v>
       </c>
@@ -7202,7 +7215,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>792</v>
       </c>
@@ -7228,7 +7241,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>793</v>
       </c>
@@ -7254,7 +7267,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>794</v>
       </c>
@@ -7280,7 +7293,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>808</v>
       </c>
@@ -7306,7 +7319,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>274</v>
       </c>
@@ -7332,7 +7345,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>576</v>
       </c>
@@ -7358,7 +7371,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>552</v>
       </c>
@@ -7384,7 +7397,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>575</v>
       </c>
@@ -7410,7 +7423,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>574</v>
       </c>
@@ -7436,7 +7449,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>588</v>
       </c>
@@ -7462,7 +7475,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>586</v>
       </c>
@@ -7488,7 +7501,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>585</v>
       </c>
@@ -7514,7 +7527,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>587</v>
       </c>
@@ -7540,7 +7553,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>556</v>
       </c>
@@ -7566,7 +7579,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>77</v>
       </c>
@@ -7592,7 +7605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -7618,7 +7631,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>483</v>
       </c>
@@ -7644,7 +7657,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>281</v>
       </c>
@@ -7670,7 +7683,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>283</v>
       </c>
@@ -7696,7 +7709,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>282</v>
       </c>
@@ -7722,7 +7735,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>276</v>
       </c>
@@ -7748,7 +7761,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>278</v>
       </c>
@@ -7774,7 +7787,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>279</v>
       </c>
@@ -7800,7 +7813,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>280</v>
       </c>
@@ -7826,7 +7839,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>277</v>
       </c>
@@ -7852,7 +7865,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>309</v>
       </c>
@@ -7878,7 +7891,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>313</v>
       </c>
@@ -7904,7 +7917,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>312</v>
       </c>
@@ -7930,7 +7943,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>310</v>
       </c>
@@ -7956,7 +7969,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>311</v>
       </c>
@@ -7982,7 +7995,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>314</v>
       </c>
@@ -8008,7 +8021,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>288</v>
       </c>
@@ -8037,7 +8050,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>290</v>
       </c>
@@ -8066,7 +8079,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>291</v>
       </c>
@@ -8095,7 +8108,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>289</v>
       </c>
@@ -8124,7 +8137,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>402</v>
       </c>
@@ -8153,7 +8166,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>292</v>
       </c>
@@ -8179,7 +8192,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -8205,7 +8218,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>296</v>
       </c>
@@ -8231,7 +8244,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>293</v>
       </c>
@@ -8257,7 +8270,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>294</v>
       </c>
@@ -8283,7 +8296,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>592</v>
       </c>
@@ -8309,7 +8322,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>591</v>
       </c>
@@ -8335,7 +8348,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>590</v>
       </c>
@@ -8361,7 +8374,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>589</v>
       </c>
@@ -8387,7 +8400,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>247</v>
       </c>
@@ -8414,7 +8427,7 @@
       </c>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>106</v>
       </c>
@@ -8438,7 +8451,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>880</v>
       </c>
@@ -8465,7 +8478,7 @@
       </c>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>883</v>
       </c>
@@ -8492,7 +8505,7 @@
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>106</v>
       </c>
@@ -8516,7 +8529,7 @@
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>106</v>
       </c>
@@ -8540,7 +8553,7 @@
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>106</v>
       </c>
@@ -8564,7 +8577,7 @@
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>881</v>
       </c>
@@ -8591,7 +8604,7 @@
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>882</v>
       </c>
@@ -8618,7 +8631,7 @@
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>106</v>
       </c>
@@ -8642,7 +8655,7 @@
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>106</v>
       </c>
@@ -8666,7 +8679,7 @@
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>273</v>
       </c>
@@ -8692,7 +8705,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>316</v>
       </c>
@@ -8718,7 +8731,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>246</v>
       </c>
@@ -8744,7 +8757,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>441</v>
       </c>
@@ -8770,7 +8783,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>443</v>
       </c>
@@ -8796,7 +8809,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>439</v>
       </c>
@@ -8822,7 +8835,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>445</v>
       </c>
@@ -8848,7 +8861,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>442</v>
       </c>
@@ -8874,7 +8887,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>444</v>
       </c>
@@ -8900,7 +8913,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>440</v>
       </c>
@@ -8926,7 +8939,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>446</v>
       </c>
@@ -8952,7 +8965,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>437</v>
       </c>
@@ -8978,7 +8991,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>438</v>
       </c>
@@ -9004,7 +9017,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>505</v>
       </c>
@@ -9030,7 +9043,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>510</v>
       </c>
@@ -9056,7 +9069,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>275</v>
       </c>
@@ -9082,7 +9095,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>345</v>
       </c>
@@ -9108,7 +9121,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>275</v>
       </c>
@@ -9134,7 +9147,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>484</v>
       </c>
@@ -9160,7 +9173,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>353</v>
       </c>
@@ -9186,7 +9199,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>354</v>
       </c>
@@ -9212,7 +9225,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>317</v>
       </c>
@@ -9238,7 +9251,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>456</v>
       </c>
@@ -9264,7 +9277,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>362</v>
       </c>
@@ -9290,7 +9303,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>487</v>
       </c>
@@ -9316,7 +9329,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>404</v>
       </c>
@@ -9342,7 +9355,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -9368,7 +9381,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>405</v>
       </c>
@@ -9394,7 +9407,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -9420,7 +9433,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>403</v>
       </c>
@@ -9446,7 +9459,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>400</v>
       </c>
@@ -9472,7 +9485,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>401</v>
       </c>
@@ -9498,7 +9511,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>512</v>
       </c>
@@ -9524,7 +9537,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -9550,7 +9563,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>450</v>
       </c>
@@ -9576,7 +9589,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>451</v>
       </c>
@@ -9602,7 +9615,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>369</v>
       </c>
@@ -9628,7 +9641,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>370</v>
       </c>
@@ -9654,7 +9667,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>368</v>
       </c>
@@ -9680,7 +9693,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>499</v>
       </c>
@@ -9706,7 +9719,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>583</v>
       </c>
@@ -9732,7 +9745,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>584</v>
       </c>
@@ -9758,7 +9771,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>501</v>
       </c>
@@ -9784,7 +9797,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>502</v>
       </c>
@@ -9810,7 +9823,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -9836,7 +9849,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>906</v>
       </c>
@@ -9862,7 +9875,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>907</v>
       </c>
@@ -9888,7 +9901,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>285</v>
       </c>
@@ -9914,7 +9927,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>830</v>
       </c>
@@ -9940,7 +9953,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>832</v>
       </c>
@@ -9966,7 +9979,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>834</v>
       </c>
@@ -9992,7 +10005,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>836</v>
       </c>
@@ -10018,7 +10031,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>838</v>
       </c>
@@ -10044,7 +10057,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>840</v>
       </c>
@@ -10070,7 +10083,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>843</v>
       </c>
@@ -10096,7 +10109,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>848</v>
       </c>
@@ -10122,7 +10135,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>815</v>
       </c>
@@ -10148,7 +10161,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>816</v>
       </c>
@@ -10174,7 +10187,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>820</v>
       </c>
@@ -10200,7 +10213,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>817</v>
       </c>
@@ -10226,7 +10239,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>818</v>
       </c>
@@ -10252,7 +10265,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>819</v>
       </c>
@@ -10278,7 +10291,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>826</v>
       </c>
@@ -10304,7 +10317,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>827</v>
       </c>
@@ -10330,7 +10343,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>829</v>
       </c>
@@ -10356,7 +10369,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>828</v>
       </c>
@@ -10382,7 +10395,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>849</v>
       </c>
@@ -10408,7 +10421,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>901</v>
       </c>
@@ -10434,7 +10447,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>902</v>
       </c>
@@ -10460,7 +10473,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>903</v>
       </c>
@@ -10486,7 +10499,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>857</v>
       </c>
@@ -10512,7 +10525,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>858</v>
       </c>
@@ -10538,7 +10551,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>859</v>
       </c>
@@ -10564,7 +10577,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>860</v>
       </c>
@@ -10590,7 +10603,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>861</v>
       </c>
@@ -10616,7 +10629,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>341</v>
       </c>
@@ -10642,7 +10655,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>561</v>
       </c>
@@ -10668,7 +10681,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>562</v>
       </c>
@@ -10694,7 +10707,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>560</v>
       </c>
@@ -10720,7 +10733,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>468</v>
       </c>
@@ -10746,7 +10759,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -10772,7 +10785,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -10798,7 +10811,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>471</v>
       </c>
@@ -10824,7 +10837,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>619</v>
       </c>
@@ -10850,7 +10863,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>620</v>
       </c>
@@ -10876,7 +10889,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>623</v>
       </c>
@@ -10902,7 +10915,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>622</v>
       </c>
@@ -10928,7 +10941,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>621</v>
       </c>
@@ -10954,7 +10967,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>624</v>
       </c>
@@ -10980,7 +10993,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>625</v>
       </c>
@@ -11006,7 +11019,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>626</v>
       </c>
@@ -11032,7 +11045,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>627</v>
       </c>
@@ -11058,7 +11071,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -11084,7 +11097,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>629</v>
       </c>
@@ -11110,7 +11123,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>630</v>
       </c>
@@ -11136,7 +11149,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>631</v>
       </c>
@@ -11162,7 +11175,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>632</v>
       </c>
@@ -11188,7 +11201,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>633</v>
       </c>
@@ -11214,7 +11227,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>634</v>
       </c>
@@ -11240,7 +11253,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>635</v>
       </c>
@@ -11266,7 +11279,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>636</v>
       </c>
@@ -11292,7 +11305,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>637</v>
       </c>
@@ -11318,7 +11331,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>638</v>
       </c>
@@ -11344,7 +11357,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>639</v>
       </c>
@@ -11370,7 +11383,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>640</v>
       </c>
@@ -11396,7 +11409,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>641</v>
       </c>
@@ -11422,7 +11435,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>642</v>
       </c>
@@ -11448,7 +11461,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>643</v>
       </c>
@@ -11474,7 +11487,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>644</v>
       </c>
@@ -11500,7 +11513,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>645</v>
       </c>
@@ -11526,7 +11539,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>646</v>
       </c>
@@ -11552,7 +11565,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>647</v>
       </c>
@@ -11578,7 +11591,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>648</v>
       </c>
@@ -11604,7 +11617,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>649</v>
       </c>
@@ -11630,7 +11643,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>650</v>
       </c>
@@ -11656,7 +11669,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>651</v>
       </c>
@@ -11682,7 +11695,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>652</v>
       </c>
@@ -11708,7 +11721,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>654</v>
       </c>
@@ -11734,7 +11747,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>653</v>
       </c>
@@ -11760,7 +11773,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>655</v>
       </c>
@@ -11786,7 +11799,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>656</v>
       </c>
@@ -11812,7 +11825,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>867</v>
       </c>
@@ -11838,7 +11851,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>702</v>
       </c>
@@ -11864,7 +11877,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>703</v>
       </c>
@@ -11890,7 +11903,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>657</v>
       </c>
@@ -11916,7 +11929,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>658</v>
       </c>
@@ -11942,7 +11955,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>270</v>
       </c>
@@ -11968,7 +11981,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>271</v>
       </c>
@@ -11994,7 +12007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>272</v>
       </c>
@@ -12020,7 +12033,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>81</v>
       </c>
@@ -12044,7 +12057,7 @@
       </c>
       <c r="K285" s="3"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>40</v>
       </c>
@@ -12070,7 +12083,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>72</v>
       </c>
@@ -12093,7 +12106,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>39</v>
       </c>
@@ -12119,7 +12132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>69</v>
       </c>
@@ -12145,7 +12158,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>170</v>
       </c>
@@ -12168,7 +12181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>178</v>
       </c>
@@ -12188,7 +12201,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>187</v>
       </c>
@@ -12208,7 +12221,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>71</v>
       </c>
@@ -12228,7 +12241,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>70</v>
       </c>
@@ -12248,7 +12261,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>76</v>
       </c>
@@ -12268,7 +12281,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>75</v>
       </c>
@@ -12288,7 +12301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>74</v>
       </c>
@@ -12308,7 +12321,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>88</v>
       </c>
@@ -12328,7 +12341,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>89</v>
       </c>
@@ -12348,7 +12361,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>50</v>
       </c>
@@ -12368,7 +12381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>188</v>
       </c>
@@ -12388,7 +12401,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>177</v>
       </c>
@@ -12408,7 +12421,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>26</v>
       </c>
@@ -12428,7 +12441,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>95</v>
       </c>
@@ -12448,7 +12461,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>94</v>
       </c>
@@ -12468,7 +12481,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>97</v>
       </c>
@@ -12488,7 +12501,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>96</v>
       </c>
@@ -12508,7 +12521,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -12528,7 +12541,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>84</v>
       </c>
@@ -12548,7 +12561,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>83</v>
       </c>
@@ -12568,7 +12581,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>38</v>
       </c>
@@ -12594,7 +12607,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>183</v>
       </c>
@@ -12620,7 +12633,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>263</v>
       </c>
@@ -12646,7 +12659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -12672,7 +12685,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>260</v>
       </c>
@@ -12699,7 +12712,7 @@
       </c>
       <c r="K315" s="3"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>262</v>
       </c>
@@ -12725,7 +12738,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>261</v>
       </c>
@@ -12751,7 +12764,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>264</v>
       </c>
@@ -12777,7 +12790,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>115</v>
       </c>
@@ -12803,7 +12816,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>184</v>
       </c>
@@ -12826,7 +12839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>18</v>
       </c>
@@ -12849,7 +12862,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -12872,7 +12885,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>133</v>
       </c>
@@ -12892,7 +12905,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -12912,7 +12925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -12932,7 +12945,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -12952,7 +12965,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>20</v>
       </c>
@@ -12972,7 +12985,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>31</v>
       </c>
@@ -12992,7 +13005,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -13012,7 +13025,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>550</v>
       </c>
@@ -13038,7 +13051,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>165</v>
       </c>
@@ -13061,7 +13074,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>93</v>
       </c>
@@ -13084,7 +13097,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>91</v>
       </c>
@@ -13107,7 +13120,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>90</v>
       </c>
@@ -13128,6 +13141,28 @@
       </c>
       <c r="J334" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>941</v>
+      </c>
+      <c r="B335" t="s">
+        <v>106</v>
+      </c>
+      <c r="D335" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>943</v>
+      </c>
+      <c r="B336" t="s">
+        <v>106</v>
+      </c>
+      <c r="D336" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkim4\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5FB5D-3D5E-47DD-8948-C310BBB7A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB007D4-F293-42DB-BA5F-BF97C7D083BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2865,16 +2865,16 @@
     <t>com_report_hvac_vrf_heating_design_cop_minus_22_f</t>
   </si>
   <si>
-    <t>Heat pump heating cycling ratio weighted by heating rate</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_cycling_ratio</t>
-  </si>
-  <si>
-    <t>Heat pump cooling cycling ratio weighted by cooling rate</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_cycling_ratio</t>
+    <t>com_report_unitary_sys_cycling_ratio_cooling</t>
+  </si>
+  <si>
+    <t>com_report_unitary_sys_cycling_ratio_heating</t>
+  </si>
+  <si>
+    <t>Weighted average unitary system cycling ratio for heating</t>
+  </si>
+  <si>
+    <t>Weighted average unitary system cycling ratio for cooling</t>
   </si>
 </sst>
 </file>
@@ -4692,8 +4692,8 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B335" t="s">
         <v>106</v>
@@ -13156,13 +13156,13 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B336" t="s">
         <v>106</v>
       </c>
       <c r="D336" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95747AC8-956C-46FC-85F3-4170987305CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E82F8-75E4-4D3D-92A6-570946936AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-4620" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$K$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$K$336</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="945">
   <si>
     <t>Input List</t>
   </si>
@@ -2863,6 +2863,18 @@
   </si>
   <si>
     <t>com_report_hvac_vrf_heating_design_cop_minus_22_f</t>
+  </si>
+  <si>
+    <t>Number of model spaces</t>
+  </si>
+  <si>
+    <t>Number of model zones</t>
+  </si>
+  <si>
+    <t>number of Space objects, with multipliers</t>
+  </si>
+  <si>
+    <t>number of ThermalZone objects with multipliers</t>
   </si>
 </sst>
 </file>
@@ -3020,9 +3032,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3060,7 +3072,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3166,7 +3178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3308,7 +3320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4677,10 +4689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5087,14 +5099,11 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="B16" t="s">
         <v>253</v>
       </c>
-      <c r="D16" t="s">
-        <v>932</v>
-      </c>
       <c r="E16" t="s">
         <v>153</v>
       </c>
@@ -5113,13 +5122,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B17" t="s">
         <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E17" t="s">
         <v>153</v>
@@ -5134,19 +5143,16 @@
         <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B18" t="s">
         <v>253</v>
       </c>
-      <c r="D18" t="s">
-        <v>934</v>
-      </c>
       <c r="E18" t="s">
         <v>153</v>
       </c>
@@ -5160,18 +5166,18 @@
         <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B19" t="s">
         <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E19" t="s">
         <v>153</v>
@@ -5186,21 +5192,21 @@
         <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>939</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>934</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
         <v>141</v>
@@ -5212,21 +5218,21 @@
         <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>937</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>935</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
         <v>141</v>
@@ -5238,18 +5244,18 @@
         <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>252</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
         <v>119</v>
@@ -5264,18 +5270,18 @@
         <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>475</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>476</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
         <v>119</v>
@@ -5290,18 +5296,18 @@
         <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>477</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
         <v>119</v>
@@ -5316,21 +5322,18 @@
         <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K24" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B25" t="s">
         <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E25" t="s">
         <v>119</v>
@@ -5345,18 +5348,18 @@
         <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
         <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>478</v>
+        <v>216</v>
       </c>
       <c r="E26" t="s">
         <v>119</v>
@@ -5371,18 +5374,21 @@
         <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>480</v>
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>472</v>
       </c>
       <c r="B27" t="s">
         <v>252</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>473</v>
       </c>
       <c r="E27" t="s">
         <v>119</v>
@@ -5397,18 +5403,18 @@
         <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="B28" t="s">
         <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>478</v>
       </c>
       <c r="E28" t="s">
         <v>119</v>
@@ -5423,7 +5429,7 @@
         <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5434,7 +5440,7 @@
         <v>252</v>
       </c>
       <c r="D29" t="s">
-        <v>503</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
         <v>119</v>
@@ -5449,18 +5455,18 @@
         <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>504</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
         <v>119</v>
@@ -5475,41 +5481,44 @@
         <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>252</v>
       </c>
+      <c r="D31" t="s">
+        <v>503</v>
+      </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>119</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>191</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>252</v>
       </c>
-      <c r="C32" t="s">
-        <v>180</v>
+      <c r="D32" t="s">
+        <v>215</v>
       </c>
       <c r="E32" t="s">
         <v>119</v>
@@ -5518,93 +5527,96 @@
         <v>141</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="I32" t="s">
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>252</v>
       </c>
-      <c r="C33" t="s">
-        <v>259</v>
-      </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
         <v>141</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" t="s">
         <v>153</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>252</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
         <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
         <v>153</v>
       </c>
       <c r="J34" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
         <v>252</v>
       </c>
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
       <c r="E35" t="s">
         <v>119</v>
       </c>
       <c r="F35" t="s">
         <v>141</v>
       </c>
-      <c r="G35" t="s">
-        <v>168</v>
-      </c>
       <c r="H35" t="s">
         <v>153</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>169</v>
+      <c r="J35" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
         <v>252</v>
       </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>142</v>
@@ -5618,47 +5630,53 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>252</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" t="s">
-        <v>190</v>
+      <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>252</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
         <v>153</v>
       </c>
       <c r="J38" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>252</v>
@@ -5673,12 +5691,12 @@
         <v>153</v>
       </c>
       <c r="J39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>252</v>
@@ -5693,12 +5711,12 @@
         <v>153</v>
       </c>
       <c r="J40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>252</v>
@@ -5718,7 +5736,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>252</v>
@@ -5733,12 +5751,12 @@
         <v>153</v>
       </c>
       <c r="J42" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>252</v>
@@ -5753,12 +5771,12 @@
         <v>153</v>
       </c>
       <c r="J43" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>252</v>
@@ -5778,7 +5796,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
         <v>252</v>
@@ -5793,70 +5811,58 @@
         <v>153</v>
       </c>
       <c r="J45" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s">
         <v>141</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="J46" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
         <v>141</v>
       </c>
-      <c r="H47" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" t="s">
-        <v>119</v>
+      <c r="H47" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
         <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E48" t="s">
         <v>119</v>
@@ -5864,25 +5870,25 @@
       <c r="F48" t="s">
         <v>141</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I48" t="s">
         <v>119</v>
       </c>
       <c r="J48" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
         <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="E49" t="s">
         <v>119</v>
@@ -5897,18 +5903,18 @@
         <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s">
         <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="E50" t="s">
         <v>119</v>
@@ -5923,18 +5929,18 @@
         <v>119</v>
       </c>
       <c r="J50" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s">
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E51" t="s">
         <v>119</v>
@@ -5949,18 +5955,18 @@
         <v>119</v>
       </c>
       <c r="J51" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
         <v>119</v>
@@ -5975,18 +5981,18 @@
         <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
         <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E53" t="s">
         <v>119</v>
@@ -6001,18 +6007,18 @@
         <v>119</v>
       </c>
       <c r="J53" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
         <v>119</v>
@@ -6027,19 +6033,18 @@
         <v>119</v>
       </c>
       <c r="J54" t="s">
-        <v>203</v>
-      </c>
-      <c r="K54" s="3"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
         <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
         <v>119</v>
@@ -6054,19 +6059,18 @@
         <v>119</v>
       </c>
       <c r="J55" t="s">
-        <v>204</v>
-      </c>
-      <c r="K55" s="3"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
         <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
         <v>119</v>
@@ -6081,18 +6085,19 @@
         <v>119</v>
       </c>
       <c r="J56" t="s">
-        <v>154</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>777</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
         <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>771</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
         <v>119</v>
@@ -6107,24 +6112,25 @@
         <v>119</v>
       </c>
       <c r="J57" t="s">
-        <v>778</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>781</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
         <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>772</v>
+        <v>245</v>
       </c>
       <c r="E58" t="s">
         <v>119</v>
       </c>
       <c r="F58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
         <v>119</v>
@@ -6133,18 +6139,18 @@
         <v>119</v>
       </c>
       <c r="J58" t="s">
-        <v>782</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B59" t="s">
         <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E59" t="s">
         <v>119</v>
@@ -6159,24 +6165,24 @@
         <v>119</v>
       </c>
       <c r="J59" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B60" t="s">
         <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E60" t="s">
         <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H60" t="s">
         <v>119</v>
@@ -6185,18 +6191,18 @@
         <v>119</v>
       </c>
       <c r="J60" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>388</v>
+        <v>776</v>
       </c>
       <c r="B61" t="s">
         <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>374</v>
+        <v>773</v>
       </c>
       <c r="E61" t="s">
         <v>119</v>
@@ -6211,18 +6217,18 @@
         <v>119</v>
       </c>
       <c r="J61" t="s">
-        <v>381</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>393</v>
+        <v>775</v>
       </c>
       <c r="B62" t="s">
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>375</v>
+        <v>774</v>
       </c>
       <c r="E62" t="s">
         <v>119</v>
@@ -6237,18 +6243,18 @@
         <v>119</v>
       </c>
       <c r="J62" t="s">
-        <v>382</v>
+        <v>780</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s">
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E63" t="s">
         <v>119</v>
@@ -6256,25 +6262,25 @@
       <c r="F63" t="s">
         <v>141</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" t="s">
         <v>119</v>
       </c>
       <c r="I63" t="s">
         <v>119</v>
       </c>
       <c r="J63" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s">
         <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E64" t="s">
         <v>119</v>
@@ -6289,18 +6295,18 @@
         <v>119</v>
       </c>
       <c r="J64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s">
         <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E65" t="s">
         <v>119</v>
@@ -6308,25 +6314,25 @@
       <c r="F65" t="s">
         <v>141</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I65" t="s">
         <v>119</v>
       </c>
       <c r="J65" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B66" t="s">
         <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E66" t="s">
         <v>119</v>
@@ -6334,25 +6340,25 @@
       <c r="F66" t="s">
         <v>141</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>119</v>
       </c>
       <c r="I66" t="s">
         <v>119</v>
       </c>
       <c r="J66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s">
         <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E67" t="s">
         <v>119</v>
@@ -6367,47 +6373,47 @@
         <v>119</v>
       </c>
       <c r="J67" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>708</v>
+        <v>379</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
         <v>141</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I68" t="s">
         <v>119</v>
       </c>
       <c r="J68" t="s">
-        <v>758</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>709</v>
+        <v>380</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F69" t="s">
         <v>141</v>
@@ -6419,18 +6425,18 @@
         <v>119</v>
       </c>
       <c r="J69" t="s">
-        <v>759</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E70" t="s">
         <v>153</v>
@@ -6445,18 +6451,18 @@
         <v>119</v>
       </c>
       <c r="J70" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E71" t="s">
         <v>153</v>
@@ -6471,18 +6477,18 @@
         <v>119</v>
       </c>
       <c r="J71" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B72" t="s">
         <v>106</v>
       </c>
       <c r="D72" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E72" t="s">
         <v>153</v>
@@ -6497,18 +6503,18 @@
         <v>119</v>
       </c>
       <c r="J72" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B73" t="s">
         <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E73" t="s">
         <v>153</v>
@@ -6523,18 +6529,18 @@
         <v>119</v>
       </c>
       <c r="J73" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B74" t="s">
         <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E74" t="s">
         <v>153</v>
@@ -6549,18 +6555,18 @@
         <v>119</v>
       </c>
       <c r="J74" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E75" t="s">
         <v>153</v>
@@ -6575,18 +6581,18 @@
         <v>119</v>
       </c>
       <c r="J75" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B76" t="s">
         <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E76" t="s">
         <v>153</v>
@@ -6601,18 +6607,18 @@
         <v>119</v>
       </c>
       <c r="J76" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B77" t="s">
         <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E77" t="s">
         <v>153</v>
@@ -6627,18 +6633,18 @@
         <v>119</v>
       </c>
       <c r="J77" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B78" t="s">
         <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E78" t="s">
         <v>153</v>
@@ -6653,18 +6659,18 @@
         <v>119</v>
       </c>
       <c r="J78" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B79" t="s">
         <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E79" t="s">
         <v>153</v>
@@ -6679,18 +6685,18 @@
         <v>119</v>
       </c>
       <c r="J79" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B80" t="s">
         <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E80" t="s">
         <v>153</v>
@@ -6705,18 +6711,18 @@
         <v>119</v>
       </c>
       <c r="J80" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B81" t="s">
         <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E81" t="s">
         <v>153</v>
@@ -6731,18 +6737,18 @@
         <v>119</v>
       </c>
       <c r="J81" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B82" t="s">
         <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E82" t="s">
         <v>153</v>
@@ -6757,18 +6763,18 @@
         <v>119</v>
       </c>
       <c r="J82" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B83" t="s">
         <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E83" t="s">
         <v>153</v>
@@ -6783,18 +6789,18 @@
         <v>119</v>
       </c>
       <c r="J83" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>916</v>
+        <v>743</v>
       </c>
       <c r="B84" t="s">
         <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>910</v>
+        <v>722</v>
       </c>
       <c r="E84" t="s">
         <v>153</v>
@@ -6809,18 +6815,18 @@
         <v>119</v>
       </c>
       <c r="J84" t="s">
-        <v>922</v>
+        <v>756</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>917</v>
+        <v>744</v>
       </c>
       <c r="B85" t="s">
         <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>911</v>
+        <v>723</v>
       </c>
       <c r="E85" t="s">
         <v>153</v>
@@ -6835,18 +6841,18 @@
         <v>119</v>
       </c>
       <c r="J85" t="s">
-        <v>923</v>
+        <v>757</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B86" t="s">
         <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E86" t="s">
         <v>153</v>
@@ -6861,18 +6867,18 @@
         <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B87" t="s">
         <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -6887,18 +6893,18 @@
         <v>119</v>
       </c>
       <c r="J87" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B88" t="s">
         <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E88" t="s">
         <v>153</v>
@@ -6913,18 +6919,18 @@
         <v>119</v>
       </c>
       <c r="J88" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B89" t="s">
         <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E89" t="s">
         <v>153</v>
@@ -6939,21 +6945,21 @@
         <v>119</v>
       </c>
       <c r="J89" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>746</v>
+        <v>920</v>
       </c>
       <c r="B90" t="s">
         <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>724</v>
+        <v>914</v>
       </c>
       <c r="E90" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F90" t="s">
         <v>141</v>
@@ -6965,21 +6971,21 @@
         <v>119</v>
       </c>
       <c r="J90" t="s">
-        <v>750</v>
+        <v>926</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>745</v>
+        <v>921</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>725</v>
+        <v>915</v>
       </c>
       <c r="E91" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F91" t="s">
         <v>141</v>
@@ -6991,18 +6997,18 @@
         <v>119</v>
       </c>
       <c r="J91" t="s">
-        <v>749</v>
+        <v>927</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E92" t="s">
         <v>119</v>
@@ -7017,18 +7023,18 @@
         <v>119</v>
       </c>
       <c r="J92" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E93" t="s">
         <v>119</v>
@@ -7043,21 +7049,21 @@
         <v>119</v>
       </c>
       <c r="J93" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>795</v>
+        <v>752</v>
       </c>
       <c r="B94" t="s">
         <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>783</v>
+        <v>726</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F94" t="s">
         <v>141</v>
@@ -7069,21 +7075,21 @@
         <v>119</v>
       </c>
       <c r="J94" t="s">
-        <v>805</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>796</v>
+        <v>747</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
       </c>
       <c r="D95" t="s">
-        <v>784</v>
+        <v>727</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F95" t="s">
         <v>141</v>
@@ -7095,18 +7101,18 @@
         <v>119</v>
       </c>
       <c r="J95" t="s">
-        <v>800</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B96" t="s">
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7121,18 +7127,18 @@
         <v>119</v>
       </c>
       <c r="J96" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7147,21 +7153,21 @@
         <v>119</v>
       </c>
       <c r="J97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>748</v>
+        <v>797</v>
       </c>
       <c r="B98" t="s">
         <v>106</v>
       </c>
       <c r="D98" t="s">
-        <v>728</v>
+        <v>785</v>
       </c>
       <c r="E98" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
         <v>141</v>
@@ -7173,18 +7179,18 @@
         <v>119</v>
       </c>
       <c r="J98" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>940</v>
+        <v>786</v>
       </c>
       <c r="E99" t="s">
         <v>153</v>
@@ -7199,21 +7205,21 @@
         <v>119</v>
       </c>
       <c r="J99" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F100" t="s">
         <v>141</v>
@@ -7225,18 +7231,18 @@
         <v>119</v>
       </c>
       <c r="J100" t="s">
-        <v>802</v>
+        <v>754</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>788</v>
+        <v>940</v>
       </c>
       <c r="E101" t="s">
         <v>153</v>
@@ -7251,18 +7257,18 @@
         <v>119</v>
       </c>
       <c r="J101" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E102" t="s">
         <v>153</v>
@@ -7277,24 +7283,24 @@
         <v>119</v>
       </c>
       <c r="J102" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="B103" t="s">
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E103" t="s">
         <v>153</v>
       </c>
       <c r="F103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H103" t="s">
         <v>119</v>
@@ -7303,21 +7309,21 @@
         <v>119</v>
       </c>
       <c r="J103" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>274</v>
+        <v>794</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>307</v>
+        <v>789</v>
       </c>
       <c r="E104" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F104" t="s">
         <v>141</v>
@@ -7329,24 +7335,24 @@
         <v>119</v>
       </c>
       <c r="J104" t="s">
-        <v>229</v>
+        <v>804</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>576</v>
+        <v>808</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>569</v>
+        <v>790</v>
       </c>
       <c r="E105" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H105" t="s">
         <v>119</v>
@@ -7355,18 +7361,18 @@
         <v>119</v>
       </c>
       <c r="J105" t="s">
-        <v>578</v>
+        <v>807</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>552</v>
+        <v>274</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="E106" t="s">
         <v>119</v>
@@ -7381,18 +7387,18 @@
         <v>119</v>
       </c>
       <c r="J106" t="s">
-        <v>553</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E107" t="s">
         <v>119</v>
@@ -7407,18 +7413,18 @@
         <v>119</v>
       </c>
       <c r="J107" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>568</v>
+        <v>287</v>
       </c>
       <c r="E108" t="s">
         <v>119</v>
@@ -7433,21 +7439,21 @@
         <v>119</v>
       </c>
       <c r="J108" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B109" t="s">
         <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F109" t="s">
         <v>141</v>
@@ -7459,21 +7465,21 @@
         <v>119</v>
       </c>
       <c r="J109" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B110" t="s">
         <v>106</v>
       </c>
       <c r="D110" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E110" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F110" t="s">
         <v>141</v>
@@ -7485,18 +7491,18 @@
         <v>119</v>
       </c>
       <c r="J110" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B111" t="s">
         <v>106</v>
       </c>
       <c r="D111" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E111" t="s">
         <v>153</v>
@@ -7511,18 +7517,18 @@
         <v>119</v>
       </c>
       <c r="J111" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B112" t="s">
         <v>106</v>
       </c>
       <c r="D112" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E112" t="s">
         <v>153</v>
@@ -7537,21 +7543,21 @@
         <v>119</v>
       </c>
       <c r="J112" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="B113" t="s">
         <v>106</v>
       </c>
       <c r="D113" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="E113" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F113" t="s">
         <v>141</v>
@@ -7563,21 +7569,21 @@
         <v>119</v>
       </c>
       <c r="J113" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>587</v>
       </c>
       <c r="B114" t="s">
         <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>286</v>
+        <v>573</v>
       </c>
       <c r="E114" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F114" t="s">
         <v>141</v>
@@ -7589,18 +7595,18 @@
         <v>119</v>
       </c>
       <c r="J114" t="s">
-        <v>300</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>340</v>
+        <v>556</v>
       </c>
       <c r="B115" t="s">
         <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>342</v>
+        <v>555</v>
       </c>
       <c r="E115" t="s">
         <v>119</v>
@@ -7615,18 +7621,18 @@
         <v>119</v>
       </c>
       <c r="J115" t="s">
-        <v>303</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="B116" t="s">
         <v>106</v>
       </c>
       <c r="D116" t="s">
-        <v>481</v>
+        <v>286</v>
       </c>
       <c r="E116" t="s">
         <v>119</v>
@@ -7641,18 +7647,18 @@
         <v>119</v>
       </c>
       <c r="J116" t="s">
-        <v>482</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="B117" t="s">
         <v>106</v>
       </c>
       <c r="D117" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E117" t="s">
         <v>119</v>
@@ -7667,18 +7673,18 @@
         <v>119</v>
       </c>
       <c r="J117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="B118" t="s">
         <v>106</v>
       </c>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>481</v>
       </c>
       <c r="E118" t="s">
         <v>119</v>
@@ -7693,18 +7699,18 @@
         <v>119</v>
       </c>
       <c r="J118" t="s">
-        <v>304</v>
+        <v>482</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B119" t="s">
         <v>106</v>
       </c>
       <c r="D119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E119" t="s">
         <v>119</v>
@@ -7724,13 +7730,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
         <v>106</v>
       </c>
       <c r="D120" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="E120" t="s">
         <v>119</v>
@@ -7750,13 +7756,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
         <v>106</v>
       </c>
       <c r="D121" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E121" t="s">
         <v>119</v>
@@ -7776,13 +7782,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B122" t="s">
         <v>106</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E122" t="s">
         <v>119</v>
@@ -7802,13 +7808,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
         <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="E123" t="s">
         <v>119</v>
@@ -7828,13 +7834,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B124" t="s">
         <v>106</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E124" t="s">
         <v>119</v>
@@ -7854,13 +7860,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B125" t="s">
         <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="E125" t="s">
         <v>119</v>
@@ -7880,13 +7886,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B126" t="s">
         <v>106</v>
       </c>
       <c r="D126" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E126" t="s">
         <v>119</v>
@@ -7906,13 +7912,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B127" t="s">
         <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E127" t="s">
         <v>119</v>
@@ -7932,13 +7938,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B128" t="s">
         <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E128" t="s">
         <v>119</v>
@@ -7958,13 +7964,13 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B129" t="s">
         <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E129" t="s">
         <v>119</v>
@@ -7984,13 +7990,13 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B130" t="s">
         <v>106</v>
       </c>
       <c r="D130" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E130" t="s">
         <v>119</v>
@@ -8010,13 +8016,13 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B131" t="s">
         <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E131" t="s">
         <v>119</v>
@@ -8033,19 +8039,16 @@
       <c r="J131" t="s">
         <v>304</v>
       </c>
-      <c r="K131" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B132" t="s">
         <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E132" t="s">
         <v>119</v>
@@ -8062,19 +8065,16 @@
       <c r="J132" t="s">
         <v>304</v>
       </c>
-      <c r="K132" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B133" t="s">
         <v>106</v>
       </c>
       <c r="D133" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E133" t="s">
         <v>119</v>
@@ -8097,13 +8097,13 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
         <v>106</v>
       </c>
       <c r="D134" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E134" t="s">
         <v>119</v>
@@ -8126,13 +8126,13 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>402</v>
+        <v>291</v>
       </c>
       <c r="B135" t="s">
         <v>106</v>
       </c>
       <c r="D135" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E135" t="s">
         <v>119</v>
@@ -8155,13 +8155,13 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B136" t="s">
         <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E136" t="s">
         <v>119</v>
@@ -8178,16 +8178,19 @@
       <c r="J136" t="s">
         <v>304</v>
       </c>
+      <c r="K136" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>295</v>
+        <v>402</v>
       </c>
       <c r="B137" t="s">
         <v>106</v>
       </c>
       <c r="D137" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E137" t="s">
         <v>119</v>
@@ -8204,16 +8207,19 @@
       <c r="J137" t="s">
         <v>304</v>
       </c>
+      <c r="K137" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B138" t="s">
         <v>106</v>
       </c>
       <c r="D138" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="E138" t="s">
         <v>119</v>
@@ -8233,13 +8239,13 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E139" t="s">
         <v>119</v>
@@ -8259,13 +8265,13 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B140" t="s">
         <v>106</v>
       </c>
       <c r="D140" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="E140" t="s">
         <v>119</v>
@@ -8285,13 +8291,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>592</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s">
         <v>106</v>
       </c>
       <c r="D141" t="s">
-        <v>593</v>
+        <v>329</v>
       </c>
       <c r="E141" t="s">
         <v>119</v>
@@ -8306,18 +8312,18 @@
         <v>119</v>
       </c>
       <c r="J141" t="s">
-        <v>699</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>591</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s">
         <v>106</v>
       </c>
       <c r="D142" t="s">
-        <v>594</v>
+        <v>328</v>
       </c>
       <c r="E142" t="s">
         <v>119</v>
@@ -8337,13 +8343,13 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B143" t="s">
         <v>106</v>
       </c>
       <c r="D143" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E143" t="s">
         <v>119</v>
@@ -8358,18 +8364,18 @@
         <v>119</v>
       </c>
       <c r="J143" t="s">
-        <v>304</v>
+        <v>699</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B144" t="s">
         <v>106</v>
       </c>
       <c r="D144" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E144" t="s">
         <v>119</v>
@@ -8389,13 +8395,13 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>590</v>
       </c>
       <c r="B145" t="s">
         <v>106</v>
       </c>
       <c r="D145" t="s">
-        <v>308</v>
+        <v>595</v>
       </c>
       <c r="E145" t="s">
         <v>119</v>
@@ -8410,16 +8416,18 @@
         <v>119</v>
       </c>
       <c r="J145" t="s">
-        <v>249</v>
-      </c>
-      <c r="K145" s="3"/>
+        <v>304</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>589</v>
+      </c>
       <c r="B146" t="s">
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>870</v>
+        <v>596</v>
       </c>
       <c r="E146" t="s">
         <v>119</v>
@@ -8434,109 +8442,111 @@
         <v>119</v>
       </c>
       <c r="J146" t="s">
-        <v>889</v>
-      </c>
-      <c r="K146" s="3"/>
+        <v>304</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+      <c r="D147" t="s">
+        <v>308</v>
+      </c>
+      <c r="E147" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+      <c r="H147" t="s">
+        <v>119</v>
+      </c>
+      <c r="I147" t="s">
+        <v>119</v>
+      </c>
+      <c r="J147" t="s">
+        <v>249</v>
+      </c>
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" t="s">
+        <v>870</v>
+      </c>
+      <c r="E148" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148" t="s">
+        <v>119</v>
+      </c>
+      <c r="I148" t="s">
+        <v>119</v>
+      </c>
+      <c r="J148" t="s">
+        <v>889</v>
+      </c>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>880</v>
       </c>
-      <c r="B147" t="s">
-        <v>106</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="B149" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149" t="s">
         <v>871</v>
       </c>
-      <c r="E147" t="s">
-        <v>119</v>
-      </c>
-      <c r="F147" t="s">
-        <v>141</v>
-      </c>
-      <c r="H147" t="s">
-        <v>119</v>
-      </c>
-      <c r="I147" t="s">
-        <v>119</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="E149" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" t="s">
+        <v>141</v>
+      </c>
+      <c r="H149" t="s">
+        <v>119</v>
+      </c>
+      <c r="I149" t="s">
+        <v>119</v>
+      </c>
+      <c r="J149" t="s">
         <v>884</v>
       </c>
-      <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>883</v>
       </c>
-      <c r="B148" t="s">
-        <v>106</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="B150" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150" t="s">
         <v>872</v>
       </c>
-      <c r="E148" t="s">
-        <v>119</v>
-      </c>
-      <c r="F148" t="s">
-        <v>141</v>
-      </c>
-      <c r="H148" t="s">
-        <v>119</v>
-      </c>
-      <c r="I148" t="s">
-        <v>119</v>
-      </c>
-      <c r="J148" t="s">
+      <c r="E150" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" t="s">
+        <v>141</v>
+      </c>
+      <c r="H150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I150" t="s">
+        <v>119</v>
+      </c>
+      <c r="J150" t="s">
         <v>887</v>
-      </c>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" t="s">
-        <v>873</v>
-      </c>
-      <c r="E149" t="s">
-        <v>119</v>
-      </c>
-      <c r="F149" t="s">
-        <v>141</v>
-      </c>
-      <c r="H149" t="s">
-        <v>119</v>
-      </c>
-      <c r="I149" t="s">
-        <v>119</v>
-      </c>
-      <c r="J149" t="s">
-        <v>891</v>
-      </c>
-      <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>106</v>
-      </c>
-      <c r="D150" t="s">
-        <v>874</v>
-      </c>
-      <c r="E150" t="s">
-        <v>119</v>
-      </c>
-      <c r="F150" t="s">
-        <v>141</v>
-      </c>
-      <c r="H150" t="s">
-        <v>119</v>
-      </c>
-      <c r="I150" t="s">
-        <v>119</v>
-      </c>
-      <c r="J150" t="s">
-        <v>893</v>
       </c>
       <c r="K150" s="3"/>
     </row>
@@ -8545,188 +8555,184 @@
         <v>106</v>
       </c>
       <c r="D151" t="s">
+        <v>873</v>
+      </c>
+      <c r="E151" t="s">
+        <v>119</v>
+      </c>
+      <c r="F151" t="s">
+        <v>141</v>
+      </c>
+      <c r="H151" t="s">
+        <v>119</v>
+      </c>
+      <c r="I151" t="s">
+        <v>119</v>
+      </c>
+      <c r="J151" t="s">
+        <v>891</v>
+      </c>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" t="s">
+        <v>874</v>
+      </c>
+      <c r="E152" t="s">
+        <v>119</v>
+      </c>
+      <c r="F152" t="s">
+        <v>141</v>
+      </c>
+      <c r="H152" t="s">
+        <v>119</v>
+      </c>
+      <c r="I152" t="s">
+        <v>119</v>
+      </c>
+      <c r="J152" t="s">
+        <v>893</v>
+      </c>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>106</v>
+      </c>
+      <c r="D153" t="s">
         <v>875</v>
       </c>
-      <c r="E151" t="s">
-        <v>119</v>
-      </c>
-      <c r="F151" t="s">
-        <v>141</v>
-      </c>
-      <c r="H151" t="s">
-        <v>119</v>
-      </c>
-      <c r="I151" t="s">
-        <v>119</v>
-      </c>
-      <c r="J151" t="s">
+      <c r="E153" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" t="s">
+        <v>141</v>
+      </c>
+      <c r="H153" t="s">
+        <v>119</v>
+      </c>
+      <c r="I153" t="s">
+        <v>119</v>
+      </c>
+      <c r="J153" t="s">
         <v>890</v>
       </c>
-      <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>881</v>
       </c>
-      <c r="B152" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="B154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D154" t="s">
         <v>876</v>
       </c>
-      <c r="E152" t="s">
-        <v>119</v>
-      </c>
-      <c r="F152" t="s">
-        <v>141</v>
-      </c>
-      <c r="H152" t="s">
-        <v>119</v>
-      </c>
-      <c r="I152" t="s">
-        <v>119</v>
-      </c>
-      <c r="J152" t="s">
+      <c r="E154" t="s">
+        <v>119</v>
+      </c>
+      <c r="F154" t="s">
+        <v>141</v>
+      </c>
+      <c r="H154" t="s">
+        <v>119</v>
+      </c>
+      <c r="I154" t="s">
+        <v>119</v>
+      </c>
+      <c r="J154" t="s">
         <v>886</v>
       </c>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>882</v>
       </c>
-      <c r="B153" t="s">
-        <v>106</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="B155" t="s">
+        <v>106</v>
+      </c>
+      <c r="D155" t="s">
         <v>877</v>
       </c>
-      <c r="E153" t="s">
-        <v>119</v>
-      </c>
-      <c r="F153" t="s">
-        <v>141</v>
-      </c>
-      <c r="H153" t="s">
-        <v>119</v>
-      </c>
-      <c r="I153" t="s">
-        <v>119</v>
-      </c>
-      <c r="J153" t="s">
+      <c r="E155" t="s">
+        <v>119</v>
+      </c>
+      <c r="F155" t="s">
+        <v>141</v>
+      </c>
+      <c r="H155" t="s">
+        <v>119</v>
+      </c>
+      <c r="I155" t="s">
+        <v>119</v>
+      </c>
+      <c r="J155" t="s">
         <v>888</v>
       </c>
-      <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>106</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" t="s">
         <v>878</v>
       </c>
-      <c r="E154" t="s">
-        <v>119</v>
-      </c>
-      <c r="F154" t="s">
-        <v>141</v>
-      </c>
-      <c r="H154" t="s">
-        <v>119</v>
-      </c>
-      <c r="I154" t="s">
-        <v>119</v>
-      </c>
-      <c r="J154" t="s">
+      <c r="E156" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" t="s">
+        <v>141</v>
+      </c>
+      <c r="H156" t="s">
+        <v>119</v>
+      </c>
+      <c r="I156" t="s">
+        <v>119</v>
+      </c>
+      <c r="J156" t="s">
         <v>892</v>
       </c>
-      <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>106</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>106</v>
+      </c>
+      <c r="D157" t="s">
         <v>879</v>
       </c>
-      <c r="E155" t="s">
-        <v>119</v>
-      </c>
-      <c r="F155" t="s">
-        <v>141</v>
-      </c>
-      <c r="H155" t="s">
-        <v>119</v>
-      </c>
-      <c r="I155" t="s">
-        <v>119</v>
-      </c>
-      <c r="J155" t="s">
+      <c r="E157" t="s">
+        <v>119</v>
+      </c>
+      <c r="F157" t="s">
+        <v>141</v>
+      </c>
+      <c r="H157" t="s">
+        <v>119</v>
+      </c>
+      <c r="I157" t="s">
+        <v>119</v>
+      </c>
+      <c r="J157" t="s">
         <v>894</v>
       </c>
-      <c r="K155" s="3"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>273</v>
-      </c>
-      <c r="B156" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" t="s">
-        <v>415</v>
-      </c>
-      <c r="E156" t="s">
-        <v>119</v>
-      </c>
-      <c r="F156" t="s">
-        <v>141</v>
-      </c>
-      <c r="H156" t="s">
-        <v>119</v>
-      </c>
-      <c r="I156" t="s">
-        <v>119</v>
-      </c>
-      <c r="J156" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>316</v>
-      </c>
-      <c r="B157" t="s">
-        <v>106</v>
-      </c>
-      <c r="D157" t="s">
-        <v>320</v>
-      </c>
-      <c r="E157" t="s">
-        <v>119</v>
-      </c>
-      <c r="F157" t="s">
-        <v>141</v>
-      </c>
-      <c r="H157" t="s">
-        <v>119</v>
-      </c>
-      <c r="I157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J157" t="s">
-        <v>299</v>
-      </c>
+      <c r="K157" s="3"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B158" t="s">
         <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E158" t="s">
         <v>119</v>
@@ -8741,18 +8747,18 @@
         <v>119</v>
       </c>
       <c r="J158" t="s">
-        <v>885</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>441</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
         <v>106</v>
       </c>
       <c r="D159" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="E159" t="s">
         <v>119</v>
@@ -8767,18 +8773,18 @@
         <v>119</v>
       </c>
       <c r="J159" t="s">
-        <v>431</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>443</v>
+        <v>246</v>
       </c>
       <c r="B160" t="s">
         <v>106</v>
       </c>
       <c r="D160" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E160" t="s">
         <v>119</v>
@@ -8793,18 +8799,18 @@
         <v>119</v>
       </c>
       <c r="J160" t="s">
-        <v>433</v>
+        <v>885</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B161" t="s">
         <v>106</v>
       </c>
       <c r="D161" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E161" t="s">
         <v>119</v>
@@ -8819,18 +8825,18 @@
         <v>119</v>
       </c>
       <c r="J161" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B162" t="s">
         <v>106</v>
       </c>
       <c r="D162" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E162" t="s">
         <v>119</v>
@@ -8845,18 +8851,18 @@
         <v>119</v>
       </c>
       <c r="J162" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B163" t="s">
         <v>106</v>
       </c>
       <c r="D163" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E163" t="s">
         <v>119</v>
@@ -8871,18 +8877,18 @@
         <v>119</v>
       </c>
       <c r="J163" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B164" t="s">
         <v>106</v>
       </c>
       <c r="D164" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E164" t="s">
         <v>119</v>
@@ -8897,18 +8903,18 @@
         <v>119</v>
       </c>
       <c r="J164" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B165" t="s">
         <v>106</v>
       </c>
       <c r="D165" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E165" t="s">
         <v>119</v>
@@ -8923,18 +8929,18 @@
         <v>119</v>
       </c>
       <c r="J165" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B166" t="s">
         <v>106</v>
       </c>
       <c r="D166" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E166" t="s">
         <v>119</v>
@@ -8949,18 +8955,18 @@
         <v>119</v>
       </c>
       <c r="J166" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B167" t="s">
         <v>106</v>
       </c>
       <c r="D167" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E167" t="s">
         <v>119</v>
@@ -8975,18 +8981,18 @@
         <v>119</v>
       </c>
       <c r="J167" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B168" t="s">
         <v>106</v>
       </c>
       <c r="D168" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E168" t="s">
         <v>119</v>
@@ -9001,21 +9007,21 @@
         <v>119</v>
       </c>
       <c r="J168" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="B169" t="s">
         <v>106</v>
       </c>
       <c r="D169" t="s">
-        <v>506</v>
+        <v>417</v>
       </c>
       <c r="E169" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F169" t="s">
         <v>141</v>
@@ -9027,21 +9033,21 @@
         <v>119</v>
       </c>
       <c r="J169" t="s">
-        <v>508</v>
+        <v>427</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="B170" t="s">
         <v>106</v>
       </c>
       <c r="D170" t="s">
-        <v>507</v>
+        <v>418</v>
       </c>
       <c r="E170" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F170" t="s">
         <v>141</v>
@@ -9053,21 +9059,21 @@
         <v>119</v>
       </c>
       <c r="J170" t="s">
-        <v>509</v>
+        <v>428</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>275</v>
+        <v>505</v>
       </c>
       <c r="B171" t="s">
         <v>106</v>
       </c>
       <c r="D171" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="E171" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F171" t="s">
         <v>141</v>
@@ -9079,21 +9085,21 @@
         <v>119</v>
       </c>
       <c r="J171" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>345</v>
+        <v>510</v>
       </c>
       <c r="B172" t="s">
         <v>106</v>
       </c>
       <c r="D172" t="s">
-        <v>344</v>
+        <v>507</v>
       </c>
       <c r="E172" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F172" t="s">
         <v>141</v>
@@ -9105,7 +9111,7 @@
         <v>119</v>
       </c>
       <c r="J172" t="s">
-        <v>352</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -9116,7 +9122,7 @@
         <v>106</v>
       </c>
       <c r="D173" t="s">
-        <v>521</v>
+        <v>414</v>
       </c>
       <c r="E173" t="s">
         <v>119</v>
@@ -9131,18 +9137,18 @@
         <v>119</v>
       </c>
       <c r="J173" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>484</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
         <v>106</v>
       </c>
       <c r="D174" t="s">
-        <v>485</v>
+        <v>344</v>
       </c>
       <c r="E174" t="s">
         <v>119</v>
@@ -9157,18 +9163,18 @@
         <v>119</v>
       </c>
       <c r="J174" t="s">
-        <v>486</v>
+        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="B175" t="s">
         <v>106</v>
       </c>
       <c r="D175" t="s">
-        <v>358</v>
+        <v>521</v>
       </c>
       <c r="E175" t="s">
         <v>119</v>
@@ -9183,18 +9189,18 @@
         <v>119</v>
       </c>
       <c r="J175" t="s">
-        <v>355</v>
+        <v>522</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>484</v>
       </c>
       <c r="B176" t="s">
         <v>106</v>
       </c>
       <c r="D176" t="s">
-        <v>357</v>
+        <v>485</v>
       </c>
       <c r="E176" t="s">
         <v>119</v>
@@ -9209,18 +9215,18 @@
         <v>119</v>
       </c>
       <c r="J176" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B177" t="s">
         <v>106</v>
       </c>
       <c r="D177" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="E177" t="s">
         <v>119</v>
@@ -9235,18 +9241,18 @@
         <v>119</v>
       </c>
       <c r="J177" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
       <c r="B178" t="s">
         <v>106</v>
       </c>
       <c r="D178" t="s">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="E178" t="s">
         <v>119</v>
@@ -9261,18 +9267,18 @@
         <v>119</v>
       </c>
       <c r="J178" t="s">
-        <v>458</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="B179" t="s">
         <v>106</v>
       </c>
       <c r="D179" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="E179" t="s">
         <v>119</v>
@@ -9287,18 +9293,18 @@
         <v>119</v>
       </c>
       <c r="J179" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="B180" t="s">
         <v>106</v>
       </c>
       <c r="D180" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="E180" t="s">
         <v>119</v>
@@ -9313,18 +9319,18 @@
         <v>119</v>
       </c>
       <c r="J180" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s">
         <v>106</v>
       </c>
       <c r="D181" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E181" t="s">
         <v>119</v>
@@ -9339,18 +9345,18 @@
         <v>119</v>
       </c>
       <c r="J181" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="B182" t="s">
         <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="E182" t="s">
         <v>119</v>
@@ -9365,18 +9371,18 @@
         <v>119</v>
       </c>
       <c r="J182" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B183" t="s">
         <v>106</v>
       </c>
       <c r="D183" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E183" t="s">
         <v>119</v>
@@ -9391,18 +9397,18 @@
         <v>119</v>
       </c>
       <c r="J183" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
         <v>106</v>
       </c>
       <c r="D184" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E184" t="s">
         <v>119</v>
@@ -9417,18 +9423,18 @@
         <v>119</v>
       </c>
       <c r="J184" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B185" t="s">
         <v>106</v>
       </c>
       <c r="D185" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E185" t="s">
         <v>119</v>
@@ -9443,18 +9449,18 @@
         <v>119</v>
       </c>
       <c r="J185" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="B186" t="s">
         <v>106</v>
       </c>
       <c r="D186" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="E186" t="s">
         <v>119</v>
@@ -9469,18 +9475,18 @@
         <v>119</v>
       </c>
       <c r="J186" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B187" t="s">
         <v>106</v>
       </c>
       <c r="D187" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E187" t="s">
         <v>119</v>
@@ -9495,18 +9501,18 @@
         <v>119</v>
       </c>
       <c r="J187" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="B188" t="s">
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>513</v>
+        <v>395</v>
       </c>
       <c r="E188" t="s">
         <v>119</v>
@@ -9521,18 +9527,18 @@
         <v>119</v>
       </c>
       <c r="J188" t="s">
-        <v>516</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>511</v>
+        <v>401</v>
       </c>
       <c r="B189" t="s">
         <v>106</v>
       </c>
       <c r="D189" t="s">
-        <v>514</v>
+        <v>396</v>
       </c>
       <c r="E189" t="s">
         <v>119</v>
@@ -9547,18 +9553,18 @@
         <v>119</v>
       </c>
       <c r="J189" t="s">
-        <v>515</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="B190" t="s">
         <v>106</v>
       </c>
       <c r="D190" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="E190" t="s">
         <v>119</v>
@@ -9573,18 +9579,18 @@
         <v>119</v>
       </c>
       <c r="J190" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="B191" t="s">
         <v>106</v>
       </c>
       <c r="D191" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="E191" t="s">
         <v>119</v>
@@ -9599,18 +9605,18 @@
         <v>119</v>
       </c>
       <c r="J191" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="B192" t="s">
         <v>106</v>
       </c>
       <c r="D192" t="s">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="E192" t="s">
         <v>119</v>
@@ -9625,18 +9631,18 @@
         <v>119</v>
       </c>
       <c r="J192" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>370</v>
+        <v>451</v>
       </c>
       <c r="B193" t="s">
         <v>106</v>
       </c>
       <c r="D193" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="E193" t="s">
         <v>119</v>
@@ -9651,18 +9657,18 @@
         <v>119</v>
       </c>
       <c r="J193" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B194" t="s">
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E194" t="s">
         <v>119</v>
@@ -9677,21 +9683,21 @@
         <v>119</v>
       </c>
       <c r="J194" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>499</v>
+        <v>370</v>
       </c>
       <c r="B195" t="s">
         <v>106</v>
       </c>
       <c r="D195" t="s">
-        <v>517</v>
+        <v>367</v>
       </c>
       <c r="E195" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F195" t="s">
         <v>141</v>
@@ -9703,21 +9709,21 @@
         <v>119</v>
       </c>
       <c r="J195" t="s">
-        <v>494</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>583</v>
+        <v>368</v>
       </c>
       <c r="B196" t="s">
         <v>106</v>
       </c>
       <c r="D196" t="s">
-        <v>518</v>
+        <v>365</v>
       </c>
       <c r="E196" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F196" t="s">
         <v>141</v>
@@ -9729,18 +9735,18 @@
         <v>119</v>
       </c>
       <c r="J196" t="s">
-        <v>495</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>584</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s">
         <v>106</v>
       </c>
       <c r="D197" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="E197" t="s">
         <v>153</v>
@@ -9755,18 +9761,18 @@
         <v>119</v>
       </c>
       <c r="J197" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>501</v>
+        <v>583</v>
       </c>
       <c r="B198" t="s">
         <v>106</v>
       </c>
       <c r="D198" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="E198" t="s">
         <v>153</v>
@@ -9781,18 +9787,18 @@
         <v>119</v>
       </c>
       <c r="J198" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>502</v>
+        <v>584</v>
       </c>
       <c r="B199" t="s">
         <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E199" t="s">
         <v>153</v>
@@ -9807,18 +9813,18 @@
         <v>119</v>
       </c>
       <c r="J199" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B200" t="s">
         <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E200" t="s">
         <v>153</v>
@@ -9833,18 +9839,18 @@
         <v>119</v>
       </c>
       <c r="J200" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>906</v>
+        <v>502</v>
       </c>
       <c r="B201" t="s">
         <v>106</v>
       </c>
       <c r="D201" t="s">
-        <v>904</v>
+        <v>493</v>
       </c>
       <c r="E201" t="s">
         <v>153</v>
@@ -9859,18 +9865,18 @@
         <v>119</v>
       </c>
       <c r="J201" t="s">
-        <v>908</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>907</v>
+        <v>500</v>
       </c>
       <c r="B202" t="s">
         <v>106</v>
       </c>
       <c r="D202" t="s">
-        <v>905</v>
+        <v>491</v>
       </c>
       <c r="E202" t="s">
         <v>153</v>
@@ -9885,21 +9891,21 @@
         <v>119</v>
       </c>
       <c r="J202" t="s">
-        <v>909</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>285</v>
+        <v>906</v>
       </c>
       <c r="B203" t="s">
         <v>106</v>
       </c>
       <c r="D203" t="s">
-        <v>305</v>
+        <v>904</v>
       </c>
       <c r="E203" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F203" t="s">
         <v>141</v>
@@ -9911,21 +9917,21 @@
         <v>119</v>
       </c>
       <c r="J203" t="s">
-        <v>302</v>
+        <v>908</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>830</v>
+        <v>907</v>
       </c>
       <c r="B204" t="s">
         <v>106</v>
       </c>
       <c r="D204" t="s">
-        <v>831</v>
+        <v>905</v>
       </c>
       <c r="E204" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F204" t="s">
         <v>141</v>
@@ -9937,18 +9943,18 @@
         <v>119</v>
       </c>
       <c r="J204" t="s">
-        <v>597</v>
+        <v>909</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>832</v>
+        <v>285</v>
       </c>
       <c r="B205" t="s">
         <v>106</v>
       </c>
       <c r="D205" t="s">
-        <v>833</v>
+        <v>305</v>
       </c>
       <c r="E205" t="s">
         <v>119</v>
@@ -9963,18 +9969,18 @@
         <v>119</v>
       </c>
       <c r="J205" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B206" t="s">
         <v>106</v>
       </c>
       <c r="D206" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E206" t="s">
         <v>119</v>
@@ -9989,18 +9995,18 @@
         <v>119</v>
       </c>
       <c r="J206" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B207" t="s">
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E207" t="s">
         <v>119</v>
@@ -10015,21 +10021,21 @@
         <v>119</v>
       </c>
       <c r="J207" t="s">
-        <v>598</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B208" t="s">
         <v>106</v>
       </c>
       <c r="D208" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E208" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F208" t="s">
         <v>141</v>
@@ -10041,21 +10047,21 @@
         <v>119</v>
       </c>
       <c r="J208" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B209" t="s">
         <v>106</v>
       </c>
       <c r="D209" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E209" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F209" t="s">
         <v>141</v>
@@ -10067,18 +10073,18 @@
         <v>119</v>
       </c>
       <c r="J209" t="s">
-        <v>842</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B210" t="s">
         <v>106</v>
       </c>
       <c r="D210" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E210" t="s">
         <v>153</v>
@@ -10093,18 +10099,18 @@
         <v>119</v>
       </c>
       <c r="J210" t="s">
-        <v>845</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B211" t="s">
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E211" t="s">
         <v>153</v>
@@ -10119,21 +10125,21 @@
         <v>119</v>
       </c>
       <c r="J211" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="B212" t="s">
         <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="E212" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F212" t="s">
         <v>141</v>
@@ -10145,21 +10151,21 @@
         <v>119</v>
       </c>
       <c r="J212" t="s">
-        <v>597</v>
+        <v>845</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="B213" t="s">
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="E213" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F213" t="s">
         <v>141</v>
@@ -10171,18 +10177,18 @@
         <v>119</v>
       </c>
       <c r="J213" t="s">
-        <v>301</v>
+        <v>850</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B214" t="s">
         <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E214" t="s">
         <v>119</v>
@@ -10197,18 +10203,18 @@
         <v>119</v>
       </c>
       <c r="J214" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B215" t="s">
         <v>106</v>
       </c>
       <c r="D215" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E215" t="s">
         <v>119</v>
@@ -10223,21 +10229,21 @@
         <v>119</v>
       </c>
       <c r="J215" t="s">
-        <v>598</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B216" t="s">
         <v>106</v>
       </c>
       <c r="D216" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E216" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F216" t="s">
         <v>141</v>
@@ -10249,21 +10255,21 @@
         <v>119</v>
       </c>
       <c r="J216" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B217" t="s">
         <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="E217" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F217" t="s">
         <v>141</v>
@@ -10275,18 +10281,18 @@
         <v>119</v>
       </c>
       <c r="J217" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B218" t="s">
         <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="E218" t="s">
         <v>153</v>
@@ -10301,18 +10307,18 @@
         <v>119</v>
       </c>
       <c r="J218" t="s">
-        <v>825</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B219" t="s">
         <v>106</v>
       </c>
       <c r="D219" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="E219" t="s">
         <v>153</v>
@@ -10327,18 +10333,18 @@
         <v>119</v>
       </c>
       <c r="J219" t="s">
-        <v>304</v>
+        <v>600</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B220" t="s">
         <v>106</v>
       </c>
       <c r="D220" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E220" t="s">
         <v>153</v>
@@ -10353,18 +10359,18 @@
         <v>119</v>
       </c>
       <c r="J220" t="s">
-        <v>304</v>
+        <v>825</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
       </c>
       <c r="D221" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E221" t="s">
         <v>153</v>
@@ -10384,13 +10390,13 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="B222" t="s">
         <v>106</v>
       </c>
       <c r="D222" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="E222" t="s">
         <v>153</v>
@@ -10405,18 +10411,18 @@
         <v>119</v>
       </c>
       <c r="J222" t="s">
-        <v>851</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>901</v>
+        <v>828</v>
       </c>
       <c r="B223" t="s">
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>895</v>
+        <v>824</v>
       </c>
       <c r="E223" t="s">
         <v>153</v>
@@ -10431,18 +10437,18 @@
         <v>119</v>
       </c>
       <c r="J223" t="s">
-        <v>898</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>902</v>
+        <v>849</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>896</v>
+        <v>846</v>
       </c>
       <c r="E224" t="s">
         <v>153</v>
@@ -10457,18 +10463,18 @@
         <v>119</v>
       </c>
       <c r="J224" t="s">
-        <v>899</v>
+        <v>851</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B225" t="s">
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E225" t="s">
         <v>153</v>
@@ -10483,18 +10489,18 @@
         <v>119</v>
       </c>
       <c r="J225" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>857</v>
+        <v>902</v>
       </c>
       <c r="B226" t="s">
         <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>852</v>
+        <v>896</v>
       </c>
       <c r="E226" t="s">
         <v>153</v>
@@ -10509,18 +10515,18 @@
         <v>119</v>
       </c>
       <c r="J226" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>858</v>
+        <v>903</v>
       </c>
       <c r="B227" t="s">
         <v>106</v>
       </c>
       <c r="D227" t="s">
-        <v>853</v>
+        <v>897</v>
       </c>
       <c r="E227" t="s">
         <v>153</v>
@@ -10535,18 +10541,18 @@
         <v>119</v>
       </c>
       <c r="J227" t="s">
-        <v>863</v>
+        <v>900</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B228" t="s">
         <v>106</v>
       </c>
       <c r="D228" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E228" t="s">
         <v>153</v>
@@ -10561,18 +10567,18 @@
         <v>119</v>
       </c>
       <c r="J228" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B229" t="s">
         <v>106</v>
       </c>
       <c r="D229" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E229" t="s">
         <v>153</v>
@@ -10587,18 +10593,18 @@
         <v>119</v>
       </c>
       <c r="J229" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E230" t="s">
         <v>153</v>
@@ -10613,21 +10619,21 @@
         <v>119</v>
       </c>
       <c r="J230" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>341</v>
+        <v>860</v>
       </c>
       <c r="B231" t="s">
         <v>106</v>
       </c>
       <c r="D231" t="s">
-        <v>343</v>
+        <v>855</v>
       </c>
       <c r="E231" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F231" t="s">
         <v>141</v>
@@ -10639,21 +10645,21 @@
         <v>119</v>
       </c>
       <c r="J231" t="s">
-        <v>557</v>
+        <v>864</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>561</v>
+        <v>861</v>
       </c>
       <c r="B232" t="s">
         <v>106</v>
       </c>
       <c r="D232" t="s">
-        <v>559</v>
+        <v>856</v>
       </c>
       <c r="E232" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F232" t="s">
         <v>141</v>
@@ -10665,18 +10671,18 @@
         <v>119</v>
       </c>
       <c r="J232" t="s">
-        <v>563</v>
+        <v>866</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>562</v>
+        <v>341</v>
       </c>
       <c r="B233" t="s">
         <v>106</v>
       </c>
       <c r="D233" t="s">
-        <v>566</v>
+        <v>343</v>
       </c>
       <c r="E233" t="s">
         <v>119</v>
@@ -10691,21 +10697,21 @@
         <v>119</v>
       </c>
       <c r="J233" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B234" t="s">
         <v>106</v>
       </c>
       <c r="D234" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E234" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F234" t="s">
         <v>141</v>
@@ -10717,18 +10723,18 @@
         <v>119</v>
       </c>
       <c r="J234" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>468</v>
+        <v>562</v>
       </c>
       <c r="B235" t="s">
         <v>106</v>
       </c>
       <c r="D235" t="s">
-        <v>460</v>
+        <v>566</v>
       </c>
       <c r="E235" t="s">
         <v>119</v>
@@ -10743,21 +10749,21 @@
         <v>119</v>
       </c>
       <c r="J235" t="s">
-        <v>462</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>469</v>
+        <v>560</v>
       </c>
       <c r="B236" t="s">
         <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>461</v>
+        <v>558</v>
       </c>
       <c r="E236" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F236" t="s">
         <v>141</v>
@@ -10769,18 +10775,18 @@
         <v>119</v>
       </c>
       <c r="J236" t="s">
-        <v>463</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B237" t="s">
         <v>106</v>
       </c>
       <c r="D237" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E237" t="s">
         <v>119</v>
@@ -10795,18 +10801,18 @@
         <v>119</v>
       </c>
       <c r="J237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B238" t="s">
         <v>106</v>
       </c>
       <c r="D238" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E238" t="s">
         <v>119</v>
@@ -10821,21 +10827,21 @@
         <v>119</v>
       </c>
       <c r="J238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>619</v>
+        <v>470</v>
       </c>
       <c r="B239" t="s">
-        <v>602</v>
+        <v>106</v>
       </c>
       <c r="D239" t="s">
-        <v>659</v>
+        <v>466</v>
       </c>
       <c r="E239" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F239" t="s">
         <v>141</v>
@@ -10847,21 +10853,21 @@
         <v>119</v>
       </c>
       <c r="J239" t="s">
-        <v>603</v>
+        <v>464</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>620</v>
+        <v>471</v>
       </c>
       <c r="B240" t="s">
-        <v>602</v>
+        <v>106</v>
       </c>
       <c r="D240" t="s">
-        <v>691</v>
+        <v>467</v>
       </c>
       <c r="E240" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F240" t="s">
         <v>141</v>
@@ -10873,18 +10879,18 @@
         <v>119</v>
       </c>
       <c r="J240" t="s">
-        <v>304</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B241" t="s">
         <v>602</v>
       </c>
       <c r="D241" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="E241" t="s">
         <v>153</v>
@@ -10899,18 +10905,18 @@
         <v>119</v>
       </c>
       <c r="J241" t="s">
-        <v>304</v>
+        <v>603</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B242" t="s">
         <v>602</v>
       </c>
       <c r="D242" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E242" t="s">
         <v>153</v>
@@ -10930,13 +10936,13 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B243" t="s">
         <v>602</v>
       </c>
       <c r="D243" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E243" t="s">
         <v>153</v>
@@ -10956,13 +10962,13 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B244" t="s">
         <v>602</v>
       </c>
       <c r="D244" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="E244" t="s">
         <v>153</v>
@@ -10977,18 +10983,18 @@
         <v>119</v>
       </c>
       <c r="J244" t="s">
-        <v>604</v>
+        <v>304</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B245" t="s">
         <v>602</v>
       </c>
       <c r="D245" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="E245" t="s">
         <v>153</v>
@@ -11003,18 +11009,18 @@
         <v>119</v>
       </c>
       <c r="J245" t="s">
-        <v>605</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B246" t="s">
         <v>602</v>
       </c>
       <c r="D246" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E246" t="s">
         <v>153</v>
@@ -11029,18 +11035,18 @@
         <v>119</v>
       </c>
       <c r="J246" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B247" t="s">
         <v>602</v>
       </c>
       <c r="D247" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E247" t="s">
         <v>153</v>
@@ -11060,13 +11066,13 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B248" t="s">
         <v>602</v>
       </c>
       <c r="D248" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E248" t="s">
         <v>153</v>
@@ -11086,13 +11092,13 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B249" t="s">
         <v>602</v>
       </c>
       <c r="D249" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="E249" t="s">
         <v>153</v>
@@ -11107,18 +11113,18 @@
         <v>119</v>
       </c>
       <c r="J249" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B250" t="s">
         <v>602</v>
       </c>
       <c r="D250" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="E250" t="s">
         <v>153</v>
@@ -11133,18 +11139,18 @@
         <v>119</v>
       </c>
       <c r="J250" t="s">
-        <v>304</v>
+        <v>605</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B251" t="s">
         <v>602</v>
       </c>
       <c r="D251" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="E251" t="s">
         <v>153</v>
@@ -11159,18 +11165,18 @@
         <v>119</v>
       </c>
       <c r="J251" t="s">
-        <v>304</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B252" t="s">
         <v>602</v>
       </c>
       <c r="D252" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E252" t="s">
         <v>153</v>
@@ -11190,13 +11196,13 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B253" t="s">
         <v>602</v>
       </c>
       <c r="D253" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E253" t="s">
         <v>153</v>
@@ -11216,13 +11222,13 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B254" t="s">
         <v>602</v>
       </c>
       <c r="D254" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="E254" t="s">
         <v>153</v>
@@ -11237,18 +11243,18 @@
         <v>119</v>
       </c>
       <c r="J254" t="s">
-        <v>607</v>
+        <v>304</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B255" t="s">
         <v>602</v>
       </c>
       <c r="D255" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="E255" t="s">
         <v>153</v>
@@ -11263,18 +11269,18 @@
         <v>119</v>
       </c>
       <c r="J255" t="s">
-        <v>608</v>
+        <v>304</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B256" t="s">
         <v>602</v>
       </c>
       <c r="D256" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E256" t="s">
         <v>153</v>
@@ -11289,18 +11295,18 @@
         <v>119</v>
       </c>
       <c r="J256" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B257" t="s">
         <v>602</v>
       </c>
       <c r="D257" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E257" t="s">
         <v>153</v>
@@ -11320,13 +11326,13 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B258" t="s">
         <v>602</v>
       </c>
       <c r="D258" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E258" t="s">
         <v>153</v>
@@ -11346,13 +11352,13 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B259" t="s">
         <v>602</v>
       </c>
       <c r="D259" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="E259" t="s">
         <v>153</v>
@@ -11367,18 +11373,18 @@
         <v>119</v>
       </c>
       <c r="J259" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B260" t="s">
         <v>602</v>
       </c>
       <c r="D260" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="E260" t="s">
         <v>153</v>
@@ -11393,18 +11399,18 @@
         <v>119</v>
       </c>
       <c r="J260" t="s">
-        <v>304</v>
+        <v>608</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B261" t="s">
         <v>602</v>
       </c>
       <c r="D261" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E261" t="s">
         <v>153</v>
@@ -11419,18 +11425,18 @@
         <v>119</v>
       </c>
       <c r="J261" t="s">
-        <v>304</v>
+        <v>609</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B262" t="s">
         <v>602</v>
       </c>
       <c r="D262" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E262" t="s">
         <v>153</v>
@@ -11450,13 +11456,13 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B263" t="s">
         <v>602</v>
       </c>
       <c r="D263" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E263" t="s">
         <v>153</v>
@@ -11476,13 +11482,13 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B264" t="s">
         <v>602</v>
       </c>
       <c r="D264" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E264" t="s">
         <v>153</v>
@@ -11497,18 +11503,18 @@
         <v>119</v>
       </c>
       <c r="J264" t="s">
-        <v>610</v>
+        <v>304</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B265" t="s">
         <v>602</v>
       </c>
       <c r="D265" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E265" t="s">
         <v>153</v>
@@ -11528,13 +11534,13 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B266" t="s">
         <v>602</v>
       </c>
       <c r="D266" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E266" t="s">
         <v>153</v>
@@ -11549,18 +11555,18 @@
         <v>119</v>
       </c>
       <c r="J266" t="s">
-        <v>304</v>
+        <v>610</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B267" t="s">
         <v>602</v>
       </c>
       <c r="D267" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E267" t="s">
         <v>153</v>
@@ -11580,13 +11586,13 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B268" t="s">
         <v>602</v>
       </c>
       <c r="D268" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E268" t="s">
         <v>153</v>
@@ -11606,13 +11612,13 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B269" t="s">
         <v>602</v>
       </c>
       <c r="D269" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E269" t="s">
         <v>153</v>
@@ -11627,18 +11633,18 @@
         <v>119</v>
       </c>
       <c r="J269" t="s">
-        <v>611</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B270" t="s">
         <v>602</v>
       </c>
       <c r="D270" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E270" t="s">
         <v>153</v>
@@ -11653,18 +11659,18 @@
         <v>119</v>
       </c>
       <c r="J270" t="s">
-        <v>612</v>
+        <v>304</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B271" t="s">
         <v>602</v>
       </c>
       <c r="D271" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E271" t="s">
         <v>153</v>
@@ -11679,18 +11685,18 @@
         <v>119</v>
       </c>
       <c r="J271" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B272" t="s">
         <v>602</v>
       </c>
       <c r="D272" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E272" t="s">
         <v>153</v>
@@ -11705,18 +11711,18 @@
         <v>119</v>
       </c>
       <c r="J272" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B273" t="s">
         <v>602</v>
       </c>
       <c r="D273" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E273" t="s">
         <v>153</v>
@@ -11731,18 +11737,18 @@
         <v>119</v>
       </c>
       <c r="J273" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B274" t="s">
         <v>602</v>
       </c>
       <c r="D274" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E274" t="s">
         <v>153</v>
@@ -11757,18 +11763,18 @@
         <v>119</v>
       </c>
       <c r="J274" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B275" t="s">
         <v>602</v>
       </c>
       <c r="D275" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E275" t="s">
         <v>153</v>
@@ -11783,18 +11789,18 @@
         <v>119</v>
       </c>
       <c r="J275" t="s">
-        <v>706</v>
+        <v>615</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B276" t="s">
         <v>602</v>
       </c>
       <c r="D276" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E276" t="s">
         <v>153</v>
@@ -11809,18 +11815,18 @@
         <v>119</v>
       </c>
       <c r="J276" t="s">
-        <v>707</v>
+        <v>616</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>867</v>
+        <v>655</v>
       </c>
       <c r="B277" t="s">
         <v>602</v>
       </c>
       <c r="D277" t="s">
-        <v>868</v>
+        <v>688</v>
       </c>
       <c r="E277" t="s">
         <v>153</v>
@@ -11835,18 +11841,18 @@
         <v>119</v>
       </c>
       <c r="J277" t="s">
-        <v>869</v>
+        <v>706</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>702</v>
+        <v>656</v>
       </c>
       <c r="B278" t="s">
         <v>602</v>
       </c>
       <c r="D278" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E278" t="s">
         <v>153</v>
@@ -11861,18 +11867,18 @@
         <v>119</v>
       </c>
       <c r="J278" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>703</v>
+        <v>867</v>
       </c>
       <c r="B279" t="s">
         <v>602</v>
       </c>
       <c r="D279" t="s">
-        <v>701</v>
+        <v>868</v>
       </c>
       <c r="E279" t="s">
         <v>153</v>
@@ -11887,18 +11893,18 @@
         <v>119</v>
       </c>
       <c r="J279" t="s">
-        <v>705</v>
+        <v>869</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="B280" t="s">
         <v>602</v>
       </c>
       <c r="D280" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="E280" t="s">
         <v>153</v>
@@ -11913,18 +11919,18 @@
         <v>119</v>
       </c>
       <c r="J280" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="B281" t="s">
         <v>602</v>
       </c>
       <c r="D281" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="E281" t="s">
         <v>153</v>
@@ -11939,47 +11945,47 @@
         <v>119</v>
       </c>
       <c r="J281" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>270</v>
+        <v>657</v>
       </c>
       <c r="B282" t="s">
-        <v>106</v>
+        <v>602</v>
       </c>
       <c r="D282" t="s">
-        <v>350</v>
+        <v>681</v>
       </c>
       <c r="E282" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F282" t="s">
         <v>141</v>
       </c>
-      <c r="H282" s="2" t="s">
+      <c r="H282" t="s">
         <v>119</v>
       </c>
       <c r="I282" t="s">
         <v>119</v>
       </c>
       <c r="J282" t="s">
-        <v>155</v>
+        <v>617</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>271</v>
+        <v>658</v>
       </c>
       <c r="B283" t="s">
-        <v>106</v>
+        <v>602</v>
       </c>
       <c r="D283" t="s">
-        <v>349</v>
+        <v>690</v>
       </c>
       <c r="E283" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F283" t="s">
         <v>141</v>
@@ -11991,18 +11997,18 @@
         <v>119</v>
       </c>
       <c r="J283" t="s">
-        <v>173</v>
+        <v>618</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B284" t="s">
         <v>106</v>
       </c>
       <c r="D284" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E284" t="s">
         <v>119</v>
@@ -12010,25 +12016,28 @@
       <c r="F284" t="s">
         <v>141</v>
       </c>
-      <c r="H284" t="s">
+      <c r="H284" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I284" t="s">
         <v>119</v>
       </c>
       <c r="J284" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="B285" t="s">
         <v>106</v>
       </c>
+      <c r="D285" t="s">
+        <v>349</v>
+      </c>
       <c r="E285" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F285" t="s">
         <v>141</v>
@@ -12037,42 +12046,41 @@
         <v>119</v>
       </c>
       <c r="I285" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J285" t="s">
-        <v>175</v>
-      </c>
-      <c r="K285" s="3"/>
+        <v>173</v>
+      </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="B286" t="s">
         <v>106</v>
       </c>
+      <c r="D286" t="s">
+        <v>351</v>
+      </c>
       <c r="E286" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F286" t="s">
         <v>141</v>
       </c>
-      <c r="H286" s="2" t="s">
+      <c r="H286" t="s">
         <v>119</v>
       </c>
       <c r="I286" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J286" t="s">
-        <v>172</v>
-      </c>
-      <c r="K286" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B287" t="s">
         <v>106</v>
@@ -12083,19 +12091,20 @@
       <c r="F287" t="s">
         <v>141</v>
       </c>
-      <c r="H287" s="2" t="s">
+      <c r="H287" t="s">
         <v>119</v>
       </c>
       <c r="I287" t="s">
         <v>153</v>
       </c>
       <c r="J287" t="s">
-        <v>174</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K287" s="3"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B288" t="s">
         <v>106</v>
@@ -12113,15 +12122,15 @@
         <v>153</v>
       </c>
       <c r="J288" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K288" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B289" t="s">
         <v>106</v>
@@ -12139,38 +12148,38 @@
         <v>153</v>
       </c>
       <c r="J289" t="s">
-        <v>194</v>
-      </c>
-      <c r="K289" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="B290" t="s">
         <v>106</v>
       </c>
-      <c r="C290" t="s">
-        <v>179</v>
-      </c>
       <c r="E290" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F290" t="s">
-        <v>142</v>
-      </c>
-      <c r="H290" t="s">
+        <v>141</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I290" t="s">
         <v>153</v>
       </c>
       <c r="J290" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="K290" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="B291" t="s">
         <v>106</v>
@@ -12182,41 +12191,50 @@
         <v>141</v>
       </c>
       <c r="H291" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I291" t="s">
         <v>153</v>
       </c>
       <c r="J291" t="s">
-        <v>240</v>
+        <v>194</v>
+      </c>
+      <c r="K291" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B292" t="s">
         <v>106</v>
       </c>
+      <c r="C292" t="s">
+        <v>179</v>
+      </c>
       <c r="E292" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F292" t="s">
-        <v>141</v>
-      </c>
-      <c r="H292" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H292" t="s">
         <v>153</v>
       </c>
       <c r="J292" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="B293" t="s">
         <v>106</v>
       </c>
       <c r="E293" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F293" t="s">
         <v>141</v>
@@ -12225,12 +12243,12 @@
         <v>153</v>
       </c>
       <c r="J293" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B294" t="s">
         <v>106</v>
@@ -12250,7 +12268,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B295" t="s">
         <v>106</v>
@@ -12265,12 +12283,12 @@
         <v>153</v>
       </c>
       <c r="J295" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B296" t="s">
         <v>106</v>
@@ -12290,7 +12308,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B297" t="s">
         <v>106</v>
@@ -12305,12 +12323,12 @@
         <v>153</v>
       </c>
       <c r="J297" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B298" t="s">
         <v>106</v>
@@ -12325,12 +12343,12 @@
         <v>153</v>
       </c>
       <c r="J298" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B299" t="s">
         <v>106</v>
@@ -12345,12 +12363,12 @@
         <v>153</v>
       </c>
       <c r="J299" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B300" t="s">
         <v>106</v>
@@ -12370,7 +12388,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="B301" t="s">
         <v>106</v>
@@ -12385,12 +12403,12 @@
         <v>153</v>
       </c>
       <c r="J301" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="B302" t="s">
         <v>106</v>
@@ -12405,12 +12423,12 @@
         <v>153</v>
       </c>
       <c r="J302" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="B303" t="s">
         <v>106</v>
@@ -12425,12 +12443,12 @@
         <v>153</v>
       </c>
       <c r="J303" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B304" t="s">
         <v>106</v>
@@ -12445,12 +12463,12 @@
         <v>153</v>
       </c>
       <c r="J304" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B305" t="s">
         <v>106</v>
@@ -12465,12 +12483,12 @@
         <v>153</v>
       </c>
       <c r="J305" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B306" t="s">
         <v>106</v>
@@ -12490,7 +12508,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B307" t="s">
         <v>106</v>
@@ -12510,7 +12528,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B308" t="s">
         <v>106</v>
@@ -12525,12 +12543,12 @@
         <v>153</v>
       </c>
       <c r="J308" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B309" t="s">
         <v>106</v>
@@ -12545,12 +12563,12 @@
         <v>153</v>
       </c>
       <c r="J309" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B310" t="s">
         <v>106</v>
@@ -12565,70 +12583,58 @@
         <v>153</v>
       </c>
       <c r="J310" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B311" t="s">
-        <v>110</v>
-      </c>
-      <c r="D311" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="E311" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F311" t="s">
         <v>141</v>
       </c>
-      <c r="H311" t="s">
-        <v>119</v>
-      </c>
-      <c r="I311" t="s">
-        <v>119</v>
+      <c r="H311" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="J311" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="B312" t="s">
-        <v>110</v>
-      </c>
-      <c r="D312" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="E312" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F312" t="s">
         <v>141</v>
       </c>
-      <c r="H312" t="s">
-        <v>119</v>
-      </c>
-      <c r="I312" t="s">
-        <v>119</v>
+      <c r="H312" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="J312" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="B313" t="s">
         <v>110</v>
       </c>
       <c r="D313" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E313" t="s">
         <v>119</v>
@@ -12643,18 +12649,18 @@
         <v>119</v>
       </c>
       <c r="J313" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="B314" t="s">
         <v>110</v>
       </c>
       <c r="D314" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E314" t="s">
         <v>119</v>
@@ -12669,18 +12675,18 @@
         <v>119</v>
       </c>
       <c r="J314" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B315" t="s">
         <v>110</v>
       </c>
       <c r="D315" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E315" t="s">
         <v>119</v>
@@ -12695,19 +12701,18 @@
         <v>119</v>
       </c>
       <c r="J315" t="s">
-        <v>164</v>
-      </c>
-      <c r="K315" s="3"/>
+        <v>146</v>
+      </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="B316" t="s">
         <v>110</v>
       </c>
       <c r="D316" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E316" t="s">
         <v>119</v>
@@ -12727,13 +12732,13 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B317" t="s">
         <v>110</v>
       </c>
       <c r="D317" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E317" t="s">
         <v>119</v>
@@ -12748,18 +12753,19 @@
         <v>119</v>
       </c>
       <c r="J317" t="s">
-        <v>147</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K317" s="3"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B318" t="s">
         <v>110</v>
       </c>
       <c r="D318" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E318" t="s">
         <v>119</v>
@@ -12774,18 +12780,18 @@
         <v>119</v>
       </c>
       <c r="J318" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="B319" t="s">
         <v>110</v>
       </c>
       <c r="D319" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E319" t="s">
         <v>119</v>
@@ -12800,18 +12806,21 @@
         <v>119</v>
       </c>
       <c r="J319" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="B320" t="s">
         <v>110</v>
       </c>
+      <c r="D320" t="s">
+        <v>224</v>
+      </c>
       <c r="E320" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F320" t="s">
         <v>141</v>
@@ -12820,38 +12829,41 @@
         <v>119</v>
       </c>
       <c r="I320" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J320" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B321" t="s">
         <v>110</v>
       </c>
+      <c r="D321" t="s">
+        <v>225</v>
+      </c>
       <c r="E321" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F321" t="s">
         <v>141</v>
       </c>
-      <c r="H321" s="2" t="s">
+      <c r="H321" t="s">
         <v>119</v>
       </c>
       <c r="I321" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J321" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="B322" t="s">
         <v>110</v>
@@ -12862,79 +12874,85 @@
       <c r="F322" t="s">
         <v>141</v>
       </c>
-      <c r="H322" s="2" t="s">
+      <c r="H322" t="s">
         <v>119</v>
       </c>
       <c r="I322" t="s">
         <v>153</v>
       </c>
       <c r="J322" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B323" t="s">
         <v>110</v>
       </c>
       <c r="E323" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F323" t="s">
         <v>141</v>
       </c>
-      <c r="H323" t="s">
+      <c r="H323" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I323" t="s">
         <v>153</v>
       </c>
       <c r="J323" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B324" t="s">
         <v>110</v>
       </c>
       <c r="E324" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F324" t="s">
         <v>141</v>
       </c>
       <c r="H324" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I324" t="s">
         <v>153</v>
       </c>
       <c r="J324" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B325" t="s">
         <v>110</v>
       </c>
       <c r="E325" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F325" t="s">
         <v>141</v>
       </c>
-      <c r="H325" s="2" t="s">
+      <c r="H325" t="s">
         <v>153</v>
       </c>
       <c r="J325" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B326" t="s">
         <v>110</v>
@@ -12949,12 +12967,12 @@
         <v>153</v>
       </c>
       <c r="J326" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B327" t="s">
         <v>110</v>
@@ -12969,12 +12987,12 @@
         <v>153</v>
       </c>
       <c r="J327" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B328" t="s">
         <v>110</v>
@@ -12989,12 +13007,12 @@
         <v>153</v>
       </c>
       <c r="J328" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B329" t="s">
         <v>110</v>
@@ -13009,84 +13027,78 @@
         <v>153</v>
       </c>
       <c r="J329" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>550</v>
+        <v>31</v>
       </c>
       <c r="B330" t="s">
-        <v>602</v>
-      </c>
-      <c r="D330" t="s">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="E330" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F330" t="s">
         <v>141</v>
       </c>
-      <c r="H330" t="s">
-        <v>119</v>
-      </c>
-      <c r="I330" t="s">
-        <v>119</v>
+      <c r="H330" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="J330" t="s">
-        <v>551</v>
+        <v>193</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="B331" t="s">
-        <v>602</v>
+        <v>110</v>
       </c>
       <c r="E331" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F331" t="s">
         <v>141</v>
       </c>
-      <c r="H331" t="s">
-        <v>119</v>
-      </c>
-      <c r="I331" t="s">
+      <c r="H331" s="2" t="s">
         <v>153</v>
       </c>
       <c r="J331" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>93</v>
+        <v>550</v>
       </c>
       <c r="B332" t="s">
         <v>602</v>
       </c>
+      <c r="D332" t="s">
+        <v>549</v>
+      </c>
       <c r="E332" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F332" t="s">
         <v>141</v>
       </c>
-      <c r="H332" s="2" t="s">
+      <c r="H332" t="s">
         <v>119</v>
       </c>
       <c r="I332" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J332" t="s">
-        <v>236</v>
+        <v>551</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="B333" t="s">
         <v>602</v>
@@ -13104,39 +13116,85 @@
         <v>153</v>
       </c>
       <c r="J333" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B334" t="s">
         <v>602</v>
       </c>
-      <c r="C334" t="s">
+      <c r="E334" t="s">
+        <v>129</v>
+      </c>
+      <c r="F334" t="s">
+        <v>141</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I334" t="s">
+        <v>153</v>
+      </c>
+      <c r="J334" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>91</v>
+      </c>
+      <c r="B335" t="s">
+        <v>602</v>
+      </c>
+      <c r="E335" t="s">
+        <v>129</v>
+      </c>
+      <c r="F335" t="s">
+        <v>141</v>
+      </c>
+      <c r="H335" t="s">
+        <v>119</v>
+      </c>
+      <c r="I335" t="s">
+        <v>153</v>
+      </c>
+      <c r="J335" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>90</v>
+      </c>
+      <c r="B336" t="s">
+        <v>602</v>
+      </c>
+      <c r="C336" t="s">
         <v>208</v>
       </c>
-      <c r="E334" t="s">
-        <v>119</v>
-      </c>
-      <c r="F334" t="s">
-        <v>141</v>
-      </c>
-      <c r="H334" t="s">
-        <v>153</v>
-      </c>
-      <c r="J334" t="s">
+      <c r="E336" t="s">
+        <v>119</v>
+      </c>
+      <c r="F336" t="s">
+        <v>141</v>
+      </c>
+      <c r="H336" t="s">
+        <v>153</v>
+      </c>
+      <c r="J336" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K334" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K334">
-      <sortCondition ref="B1:B334"/>
+  <autoFilter ref="A1:K336" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K336">
+      <sortCondition ref="B1:B336"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E334 H2:I334 J16:J19 J84:J89 J103 J146 J211">
+  <conditionalFormatting sqref="J86:J91 J105 J148 J213 E2:E336 J16:J21 H2:I336">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
@@ -13144,7 +13202,7 @@
       <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E334">
+  <conditionalFormatting sqref="E2:E336">
     <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
@@ -13152,28 +13210,28 @@
       <formula>NOT(ISERROR(SEARCH("TBD",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J149:J151">
+  <conditionalFormatting sqref="J151:J153">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",J149)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",J151)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",J149)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",J151)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J154:J155">
+  <conditionalFormatting sqref="J156:J157">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",J154)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",J156)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",J154)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",J156)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J222:J230">
+  <conditionalFormatting sqref="J224:J232">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",J222)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",J224)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",J222)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",J224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkim4\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E82F8-75E4-4D3D-92A6-570946936AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87A69C-A65F-4FA4-B756-51B6FF8AFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="949">
   <si>
     <t>Input List</t>
   </si>
@@ -2875,6 +2875,18 @@
   </si>
   <si>
     <t>number of ThermalZone objects with multipliers</t>
+  </si>
+  <si>
+    <t>Weighted average unitary system cycling ratio for heating</t>
+  </si>
+  <si>
+    <t>com_report_unitary_sys_cycling_ratio_heating</t>
+  </si>
+  <si>
+    <t>Weighted average unitary system cycling ratio for cooling</t>
+  </si>
+  <si>
+    <t>com_report_unitary_sys_cycling_ratio_cooling</t>
   </si>
 </sst>
 </file>
@@ -3334,16 +3346,16 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3394,7 +3406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3436,7 +3448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3450,7 +3462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3464,7 +3476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3478,7 +3490,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3523,7 +3535,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3596,7 +3608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3610,7 +3622,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3638,7 +3650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3655,7 +3667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3686,7 +3698,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +3715,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3734,7 +3746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3751,7 +3763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -3765,7 +3777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3796,7 +3808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3841,7 +3853,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3886,7 +3898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3903,7 +3915,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3931,7 +3943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4049,7 +4061,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -4063,7 +4075,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -4091,7 +4103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4108,7 +4120,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4136,7 +4148,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4150,7 +4162,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4164,7 +4176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -4181,7 +4193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4195,7 +4207,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -4237,7 +4249,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4279,7 +4291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4321,7 +4333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4338,7 +4350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4352,7 +4364,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4411,7 +4423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4425,7 +4437,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4442,7 +4454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -4501,7 +4513,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -4515,7 +4527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4588,7 +4600,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4602,7 +4614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4616,7 +4628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4664,7 +4676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -4689,28 +4701,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K336"/>
+  <dimension ref="A1:K338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337:XFD338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -4745,7 +4757,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>525</v>
       </c>
@@ -4771,7 +4783,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>526</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>523</v>
       </c>
@@ -4823,7 +4835,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -4849,7 +4861,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>533</v>
       </c>
@@ -4875,7 +4887,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>453</v>
       </c>
@@ -4901,7 +4913,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -4927,7 +4939,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -4953,7 +4965,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>534</v>
       </c>
@@ -4979,7 +4991,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -5005,7 +5017,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -5028,7 +5040,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5057,7 +5069,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -5077,7 +5089,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -5097,7 +5109,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>942</v>
       </c>
@@ -5120,7 +5132,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>936</v>
       </c>
@@ -5146,7 +5158,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>941</v>
       </c>
@@ -5169,7 +5181,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>938</v>
       </c>
@@ -5195,7 +5207,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>939</v>
       </c>
@@ -5221,7 +5233,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>937</v>
       </c>
@@ -5247,7 +5259,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -5325,7 +5337,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -5351,7 +5363,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -5380,7 +5392,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>472</v>
       </c>
@@ -5406,7 +5418,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>479</v>
       </c>
@@ -5432,7 +5444,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5484,7 +5496,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -5536,7 +5548,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5559,7 +5571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -5582,7 +5594,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -5605,7 +5617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -5628,7 +5640,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5654,7 +5666,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -5674,7 +5686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -5714,7 +5726,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5734,7 +5746,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -5774,7 +5786,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5794,7 +5806,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -5814,7 +5826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -5834,7 +5846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5854,7 +5866,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>266</v>
       </c>
@@ -5880,7 +5892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>268</v>
       </c>
@@ -5906,7 +5918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5932,7 +5944,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -5958,7 +5970,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -5984,7 +5996,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -6010,7 +6022,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>232</v>
       </c>
@@ -6036,7 +6048,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -6062,7 +6074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -6089,7 +6101,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>206</v>
       </c>
@@ -6116,7 +6128,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>265</v>
       </c>
@@ -6142,7 +6154,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>777</v>
       </c>
@@ -6168,7 +6180,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>781</v>
       </c>
@@ -6194,7 +6206,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>776</v>
       </c>
@@ -6220,7 +6232,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>775</v>
       </c>
@@ -6246,7 +6258,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>388</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>393</v>
       </c>
@@ -6298,7 +6310,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>394</v>
       </c>
@@ -6324,7 +6336,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -6350,7 +6362,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>390</v>
       </c>
@@ -6376,7 +6388,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -6402,7 +6414,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -6428,7 +6440,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>729</v>
       </c>
@@ -6454,7 +6466,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>730</v>
       </c>
@@ -6480,7 +6492,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>733</v>
       </c>
@@ -6506,7 +6518,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>731</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>732</v>
       </c>
@@ -6558,7 +6570,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>735</v>
       </c>
@@ -6584,7 +6596,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>734</v>
       </c>
@@ -6610,7 +6622,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>737</v>
       </c>
@@ -6636,7 +6648,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>738</v>
       </c>
@@ -6662,7 +6674,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>736</v>
       </c>
@@ -6688,7 +6700,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>741</v>
       </c>
@@ -6714,7 +6726,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>739</v>
       </c>
@@ -6740,7 +6752,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>740</v>
       </c>
@@ -6766,7 +6778,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>742</v>
       </c>
@@ -6792,7 +6804,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>743</v>
       </c>
@@ -6818,7 +6830,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>744</v>
       </c>
@@ -6844,7 +6856,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>916</v>
       </c>
@@ -6870,7 +6882,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>917</v>
       </c>
@@ -6896,7 +6908,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>919</v>
       </c>
@@ -6922,7 +6934,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>918</v>
       </c>
@@ -6948,7 +6960,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>920</v>
       </c>
@@ -6974,7 +6986,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>921</v>
       </c>
@@ -7000,7 +7012,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>746</v>
       </c>
@@ -7026,7 +7038,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>745</v>
       </c>
@@ -7052,7 +7064,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>752</v>
       </c>
@@ -7078,7 +7090,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>747</v>
       </c>
@@ -7104,7 +7116,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>795</v>
       </c>
@@ -7130,7 +7142,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>796</v>
       </c>
@@ -7156,7 +7168,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>797</v>
       </c>
@@ -7182,7 +7194,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>798</v>
       </c>
@@ -7208,7 +7220,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>748</v>
       </c>
@@ -7234,7 +7246,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>791</v>
       </c>
@@ -7260,7 +7272,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>792</v>
       </c>
@@ -7286,7 +7298,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>793</v>
       </c>
@@ -7312,7 +7324,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>794</v>
       </c>
@@ -7338,7 +7350,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>808</v>
       </c>
@@ -7364,7 +7376,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -7390,7 +7402,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>576</v>
       </c>
@@ -7416,7 +7428,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>552</v>
       </c>
@@ -7442,7 +7454,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>575</v>
       </c>
@@ -7468,7 +7480,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>574</v>
       </c>
@@ -7494,7 +7506,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>588</v>
       </c>
@@ -7520,7 +7532,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>586</v>
       </c>
@@ -7546,7 +7558,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>585</v>
       </c>
@@ -7572,7 +7584,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>587</v>
       </c>
@@ -7598,7 +7610,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>556</v>
       </c>
@@ -7624,7 +7636,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -7650,7 +7662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>340</v>
       </c>
@@ -7676,7 +7688,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>483</v>
       </c>
@@ -7702,7 +7714,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>281</v>
       </c>
@@ -7728,7 +7740,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -7754,7 +7766,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>282</v>
       </c>
@@ -7780,7 +7792,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>276</v>
       </c>
@@ -7806,7 +7818,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>278</v>
       </c>
@@ -7832,7 +7844,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>280</v>
       </c>
@@ -7884,7 +7896,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>277</v>
       </c>
@@ -7910,7 +7922,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>309</v>
       </c>
@@ -7936,7 +7948,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>313</v>
       </c>
@@ -7962,7 +7974,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -7988,7 +8000,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>310</v>
       </c>
@@ -8014,7 +8026,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>311</v>
       </c>
@@ -8040,7 +8052,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>314</v>
       </c>
@@ -8066,7 +8078,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>288</v>
       </c>
@@ -8095,7 +8107,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -8124,7 +8136,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -8153,7 +8165,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>289</v>
       </c>
@@ -8182,7 +8194,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>402</v>
       </c>
@@ -8211,7 +8223,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -8237,7 +8249,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>295</v>
       </c>
@@ -8263,7 +8275,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -8289,7 +8301,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>293</v>
       </c>
@@ -8315,7 +8327,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -8341,7 +8353,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>592</v>
       </c>
@@ -8367,7 +8379,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>591</v>
       </c>
@@ -8393,7 +8405,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>590</v>
       </c>
@@ -8419,7 +8431,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>589</v>
       </c>
@@ -8445,7 +8457,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -8472,7 +8484,7 @@
       </c>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>106</v>
       </c>
@@ -8496,7 +8508,7 @@
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>880</v>
       </c>
@@ -8523,7 +8535,7 @@
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>883</v>
       </c>
@@ -8550,7 +8562,7 @@
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>106</v>
       </c>
@@ -8574,7 +8586,7 @@
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>106</v>
       </c>
@@ -8598,7 +8610,7 @@
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>106</v>
       </c>
@@ -8622,7 +8634,7 @@
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>881</v>
       </c>
@@ -8649,7 +8661,7 @@
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>882</v>
       </c>
@@ -8676,7 +8688,7 @@
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>106</v>
       </c>
@@ -8700,7 +8712,7 @@
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>106</v>
       </c>
@@ -8724,7 +8736,7 @@
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>273</v>
       </c>
@@ -8750,7 +8762,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -8776,7 +8788,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>246</v>
       </c>
@@ -8802,7 +8814,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>441</v>
       </c>
@@ -8828,7 +8840,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>443</v>
       </c>
@@ -8854,7 +8866,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -8880,7 +8892,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>445</v>
       </c>
@@ -8906,7 +8918,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -8932,7 +8944,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>444</v>
       </c>
@@ -8958,7 +8970,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>440</v>
       </c>
@@ -8984,7 +8996,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>446</v>
       </c>
@@ -9010,7 +9022,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>437</v>
       </c>
@@ -9036,7 +9048,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>438</v>
       </c>
@@ -9062,7 +9074,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>505</v>
       </c>
@@ -9088,7 +9100,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>510</v>
       </c>
@@ -9114,7 +9126,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>275</v>
       </c>
@@ -9140,7 +9152,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -9166,7 +9178,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>275</v>
       </c>
@@ -9192,7 +9204,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>484</v>
       </c>
@@ -9218,7 +9230,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -9244,7 +9256,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -9270,7 +9282,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>317</v>
       </c>
@@ -9296,7 +9308,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>456</v>
       </c>
@@ -9322,7 +9334,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>362</v>
       </c>
@@ -9348,7 +9360,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>487</v>
       </c>
@@ -9374,7 +9386,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>404</v>
       </c>
@@ -9400,7 +9412,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -9426,7 +9438,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>405</v>
       </c>
@@ -9452,7 +9464,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>364</v>
       </c>
@@ -9478,7 +9490,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>403</v>
       </c>
@@ -9504,7 +9516,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>400</v>
       </c>
@@ -9530,7 +9542,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>401</v>
       </c>
@@ -9556,7 +9568,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>512</v>
       </c>
@@ -9582,7 +9594,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -9608,7 +9620,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>450</v>
       </c>
@@ -9634,7 +9646,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>451</v>
       </c>
@@ -9660,7 +9672,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>369</v>
       </c>
@@ -9686,7 +9698,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>370</v>
       </c>
@@ -9712,7 +9724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>368</v>
       </c>
@@ -9738,7 +9750,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>499</v>
       </c>
@@ -9764,7 +9776,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>583</v>
       </c>
@@ -9790,7 +9802,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>584</v>
       </c>
@@ -9816,7 +9828,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>501</v>
       </c>
@@ -9842,7 +9854,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>502</v>
       </c>
@@ -9868,7 +9880,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>500</v>
       </c>
@@ -9894,7 +9906,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>906</v>
       </c>
@@ -9920,7 +9932,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>907</v>
       </c>
@@ -9946,7 +9958,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>285</v>
       </c>
@@ -9972,7 +9984,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>830</v>
       </c>
@@ -9998,7 +10010,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>832</v>
       </c>
@@ -10024,7 +10036,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>834</v>
       </c>
@@ -10050,7 +10062,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>836</v>
       </c>
@@ -10076,7 +10088,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>838</v>
       </c>
@@ -10102,7 +10114,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>840</v>
       </c>
@@ -10128,7 +10140,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>843</v>
       </c>
@@ -10154,7 +10166,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>848</v>
       </c>
@@ -10180,7 +10192,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>815</v>
       </c>
@@ -10206,7 +10218,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>816</v>
       </c>
@@ -10232,7 +10244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>820</v>
       </c>
@@ -10258,7 +10270,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>817</v>
       </c>
@@ -10284,7 +10296,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>818</v>
       </c>
@@ -10310,7 +10322,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>819</v>
       </c>
@@ -10336,7 +10348,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>826</v>
       </c>
@@ -10362,7 +10374,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>827</v>
       </c>
@@ -10388,7 +10400,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>829</v>
       </c>
@@ -10414,7 +10426,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>828</v>
       </c>
@@ -10440,7 +10452,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>849</v>
       </c>
@@ -10466,7 +10478,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>901</v>
       </c>
@@ -10492,7 +10504,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>902</v>
       </c>
@@ -10518,7 +10530,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>903</v>
       </c>
@@ -10544,7 +10556,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>857</v>
       </c>
@@ -10570,7 +10582,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>858</v>
       </c>
@@ -10596,7 +10608,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>859</v>
       </c>
@@ -10622,7 +10634,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>860</v>
       </c>
@@ -10648,7 +10660,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>861</v>
       </c>
@@ -10674,7 +10686,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>341</v>
       </c>
@@ -10700,7 +10712,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>561</v>
       </c>
@@ -10726,7 +10738,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>562</v>
       </c>
@@ -10752,7 +10764,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>560</v>
       </c>
@@ -10778,7 +10790,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>468</v>
       </c>
@@ -10804,7 +10816,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>469</v>
       </c>
@@ -10830,7 +10842,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>470</v>
       </c>
@@ -10856,7 +10868,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -10882,7 +10894,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>619</v>
       </c>
@@ -10908,7 +10920,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>620</v>
       </c>
@@ -10934,7 +10946,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>623</v>
       </c>
@@ -10960,7 +10972,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>622</v>
       </c>
@@ -10986,7 +10998,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>621</v>
       </c>
@@ -11012,7 +11024,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>624</v>
       </c>
@@ -11038,7 +11050,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>625</v>
       </c>
@@ -11064,7 +11076,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>626</v>
       </c>
@@ -11090,7 +11102,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>627</v>
       </c>
@@ -11116,7 +11128,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>628</v>
       </c>
@@ -11142,7 +11154,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>629</v>
       </c>
@@ -11168,7 +11180,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>630</v>
       </c>
@@ -11194,7 +11206,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>631</v>
       </c>
@@ -11220,7 +11232,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>632</v>
       </c>
@@ -11246,7 +11258,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>633</v>
       </c>
@@ -11272,7 +11284,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>634</v>
       </c>
@@ -11298,7 +11310,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>635</v>
       </c>
@@ -11324,7 +11336,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>636</v>
       </c>
@@ -11350,7 +11362,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>637</v>
       </c>
@@ -11376,7 +11388,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>638</v>
       </c>
@@ -11402,7 +11414,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>639</v>
       </c>
@@ -11428,7 +11440,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>640</v>
       </c>
@@ -11454,7 +11466,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>641</v>
       </c>
@@ -11480,7 +11492,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>642</v>
       </c>
@@ -11506,7 +11518,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>643</v>
       </c>
@@ -11532,7 +11544,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>644</v>
       </c>
@@ -11558,7 +11570,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>645</v>
       </c>
@@ -11584,7 +11596,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>646</v>
       </c>
@@ -11610,7 +11622,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>647</v>
       </c>
@@ -11636,7 +11648,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>648</v>
       </c>
@@ -11662,7 +11674,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>649</v>
       </c>
@@ -11688,7 +11700,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>650</v>
       </c>
@@ -11714,7 +11726,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>651</v>
       </c>
@@ -11740,7 +11752,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>652</v>
       </c>
@@ -11766,7 +11778,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>654</v>
       </c>
@@ -11792,7 +11804,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>653</v>
       </c>
@@ -11818,7 +11830,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>655</v>
       </c>
@@ -11844,7 +11856,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>656</v>
       </c>
@@ -11870,7 +11882,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>867</v>
       </c>
@@ -11896,7 +11908,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>702</v>
       </c>
@@ -11922,7 +11934,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>703</v>
       </c>
@@ -11948,7 +11960,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>657</v>
       </c>
@@ -11974,7 +11986,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>658</v>
       </c>
@@ -12000,7 +12012,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>270</v>
       </c>
@@ -12026,7 +12038,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>271</v>
       </c>
@@ -12052,7 +12064,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>272</v>
       </c>
@@ -12078,7 +12090,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>81</v>
       </c>
@@ -12102,7 +12114,7 @@
       </c>
       <c r="K287" s="3"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>40</v>
       </c>
@@ -12128,7 +12140,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>72</v>
       </c>
@@ -12151,7 +12163,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>39</v>
       </c>
@@ -12177,7 +12189,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>69</v>
       </c>
@@ -12203,7 +12215,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>170</v>
       </c>
@@ -12226,7 +12238,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>178</v>
       </c>
@@ -12246,7 +12258,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>187</v>
       </c>
@@ -12266,7 +12278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>71</v>
       </c>
@@ -12286,7 +12298,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>70</v>
       </c>
@@ -12306,7 +12318,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>76</v>
       </c>
@@ -12326,7 +12338,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>75</v>
       </c>
@@ -12346,7 +12358,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>74</v>
       </c>
@@ -12366,7 +12378,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>88</v>
       </c>
@@ -12386,7 +12398,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>89</v>
       </c>
@@ -12406,7 +12418,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>50</v>
       </c>
@@ -12426,7 +12438,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>188</v>
       </c>
@@ -12446,7 +12458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>177</v>
       </c>
@@ -12466,7 +12478,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>26</v>
       </c>
@@ -12486,7 +12498,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>95</v>
       </c>
@@ -12506,7 +12518,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>94</v>
       </c>
@@ -12526,7 +12538,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>97</v>
       </c>
@@ -12546,7 +12558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>96</v>
       </c>
@@ -12566,7 +12578,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -12586,7 +12598,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>84</v>
       </c>
@@ -12606,7 +12618,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>83</v>
       </c>
@@ -12626,7 +12638,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>38</v>
       </c>
@@ -12652,7 +12664,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>183</v>
       </c>
@@ -12678,7 +12690,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>263</v>
       </c>
@@ -12704,7 +12716,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -12730,7 +12742,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>260</v>
       </c>
@@ -12757,7 +12769,7 @@
       </c>
       <c r="K317" s="3"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>262</v>
       </c>
@@ -12783,7 +12795,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>261</v>
       </c>
@@ -12809,7 +12821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>264</v>
       </c>
@@ -12835,7 +12847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>115</v>
       </c>
@@ -12861,7 +12873,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>184</v>
       </c>
@@ -12884,7 +12896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>18</v>
       </c>
@@ -12907,7 +12919,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -12930,7 +12942,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>133</v>
       </c>
@@ -12950,7 +12962,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -12970,7 +12982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -12990,7 +13002,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -13010,7 +13022,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>20</v>
       </c>
@@ -13030,7 +13042,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>31</v>
       </c>
@@ -13050,7 +13062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>27</v>
       </c>
@@ -13070,7 +13082,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>550</v>
       </c>
@@ -13096,7 +13108,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>165</v>
       </c>
@@ -13119,7 +13131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>93</v>
       </c>
@@ -13142,7 +13154,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>91</v>
       </c>
@@ -13165,7 +13177,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>90</v>
       </c>
@@ -13186,6 +13198,28 @@
       </c>
       <c r="J336" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>945</v>
+      </c>
+      <c r="B337" t="s">
+        <v>106</v>
+      </c>
+      <c r="D337" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>947</v>
+      </c>
+      <c r="B338" t="s">
+        <v>106</v>
+      </c>
+      <c r="D338" t="s">
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -13194,7 +13228,7 @@
       <sortCondition ref="B1:B336"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J86:J91 J105 J148 J213 E2:E336 J16:J21 H2:I336">
+  <conditionalFormatting sqref="E2:E336 H2:I336 J16:J21 J86:J91 J105 J148 J213">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkim4\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87A69C-A65F-4FA4-B756-51B6FF8AFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3DA4A-23E1-48DA-A20C-E70AF45504F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="5415" yWindow="1620" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$K$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$K$337</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="952">
   <si>
     <t>Input List</t>
   </si>
@@ -2887,6 +2887,15 @@
   </si>
   <si>
     <t>com_report_unitary_sys_cycling_ratio_cooling</t>
+  </si>
+  <si>
+    <t>HVAC cooling tower water use</t>
+  </si>
+  <si>
+    <t>com_report_hvac_cooling_tower_water_use_m3</t>
+  </si>
+  <si>
+    <t>total water use from cooling towers includeing evaporation, drift, and blowdown</t>
   </si>
 </sst>
 </file>
@@ -3346,16 +3355,16 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3504,7 +3513,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3518,7 +3527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3535,7 +3544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3594,7 +3603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3608,7 +3617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3636,7 +3645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3681,7 +3690,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3698,7 +3707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3729,7 +3738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3746,7 +3755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3884,7 +3893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3929,7 +3938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3957,7 +3966,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4030,7 +4039,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -4044,7 +4053,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -4075,7 +4084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -4103,7 +4112,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4134,7 +4143,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4148,7 +4157,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4176,7 +4185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -4249,7 +4258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -4263,7 +4272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4305,7 +4314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4319,7 +4328,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4364,7 +4373,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4378,7 +4387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4395,7 +4404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4409,7 +4418,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -4471,7 +4480,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4499,7 +4508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -4513,7 +4522,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -4527,7 +4536,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -4541,7 +4550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4569,7 +4578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -4583,7 +4592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4600,7 +4609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4645,7 +4654,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4659,7 +4668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4676,7 +4685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -4701,28 +4710,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K338"/>
+  <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337:XFD338"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="70.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -4757,7 +4766,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>525</v>
       </c>
@@ -4783,7 +4792,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>526</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>523</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -4861,7 +4870,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>533</v>
       </c>
@@ -4887,7 +4896,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>453</v>
       </c>
@@ -4913,7 +4922,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -4939,7 +4948,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -4965,7 +4974,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>534</v>
       </c>
@@ -4991,7 +5000,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -5017,7 +5026,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -5040,7 +5049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>942</v>
       </c>
@@ -5132,7 +5141,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>936</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>941</v>
       </c>
@@ -5181,7 +5190,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>938</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>939</v>
       </c>
@@ -5233,7 +5242,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>937</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -5285,7 +5294,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -5337,7 +5346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -5392,7 +5401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>472</v>
       </c>
@@ -5418,7 +5427,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>479</v>
       </c>
@@ -5444,7 +5453,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5496,7 +5505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5522,7 +5531,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5571,7 +5580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -5617,7 +5626,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5666,7 +5675,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -5686,7 +5695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5706,7 +5715,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5746,7 +5755,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -5846,7 +5855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5866,7 +5875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>266</v>
       </c>
@@ -5892,7 +5901,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>268</v>
       </c>
@@ -5918,7 +5927,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5944,7 +5953,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -5970,7 +5979,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -5996,7 +6005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>232</v>
       </c>
@@ -6048,7 +6057,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -6101,7 +6110,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>206</v>
       </c>
@@ -6128,7 +6137,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>265</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>777</v>
       </c>
@@ -6180,7 +6189,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>781</v>
       </c>
@@ -6206,7 +6215,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>776</v>
       </c>
@@ -6232,7 +6241,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>775</v>
       </c>
@@ -6258,7 +6267,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>388</v>
       </c>
@@ -6284,7 +6293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>393</v>
       </c>
@@ -6310,7 +6319,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>394</v>
       </c>
@@ -6336,7 +6345,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -6362,7 +6371,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>390</v>
       </c>
@@ -6388,7 +6397,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -6414,7 +6423,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -6440,7 +6449,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>729</v>
       </c>
@@ -6466,7 +6475,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>730</v>
       </c>
@@ -6492,7 +6501,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>733</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>731</v>
       </c>
@@ -6544,7 +6553,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>732</v>
       </c>
@@ -6570,7 +6579,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>735</v>
       </c>
@@ -6596,7 +6605,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>734</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>737</v>
       </c>
@@ -6648,7 +6657,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>738</v>
       </c>
@@ -6674,7 +6683,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>736</v>
       </c>
@@ -6700,7 +6709,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>741</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>739</v>
       </c>
@@ -6752,7 +6761,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>740</v>
       </c>
@@ -6778,7 +6787,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>742</v>
       </c>
@@ -6804,7 +6813,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>743</v>
       </c>
@@ -6830,7 +6839,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>744</v>
       </c>
@@ -6856,7 +6865,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>916</v>
       </c>
@@ -6882,7 +6891,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>917</v>
       </c>
@@ -6908,7 +6917,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>919</v>
       </c>
@@ -6934,7 +6943,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>918</v>
       </c>
@@ -6960,7 +6969,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>920</v>
       </c>
@@ -6986,7 +6995,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>921</v>
       </c>
@@ -7012,7 +7021,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>746</v>
       </c>
@@ -7038,7 +7047,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>745</v>
       </c>
@@ -7064,7 +7073,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>752</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>747</v>
       </c>
@@ -7116,7 +7125,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>795</v>
       </c>
@@ -7142,7 +7151,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>796</v>
       </c>
@@ -7168,7 +7177,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>797</v>
       </c>
@@ -7194,7 +7203,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>798</v>
       </c>
@@ -7220,7 +7229,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>748</v>
       </c>
@@ -7246,7 +7255,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>791</v>
       </c>
@@ -7272,7 +7281,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>792</v>
       </c>
@@ -7298,7 +7307,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>793</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>794</v>
       </c>
@@ -7350,7 +7359,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>808</v>
       </c>
@@ -7376,7 +7385,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -7402,7 +7411,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>576</v>
       </c>
@@ -7428,7 +7437,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>552</v>
       </c>
@@ -7454,7 +7463,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>575</v>
       </c>
@@ -7480,7 +7489,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>574</v>
       </c>
@@ -7506,7 +7515,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>588</v>
       </c>
@@ -7532,7 +7541,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>586</v>
       </c>
@@ -7558,7 +7567,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>585</v>
       </c>
@@ -7584,7 +7593,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>587</v>
       </c>
@@ -7610,7 +7619,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>556</v>
       </c>
@@ -7636,7 +7645,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -7662,93 +7671,93 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>949</v>
+      </c>
+      <c r="B117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" t="s">
+        <v>950</v>
+      </c>
+      <c r="E117" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" t="s">
+        <v>141</v>
+      </c>
+      <c r="H117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I117" t="s">
+        <v>119</v>
+      </c>
+      <c r="J117" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>340</v>
       </c>
-      <c r="B117" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
+      <c r="D118" t="s">
         <v>342</v>
       </c>
-      <c r="E117" t="s">
-        <v>119</v>
-      </c>
-      <c r="F117" t="s">
-        <v>141</v>
-      </c>
-      <c r="H117" t="s">
-        <v>119</v>
-      </c>
-      <c r="I117" t="s">
-        <v>119</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="E118" t="s">
+        <v>119</v>
+      </c>
+      <c r="F118" t="s">
+        <v>141</v>
+      </c>
+      <c r="H118" t="s">
+        <v>119</v>
+      </c>
+      <c r="I118" t="s">
+        <v>119</v>
+      </c>
+      <c r="J118" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>483</v>
       </c>
-      <c r="B118" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="B119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" t="s">
         <v>481</v>
       </c>
-      <c r="E118" t="s">
-        <v>119</v>
-      </c>
-      <c r="F118" t="s">
-        <v>141</v>
-      </c>
-      <c r="H118" t="s">
-        <v>119</v>
-      </c>
-      <c r="I118" t="s">
-        <v>119</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="E119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F119" t="s">
+        <v>141</v>
+      </c>
+      <c r="H119" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" t="s">
+        <v>119</v>
+      </c>
+      <c r="J119" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>281</v>
       </c>
-      <c r="B119" t="s">
-        <v>106</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" t="s">
         <v>338</v>
-      </c>
-      <c r="E119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="H119" t="s">
-        <v>119</v>
-      </c>
-      <c r="I119" t="s">
-        <v>119</v>
-      </c>
-      <c r="J119" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" t="s">
-        <v>106</v>
-      </c>
-      <c r="D120" t="s">
-        <v>284</v>
       </c>
       <c r="E120" t="s">
         <v>119</v>
@@ -7766,15 +7775,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B121" t="s">
         <v>106</v>
       </c>
       <c r="D121" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="E121" t="s">
         <v>119</v>
@@ -7792,15 +7801,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B122" t="s">
         <v>106</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E122" t="s">
         <v>119</v>
@@ -7818,15 +7827,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B123" t="s">
         <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E123" t="s">
         <v>119</v>
@@ -7844,15 +7853,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B124" t="s">
         <v>106</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E124" t="s">
         <v>119</v>
@@ -7870,15 +7879,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B125" t="s">
         <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E125" t="s">
         <v>119</v>
@@ -7896,15 +7905,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B126" t="s">
         <v>106</v>
       </c>
       <c r="D126" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E126" t="s">
         <v>119</v>
@@ -7922,15 +7931,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="B127" t="s">
         <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="E127" t="s">
         <v>119</v>
@@ -7948,15 +7957,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B128" t="s">
         <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E128" t="s">
         <v>119</v>
@@ -7974,15 +7983,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B129" t="s">
         <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E129" t="s">
         <v>119</v>
@@ -8000,15 +8009,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B130" t="s">
         <v>106</v>
       </c>
       <c r="D130" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E130" t="s">
         <v>119</v>
@@ -8026,15 +8035,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B131" t="s">
         <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E131" t="s">
         <v>119</v>
@@ -8052,15 +8061,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B132" t="s">
         <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="E132" t="s">
         <v>119</v>
@@ -8078,15 +8087,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B133" t="s">
         <v>106</v>
       </c>
       <c r="D133" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E133" t="s">
         <v>119</v>
@@ -8103,19 +8112,16 @@
       <c r="J133" t="s">
         <v>304</v>
       </c>
-      <c r="K133" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B134" t="s">
         <v>106</v>
       </c>
       <c r="D134" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E134" t="s">
         <v>119</v>
@@ -8136,15 +8142,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B135" t="s">
         <v>106</v>
       </c>
       <c r="D135" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E135" t="s">
         <v>119</v>
@@ -8165,15 +8171,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B136" t="s">
         <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E136" t="s">
         <v>119</v>
@@ -8194,15 +8200,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="B137" t="s">
         <v>106</v>
       </c>
       <c r="D137" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E137" t="s">
         <v>119</v>
@@ -8223,15 +8229,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s">
         <v>106</v>
       </c>
       <c r="D138" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E138" t="s">
         <v>119</v>
@@ -8248,16 +8254,19 @@
       <c r="J138" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K138" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B139" t="s">
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E139" t="s">
         <v>119</v>
@@ -8275,15 +8284,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B140" t="s">
         <v>106</v>
       </c>
       <c r="D140" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E140" t="s">
         <v>119</v>
@@ -8301,15 +8310,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B141" t="s">
         <v>106</v>
       </c>
       <c r="D141" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="E141" t="s">
         <v>119</v>
@@ -8327,15 +8336,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B142" t="s">
         <v>106</v>
       </c>
       <c r="D142" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E142" t="s">
         <v>119</v>
@@ -8353,67 +8362,67 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143" t="s">
+        <v>328</v>
+      </c>
+      <c r="E143" t="s">
+        <v>119</v>
+      </c>
+      <c r="F143" t="s">
+        <v>141</v>
+      </c>
+      <c r="H143" t="s">
+        <v>119</v>
+      </c>
+      <c r="I143" t="s">
+        <v>119</v>
+      </c>
+      <c r="J143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>592</v>
       </c>
-      <c r="B143" t="s">
-        <v>106</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="B144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D144" t="s">
         <v>593</v>
       </c>
-      <c r="E143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F143" t="s">
-        <v>141</v>
-      </c>
-      <c r="H143" t="s">
-        <v>119</v>
-      </c>
-      <c r="I143" t="s">
-        <v>119</v>
-      </c>
-      <c r="J143" t="s">
+      <c r="E144" t="s">
+        <v>119</v>
+      </c>
+      <c r="F144" t="s">
+        <v>141</v>
+      </c>
+      <c r="H144" t="s">
+        <v>119</v>
+      </c>
+      <c r="I144" t="s">
+        <v>119</v>
+      </c>
+      <c r="J144" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>591</v>
       </c>
-      <c r="B144" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="B145" t="s">
+        <v>106</v>
+      </c>
+      <c r="D145" t="s">
         <v>594</v>
-      </c>
-      <c r="E144" t="s">
-        <v>119</v>
-      </c>
-      <c r="F144" t="s">
-        <v>141</v>
-      </c>
-      <c r="H144" t="s">
-        <v>119</v>
-      </c>
-      <c r="I144" t="s">
-        <v>119</v>
-      </c>
-      <c r="J144" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>590</v>
-      </c>
-      <c r="B145" t="s">
-        <v>106</v>
-      </c>
-      <c r="D145" t="s">
-        <v>595</v>
       </c>
       <c r="E145" t="s">
         <v>119</v>
@@ -8431,15 +8440,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B146" t="s">
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E146" t="s">
         <v>119</v>
@@ -8457,1958 +8466,1958 @@
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>589</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+      <c r="D147" t="s">
+        <v>596</v>
+      </c>
+      <c r="E147" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+      <c r="H147" t="s">
+        <v>119</v>
+      </c>
+      <c r="I147" t="s">
+        <v>119</v>
+      </c>
+      <c r="J147" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>247</v>
       </c>
-      <c r="B147" t="s">
-        <v>106</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" t="s">
         <v>308</v>
       </c>
-      <c r="E147" t="s">
-        <v>119</v>
-      </c>
-      <c r="F147" t="s">
-        <v>141</v>
-      </c>
-      <c r="H147" t="s">
-        <v>119</v>
-      </c>
-      <c r="I147" t="s">
-        <v>119</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="E148" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148" t="s">
+        <v>119</v>
+      </c>
+      <c r="I148" t="s">
+        <v>119</v>
+      </c>
+      <c r="J148" t="s">
         <v>249</v>
       </c>
-      <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>106</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149" t="s">
         <v>870</v>
       </c>
-      <c r="E148" t="s">
-        <v>119</v>
-      </c>
-      <c r="F148" t="s">
-        <v>141</v>
-      </c>
-      <c r="H148" t="s">
-        <v>119</v>
-      </c>
-      <c r="I148" t="s">
-        <v>119</v>
-      </c>
-      <c r="J148" t="s">
+      <c r="E149" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" t="s">
+        <v>141</v>
+      </c>
+      <c r="H149" t="s">
+        <v>119</v>
+      </c>
+      <c r="I149" t="s">
+        <v>119</v>
+      </c>
+      <c r="J149" t="s">
         <v>889</v>
       </c>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>880</v>
       </c>
-      <c r="B149" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="B150" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150" t="s">
         <v>871</v>
       </c>
-      <c r="E149" t="s">
-        <v>119</v>
-      </c>
-      <c r="F149" t="s">
-        <v>141</v>
-      </c>
-      <c r="H149" t="s">
-        <v>119</v>
-      </c>
-      <c r="I149" t="s">
-        <v>119</v>
-      </c>
-      <c r="J149" t="s">
+      <c r="E150" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" t="s">
+        <v>141</v>
+      </c>
+      <c r="H150" t="s">
+        <v>119</v>
+      </c>
+      <c r="I150" t="s">
+        <v>119</v>
+      </c>
+      <c r="J150" t="s">
         <v>884</v>
       </c>
-      <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>883</v>
       </c>
-      <c r="B150" t="s">
-        <v>106</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="B151" t="s">
+        <v>106</v>
+      </c>
+      <c r="D151" t="s">
         <v>872</v>
       </c>
-      <c r="E150" t="s">
-        <v>119</v>
-      </c>
-      <c r="F150" t="s">
-        <v>141</v>
-      </c>
-      <c r="H150" t="s">
-        <v>119</v>
-      </c>
-      <c r="I150" t="s">
-        <v>119</v>
-      </c>
-      <c r="J150" t="s">
+      <c r="E151" t="s">
+        <v>119</v>
+      </c>
+      <c r="F151" t="s">
+        <v>141</v>
+      </c>
+      <c r="H151" t="s">
+        <v>119</v>
+      </c>
+      <c r="I151" t="s">
+        <v>119</v>
+      </c>
+      <c r="J151" t="s">
         <v>887</v>
       </c>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" t="s">
         <v>873</v>
       </c>
-      <c r="E151" t="s">
-        <v>119</v>
-      </c>
-      <c r="F151" t="s">
-        <v>141</v>
-      </c>
-      <c r="H151" t="s">
-        <v>119</v>
-      </c>
-      <c r="I151" t="s">
-        <v>119</v>
-      </c>
-      <c r="J151" t="s">
+      <c r="E152" t="s">
+        <v>119</v>
+      </c>
+      <c r="F152" t="s">
+        <v>141</v>
+      </c>
+      <c r="H152" t="s">
+        <v>119</v>
+      </c>
+      <c r="I152" t="s">
+        <v>119</v>
+      </c>
+      <c r="J152" t="s">
         <v>891</v>
       </c>
-      <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>106</v>
+      </c>
+      <c r="D153" t="s">
         <v>874</v>
       </c>
-      <c r="E152" t="s">
-        <v>119</v>
-      </c>
-      <c r="F152" t="s">
-        <v>141</v>
-      </c>
-      <c r="H152" t="s">
-        <v>119</v>
-      </c>
-      <c r="I152" t="s">
-        <v>119</v>
-      </c>
-      <c r="J152" t="s">
+      <c r="E153" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" t="s">
+        <v>141</v>
+      </c>
+      <c r="H153" t="s">
+        <v>119</v>
+      </c>
+      <c r="I153" t="s">
+        <v>119</v>
+      </c>
+      <c r="J153" t="s">
         <v>893</v>
       </c>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
-        <v>106</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>106</v>
+      </c>
+      <c r="D154" t="s">
         <v>875</v>
       </c>
-      <c r="E153" t="s">
-        <v>119</v>
-      </c>
-      <c r="F153" t="s">
-        <v>141</v>
-      </c>
-      <c r="H153" t="s">
-        <v>119</v>
-      </c>
-      <c r="I153" t="s">
-        <v>119</v>
-      </c>
-      <c r="J153" t="s">
+      <c r="E154" t="s">
+        <v>119</v>
+      </c>
+      <c r="F154" t="s">
+        <v>141</v>
+      </c>
+      <c r="H154" t="s">
+        <v>119</v>
+      </c>
+      <c r="I154" t="s">
+        <v>119</v>
+      </c>
+      <c r="J154" t="s">
         <v>890</v>
       </c>
-      <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>881</v>
       </c>
-      <c r="B154" t="s">
-        <v>106</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="B155" t="s">
+        <v>106</v>
+      </c>
+      <c r="D155" t="s">
         <v>876</v>
       </c>
-      <c r="E154" t="s">
-        <v>119</v>
-      </c>
-      <c r="F154" t="s">
-        <v>141</v>
-      </c>
-      <c r="H154" t="s">
-        <v>119</v>
-      </c>
-      <c r="I154" t="s">
-        <v>119</v>
-      </c>
-      <c r="J154" t="s">
+      <c r="E155" t="s">
+        <v>119</v>
+      </c>
+      <c r="F155" t="s">
+        <v>141</v>
+      </c>
+      <c r="H155" t="s">
+        <v>119</v>
+      </c>
+      <c r="I155" t="s">
+        <v>119</v>
+      </c>
+      <c r="J155" t="s">
         <v>886</v>
       </c>
-      <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>882</v>
       </c>
-      <c r="B155" t="s">
-        <v>106</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="B156" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" t="s">
         <v>877</v>
       </c>
-      <c r="E155" t="s">
-        <v>119</v>
-      </c>
-      <c r="F155" t="s">
-        <v>141</v>
-      </c>
-      <c r="H155" t="s">
-        <v>119</v>
-      </c>
-      <c r="I155" t="s">
-        <v>119</v>
-      </c>
-      <c r="J155" t="s">
+      <c r="E156" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" t="s">
+        <v>141</v>
+      </c>
+      <c r="H156" t="s">
+        <v>119</v>
+      </c>
+      <c r="I156" t="s">
+        <v>119</v>
+      </c>
+      <c r="J156" t="s">
         <v>888</v>
       </c>
-      <c r="K155" s="3"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>106</v>
+      </c>
+      <c r="D157" t="s">
         <v>878</v>
       </c>
-      <c r="E156" t="s">
-        <v>119</v>
-      </c>
-      <c r="F156" t="s">
-        <v>141</v>
-      </c>
-      <c r="H156" t="s">
-        <v>119</v>
-      </c>
-      <c r="I156" t="s">
-        <v>119</v>
-      </c>
-      <c r="J156" t="s">
+      <c r="E157" t="s">
+        <v>119</v>
+      </c>
+      <c r="F157" t="s">
+        <v>141</v>
+      </c>
+      <c r="H157" t="s">
+        <v>119</v>
+      </c>
+      <c r="I157" t="s">
+        <v>119</v>
+      </c>
+      <c r="J157" t="s">
         <v>892</v>
       </c>
-      <c r="K156" s="3"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B157" t="s">
-        <v>106</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" t="s">
         <v>879</v>
       </c>
-      <c r="E157" t="s">
-        <v>119</v>
-      </c>
-      <c r="F157" t="s">
-        <v>141</v>
-      </c>
-      <c r="H157" t="s">
-        <v>119</v>
-      </c>
-      <c r="I157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J157" t="s">
+      <c r="E158" t="s">
+        <v>119</v>
+      </c>
+      <c r="F158" t="s">
+        <v>141</v>
+      </c>
+      <c r="H158" t="s">
+        <v>119</v>
+      </c>
+      <c r="I158" t="s">
+        <v>119</v>
+      </c>
+      <c r="J158" t="s">
         <v>894</v>
       </c>
-      <c r="K157" s="3"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>273</v>
       </c>
-      <c r="B158" t="s">
-        <v>106</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="B159" t="s">
+        <v>106</v>
+      </c>
+      <c r="D159" t="s">
         <v>415</v>
       </c>
-      <c r="E158" t="s">
-        <v>119</v>
-      </c>
-      <c r="F158" t="s">
-        <v>141</v>
-      </c>
-      <c r="H158" t="s">
-        <v>119</v>
-      </c>
-      <c r="I158" t="s">
-        <v>119</v>
-      </c>
-      <c r="J158" t="s">
+      <c r="E159" t="s">
+        <v>119</v>
+      </c>
+      <c r="F159" t="s">
+        <v>141</v>
+      </c>
+      <c r="H159" t="s">
+        <v>119</v>
+      </c>
+      <c r="I159" t="s">
+        <v>119</v>
+      </c>
+      <c r="J159" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>316</v>
       </c>
-      <c r="B159" t="s">
-        <v>106</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="B160" t="s">
+        <v>106</v>
+      </c>
+      <c r="D160" t="s">
         <v>320</v>
       </c>
-      <c r="E159" t="s">
-        <v>119</v>
-      </c>
-      <c r="F159" t="s">
-        <v>141</v>
-      </c>
-      <c r="H159" t="s">
-        <v>119</v>
-      </c>
-      <c r="I159" t="s">
-        <v>119</v>
-      </c>
-      <c r="J159" t="s">
+      <c r="E160" t="s">
+        <v>119</v>
+      </c>
+      <c r="F160" t="s">
+        <v>141</v>
+      </c>
+      <c r="H160" t="s">
+        <v>119</v>
+      </c>
+      <c r="I160" t="s">
+        <v>119</v>
+      </c>
+      <c r="J160" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>246</v>
       </c>
-      <c r="B160" t="s">
-        <v>106</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="B161" t="s">
+        <v>106</v>
+      </c>
+      <c r="D161" t="s">
         <v>416</v>
       </c>
-      <c r="E160" t="s">
-        <v>119</v>
-      </c>
-      <c r="F160" t="s">
-        <v>141</v>
-      </c>
-      <c r="H160" t="s">
-        <v>119</v>
-      </c>
-      <c r="I160" t="s">
-        <v>119</v>
-      </c>
-      <c r="J160" t="s">
+      <c r="E161" t="s">
+        <v>119</v>
+      </c>
+      <c r="F161" t="s">
+        <v>141</v>
+      </c>
+      <c r="H161" t="s">
+        <v>119</v>
+      </c>
+      <c r="I161" t="s">
+        <v>119</v>
+      </c>
+      <c r="J161" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>441</v>
       </c>
-      <c r="B161" t="s">
-        <v>106</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="B162" t="s">
+        <v>106</v>
+      </c>
+      <c r="D162" t="s">
         <v>421</v>
       </c>
-      <c r="E161" t="s">
-        <v>119</v>
-      </c>
-      <c r="F161" t="s">
-        <v>141</v>
-      </c>
-      <c r="H161" t="s">
-        <v>119</v>
-      </c>
-      <c r="I161" t="s">
-        <v>119</v>
-      </c>
-      <c r="J161" t="s">
+      <c r="E162" t="s">
+        <v>119</v>
+      </c>
+      <c r="F162" t="s">
+        <v>141</v>
+      </c>
+      <c r="H162" t="s">
+        <v>119</v>
+      </c>
+      <c r="I162" t="s">
+        <v>119</v>
+      </c>
+      <c r="J162" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>443</v>
       </c>
-      <c r="B162" t="s">
-        <v>106</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="B163" t="s">
+        <v>106</v>
+      </c>
+      <c r="D163" t="s">
         <v>423</v>
       </c>
-      <c r="E162" t="s">
-        <v>119</v>
-      </c>
-      <c r="F162" t="s">
-        <v>141</v>
-      </c>
-      <c r="H162" t="s">
-        <v>119</v>
-      </c>
-      <c r="I162" t="s">
-        <v>119</v>
-      </c>
-      <c r="J162" t="s">
+      <c r="E163" t="s">
+        <v>119</v>
+      </c>
+      <c r="F163" t="s">
+        <v>141</v>
+      </c>
+      <c r="H163" t="s">
+        <v>119</v>
+      </c>
+      <c r="I163" t="s">
+        <v>119</v>
+      </c>
+      <c r="J163" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>439</v>
       </c>
-      <c r="B163" t="s">
-        <v>106</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="B164" t="s">
+        <v>106</v>
+      </c>
+      <c r="D164" t="s">
         <v>419</v>
       </c>
-      <c r="E163" t="s">
-        <v>119</v>
-      </c>
-      <c r="F163" t="s">
-        <v>141</v>
-      </c>
-      <c r="H163" t="s">
-        <v>119</v>
-      </c>
-      <c r="I163" t="s">
-        <v>119</v>
-      </c>
-      <c r="J163" t="s">
+      <c r="E164" t="s">
+        <v>119</v>
+      </c>
+      <c r="F164" t="s">
+        <v>141</v>
+      </c>
+      <c r="H164" t="s">
+        <v>119</v>
+      </c>
+      <c r="I164" t="s">
+        <v>119</v>
+      </c>
+      <c r="J164" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>445</v>
       </c>
-      <c r="B164" t="s">
-        <v>106</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="B165" t="s">
+        <v>106</v>
+      </c>
+      <c r="D165" t="s">
         <v>425</v>
       </c>
-      <c r="E164" t="s">
-        <v>119</v>
-      </c>
-      <c r="F164" t="s">
-        <v>141</v>
-      </c>
-      <c r="H164" t="s">
-        <v>119</v>
-      </c>
-      <c r="I164" t="s">
-        <v>119</v>
-      </c>
-      <c r="J164" t="s">
+      <c r="E165" t="s">
+        <v>119</v>
+      </c>
+      <c r="F165" t="s">
+        <v>141</v>
+      </c>
+      <c r="H165" t="s">
+        <v>119</v>
+      </c>
+      <c r="I165" t="s">
+        <v>119</v>
+      </c>
+      <c r="J165" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>442</v>
       </c>
-      <c r="B165" t="s">
-        <v>106</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="B166" t="s">
+        <v>106</v>
+      </c>
+      <c r="D166" t="s">
         <v>422</v>
       </c>
-      <c r="E165" t="s">
-        <v>119</v>
-      </c>
-      <c r="F165" t="s">
-        <v>141</v>
-      </c>
-      <c r="H165" t="s">
-        <v>119</v>
-      </c>
-      <c r="I165" t="s">
-        <v>119</v>
-      </c>
-      <c r="J165" t="s">
+      <c r="E166" t="s">
+        <v>119</v>
+      </c>
+      <c r="F166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H166" t="s">
+        <v>119</v>
+      </c>
+      <c r="I166" t="s">
+        <v>119</v>
+      </c>
+      <c r="J166" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>444</v>
       </c>
-      <c r="B166" t="s">
-        <v>106</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="B167" t="s">
+        <v>106</v>
+      </c>
+      <c r="D167" t="s">
         <v>424</v>
       </c>
-      <c r="E166" t="s">
-        <v>119</v>
-      </c>
-      <c r="F166" t="s">
-        <v>141</v>
-      </c>
-      <c r="H166" t="s">
-        <v>119</v>
-      </c>
-      <c r="I166" t="s">
-        <v>119</v>
-      </c>
-      <c r="J166" t="s">
+      <c r="E167" t="s">
+        <v>119</v>
+      </c>
+      <c r="F167" t="s">
+        <v>141</v>
+      </c>
+      <c r="H167" t="s">
+        <v>119</v>
+      </c>
+      <c r="I167" t="s">
+        <v>119</v>
+      </c>
+      <c r="J167" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>440</v>
       </c>
-      <c r="B167" t="s">
-        <v>106</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="B168" t="s">
+        <v>106</v>
+      </c>
+      <c r="D168" t="s">
         <v>420</v>
       </c>
-      <c r="E167" t="s">
-        <v>119</v>
-      </c>
-      <c r="F167" t="s">
-        <v>141</v>
-      </c>
-      <c r="H167" t="s">
-        <v>119</v>
-      </c>
-      <c r="I167" t="s">
-        <v>119</v>
-      </c>
-      <c r="J167" t="s">
+      <c r="E168" t="s">
+        <v>119</v>
+      </c>
+      <c r="F168" t="s">
+        <v>141</v>
+      </c>
+      <c r="H168" t="s">
+        <v>119</v>
+      </c>
+      <c r="I168" t="s">
+        <v>119</v>
+      </c>
+      <c r="J168" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>446</v>
       </c>
-      <c r="B168" t="s">
-        <v>106</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="B169" t="s">
+        <v>106</v>
+      </c>
+      <c r="D169" t="s">
         <v>426</v>
       </c>
-      <c r="E168" t="s">
-        <v>119</v>
-      </c>
-      <c r="F168" t="s">
-        <v>141</v>
-      </c>
-      <c r="H168" t="s">
-        <v>119</v>
-      </c>
-      <c r="I168" t="s">
-        <v>119</v>
-      </c>
-      <c r="J168" t="s">
+      <c r="E169" t="s">
+        <v>119</v>
+      </c>
+      <c r="F169" t="s">
+        <v>141</v>
+      </c>
+      <c r="H169" t="s">
+        <v>119</v>
+      </c>
+      <c r="I169" t="s">
+        <v>119</v>
+      </c>
+      <c r="J169" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>437</v>
       </c>
-      <c r="B169" t="s">
-        <v>106</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="B170" t="s">
+        <v>106</v>
+      </c>
+      <c r="D170" t="s">
         <v>417</v>
       </c>
-      <c r="E169" t="s">
-        <v>119</v>
-      </c>
-      <c r="F169" t="s">
-        <v>141</v>
-      </c>
-      <c r="H169" t="s">
-        <v>119</v>
-      </c>
-      <c r="I169" t="s">
-        <v>119</v>
-      </c>
-      <c r="J169" t="s">
+      <c r="E170" t="s">
+        <v>119</v>
+      </c>
+      <c r="F170" t="s">
+        <v>141</v>
+      </c>
+      <c r="H170" t="s">
+        <v>119</v>
+      </c>
+      <c r="I170" t="s">
+        <v>119</v>
+      </c>
+      <c r="J170" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>438</v>
       </c>
-      <c r="B170" t="s">
-        <v>106</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="B171" t="s">
+        <v>106</v>
+      </c>
+      <c r="D171" t="s">
         <v>418</v>
       </c>
-      <c r="E170" t="s">
-        <v>119</v>
-      </c>
-      <c r="F170" t="s">
-        <v>141</v>
-      </c>
-      <c r="H170" t="s">
-        <v>119</v>
-      </c>
-      <c r="I170" t="s">
-        <v>119</v>
-      </c>
-      <c r="J170" t="s">
+      <c r="E171" t="s">
+        <v>119</v>
+      </c>
+      <c r="F171" t="s">
+        <v>141</v>
+      </c>
+      <c r="H171" t="s">
+        <v>119</v>
+      </c>
+      <c r="I171" t="s">
+        <v>119</v>
+      </c>
+      <c r="J171" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>505</v>
       </c>
-      <c r="B171" t="s">
-        <v>106</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="B172" t="s">
+        <v>106</v>
+      </c>
+      <c r="D172" t="s">
         <v>506</v>
       </c>
-      <c r="E171" t="s">
-        <v>153</v>
-      </c>
-      <c r="F171" t="s">
-        <v>141</v>
-      </c>
-      <c r="H171" t="s">
-        <v>119</v>
-      </c>
-      <c r="I171" t="s">
-        <v>119</v>
-      </c>
-      <c r="J171" t="s">
+      <c r="E172" t="s">
+        <v>153</v>
+      </c>
+      <c r="F172" t="s">
+        <v>141</v>
+      </c>
+      <c r="H172" t="s">
+        <v>119</v>
+      </c>
+      <c r="I172" t="s">
+        <v>119</v>
+      </c>
+      <c r="J172" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>510</v>
       </c>
-      <c r="B172" t="s">
-        <v>106</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="B173" t="s">
+        <v>106</v>
+      </c>
+      <c r="D173" t="s">
         <v>507</v>
       </c>
-      <c r="E172" t="s">
-        <v>153</v>
-      </c>
-      <c r="F172" t="s">
-        <v>141</v>
-      </c>
-      <c r="H172" t="s">
-        <v>119</v>
-      </c>
-      <c r="I172" t="s">
-        <v>119</v>
-      </c>
-      <c r="J172" t="s">
+      <c r="E173" t="s">
+        <v>153</v>
+      </c>
+      <c r="F173" t="s">
+        <v>141</v>
+      </c>
+      <c r="H173" t="s">
+        <v>119</v>
+      </c>
+      <c r="I173" t="s">
+        <v>119</v>
+      </c>
+      <c r="J173" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>275</v>
       </c>
-      <c r="B173" t="s">
-        <v>106</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="B174" t="s">
+        <v>106</v>
+      </c>
+      <c r="D174" t="s">
         <v>414</v>
       </c>
-      <c r="E173" t="s">
-        <v>119</v>
-      </c>
-      <c r="F173" t="s">
-        <v>141</v>
-      </c>
-      <c r="H173" t="s">
-        <v>119</v>
-      </c>
-      <c r="I173" t="s">
-        <v>119</v>
-      </c>
-      <c r="J173" t="s">
+      <c r="E174" t="s">
+        <v>119</v>
+      </c>
+      <c r="F174" t="s">
+        <v>141</v>
+      </c>
+      <c r="H174" t="s">
+        <v>119</v>
+      </c>
+      <c r="I174" t="s">
+        <v>119</v>
+      </c>
+      <c r="J174" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>345</v>
       </c>
-      <c r="B174" t="s">
-        <v>106</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="B175" t="s">
+        <v>106</v>
+      </c>
+      <c r="D175" t="s">
         <v>344</v>
       </c>
-      <c r="E174" t="s">
-        <v>119</v>
-      </c>
-      <c r="F174" t="s">
-        <v>141</v>
-      </c>
-      <c r="H174" t="s">
-        <v>119</v>
-      </c>
-      <c r="I174" t="s">
-        <v>119</v>
-      </c>
-      <c r="J174" t="s">
+      <c r="E175" t="s">
+        <v>119</v>
+      </c>
+      <c r="F175" t="s">
+        <v>141</v>
+      </c>
+      <c r="H175" t="s">
+        <v>119</v>
+      </c>
+      <c r="I175" t="s">
+        <v>119</v>
+      </c>
+      <c r="J175" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>275</v>
       </c>
-      <c r="B175" t="s">
-        <v>106</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="B176" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" t="s">
         <v>521</v>
       </c>
-      <c r="E175" t="s">
-        <v>119</v>
-      </c>
-      <c r="F175" t="s">
-        <v>141</v>
-      </c>
-      <c r="H175" t="s">
-        <v>119</v>
-      </c>
-      <c r="I175" t="s">
-        <v>119</v>
-      </c>
-      <c r="J175" t="s">
+      <c r="E176" t="s">
+        <v>119</v>
+      </c>
+      <c r="F176" t="s">
+        <v>141</v>
+      </c>
+      <c r="H176" t="s">
+        <v>119</v>
+      </c>
+      <c r="I176" t="s">
+        <v>119</v>
+      </c>
+      <c r="J176" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>484</v>
       </c>
-      <c r="B176" t="s">
-        <v>106</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="B177" t="s">
+        <v>106</v>
+      </c>
+      <c r="D177" t="s">
         <v>485</v>
       </c>
-      <c r="E176" t="s">
-        <v>119</v>
-      </c>
-      <c r="F176" t="s">
-        <v>141</v>
-      </c>
-      <c r="H176" t="s">
-        <v>119</v>
-      </c>
-      <c r="I176" t="s">
-        <v>119</v>
-      </c>
-      <c r="J176" t="s">
+      <c r="E177" t="s">
+        <v>119</v>
+      </c>
+      <c r="F177" t="s">
+        <v>141</v>
+      </c>
+      <c r="H177" t="s">
+        <v>119</v>
+      </c>
+      <c r="I177" t="s">
+        <v>119</v>
+      </c>
+      <c r="J177" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>353</v>
       </c>
-      <c r="B177" t="s">
-        <v>106</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="B178" t="s">
+        <v>106</v>
+      </c>
+      <c r="D178" t="s">
         <v>358</v>
       </c>
-      <c r="E177" t="s">
-        <v>119</v>
-      </c>
-      <c r="F177" t="s">
-        <v>141</v>
-      </c>
-      <c r="H177" t="s">
-        <v>119</v>
-      </c>
-      <c r="I177" t="s">
-        <v>119</v>
-      </c>
-      <c r="J177" t="s">
+      <c r="E178" t="s">
+        <v>119</v>
+      </c>
+      <c r="F178" t="s">
+        <v>141</v>
+      </c>
+      <c r="H178" t="s">
+        <v>119</v>
+      </c>
+      <c r="I178" t="s">
+        <v>119</v>
+      </c>
+      <c r="J178" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>354</v>
       </c>
-      <c r="B178" t="s">
-        <v>106</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="B179" t="s">
+        <v>106</v>
+      </c>
+      <c r="D179" t="s">
         <v>357</v>
       </c>
-      <c r="E178" t="s">
-        <v>119</v>
-      </c>
-      <c r="F178" t="s">
-        <v>141</v>
-      </c>
-      <c r="H178" t="s">
-        <v>119</v>
-      </c>
-      <c r="I178" t="s">
-        <v>119</v>
-      </c>
-      <c r="J178" t="s">
+      <c r="E179" t="s">
+        <v>119</v>
+      </c>
+      <c r="F179" t="s">
+        <v>141</v>
+      </c>
+      <c r="H179" t="s">
+        <v>119</v>
+      </c>
+      <c r="I179" t="s">
+        <v>119</v>
+      </c>
+      <c r="J179" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>317</v>
       </c>
-      <c r="B179" t="s">
-        <v>106</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="B180" t="s">
+        <v>106</v>
+      </c>
+      <c r="D180" t="s">
         <v>318</v>
       </c>
-      <c r="E179" t="s">
-        <v>119</v>
-      </c>
-      <c r="F179" t="s">
-        <v>141</v>
-      </c>
-      <c r="H179" t="s">
-        <v>119</v>
-      </c>
-      <c r="I179" t="s">
-        <v>119</v>
-      </c>
-      <c r="J179" t="s">
+      <c r="E180" t="s">
+        <v>119</v>
+      </c>
+      <c r="F180" t="s">
+        <v>141</v>
+      </c>
+      <c r="H180" t="s">
+        <v>119</v>
+      </c>
+      <c r="I180" t="s">
+        <v>119</v>
+      </c>
+      <c r="J180" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>456</v>
       </c>
-      <c r="B180" t="s">
-        <v>106</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="B181" t="s">
+        <v>106</v>
+      </c>
+      <c r="D181" t="s">
         <v>448</v>
       </c>
-      <c r="E180" t="s">
-        <v>119</v>
-      </c>
-      <c r="F180" t="s">
-        <v>141</v>
-      </c>
-      <c r="H180" t="s">
-        <v>119</v>
-      </c>
-      <c r="I180" t="s">
-        <v>119</v>
-      </c>
-      <c r="J180" t="s">
+      <c r="E181" t="s">
+        <v>119</v>
+      </c>
+      <c r="F181" t="s">
+        <v>141</v>
+      </c>
+      <c r="H181" t="s">
+        <v>119</v>
+      </c>
+      <c r="I181" t="s">
+        <v>119</v>
+      </c>
+      <c r="J181" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>362</v>
       </c>
-      <c r="B181" t="s">
-        <v>106</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B182" t="s">
+        <v>106</v>
+      </c>
+      <c r="D182" t="s">
         <v>411</v>
       </c>
-      <c r="E181" t="s">
-        <v>119</v>
-      </c>
-      <c r="F181" t="s">
-        <v>141</v>
-      </c>
-      <c r="H181" t="s">
-        <v>119</v>
-      </c>
-      <c r="I181" t="s">
-        <v>119</v>
-      </c>
-      <c r="J181" t="s">
+      <c r="E182" t="s">
+        <v>119</v>
+      </c>
+      <c r="F182" t="s">
+        <v>141</v>
+      </c>
+      <c r="H182" t="s">
+        <v>119</v>
+      </c>
+      <c r="I182" t="s">
+        <v>119</v>
+      </c>
+      <c r="J182" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>487</v>
       </c>
-      <c r="B182" t="s">
-        <v>106</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="B183" t="s">
+        <v>106</v>
+      </c>
+      <c r="D183" t="s">
         <v>488</v>
       </c>
-      <c r="E182" t="s">
-        <v>119</v>
-      </c>
-      <c r="F182" t="s">
-        <v>141</v>
-      </c>
-      <c r="H182" t="s">
-        <v>119</v>
-      </c>
-      <c r="I182" t="s">
-        <v>119</v>
-      </c>
-      <c r="J182" t="s">
+      <c r="E183" t="s">
+        <v>119</v>
+      </c>
+      <c r="F183" t="s">
+        <v>141</v>
+      </c>
+      <c r="H183" t="s">
+        <v>119</v>
+      </c>
+      <c r="I183" t="s">
+        <v>119</v>
+      </c>
+      <c r="J183" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>404</v>
       </c>
-      <c r="B183" t="s">
-        <v>106</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="B184" t="s">
+        <v>106</v>
+      </c>
+      <c r="D184" t="s">
         <v>398</v>
       </c>
-      <c r="E183" t="s">
-        <v>119</v>
-      </c>
-      <c r="F183" t="s">
-        <v>141</v>
-      </c>
-      <c r="H183" t="s">
-        <v>119</v>
-      </c>
-      <c r="I183" t="s">
-        <v>119</v>
-      </c>
-      <c r="J183" t="s">
+      <c r="E184" t="s">
+        <v>119</v>
+      </c>
+      <c r="F184" t="s">
+        <v>141</v>
+      </c>
+      <c r="H184" t="s">
+        <v>119</v>
+      </c>
+      <c r="I184" t="s">
+        <v>119</v>
+      </c>
+      <c r="J184" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>363</v>
       </c>
-      <c r="B184" t="s">
-        <v>106</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="B185" t="s">
+        <v>106</v>
+      </c>
+      <c r="D185" t="s">
         <v>412</v>
       </c>
-      <c r="E184" t="s">
-        <v>119</v>
-      </c>
-      <c r="F184" t="s">
-        <v>141</v>
-      </c>
-      <c r="H184" t="s">
-        <v>119</v>
-      </c>
-      <c r="I184" t="s">
-        <v>119</v>
-      </c>
-      <c r="J184" t="s">
+      <c r="E185" t="s">
+        <v>119</v>
+      </c>
+      <c r="F185" t="s">
+        <v>141</v>
+      </c>
+      <c r="H185" t="s">
+        <v>119</v>
+      </c>
+      <c r="I185" t="s">
+        <v>119</v>
+      </c>
+      <c r="J185" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>405</v>
       </c>
-      <c r="B185" t="s">
-        <v>106</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="B186" t="s">
+        <v>106</v>
+      </c>
+      <c r="D186" t="s">
         <v>399</v>
       </c>
-      <c r="E185" t="s">
-        <v>119</v>
-      </c>
-      <c r="F185" t="s">
-        <v>141</v>
-      </c>
-      <c r="H185" t="s">
-        <v>119</v>
-      </c>
-      <c r="I185" t="s">
-        <v>119</v>
-      </c>
-      <c r="J185" t="s">
+      <c r="E186" t="s">
+        <v>119</v>
+      </c>
+      <c r="F186" t="s">
+        <v>141</v>
+      </c>
+      <c r="H186" t="s">
+        <v>119</v>
+      </c>
+      <c r="I186" t="s">
+        <v>119</v>
+      </c>
+      <c r="J186" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>364</v>
       </c>
-      <c r="B186" t="s">
-        <v>106</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="B187" t="s">
+        <v>106</v>
+      </c>
+      <c r="D187" t="s">
         <v>413</v>
       </c>
-      <c r="E186" t="s">
-        <v>119</v>
-      </c>
-      <c r="F186" t="s">
-        <v>141</v>
-      </c>
-      <c r="H186" t="s">
-        <v>119</v>
-      </c>
-      <c r="I186" t="s">
-        <v>119</v>
-      </c>
-      <c r="J186" t="s">
+      <c r="E187" t="s">
+        <v>119</v>
+      </c>
+      <c r="F187" t="s">
+        <v>141</v>
+      </c>
+      <c r="H187" t="s">
+        <v>119</v>
+      </c>
+      <c r="I187" t="s">
+        <v>119</v>
+      </c>
+      <c r="J187" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>403</v>
       </c>
-      <c r="B187" t="s">
-        <v>106</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="B188" t="s">
+        <v>106</v>
+      </c>
+      <c r="D188" t="s">
         <v>397</v>
       </c>
-      <c r="E187" t="s">
-        <v>119</v>
-      </c>
-      <c r="F187" t="s">
-        <v>141</v>
-      </c>
-      <c r="H187" t="s">
-        <v>119</v>
-      </c>
-      <c r="I187" t="s">
-        <v>119</v>
-      </c>
-      <c r="J187" t="s">
+      <c r="E188" t="s">
+        <v>119</v>
+      </c>
+      <c r="F188" t="s">
+        <v>141</v>
+      </c>
+      <c r="H188" t="s">
+        <v>119</v>
+      </c>
+      <c r="I188" t="s">
+        <v>119</v>
+      </c>
+      <c r="J188" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>400</v>
       </c>
-      <c r="B188" t="s">
-        <v>106</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="B189" t="s">
+        <v>106</v>
+      </c>
+      <c r="D189" t="s">
         <v>395</v>
       </c>
-      <c r="E188" t="s">
-        <v>119</v>
-      </c>
-      <c r="F188" t="s">
-        <v>141</v>
-      </c>
-      <c r="H188" t="s">
-        <v>119</v>
-      </c>
-      <c r="I188" t="s">
-        <v>119</v>
-      </c>
-      <c r="J188" t="s">
+      <c r="E189" t="s">
+        <v>119</v>
+      </c>
+      <c r="F189" t="s">
+        <v>141</v>
+      </c>
+      <c r="H189" t="s">
+        <v>119</v>
+      </c>
+      <c r="I189" t="s">
+        <v>119</v>
+      </c>
+      <c r="J189" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>401</v>
       </c>
-      <c r="B189" t="s">
-        <v>106</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="B190" t="s">
+        <v>106</v>
+      </c>
+      <c r="D190" t="s">
         <v>396</v>
       </c>
-      <c r="E189" t="s">
-        <v>119</v>
-      </c>
-      <c r="F189" t="s">
-        <v>141</v>
-      </c>
-      <c r="H189" t="s">
-        <v>119</v>
-      </c>
-      <c r="I189" t="s">
-        <v>119</v>
-      </c>
-      <c r="J189" t="s">
+      <c r="E190" t="s">
+        <v>119</v>
+      </c>
+      <c r="F190" t="s">
+        <v>141</v>
+      </c>
+      <c r="H190" t="s">
+        <v>119</v>
+      </c>
+      <c r="I190" t="s">
+        <v>119</v>
+      </c>
+      <c r="J190" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>512</v>
       </c>
-      <c r="B190" t="s">
-        <v>106</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="B191" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" t="s">
         <v>513</v>
       </c>
-      <c r="E190" t="s">
-        <v>119</v>
-      </c>
-      <c r="F190" t="s">
-        <v>141</v>
-      </c>
-      <c r="H190" t="s">
-        <v>119</v>
-      </c>
-      <c r="I190" t="s">
-        <v>119</v>
-      </c>
-      <c r="J190" t="s">
+      <c r="E191" t="s">
+        <v>119</v>
+      </c>
+      <c r="F191" t="s">
+        <v>141</v>
+      </c>
+      <c r="H191" t="s">
+        <v>119</v>
+      </c>
+      <c r="I191" t="s">
+        <v>119</v>
+      </c>
+      <c r="J191" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>511</v>
       </c>
-      <c r="B191" t="s">
-        <v>106</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="B192" t="s">
+        <v>106</v>
+      </c>
+      <c r="D192" t="s">
         <v>514</v>
       </c>
-      <c r="E191" t="s">
-        <v>119</v>
-      </c>
-      <c r="F191" t="s">
-        <v>141</v>
-      </c>
-      <c r="H191" t="s">
-        <v>119</v>
-      </c>
-      <c r="I191" t="s">
-        <v>119</v>
-      </c>
-      <c r="J191" t="s">
+      <c r="E192" t="s">
+        <v>119</v>
+      </c>
+      <c r="F192" t="s">
+        <v>141</v>
+      </c>
+      <c r="H192" t="s">
+        <v>119</v>
+      </c>
+      <c r="I192" t="s">
+        <v>119</v>
+      </c>
+      <c r="J192" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>450</v>
       </c>
-      <c r="B192" t="s">
-        <v>106</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="B193" t="s">
+        <v>106</v>
+      </c>
+      <c r="D193" t="s">
         <v>447</v>
       </c>
-      <c r="E192" t="s">
-        <v>119</v>
-      </c>
-      <c r="F192" t="s">
-        <v>141</v>
-      </c>
-      <c r="H192" t="s">
-        <v>119</v>
-      </c>
-      <c r="I192" t="s">
-        <v>119</v>
-      </c>
-      <c r="J192" t="s">
+      <c r="E193" t="s">
+        <v>119</v>
+      </c>
+      <c r="F193" t="s">
+        <v>141</v>
+      </c>
+      <c r="H193" t="s">
+        <v>119</v>
+      </c>
+      <c r="I193" t="s">
+        <v>119</v>
+      </c>
+      <c r="J193" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>451</v>
       </c>
-      <c r="B193" t="s">
-        <v>106</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="B194" t="s">
+        <v>106</v>
+      </c>
+      <c r="D194" t="s">
         <v>449</v>
       </c>
-      <c r="E193" t="s">
-        <v>119</v>
-      </c>
-      <c r="F193" t="s">
-        <v>141</v>
-      </c>
-      <c r="H193" t="s">
-        <v>119</v>
-      </c>
-      <c r="I193" t="s">
-        <v>119</v>
-      </c>
-      <c r="J193" t="s">
+      <c r="E194" t="s">
+        <v>119</v>
+      </c>
+      <c r="F194" t="s">
+        <v>141</v>
+      </c>
+      <c r="H194" t="s">
+        <v>119</v>
+      </c>
+      <c r="I194" t="s">
+        <v>119</v>
+      </c>
+      <c r="J194" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>369</v>
       </c>
-      <c r="B194" t="s">
-        <v>106</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="B195" t="s">
+        <v>106</v>
+      </c>
+      <c r="D195" t="s">
         <v>366</v>
       </c>
-      <c r="E194" t="s">
-        <v>119</v>
-      </c>
-      <c r="F194" t="s">
-        <v>141</v>
-      </c>
-      <c r="H194" t="s">
-        <v>119</v>
-      </c>
-      <c r="I194" t="s">
-        <v>119</v>
-      </c>
-      <c r="J194" t="s">
+      <c r="E195" t="s">
+        <v>119</v>
+      </c>
+      <c r="F195" t="s">
+        <v>141</v>
+      </c>
+      <c r="H195" t="s">
+        <v>119</v>
+      </c>
+      <c r="I195" t="s">
+        <v>119</v>
+      </c>
+      <c r="J195" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>370</v>
       </c>
-      <c r="B195" t="s">
-        <v>106</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="B196" t="s">
+        <v>106</v>
+      </c>
+      <c r="D196" t="s">
         <v>367</v>
       </c>
-      <c r="E195" t="s">
-        <v>119</v>
-      </c>
-      <c r="F195" t="s">
-        <v>141</v>
-      </c>
-      <c r="H195" t="s">
-        <v>119</v>
-      </c>
-      <c r="I195" t="s">
-        <v>119</v>
-      </c>
-      <c r="J195" t="s">
+      <c r="E196" t="s">
+        <v>119</v>
+      </c>
+      <c r="F196" t="s">
+        <v>141</v>
+      </c>
+      <c r="H196" t="s">
+        <v>119</v>
+      </c>
+      <c r="I196" t="s">
+        <v>119</v>
+      </c>
+      <c r="J196" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>368</v>
       </c>
-      <c r="B196" t="s">
-        <v>106</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="B197" t="s">
+        <v>106</v>
+      </c>
+      <c r="D197" t="s">
         <v>365</v>
       </c>
-      <c r="E196" t="s">
-        <v>119</v>
-      </c>
-      <c r="F196" t="s">
-        <v>141</v>
-      </c>
-      <c r="H196" t="s">
-        <v>119</v>
-      </c>
-      <c r="I196" t="s">
-        <v>119</v>
-      </c>
-      <c r="J196" t="s">
+      <c r="E197" t="s">
+        <v>119</v>
+      </c>
+      <c r="F197" t="s">
+        <v>141</v>
+      </c>
+      <c r="H197" t="s">
+        <v>119</v>
+      </c>
+      <c r="I197" t="s">
+        <v>119</v>
+      </c>
+      <c r="J197" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>499</v>
       </c>
-      <c r="B197" t="s">
-        <v>106</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="B198" t="s">
+        <v>106</v>
+      </c>
+      <c r="D198" t="s">
         <v>517</v>
       </c>
-      <c r="E197" t="s">
-        <v>153</v>
-      </c>
-      <c r="F197" t="s">
-        <v>141</v>
-      </c>
-      <c r="H197" t="s">
-        <v>119</v>
-      </c>
-      <c r="I197" t="s">
-        <v>119</v>
-      </c>
-      <c r="J197" t="s">
+      <c r="E198" t="s">
+        <v>153</v>
+      </c>
+      <c r="F198" t="s">
+        <v>141</v>
+      </c>
+      <c r="H198" t="s">
+        <v>119</v>
+      </c>
+      <c r="I198" t="s">
+        <v>119</v>
+      </c>
+      <c r="J198" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>583</v>
       </c>
-      <c r="B198" t="s">
-        <v>106</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="B199" t="s">
+        <v>106</v>
+      </c>
+      <c r="D199" t="s">
         <v>518</v>
       </c>
-      <c r="E198" t="s">
-        <v>153</v>
-      </c>
-      <c r="F198" t="s">
-        <v>141</v>
-      </c>
-      <c r="H198" t="s">
-        <v>119</v>
-      </c>
-      <c r="I198" t="s">
-        <v>119</v>
-      </c>
-      <c r="J198" t="s">
+      <c r="E199" t="s">
+        <v>153</v>
+      </c>
+      <c r="F199" t="s">
+        <v>141</v>
+      </c>
+      <c r="H199" t="s">
+        <v>119</v>
+      </c>
+      <c r="I199" t="s">
+        <v>119</v>
+      </c>
+      <c r="J199" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>584</v>
       </c>
-      <c r="B199" t="s">
-        <v>106</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="B200" t="s">
+        <v>106</v>
+      </c>
+      <c r="D200" t="s">
         <v>490</v>
       </c>
-      <c r="E199" t="s">
-        <v>153</v>
-      </c>
-      <c r="F199" t="s">
-        <v>141</v>
-      </c>
-      <c r="H199" t="s">
-        <v>119</v>
-      </c>
-      <c r="I199" t="s">
-        <v>119</v>
-      </c>
-      <c r="J199" t="s">
+      <c r="E200" t="s">
+        <v>153</v>
+      </c>
+      <c r="F200" t="s">
+        <v>141</v>
+      </c>
+      <c r="H200" t="s">
+        <v>119</v>
+      </c>
+      <c r="I200" t="s">
+        <v>119</v>
+      </c>
+      <c r="J200" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>501</v>
       </c>
-      <c r="B200" t="s">
-        <v>106</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="B201" t="s">
+        <v>106</v>
+      </c>
+      <c r="D201" t="s">
         <v>492</v>
       </c>
-      <c r="E200" t="s">
-        <v>153</v>
-      </c>
-      <c r="F200" t="s">
-        <v>141</v>
-      </c>
-      <c r="H200" t="s">
-        <v>119</v>
-      </c>
-      <c r="I200" t="s">
-        <v>119</v>
-      </c>
-      <c r="J200" t="s">
+      <c r="E201" t="s">
+        <v>153</v>
+      </c>
+      <c r="F201" t="s">
+        <v>141</v>
+      </c>
+      <c r="H201" t="s">
+        <v>119</v>
+      </c>
+      <c r="I201" t="s">
+        <v>119</v>
+      </c>
+      <c r="J201" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>502</v>
       </c>
-      <c r="B201" t="s">
-        <v>106</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="B202" t="s">
+        <v>106</v>
+      </c>
+      <c r="D202" t="s">
         <v>493</v>
       </c>
-      <c r="E201" t="s">
-        <v>153</v>
-      </c>
-      <c r="F201" t="s">
-        <v>141</v>
-      </c>
-      <c r="H201" t="s">
-        <v>119</v>
-      </c>
-      <c r="I201" t="s">
-        <v>119</v>
-      </c>
-      <c r="J201" t="s">
+      <c r="E202" t="s">
+        <v>153</v>
+      </c>
+      <c r="F202" t="s">
+        <v>141</v>
+      </c>
+      <c r="H202" t="s">
+        <v>119</v>
+      </c>
+      <c r="I202" t="s">
+        <v>119</v>
+      </c>
+      <c r="J202" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>500</v>
       </c>
-      <c r="B202" t="s">
-        <v>106</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="B203" t="s">
+        <v>106</v>
+      </c>
+      <c r="D203" t="s">
         <v>491</v>
       </c>
-      <c r="E202" t="s">
-        <v>153</v>
-      </c>
-      <c r="F202" t="s">
-        <v>141</v>
-      </c>
-      <c r="H202" t="s">
-        <v>119</v>
-      </c>
-      <c r="I202" t="s">
-        <v>119</v>
-      </c>
-      <c r="J202" t="s">
+      <c r="E203" t="s">
+        <v>153</v>
+      </c>
+      <c r="F203" t="s">
+        <v>141</v>
+      </c>
+      <c r="H203" t="s">
+        <v>119</v>
+      </c>
+      <c r="I203" t="s">
+        <v>119</v>
+      </c>
+      <c r="J203" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>906</v>
       </c>
-      <c r="B203" t="s">
-        <v>106</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="B204" t="s">
+        <v>106</v>
+      </c>
+      <c r="D204" t="s">
         <v>904</v>
       </c>
-      <c r="E203" t="s">
-        <v>153</v>
-      </c>
-      <c r="F203" t="s">
-        <v>141</v>
-      </c>
-      <c r="H203" t="s">
-        <v>119</v>
-      </c>
-      <c r="I203" t="s">
-        <v>119</v>
-      </c>
-      <c r="J203" t="s">
+      <c r="E204" t="s">
+        <v>153</v>
+      </c>
+      <c r="F204" t="s">
+        <v>141</v>
+      </c>
+      <c r="H204" t="s">
+        <v>119</v>
+      </c>
+      <c r="I204" t="s">
+        <v>119</v>
+      </c>
+      <c r="J204" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>907</v>
       </c>
-      <c r="B204" t="s">
-        <v>106</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="B205" t="s">
+        <v>106</v>
+      </c>
+      <c r="D205" t="s">
         <v>905</v>
       </c>
-      <c r="E204" t="s">
-        <v>153</v>
-      </c>
-      <c r="F204" t="s">
-        <v>141</v>
-      </c>
-      <c r="H204" t="s">
-        <v>119</v>
-      </c>
-      <c r="I204" t="s">
-        <v>119</v>
-      </c>
-      <c r="J204" t="s">
+      <c r="E205" t="s">
+        <v>153</v>
+      </c>
+      <c r="F205" t="s">
+        <v>141</v>
+      </c>
+      <c r="H205" t="s">
+        <v>119</v>
+      </c>
+      <c r="I205" t="s">
+        <v>119</v>
+      </c>
+      <c r="J205" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>285</v>
       </c>
-      <c r="B205" t="s">
-        <v>106</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="B206" t="s">
+        <v>106</v>
+      </c>
+      <c r="D206" t="s">
         <v>305</v>
       </c>
-      <c r="E205" t="s">
-        <v>119</v>
-      </c>
-      <c r="F205" t="s">
-        <v>141</v>
-      </c>
-      <c r="H205" t="s">
-        <v>119</v>
-      </c>
-      <c r="I205" t="s">
-        <v>119</v>
-      </c>
-      <c r="J205" t="s">
+      <c r="E206" t="s">
+        <v>119</v>
+      </c>
+      <c r="F206" t="s">
+        <v>141</v>
+      </c>
+      <c r="H206" t="s">
+        <v>119</v>
+      </c>
+      <c r="I206" t="s">
+        <v>119</v>
+      </c>
+      <c r="J206" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>830</v>
       </c>
-      <c r="B206" t="s">
-        <v>106</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="B207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" t="s">
         <v>831</v>
       </c>
-      <c r="E206" t="s">
-        <v>119</v>
-      </c>
-      <c r="F206" t="s">
-        <v>141</v>
-      </c>
-      <c r="H206" t="s">
-        <v>119</v>
-      </c>
-      <c r="I206" t="s">
-        <v>119</v>
-      </c>
-      <c r="J206" t="s">
+      <c r="E207" t="s">
+        <v>119</v>
+      </c>
+      <c r="F207" t="s">
+        <v>141</v>
+      </c>
+      <c r="H207" t="s">
+        <v>119</v>
+      </c>
+      <c r="I207" t="s">
+        <v>119</v>
+      </c>
+      <c r="J207" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>832</v>
       </c>
-      <c r="B207" t="s">
-        <v>106</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="B208" t="s">
+        <v>106</v>
+      </c>
+      <c r="D208" t="s">
         <v>833</v>
       </c>
-      <c r="E207" t="s">
-        <v>119</v>
-      </c>
-      <c r="F207" t="s">
-        <v>141</v>
-      </c>
-      <c r="H207" t="s">
-        <v>119</v>
-      </c>
-      <c r="I207" t="s">
-        <v>119</v>
-      </c>
-      <c r="J207" t="s">
+      <c r="E208" t="s">
+        <v>119</v>
+      </c>
+      <c r="F208" t="s">
+        <v>141</v>
+      </c>
+      <c r="H208" t="s">
+        <v>119</v>
+      </c>
+      <c r="I208" t="s">
+        <v>119</v>
+      </c>
+      <c r="J208" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>834</v>
       </c>
-      <c r="B208" t="s">
-        <v>106</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="B209" t="s">
+        <v>106</v>
+      </c>
+      <c r="D209" t="s">
         <v>835</v>
       </c>
-      <c r="E208" t="s">
-        <v>119</v>
-      </c>
-      <c r="F208" t="s">
-        <v>141</v>
-      </c>
-      <c r="H208" t="s">
-        <v>119</v>
-      </c>
-      <c r="I208" t="s">
-        <v>119</v>
-      </c>
-      <c r="J208" t="s">
+      <c r="E209" t="s">
+        <v>119</v>
+      </c>
+      <c r="F209" t="s">
+        <v>141</v>
+      </c>
+      <c r="H209" t="s">
+        <v>119</v>
+      </c>
+      <c r="I209" t="s">
+        <v>119</v>
+      </c>
+      <c r="J209" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>836</v>
       </c>
-      <c r="B209" t="s">
-        <v>106</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="B210" t="s">
+        <v>106</v>
+      </c>
+      <c r="D210" t="s">
         <v>837</v>
       </c>
-      <c r="E209" t="s">
-        <v>119</v>
-      </c>
-      <c r="F209" t="s">
-        <v>141</v>
-      </c>
-      <c r="H209" t="s">
-        <v>119</v>
-      </c>
-      <c r="I209" t="s">
-        <v>119</v>
-      </c>
-      <c r="J209" t="s">
+      <c r="E210" t="s">
+        <v>119</v>
+      </c>
+      <c r="F210" t="s">
+        <v>141</v>
+      </c>
+      <c r="H210" t="s">
+        <v>119</v>
+      </c>
+      <c r="I210" t="s">
+        <v>119</v>
+      </c>
+      <c r="J210" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>838</v>
       </c>
-      <c r="B210" t="s">
-        <v>106</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="B211" t="s">
+        <v>106</v>
+      </c>
+      <c r="D211" t="s">
         <v>839</v>
       </c>
-      <c r="E210" t="s">
-        <v>153</v>
-      </c>
-      <c r="F210" t="s">
-        <v>141</v>
-      </c>
-      <c r="H210" t="s">
-        <v>119</v>
-      </c>
-      <c r="I210" t="s">
-        <v>119</v>
-      </c>
-      <c r="J210" t="s">
+      <c r="E211" t="s">
+        <v>153</v>
+      </c>
+      <c r="F211" t="s">
+        <v>141</v>
+      </c>
+      <c r="H211" t="s">
+        <v>119</v>
+      </c>
+      <c r="I211" t="s">
+        <v>119</v>
+      </c>
+      <c r="J211" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>840</v>
       </c>
-      <c r="B211" t="s">
-        <v>106</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="B212" t="s">
+        <v>106</v>
+      </c>
+      <c r="D212" t="s">
         <v>841</v>
       </c>
-      <c r="E211" t="s">
-        <v>153</v>
-      </c>
-      <c r="F211" t="s">
-        <v>141</v>
-      </c>
-      <c r="H211" t="s">
-        <v>119</v>
-      </c>
-      <c r="I211" t="s">
-        <v>119</v>
-      </c>
-      <c r="J211" t="s">
+      <c r="E212" t="s">
+        <v>153</v>
+      </c>
+      <c r="F212" t="s">
+        <v>141</v>
+      </c>
+      <c r="H212" t="s">
+        <v>119</v>
+      </c>
+      <c r="I212" t="s">
+        <v>119</v>
+      </c>
+      <c r="J212" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>843</v>
       </c>
-      <c r="B212" t="s">
-        <v>106</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="B213" t="s">
+        <v>106</v>
+      </c>
+      <c r="D213" t="s">
         <v>844</v>
       </c>
-      <c r="E212" t="s">
-        <v>153</v>
-      </c>
-      <c r="F212" t="s">
-        <v>141</v>
-      </c>
-      <c r="H212" t="s">
-        <v>119</v>
-      </c>
-      <c r="I212" t="s">
-        <v>119</v>
-      </c>
-      <c r="J212" t="s">
+      <c r="E213" t="s">
+        <v>153</v>
+      </c>
+      <c r="F213" t="s">
+        <v>141</v>
+      </c>
+      <c r="H213" t="s">
+        <v>119</v>
+      </c>
+      <c r="I213" t="s">
+        <v>119</v>
+      </c>
+      <c r="J213" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>848</v>
       </c>
-      <c r="B213" t="s">
-        <v>106</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="B214" t="s">
+        <v>106</v>
+      </c>
+      <c r="D214" t="s">
         <v>847</v>
       </c>
-      <c r="E213" t="s">
-        <v>153</v>
-      </c>
-      <c r="F213" t="s">
-        <v>141</v>
-      </c>
-      <c r="H213" t="s">
-        <v>119</v>
-      </c>
-      <c r="I213" t="s">
-        <v>119</v>
-      </c>
-      <c r="J213" t="s">
+      <c r="E214" t="s">
+        <v>153</v>
+      </c>
+      <c r="F214" t="s">
+        <v>141</v>
+      </c>
+      <c r="H214" t="s">
+        <v>119</v>
+      </c>
+      <c r="I214" t="s">
+        <v>119</v>
+      </c>
+      <c r="J214" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>815</v>
       </c>
-      <c r="B214" t="s">
-        <v>106</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="B215" t="s">
+        <v>106</v>
+      </c>
+      <c r="D215" t="s">
         <v>812</v>
       </c>
-      <c r="E214" t="s">
-        <v>119</v>
-      </c>
-      <c r="F214" t="s">
-        <v>141</v>
-      </c>
-      <c r="H214" t="s">
-        <v>119</v>
-      </c>
-      <c r="I214" t="s">
-        <v>119</v>
-      </c>
-      <c r="J214" t="s">
+      <c r="E215" t="s">
+        <v>119</v>
+      </c>
+      <c r="F215" t="s">
+        <v>141</v>
+      </c>
+      <c r="H215" t="s">
+        <v>119</v>
+      </c>
+      <c r="I215" t="s">
+        <v>119</v>
+      </c>
+      <c r="J215" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>816</v>
       </c>
-      <c r="B215" t="s">
-        <v>106</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="B216" t="s">
+        <v>106</v>
+      </c>
+      <c r="D216" t="s">
         <v>811</v>
       </c>
-      <c r="E215" t="s">
-        <v>119</v>
-      </c>
-      <c r="F215" t="s">
-        <v>141</v>
-      </c>
-      <c r="H215" t="s">
-        <v>119</v>
-      </c>
-      <c r="I215" t="s">
-        <v>119</v>
-      </c>
-      <c r="J215" t="s">
+      <c r="E216" t="s">
+        <v>119</v>
+      </c>
+      <c r="F216" t="s">
+        <v>141</v>
+      </c>
+      <c r="H216" t="s">
+        <v>119</v>
+      </c>
+      <c r="I216" t="s">
+        <v>119</v>
+      </c>
+      <c r="J216" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>820</v>
       </c>
-      <c r="B216" t="s">
-        <v>106</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="B217" t="s">
+        <v>106</v>
+      </c>
+      <c r="D217" t="s">
         <v>813</v>
       </c>
-      <c r="E216" t="s">
-        <v>119</v>
-      </c>
-      <c r="F216" t="s">
-        <v>141</v>
-      </c>
-      <c r="H216" t="s">
-        <v>119</v>
-      </c>
-      <c r="I216" t="s">
-        <v>119</v>
-      </c>
-      <c r="J216" t="s">
+      <c r="E217" t="s">
+        <v>119</v>
+      </c>
+      <c r="F217" t="s">
+        <v>141</v>
+      </c>
+      <c r="H217" t="s">
+        <v>119</v>
+      </c>
+      <c r="I217" t="s">
+        <v>119</v>
+      </c>
+      <c r="J217" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>817</v>
       </c>
-      <c r="B217" t="s">
-        <v>106</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="B218" t="s">
+        <v>106</v>
+      </c>
+      <c r="D218" t="s">
         <v>814</v>
       </c>
-      <c r="E217" t="s">
-        <v>119</v>
-      </c>
-      <c r="F217" t="s">
-        <v>141</v>
-      </c>
-      <c r="H217" t="s">
-        <v>119</v>
-      </c>
-      <c r="I217" t="s">
-        <v>119</v>
-      </c>
-      <c r="J217" t="s">
+      <c r="E218" t="s">
+        <v>119</v>
+      </c>
+      <c r="F218" t="s">
+        <v>141</v>
+      </c>
+      <c r="H218" t="s">
+        <v>119</v>
+      </c>
+      <c r="I218" t="s">
+        <v>119</v>
+      </c>
+      <c r="J218" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>818</v>
       </c>
-      <c r="B218" t="s">
-        <v>106</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="B219" t="s">
+        <v>106</v>
+      </c>
+      <c r="D219" t="s">
         <v>810</v>
       </c>
-      <c r="E218" t="s">
-        <v>153</v>
-      </c>
-      <c r="F218" t="s">
-        <v>141</v>
-      </c>
-      <c r="H218" t="s">
-        <v>119</v>
-      </c>
-      <c r="I218" t="s">
-        <v>119</v>
-      </c>
-      <c r="J218" t="s">
+      <c r="E219" t="s">
+        <v>153</v>
+      </c>
+      <c r="F219" t="s">
+        <v>141</v>
+      </c>
+      <c r="H219" t="s">
+        <v>119</v>
+      </c>
+      <c r="I219" t="s">
+        <v>119</v>
+      </c>
+      <c r="J219" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>819</v>
       </c>
-      <c r="B219" t="s">
-        <v>106</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="B220" t="s">
+        <v>106</v>
+      </c>
+      <c r="D220" t="s">
         <v>809</v>
       </c>
-      <c r="E219" t="s">
-        <v>153</v>
-      </c>
-      <c r="F219" t="s">
-        <v>141</v>
-      </c>
-      <c r="H219" t="s">
-        <v>119</v>
-      </c>
-      <c r="I219" t="s">
-        <v>119</v>
-      </c>
-      <c r="J219" t="s">
+      <c r="E220" t="s">
+        <v>153</v>
+      </c>
+      <c r="F220" t="s">
+        <v>141</v>
+      </c>
+      <c r="H220" t="s">
+        <v>119</v>
+      </c>
+      <c r="I220" t="s">
+        <v>119</v>
+      </c>
+      <c r="J220" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>826</v>
       </c>
-      <c r="B220" t="s">
-        <v>106</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="B221" t="s">
+        <v>106</v>
+      </c>
+      <c r="D221" t="s">
         <v>821</v>
       </c>
-      <c r="E220" t="s">
-        <v>153</v>
-      </c>
-      <c r="F220" t="s">
-        <v>141</v>
-      </c>
-      <c r="H220" t="s">
-        <v>119</v>
-      </c>
-      <c r="I220" t="s">
-        <v>119</v>
-      </c>
-      <c r="J220" t="s">
+      <c r="E221" t="s">
+        <v>153</v>
+      </c>
+      <c r="F221" t="s">
+        <v>141</v>
+      </c>
+      <c r="H221" t="s">
+        <v>119</v>
+      </c>
+      <c r="I221" t="s">
+        <v>119</v>
+      </c>
+      <c r="J221" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>827</v>
       </c>
-      <c r="B221" t="s">
-        <v>106</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="B222" t="s">
+        <v>106</v>
+      </c>
+      <c r="D222" t="s">
         <v>822</v>
-      </c>
-      <c r="E221" t="s">
-        <v>153</v>
-      </c>
-      <c r="F221" t="s">
-        <v>141</v>
-      </c>
-      <c r="H221" t="s">
-        <v>119</v>
-      </c>
-      <c r="I221" t="s">
-        <v>119</v>
-      </c>
-      <c r="J221" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>829</v>
-      </c>
-      <c r="B222" t="s">
-        <v>106</v>
-      </c>
-      <c r="D222" t="s">
-        <v>823</v>
       </c>
       <c r="E222" t="s">
         <v>153</v>
@@ -10426,15 +10435,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B223" t="s">
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E223" t="s">
         <v>153</v>
@@ -10452,483 +10461,483 @@
         <v>304</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>828</v>
+      </c>
+      <c r="B224" t="s">
+        <v>106</v>
+      </c>
+      <c r="D224" t="s">
+        <v>824</v>
+      </c>
+      <c r="E224" t="s">
+        <v>153</v>
+      </c>
+      <c r="F224" t="s">
+        <v>141</v>
+      </c>
+      <c r="H224" t="s">
+        <v>119</v>
+      </c>
+      <c r="I224" t="s">
+        <v>119</v>
+      </c>
+      <c r="J224" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>849</v>
       </c>
-      <c r="B224" t="s">
-        <v>106</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="B225" t="s">
+        <v>106</v>
+      </c>
+      <c r="D225" t="s">
         <v>846</v>
       </c>
-      <c r="E224" t="s">
-        <v>153</v>
-      </c>
-      <c r="F224" t="s">
-        <v>141</v>
-      </c>
-      <c r="H224" t="s">
-        <v>119</v>
-      </c>
-      <c r="I224" t="s">
-        <v>119</v>
-      </c>
-      <c r="J224" t="s">
+      <c r="E225" t="s">
+        <v>153</v>
+      </c>
+      <c r="F225" t="s">
+        <v>141</v>
+      </c>
+      <c r="H225" t="s">
+        <v>119</v>
+      </c>
+      <c r="I225" t="s">
+        <v>119</v>
+      </c>
+      <c r="J225" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>901</v>
       </c>
-      <c r="B225" t="s">
-        <v>106</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="B226" t="s">
+        <v>106</v>
+      </c>
+      <c r="D226" t="s">
         <v>895</v>
       </c>
-      <c r="E225" t="s">
-        <v>153</v>
-      </c>
-      <c r="F225" t="s">
-        <v>141</v>
-      </c>
-      <c r="H225" t="s">
-        <v>119</v>
-      </c>
-      <c r="I225" t="s">
-        <v>119</v>
-      </c>
-      <c r="J225" t="s">
+      <c r="E226" t="s">
+        <v>153</v>
+      </c>
+      <c r="F226" t="s">
+        <v>141</v>
+      </c>
+      <c r="H226" t="s">
+        <v>119</v>
+      </c>
+      <c r="I226" t="s">
+        <v>119</v>
+      </c>
+      <c r="J226" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>902</v>
       </c>
-      <c r="B226" t="s">
-        <v>106</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="B227" t="s">
+        <v>106</v>
+      </c>
+      <c r="D227" t="s">
         <v>896</v>
       </c>
-      <c r="E226" t="s">
-        <v>153</v>
-      </c>
-      <c r="F226" t="s">
-        <v>141</v>
-      </c>
-      <c r="H226" t="s">
-        <v>119</v>
-      </c>
-      <c r="I226" t="s">
-        <v>119</v>
-      </c>
-      <c r="J226" t="s">
+      <c r="E227" t="s">
+        <v>153</v>
+      </c>
+      <c r="F227" t="s">
+        <v>141</v>
+      </c>
+      <c r="H227" t="s">
+        <v>119</v>
+      </c>
+      <c r="I227" t="s">
+        <v>119</v>
+      </c>
+      <c r="J227" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>903</v>
       </c>
-      <c r="B227" t="s">
-        <v>106</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="B228" t="s">
+        <v>106</v>
+      </c>
+      <c r="D228" t="s">
         <v>897</v>
       </c>
-      <c r="E227" t="s">
-        <v>153</v>
-      </c>
-      <c r="F227" t="s">
-        <v>141</v>
-      </c>
-      <c r="H227" t="s">
-        <v>119</v>
-      </c>
-      <c r="I227" t="s">
-        <v>119</v>
-      </c>
-      <c r="J227" t="s">
+      <c r="E228" t="s">
+        <v>153</v>
+      </c>
+      <c r="F228" t="s">
+        <v>141</v>
+      </c>
+      <c r="H228" t="s">
+        <v>119</v>
+      </c>
+      <c r="I228" t="s">
+        <v>119</v>
+      </c>
+      <c r="J228" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>857</v>
       </c>
-      <c r="B228" t="s">
-        <v>106</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="B229" t="s">
+        <v>106</v>
+      </c>
+      <c r="D229" t="s">
         <v>852</v>
       </c>
-      <c r="E228" t="s">
-        <v>153</v>
-      </c>
-      <c r="F228" t="s">
-        <v>141</v>
-      </c>
-      <c r="H228" t="s">
-        <v>119</v>
-      </c>
-      <c r="I228" t="s">
-        <v>119</v>
-      </c>
-      <c r="J228" t="s">
+      <c r="E229" t="s">
+        <v>153</v>
+      </c>
+      <c r="F229" t="s">
+        <v>141</v>
+      </c>
+      <c r="H229" t="s">
+        <v>119</v>
+      </c>
+      <c r="I229" t="s">
+        <v>119</v>
+      </c>
+      <c r="J229" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>858</v>
       </c>
-      <c r="B229" t="s">
-        <v>106</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="B230" t="s">
+        <v>106</v>
+      </c>
+      <c r="D230" t="s">
         <v>853</v>
       </c>
-      <c r="E229" t="s">
-        <v>153</v>
-      </c>
-      <c r="F229" t="s">
-        <v>141</v>
-      </c>
-      <c r="H229" t="s">
-        <v>119</v>
-      </c>
-      <c r="I229" t="s">
-        <v>119</v>
-      </c>
-      <c r="J229" t="s">
+      <c r="E230" t="s">
+        <v>153</v>
+      </c>
+      <c r="F230" t="s">
+        <v>141</v>
+      </c>
+      <c r="H230" t="s">
+        <v>119</v>
+      </c>
+      <c r="I230" t="s">
+        <v>119</v>
+      </c>
+      <c r="J230" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>859</v>
       </c>
-      <c r="B230" t="s">
-        <v>106</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="B231" t="s">
+        <v>106</v>
+      </c>
+      <c r="D231" t="s">
         <v>854</v>
       </c>
-      <c r="E230" t="s">
-        <v>153</v>
-      </c>
-      <c r="F230" t="s">
-        <v>141</v>
-      </c>
-      <c r="H230" t="s">
-        <v>119</v>
-      </c>
-      <c r="I230" t="s">
-        <v>119</v>
-      </c>
-      <c r="J230" t="s">
+      <c r="E231" t="s">
+        <v>153</v>
+      </c>
+      <c r="F231" t="s">
+        <v>141</v>
+      </c>
+      <c r="H231" t="s">
+        <v>119</v>
+      </c>
+      <c r="I231" t="s">
+        <v>119</v>
+      </c>
+      <c r="J231" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>860</v>
       </c>
-      <c r="B231" t="s">
-        <v>106</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="B232" t="s">
+        <v>106</v>
+      </c>
+      <c r="D232" t="s">
         <v>855</v>
       </c>
-      <c r="E231" t="s">
-        <v>153</v>
-      </c>
-      <c r="F231" t="s">
-        <v>141</v>
-      </c>
-      <c r="H231" t="s">
-        <v>119</v>
-      </c>
-      <c r="I231" t="s">
-        <v>119</v>
-      </c>
-      <c r="J231" t="s">
+      <c r="E232" t="s">
+        <v>153</v>
+      </c>
+      <c r="F232" t="s">
+        <v>141</v>
+      </c>
+      <c r="H232" t="s">
+        <v>119</v>
+      </c>
+      <c r="I232" t="s">
+        <v>119</v>
+      </c>
+      <c r="J232" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>861</v>
       </c>
-      <c r="B232" t="s">
-        <v>106</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="B233" t="s">
+        <v>106</v>
+      </c>
+      <c r="D233" t="s">
         <v>856</v>
       </c>
-      <c r="E232" t="s">
-        <v>153</v>
-      </c>
-      <c r="F232" t="s">
-        <v>141</v>
-      </c>
-      <c r="H232" t="s">
-        <v>119</v>
-      </c>
-      <c r="I232" t="s">
-        <v>119</v>
-      </c>
-      <c r="J232" t="s">
+      <c r="E233" t="s">
+        <v>153</v>
+      </c>
+      <c r="F233" t="s">
+        <v>141</v>
+      </c>
+      <c r="H233" t="s">
+        <v>119</v>
+      </c>
+      <c r="I233" t="s">
+        <v>119</v>
+      </c>
+      <c r="J233" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>341</v>
       </c>
-      <c r="B233" t="s">
-        <v>106</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="B234" t="s">
+        <v>106</v>
+      </c>
+      <c r="D234" t="s">
         <v>343</v>
       </c>
-      <c r="E233" t="s">
-        <v>119</v>
-      </c>
-      <c r="F233" t="s">
-        <v>141</v>
-      </c>
-      <c r="H233" t="s">
-        <v>119</v>
-      </c>
-      <c r="I233" t="s">
-        <v>119</v>
-      </c>
-      <c r="J233" t="s">
+      <c r="E234" t="s">
+        <v>119</v>
+      </c>
+      <c r="F234" t="s">
+        <v>141</v>
+      </c>
+      <c r="H234" t="s">
+        <v>119</v>
+      </c>
+      <c r="I234" t="s">
+        <v>119</v>
+      </c>
+      <c r="J234" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>561</v>
       </c>
-      <c r="B234" t="s">
-        <v>106</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="B235" t="s">
+        <v>106</v>
+      </c>
+      <c r="D235" t="s">
         <v>559</v>
       </c>
-      <c r="E234" t="s">
-        <v>119</v>
-      </c>
-      <c r="F234" t="s">
-        <v>141</v>
-      </c>
-      <c r="H234" t="s">
-        <v>119</v>
-      </c>
-      <c r="I234" t="s">
-        <v>119</v>
-      </c>
-      <c r="J234" t="s">
+      <c r="E235" t="s">
+        <v>119</v>
+      </c>
+      <c r="F235" t="s">
+        <v>141</v>
+      </c>
+      <c r="H235" t="s">
+        <v>119</v>
+      </c>
+      <c r="I235" t="s">
+        <v>119</v>
+      </c>
+      <c r="J235" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>562</v>
       </c>
-      <c r="B235" t="s">
-        <v>106</v>
-      </c>
-      <c r="D235" t="s">
+      <c r="B236" t="s">
+        <v>106</v>
+      </c>
+      <c r="D236" t="s">
         <v>566</v>
       </c>
-      <c r="E235" t="s">
-        <v>119</v>
-      </c>
-      <c r="F235" t="s">
-        <v>141</v>
-      </c>
-      <c r="H235" t="s">
-        <v>119</v>
-      </c>
-      <c r="I235" t="s">
-        <v>119</v>
-      </c>
-      <c r="J235" t="s">
+      <c r="E236" t="s">
+        <v>119</v>
+      </c>
+      <c r="F236" t="s">
+        <v>141</v>
+      </c>
+      <c r="H236" t="s">
+        <v>119</v>
+      </c>
+      <c r="I236" t="s">
+        <v>119</v>
+      </c>
+      <c r="J236" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>560</v>
       </c>
-      <c r="B236" t="s">
-        <v>106</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="B237" t="s">
+        <v>106</v>
+      </c>
+      <c r="D237" t="s">
         <v>558</v>
       </c>
-      <c r="E236" t="s">
-        <v>153</v>
-      </c>
-      <c r="F236" t="s">
-        <v>141</v>
-      </c>
-      <c r="H236" t="s">
-        <v>119</v>
-      </c>
-      <c r="I236" t="s">
-        <v>119</v>
-      </c>
-      <c r="J236" t="s">
+      <c r="E237" t="s">
+        <v>153</v>
+      </c>
+      <c r="F237" t="s">
+        <v>141</v>
+      </c>
+      <c r="H237" t="s">
+        <v>119</v>
+      </c>
+      <c r="I237" t="s">
+        <v>119</v>
+      </c>
+      <c r="J237" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>468</v>
       </c>
-      <c r="B237" t="s">
-        <v>106</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="B238" t="s">
+        <v>106</v>
+      </c>
+      <c r="D238" t="s">
         <v>460</v>
       </c>
-      <c r="E237" t="s">
-        <v>119</v>
-      </c>
-      <c r="F237" t="s">
-        <v>141</v>
-      </c>
-      <c r="H237" t="s">
-        <v>119</v>
-      </c>
-      <c r="I237" t="s">
-        <v>119</v>
-      </c>
-      <c r="J237" t="s">
+      <c r="E238" t="s">
+        <v>119</v>
+      </c>
+      <c r="F238" t="s">
+        <v>141</v>
+      </c>
+      <c r="H238" t="s">
+        <v>119</v>
+      </c>
+      <c r="I238" t="s">
+        <v>119</v>
+      </c>
+      <c r="J238" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>469</v>
       </c>
-      <c r="B238" t="s">
-        <v>106</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="B239" t="s">
+        <v>106</v>
+      </c>
+      <c r="D239" t="s">
         <v>461</v>
       </c>
-      <c r="E238" t="s">
-        <v>119</v>
-      </c>
-      <c r="F238" t="s">
-        <v>141</v>
-      </c>
-      <c r="H238" t="s">
-        <v>119</v>
-      </c>
-      <c r="I238" t="s">
-        <v>119</v>
-      </c>
-      <c r="J238" t="s">
+      <c r="E239" t="s">
+        <v>119</v>
+      </c>
+      <c r="F239" t="s">
+        <v>141</v>
+      </c>
+      <c r="H239" t="s">
+        <v>119</v>
+      </c>
+      <c r="I239" t="s">
+        <v>119</v>
+      </c>
+      <c r="J239" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>470</v>
       </c>
-      <c r="B239" t="s">
-        <v>106</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="B240" t="s">
+        <v>106</v>
+      </c>
+      <c r="D240" t="s">
         <v>466</v>
       </c>
-      <c r="E239" t="s">
-        <v>119</v>
-      </c>
-      <c r="F239" t="s">
-        <v>141</v>
-      </c>
-      <c r="H239" t="s">
-        <v>119</v>
-      </c>
-      <c r="I239" t="s">
-        <v>119</v>
-      </c>
-      <c r="J239" t="s">
+      <c r="E240" t="s">
+        <v>119</v>
+      </c>
+      <c r="F240" t="s">
+        <v>141</v>
+      </c>
+      <c r="H240" t="s">
+        <v>119</v>
+      </c>
+      <c r="I240" t="s">
+        <v>119</v>
+      </c>
+      <c r="J240" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>471</v>
       </c>
-      <c r="B240" t="s">
-        <v>106</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="B241" t="s">
+        <v>106</v>
+      </c>
+      <c r="D241" t="s">
         <v>467</v>
       </c>
-      <c r="E240" t="s">
-        <v>119</v>
-      </c>
-      <c r="F240" t="s">
-        <v>141</v>
-      </c>
-      <c r="H240" t="s">
-        <v>119</v>
-      </c>
-      <c r="I240" t="s">
-        <v>119</v>
-      </c>
-      <c r="J240" t="s">
+      <c r="E241" t="s">
+        <v>119</v>
+      </c>
+      <c r="F241" t="s">
+        <v>141</v>
+      </c>
+      <c r="H241" t="s">
+        <v>119</v>
+      </c>
+      <c r="I241" t="s">
+        <v>119</v>
+      </c>
+      <c r="J241" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>619</v>
-      </c>
-      <c r="B241" t="s">
-        <v>602</v>
-      </c>
-      <c r="D241" t="s">
-        <v>659</v>
-      </c>
-      <c r="E241" t="s">
-        <v>153</v>
-      </c>
-      <c r="F241" t="s">
-        <v>141</v>
-      </c>
-      <c r="H241" t="s">
-        <v>119</v>
-      </c>
-      <c r="I241" t="s">
-        <v>119</v>
-      </c>
-      <c r="J241" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>620</v>
       </c>
       <c r="B242" t="s">
         <v>602</v>
       </c>
       <c r="D242" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="E242" t="s">
         <v>153</v>
@@ -10943,18 +10952,18 @@
         <v>119</v>
       </c>
       <c r="J242" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B243" t="s">
         <v>602</v>
       </c>
       <c r="D243" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E243" t="s">
         <v>153</v>
@@ -10972,15 +10981,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B244" t="s">
         <v>602</v>
       </c>
       <c r="D244" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E244" t="s">
         <v>153</v>
@@ -10998,15 +11007,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B245" t="s">
         <v>602</v>
       </c>
       <c r="D245" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E245" t="s">
         <v>153</v>
@@ -11024,15 +11033,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B246" t="s">
         <v>602</v>
       </c>
       <c r="D246" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="E246" t="s">
         <v>153</v>
@@ -11047,18 +11056,18 @@
         <v>119</v>
       </c>
       <c r="J246" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B247" t="s">
         <v>602</v>
       </c>
       <c r="D247" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E247" t="s">
         <v>153</v>
@@ -11073,18 +11082,18 @@
         <v>119</v>
       </c>
       <c r="J247" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B248" t="s">
         <v>602</v>
       </c>
       <c r="D248" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E248" t="s">
         <v>153</v>
@@ -11102,15 +11111,15 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B249" t="s">
         <v>602</v>
       </c>
       <c r="D249" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E249" t="s">
         <v>153</v>
@@ -11128,15 +11137,15 @@
         <v>605</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B250" t="s">
         <v>602</v>
       </c>
       <c r="D250" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E250" t="s">
         <v>153</v>
@@ -11154,15 +11163,15 @@
         <v>605</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B251" t="s">
         <v>602</v>
       </c>
       <c r="D251" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="E251" t="s">
         <v>153</v>
@@ -11177,18 +11186,18 @@
         <v>119</v>
       </c>
       <c r="J251" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B252" t="s">
         <v>602</v>
       </c>
       <c r="D252" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="E252" t="s">
         <v>153</v>
@@ -11203,18 +11212,18 @@
         <v>119</v>
       </c>
       <c r="J252" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B253" t="s">
         <v>602</v>
       </c>
       <c r="D253" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E253" t="s">
         <v>153</v>
@@ -11232,15 +11241,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B254" t="s">
         <v>602</v>
       </c>
       <c r="D254" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E254" t="s">
         <v>153</v>
@@ -11258,15 +11267,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B255" t="s">
         <v>602</v>
       </c>
       <c r="D255" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E255" t="s">
         <v>153</v>
@@ -11284,15 +11293,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B256" t="s">
         <v>602</v>
       </c>
       <c r="D256" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="E256" t="s">
         <v>153</v>
@@ -11307,18 +11316,18 @@
         <v>119</v>
       </c>
       <c r="J256" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B257" t="s">
         <v>602</v>
       </c>
       <c r="D257" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E257" t="s">
         <v>153</v>
@@ -11333,18 +11342,18 @@
         <v>119</v>
       </c>
       <c r="J257" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B258" t="s">
         <v>602</v>
       </c>
       <c r="D258" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E258" t="s">
         <v>153</v>
@@ -11362,15 +11371,15 @@
         <v>608</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B259" t="s">
         <v>602</v>
       </c>
       <c r="D259" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E259" t="s">
         <v>153</v>
@@ -11388,15 +11397,15 @@
         <v>608</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B260" t="s">
         <v>602</v>
       </c>
       <c r="D260" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E260" t="s">
         <v>153</v>
@@ -11414,15 +11423,15 @@
         <v>608</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B261" t="s">
         <v>602</v>
       </c>
       <c r="D261" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="E261" t="s">
         <v>153</v>
@@ -11437,18 +11446,18 @@
         <v>119</v>
       </c>
       <c r="J261" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B262" t="s">
         <v>602</v>
       </c>
       <c r="D262" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E262" t="s">
         <v>153</v>
@@ -11463,18 +11472,18 @@
         <v>119</v>
       </c>
       <c r="J262" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B263" t="s">
         <v>602</v>
       </c>
       <c r="D263" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E263" t="s">
         <v>153</v>
@@ -11492,15 +11501,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B264" t="s">
         <v>602</v>
       </c>
       <c r="D264" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E264" t="s">
         <v>153</v>
@@ -11518,15 +11527,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B265" t="s">
         <v>602</v>
       </c>
       <c r="D265" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E265" t="s">
         <v>153</v>
@@ -11544,15 +11553,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B266" t="s">
         <v>602</v>
       </c>
       <c r="D266" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E266" t="s">
         <v>153</v>
@@ -11567,18 +11576,18 @@
         <v>119</v>
       </c>
       <c r="J266" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B267" t="s">
         <v>602</v>
       </c>
       <c r="D267" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E267" t="s">
         <v>153</v>
@@ -11593,18 +11602,18 @@
         <v>119</v>
       </c>
       <c r="J267" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B268" t="s">
         <v>602</v>
       </c>
       <c r="D268" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E268" t="s">
         <v>153</v>
@@ -11622,15 +11631,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B269" t="s">
         <v>602</v>
       </c>
       <c r="D269" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E269" t="s">
         <v>153</v>
@@ -11648,15 +11657,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B270" t="s">
         <v>602</v>
       </c>
       <c r="D270" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E270" t="s">
         <v>153</v>
@@ -11674,15 +11683,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B271" t="s">
         <v>602</v>
       </c>
       <c r="D271" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E271" t="s">
         <v>153</v>
@@ -11697,18 +11706,18 @@
         <v>119</v>
       </c>
       <c r="J271" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B272" t="s">
         <v>602</v>
       </c>
       <c r="D272" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E272" t="s">
         <v>153</v>
@@ -11723,18 +11732,18 @@
         <v>119</v>
       </c>
       <c r="J272" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B273" t="s">
         <v>602</v>
       </c>
       <c r="D273" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E273" t="s">
         <v>153</v>
@@ -11749,18 +11758,18 @@
         <v>119</v>
       </c>
       <c r="J273" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B274" t="s">
         <v>602</v>
       </c>
       <c r="D274" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E274" t="s">
         <v>153</v>
@@ -11775,18 +11784,18 @@
         <v>119</v>
       </c>
       <c r="J274" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B275" t="s">
         <v>602</v>
       </c>
       <c r="D275" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E275" t="s">
         <v>153</v>
@@ -11801,18 +11810,18 @@
         <v>119</v>
       </c>
       <c r="J275" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B276" t="s">
         <v>602</v>
       </c>
       <c r="D276" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E276" t="s">
         <v>153</v>
@@ -11827,18 +11836,18 @@
         <v>119</v>
       </c>
       <c r="J276" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B277" t="s">
         <v>602</v>
       </c>
       <c r="D277" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E277" t="s">
         <v>153</v>
@@ -11853,18 +11862,18 @@
         <v>119</v>
       </c>
       <c r="J277" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B278" t="s">
         <v>602</v>
       </c>
       <c r="D278" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E278" t="s">
         <v>153</v>
@@ -11879,18 +11888,18 @@
         <v>119</v>
       </c>
       <c r="J278" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>867</v>
+        <v>656</v>
       </c>
       <c r="B279" t="s">
         <v>602</v>
       </c>
       <c r="D279" t="s">
-        <v>868</v>
+        <v>689</v>
       </c>
       <c r="E279" t="s">
         <v>153</v>
@@ -11905,18 +11914,18 @@
         <v>119</v>
       </c>
       <c r="J279" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>702</v>
+        <v>867</v>
       </c>
       <c r="B280" t="s">
         <v>602</v>
       </c>
       <c r="D280" t="s">
-        <v>700</v>
+        <v>868</v>
       </c>
       <c r="E280" t="s">
         <v>153</v>
@@ -11931,18 +11940,18 @@
         <v>119</v>
       </c>
       <c r="J280" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B281" t="s">
         <v>602</v>
       </c>
       <c r="D281" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E281" t="s">
         <v>153</v>
@@ -11957,18 +11966,18 @@
         <v>119</v>
       </c>
       <c r="J281" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="B282" t="s">
         <v>602</v>
       </c>
       <c r="D282" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="E282" t="s">
         <v>153</v>
@@ -11983,140 +11992,142 @@
         <v>119</v>
       </c>
       <c r="J282" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B283" t="s">
         <v>602</v>
       </c>
       <c r="D283" t="s">
+        <v>681</v>
+      </c>
+      <c r="E283" t="s">
+        <v>153</v>
+      </c>
+      <c r="F283" t="s">
+        <v>141</v>
+      </c>
+      <c r="H283" t="s">
+        <v>119</v>
+      </c>
+      <c r="I283" t="s">
+        <v>119</v>
+      </c>
+      <c r="J283" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>658</v>
+      </c>
+      <c r="B284" t="s">
+        <v>602</v>
+      </c>
+      <c r="D284" t="s">
         <v>690</v>
       </c>
-      <c r="E283" t="s">
-        <v>153</v>
-      </c>
-      <c r="F283" t="s">
-        <v>141</v>
-      </c>
-      <c r="H283" t="s">
-        <v>119</v>
-      </c>
-      <c r="I283" t="s">
-        <v>119</v>
-      </c>
-      <c r="J283" t="s">
+      <c r="E284" t="s">
+        <v>153</v>
+      </c>
+      <c r="F284" t="s">
+        <v>141</v>
+      </c>
+      <c r="H284" t="s">
+        <v>119</v>
+      </c>
+      <c r="I284" t="s">
+        <v>119</v>
+      </c>
+      <c r="J284" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>270</v>
       </c>
-      <c r="B284" t="s">
-        <v>106</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="B285" t="s">
+        <v>106</v>
+      </c>
+      <c r="D285" t="s">
         <v>350</v>
       </c>
-      <c r="E284" t="s">
-        <v>119</v>
-      </c>
-      <c r="F284" t="s">
-        <v>141</v>
-      </c>
-      <c r="H284" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I284" t="s">
-        <v>119</v>
-      </c>
-      <c r="J284" t="s">
+      <c r="E285" t="s">
+        <v>119</v>
+      </c>
+      <c r="F285" t="s">
+        <v>141</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I285" t="s">
+        <v>119</v>
+      </c>
+      <c r="J285" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>271</v>
       </c>
-      <c r="B285" t="s">
-        <v>106</v>
-      </c>
-      <c r="D285" t="s">
+      <c r="B286" t="s">
+        <v>106</v>
+      </c>
+      <c r="D286" t="s">
         <v>349</v>
       </c>
-      <c r="E285" t="s">
-        <v>119</v>
-      </c>
-      <c r="F285" t="s">
-        <v>141</v>
-      </c>
-      <c r="H285" t="s">
-        <v>119</v>
-      </c>
-      <c r="I285" t="s">
-        <v>119</v>
-      </c>
-      <c r="J285" t="s">
+      <c r="E286" t="s">
+        <v>119</v>
+      </c>
+      <c r="F286" t="s">
+        <v>141</v>
+      </c>
+      <c r="H286" t="s">
+        <v>119</v>
+      </c>
+      <c r="I286" t="s">
+        <v>119</v>
+      </c>
+      <c r="J286" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>272</v>
       </c>
-      <c r="B286" t="s">
-        <v>106</v>
-      </c>
-      <c r="D286" t="s">
+      <c r="B287" t="s">
+        <v>106</v>
+      </c>
+      <c r="D287" t="s">
         <v>351</v>
       </c>
-      <c r="E286" t="s">
-        <v>119</v>
-      </c>
-      <c r="F286" t="s">
-        <v>141</v>
-      </c>
-      <c r="H286" t="s">
-        <v>119</v>
-      </c>
-      <c r="I286" t="s">
-        <v>119</v>
-      </c>
-      <c r="J286" t="s">
+      <c r="E287" t="s">
+        <v>119</v>
+      </c>
+      <c r="F287" t="s">
+        <v>141</v>
+      </c>
+      <c r="H287" t="s">
+        <v>119</v>
+      </c>
+      <c r="I287" t="s">
+        <v>119</v>
+      </c>
+      <c r="J287" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>81</v>
-      </c>
-      <c r="B287" t="s">
-        <v>106</v>
-      </c>
-      <c r="E287" t="s">
-        <v>129</v>
-      </c>
-      <c r="F287" t="s">
-        <v>141</v>
-      </c>
-      <c r="H287" t="s">
-        <v>119</v>
-      </c>
-      <c r="I287" t="s">
-        <v>153</v>
-      </c>
-      <c r="J287" t="s">
-        <v>175</v>
-      </c>
-      <c r="K287" s="3"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>40</v>
       </c>
       <c r="B288" t="s">
         <v>106</v>
@@ -12127,22 +12138,20 @@
       <c r="F288" t="s">
         <v>141</v>
       </c>
-      <c r="H288" s="2" t="s">
+      <c r="H288" t="s">
         <v>119</v>
       </c>
       <c r="I288" t="s">
         <v>153</v>
       </c>
       <c r="J288" t="s">
-        <v>172</v>
-      </c>
-      <c r="K288" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="K288" s="3"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B289" t="s">
         <v>106</v>
@@ -12160,12 +12169,15 @@
         <v>153</v>
       </c>
       <c r="J289" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="K289" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B290" t="s">
         <v>106</v>
@@ -12183,15 +12195,12 @@
         <v>153</v>
       </c>
       <c r="J290" t="s">
-        <v>159</v>
-      </c>
-      <c r="K290" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B291" t="s">
         <v>106</v>
@@ -12209,78 +12218,84 @@
         <v>153</v>
       </c>
       <c r="J291" t="s">
+        <v>159</v>
+      </c>
+      <c r="K291" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>69</v>
+      </c>
+      <c r="B292" t="s">
+        <v>106</v>
+      </c>
+      <c r="E292" t="s">
+        <v>129</v>
+      </c>
+      <c r="F292" t="s">
+        <v>141</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I292" t="s">
+        <v>153</v>
+      </c>
+      <c r="J292" t="s">
         <v>194</v>
       </c>
-      <c r="K291" t="s">
+      <c r="K292" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>170</v>
       </c>
-      <c r="B292" t="s">
-        <v>106</v>
-      </c>
-      <c r="C292" t="s">
+      <c r="B293" t="s">
+        <v>106</v>
+      </c>
+      <c r="C293" t="s">
         <v>179</v>
       </c>
-      <c r="E292" t="s">
-        <v>119</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="E293" t="s">
+        <v>119</v>
+      </c>
+      <c r="F293" t="s">
         <v>142</v>
       </c>
-      <c r="H292" t="s">
-        <v>153</v>
-      </c>
-      <c r="J292" t="s">
+      <c r="H293" t="s">
+        <v>153</v>
+      </c>
+      <c r="J293" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>178</v>
       </c>
-      <c r="B293" t="s">
-        <v>106</v>
-      </c>
-      <c r="E293" t="s">
+      <c r="B294" t="s">
+        <v>106</v>
+      </c>
+      <c r="E294" t="s">
         <v>129</v>
       </c>
-      <c r="F293" t="s">
-        <v>141</v>
-      </c>
-      <c r="H293" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J293" t="s">
+      <c r="F294" t="s">
+        <v>141</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J294" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>187</v>
-      </c>
-      <c r="B294" t="s">
-        <v>106</v>
-      </c>
-      <c r="E294" t="s">
-        <v>153</v>
-      </c>
-      <c r="F294" t="s">
-        <v>141</v>
-      </c>
-      <c r="H294" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J294" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>71</v>
       </c>
       <c r="B295" t="s">
         <v>106</v>
@@ -12298,9 +12313,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B296" t="s">
         <v>106</v>
@@ -12318,49 +12333,49 @@
         <v>190</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>70</v>
+      </c>
+      <c r="B297" t="s">
+        <v>106</v>
+      </c>
+      <c r="E297" t="s">
+        <v>153</v>
+      </c>
+      <c r="F297" t="s">
+        <v>141</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J297" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>76</v>
       </c>
-      <c r="B297" t="s">
-        <v>106</v>
-      </c>
-      <c r="E297" t="s">
-        <v>153</v>
-      </c>
-      <c r="F297" t="s">
-        <v>141</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J297" t="s">
+      <c r="B298" t="s">
+        <v>106</v>
+      </c>
+      <c r="E298" t="s">
+        <v>153</v>
+      </c>
+      <c r="F298" t="s">
+        <v>141</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J298" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>75</v>
-      </c>
-      <c r="B298" t="s">
-        <v>106</v>
-      </c>
-      <c r="E298" t="s">
-        <v>153</v>
-      </c>
-      <c r="F298" t="s">
-        <v>141</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J298" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>74</v>
       </c>
       <c r="B299" t="s">
         <v>106</v>
@@ -12378,29 +12393,29 @@
         <v>190</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>74</v>
+      </c>
+      <c r="B300" t="s">
+        <v>106</v>
+      </c>
+      <c r="E300" t="s">
+        <v>153</v>
+      </c>
+      <c r="F300" t="s">
+        <v>141</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J300" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>88</v>
-      </c>
-      <c r="B300" t="s">
-        <v>106</v>
-      </c>
-      <c r="E300" t="s">
-        <v>153</v>
-      </c>
-      <c r="F300" t="s">
-        <v>141</v>
-      </c>
-      <c r="H300" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J300" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>89</v>
       </c>
       <c r="B301" t="s">
         <v>106</v>
@@ -12418,9 +12433,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B302" t="s">
         <v>106</v>
@@ -12438,29 +12453,29 @@
         <v>192</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>50</v>
+      </c>
+      <c r="B303" t="s">
+        <v>106</v>
+      </c>
+      <c r="E303" t="s">
+        <v>153</v>
+      </c>
+      <c r="F303" t="s">
+        <v>141</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J303" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>188</v>
-      </c>
-      <c r="B303" t="s">
-        <v>106</v>
-      </c>
-      <c r="E303" t="s">
-        <v>153</v>
-      </c>
-      <c r="F303" t="s">
-        <v>141</v>
-      </c>
-      <c r="H303" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J303" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>177</v>
       </c>
       <c r="B304" t="s">
         <v>106</v>
@@ -12478,49 +12493,49 @@
         <v>190</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>177</v>
+      </c>
+      <c r="B305" t="s">
+        <v>106</v>
+      </c>
+      <c r="E305" t="s">
+        <v>153</v>
+      </c>
+      <c r="F305" t="s">
+        <v>141</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J305" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>26</v>
       </c>
-      <c r="B305" t="s">
-        <v>106</v>
-      </c>
-      <c r="E305" t="s">
-        <v>153</v>
-      </c>
-      <c r="F305" t="s">
-        <v>141</v>
-      </c>
-      <c r="H305" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J305" t="s">
+      <c r="B306" t="s">
+        <v>106</v>
+      </c>
+      <c r="E306" t="s">
+        <v>153</v>
+      </c>
+      <c r="F306" t="s">
+        <v>141</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J306" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>95</v>
-      </c>
-      <c r="B306" t="s">
-        <v>106</v>
-      </c>
-      <c r="E306" t="s">
-        <v>153</v>
-      </c>
-      <c r="F306" t="s">
-        <v>141</v>
-      </c>
-      <c r="H306" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J306" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>94</v>
       </c>
       <c r="B307" t="s">
         <v>106</v>
@@ -12538,9 +12553,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B308" t="s">
         <v>106</v>
@@ -12558,9 +12573,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B309" t="s">
         <v>106</v>
@@ -12578,29 +12593,29 @@
         <v>189</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>96</v>
+      </c>
+      <c r="B310" t="s">
+        <v>106</v>
+      </c>
+      <c r="E310" t="s">
+        <v>153</v>
+      </c>
+      <c r="F310" t="s">
+        <v>141</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J310" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>10</v>
-      </c>
-      <c r="B310" t="s">
-        <v>106</v>
-      </c>
-      <c r="E310" t="s">
-        <v>153</v>
-      </c>
-      <c r="F310" t="s">
-        <v>141</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J310" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>84</v>
       </c>
       <c r="B311" t="s">
         <v>106</v>
@@ -12618,61 +12633,55 @@
         <v>192</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>84</v>
+      </c>
+      <c r="B312" t="s">
+        <v>106</v>
+      </c>
+      <c r="E312" t="s">
+        <v>153</v>
+      </c>
+      <c r="F312" t="s">
+        <v>141</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J312" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>83</v>
       </c>
-      <c r="B312" t="s">
-        <v>106</v>
-      </c>
-      <c r="E312" t="s">
-        <v>153</v>
-      </c>
-      <c r="F312" t="s">
-        <v>141</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J312" t="s">
+      <c r="B313" t="s">
+        <v>106</v>
+      </c>
+      <c r="E313" t="s">
+        <v>153</v>
+      </c>
+      <c r="F313" t="s">
+        <v>141</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J313" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>38</v>
-      </c>
-      <c r="B313" t="s">
-        <v>110</v>
-      </c>
-      <c r="D313" t="s">
-        <v>217</v>
-      </c>
-      <c r="E313" t="s">
-        <v>119</v>
-      </c>
-      <c r="F313" t="s">
-        <v>141</v>
-      </c>
-      <c r="H313" t="s">
-        <v>119</v>
-      </c>
-      <c r="I313" t="s">
-        <v>119</v>
-      </c>
-      <c r="J313" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>183</v>
       </c>
       <c r="B314" t="s">
         <v>110</v>
       </c>
       <c r="D314" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E314" t="s">
         <v>119</v>
@@ -12687,18 +12696,18 @@
         <v>119</v>
       </c>
       <c r="J314" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="B315" t="s">
         <v>110</v>
       </c>
       <c r="D315" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E315" t="s">
         <v>119</v>
@@ -12713,18 +12722,18 @@
         <v>119</v>
       </c>
       <c r="J315" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="B316" t="s">
         <v>110</v>
       </c>
       <c r="D316" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E316" t="s">
         <v>119</v>
@@ -12739,18 +12748,18 @@
         <v>119</v>
       </c>
       <c r="J316" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="B317" t="s">
         <v>110</v>
       </c>
       <c r="D317" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E317" t="s">
         <v>119</v>
@@ -12765,19 +12774,18 @@
         <v>119</v>
       </c>
       <c r="J317" t="s">
-        <v>164</v>
-      </c>
-      <c r="K317" s="3"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B318" t="s">
         <v>110</v>
       </c>
       <c r="D318" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E318" t="s">
         <v>119</v>
@@ -12792,18 +12800,19 @@
         <v>119</v>
       </c>
       <c r="J318" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B319" t="s">
         <v>110</v>
       </c>
       <c r="D319" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E319" t="s">
         <v>119</v>
@@ -12818,18 +12827,18 @@
         <v>119</v>
       </c>
       <c r="J319" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B320" t="s">
         <v>110</v>
       </c>
       <c r="D320" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E320" t="s">
         <v>119</v>
@@ -12844,18 +12853,18 @@
         <v>119</v>
       </c>
       <c r="J320" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="B321" t="s">
         <v>110</v>
       </c>
       <c r="D321" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E321" t="s">
         <v>119</v>
@@ -12870,18 +12879,21 @@
         <v>119</v>
       </c>
       <c r="J321" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="B322" t="s">
         <v>110</v>
       </c>
+      <c r="D322" t="s">
+        <v>225</v>
+      </c>
       <c r="E322" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F322" t="s">
         <v>141</v>
@@ -12890,15 +12902,15 @@
         <v>119</v>
       </c>
       <c r="I322" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J322" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="B323" t="s">
         <v>110</v>
@@ -12909,19 +12921,19 @@
       <c r="F323" t="s">
         <v>141</v>
       </c>
-      <c r="H323" s="2" t="s">
+      <c r="H323" t="s">
         <v>119</v>
       </c>
       <c r="I323" t="s">
         <v>153</v>
       </c>
       <c r="J323" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B324" t="s">
         <v>110</v>
@@ -12939,52 +12951,55 @@
         <v>153</v>
       </c>
       <c r="J324" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="B325" t="s">
         <v>110</v>
       </c>
       <c r="E325" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F325" t="s">
         <v>141</v>
       </c>
-      <c r="H325" t="s">
+      <c r="H325" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I325" t="s">
         <v>153</v>
       </c>
       <c r="J325" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B326" t="s">
         <v>110</v>
       </c>
       <c r="E326" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F326" t="s">
         <v>141</v>
       </c>
-      <c r="H326" s="2" t="s">
+      <c r="H326" t="s">
         <v>153</v>
       </c>
       <c r="J326" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B327" t="s">
         <v>110</v>
@@ -12999,12 +13014,12 @@
         <v>153</v>
       </c>
       <c r="J327" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B328" t="s">
         <v>110</v>
@@ -13019,12 +13034,12 @@
         <v>153</v>
       </c>
       <c r="J328" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B329" t="s">
         <v>110</v>
@@ -13039,12 +13054,12 @@
         <v>153</v>
       </c>
       <c r="J329" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B330" t="s">
         <v>110</v>
@@ -13059,12 +13074,12 @@
         <v>153</v>
       </c>
       <c r="J330" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B331" t="s">
         <v>110</v>
@@ -13082,41 +13097,38 @@
         <v>193</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>27</v>
+      </c>
+      <c r="B332" t="s">
+        <v>110</v>
+      </c>
+      <c r="E332" t="s">
+        <v>153</v>
+      </c>
+      <c r="F332" t="s">
+        <v>141</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J332" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>550</v>
-      </c>
-      <c r="B332" t="s">
-        <v>602</v>
-      </c>
-      <c r="D332" t="s">
-        <v>549</v>
-      </c>
-      <c r="E332" t="s">
-        <v>119</v>
-      </c>
-      <c r="F332" t="s">
-        <v>141</v>
-      </c>
-      <c r="H332" t="s">
-        <v>119</v>
-      </c>
-      <c r="I332" t="s">
-        <v>119</v>
-      </c>
-      <c r="J332" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>165</v>
       </c>
       <c r="B333" t="s">
         <v>602</v>
       </c>
+      <c r="D333" t="s">
+        <v>549</v>
+      </c>
       <c r="E333" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F333" t="s">
         <v>141</v>
@@ -13125,15 +13137,15 @@
         <v>119</v>
       </c>
       <c r="I333" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J333" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="B334" t="s">
         <v>602</v>
@@ -13144,19 +13156,19 @@
       <c r="F334" t="s">
         <v>141</v>
       </c>
-      <c r="H334" s="2" t="s">
+      <c r="H334" t="s">
         <v>119</v>
       </c>
       <c r="I334" t="s">
         <v>153</v>
       </c>
       <c r="J334" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B335" t="s">
         <v>602</v>
@@ -13167,68 +13179,91 @@
       <c r="F335" t="s">
         <v>141</v>
       </c>
-      <c r="H335" t="s">
+      <c r="H335" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I335" t="s">
         <v>153</v>
       </c>
       <c r="J335" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B336" t="s">
         <v>602</v>
       </c>
-      <c r="C336" t="s">
+      <c r="E336" t="s">
+        <v>129</v>
+      </c>
+      <c r="F336" t="s">
+        <v>141</v>
+      </c>
+      <c r="H336" t="s">
+        <v>119</v>
+      </c>
+      <c r="I336" t="s">
+        <v>153</v>
+      </c>
+      <c r="J336" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>90</v>
+      </c>
+      <c r="B337" t="s">
+        <v>602</v>
+      </c>
+      <c r="C337" t="s">
         <v>208</v>
       </c>
-      <c r="E336" t="s">
-        <v>119</v>
-      </c>
-      <c r="F336" t="s">
-        <v>141</v>
-      </c>
-      <c r="H336" t="s">
-        <v>153</v>
-      </c>
-      <c r="J336" t="s">
+      <c r="E337" t="s">
+        <v>119</v>
+      </c>
+      <c r="F337" t="s">
+        <v>141</v>
+      </c>
+      <c r="H337" t="s">
+        <v>153</v>
+      </c>
+      <c r="J337" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>945</v>
       </c>
-      <c r="B337" t="s">
-        <v>106</v>
-      </c>
-      <c r="D337" t="s">
+      <c r="B338" t="s">
+        <v>106</v>
+      </c>
+      <c r="D338" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
         <v>947</v>
       </c>
-      <c r="B338" t="s">
-        <v>106</v>
-      </c>
-      <c r="D338" t="s">
+      <c r="B339" t="s">
+        <v>106</v>
+      </c>
+      <c r="D339" t="s">
         <v>948</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K336" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K336">
-      <sortCondition ref="B1:B336"/>
+  <autoFilter ref="A1:K337" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K337">
+      <sortCondition ref="B1:B337"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E336 H2:I336 J16:J21 J86:J91 J105 J148 J213">
+  <conditionalFormatting sqref="E2:E337 H2:I337 J16:J21 J86:J91 J105 J117 J149 J214">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
@@ -13236,7 +13271,7 @@
       <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E336">
+  <conditionalFormatting sqref="E2:E337">
     <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
@@ -13244,31 +13279,37 @@
       <formula>NOT(ISERROR(SEARCH("TBD",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J151:J153">
+  <conditionalFormatting sqref="J152:J154">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",J151)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",J152)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",J151)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",J152)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J156:J157">
+  <conditionalFormatting sqref="J157:J158">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",J156)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",J157)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",J156)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",J157)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J224:J232">
+  <conditionalFormatting sqref="J225:J233">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",J224)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",J225)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",J224)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",J225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{95965d95-ecc0-4720-b759-1f33c42ed7da}" enabled="1" method="Standard" siteId="{a0f29d7e-28cd-4f54-8442-7885aee7c080}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccaradon\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3DA4A-23E1-48DA-A20C-E70AF45504F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE7520C-564D-4C54-BCE7-05C5FDE7E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1620" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$K$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$K$341</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="961">
   <si>
     <t>Input List</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Sum of exterior lighting power</t>
   </si>
   <si>
-    <t>Average interior lighting power density</t>
-  </si>
-  <si>
     <t>Average glazing U-factor</t>
   </si>
   <si>
@@ -2896,6 +2893,36 @@
   </si>
   <si>
     <t>total water use from cooling towers includeing evaporation, drift, and blowdown</t>
+  </si>
+  <si>
+    <t>com_report_pv_system_size_kw</t>
+  </si>
+  <si>
+    <t>com_report_battery_capacity_kwh</t>
+  </si>
+  <si>
+    <t>com_report_battery_max_charge_kw</t>
+  </si>
+  <si>
+    <t>com_report_battery_max_discharge_kw</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>PV system size</t>
+  </si>
+  <si>
+    <t>Battery storage capacity</t>
+  </si>
+  <si>
+    <t>Battery storage max charge capacity</t>
+  </si>
+  <si>
+    <t>Battery Storage max discharge capacity</t>
   </si>
 </sst>
 </file>
@@ -4710,10 +4737,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K339"/>
+  <dimension ref="A1:K343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,10 +4761,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>136</v>
@@ -4754,13 +4782,13 @@
         <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>143</v>
@@ -4768,16 +4796,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
         <v>141</v>
@@ -4789,21 +4817,21 @@
         <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
         <v>141</v>
@@ -4815,21 +4843,21 @@
         <v>119</v>
       </c>
       <c r="J3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
         <v>141</v>
@@ -4841,21 +4869,21 @@
         <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
         <v>141</v>
@@ -4867,21 +4895,21 @@
         <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
         <v>141</v>
@@ -4893,21 +4921,21 @@
         <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>141</v>
@@ -4919,21 +4947,21 @@
         <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
         <v>141</v>
@@ -4945,21 +4973,21 @@
         <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
         <v>141</v>
@@ -4971,21 +4999,21 @@
         <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
         <v>141</v>
@@ -4997,21 +5025,21 @@
         <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
         <v>141</v>
@@ -5023,18 +5051,18 @@
         <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" t="s">
         <v>119</v>
@@ -5043,10 +5071,10 @@
         <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5054,10 +5082,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
         <v>119</v>
@@ -5066,67 +5094,67 @@
         <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" t="s">
         <v>168</v>
-      </c>
-      <c r="H13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
         <v>141</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
         <v>255</v>
       </c>
-      <c r="B15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" t="s">
-        <v>256</v>
-      </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
         <v>141</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
         <v>141</v>
@@ -5138,21 +5166,21 @@
         <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -5164,18 +5192,18 @@
         <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
         <v>141</v>
@@ -5187,21 +5215,21 @@
         <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
         <v>141</v>
@@ -5213,21 +5241,21 @@
         <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" t="s">
         <v>141</v>
@@ -5239,21 +5267,21 @@
         <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
         <v>141</v>
@@ -5265,7 +5293,7 @@
         <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5273,10 +5301,10 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
         <v>119</v>
@@ -5291,7 +5319,7 @@
         <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5299,10 +5327,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
         <v>119</v>
@@ -5325,10 +5353,10 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
         <v>119</v>
@@ -5343,44 +5371,44 @@
         <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
         <v>475</v>
       </c>
-      <c r="B25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
         <v>476</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" t="s">
         <v>119</v>
@@ -5395,62 +5423,62 @@
         <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" t="s">
         <v>472</v>
       </c>
-      <c r="B27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" t="s">
         <v>473</v>
-      </c>
-      <c r="E27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" t="s">
+        <v>477</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" t="s">
         <v>479</v>
-      </c>
-      <c r="B28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5458,10 +5486,10 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
         <v>119</v>
@@ -5476,7 +5504,7 @@
         <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5484,10 +5512,10 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
         <v>119</v>
@@ -5502,7 +5530,7 @@
         <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5510,25 +5538,25 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
+        <v>502</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" t="s">
         <v>503</v>
-      </c>
-      <c r="E31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5536,10 +5564,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
         <v>119</v>
@@ -5562,7 +5590,7 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
         <v>129</v>
@@ -5574,10 +5602,10 @@
         <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5585,10 +5613,10 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
         <v>119</v>
@@ -5597,10 +5625,10 @@
         <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5608,10 +5636,10 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E35" t="s">
         <v>119</v>
@@ -5620,21 +5648,21 @@
         <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
         <v>119</v>
@@ -5643,10 +5671,10 @@
         <v>142</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5654,7 +5682,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
         <v>119</v>
@@ -5663,16 +5691,16 @@
         <v>141</v>
       </c>
       <c r="G37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="H37" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5680,7 +5708,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
         <v>129</v>
@@ -5689,10 +5717,10 @@
         <v>142</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5700,19 +5728,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
         <v>141</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5720,19 +5748,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
         <v>141</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5740,19 +5768,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
         <v>141</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5760,19 +5788,19 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F42" t="s">
         <v>141</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5780,19 +5808,19 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
         <v>141</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -5800,19 +5828,19 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
         <v>141</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -5820,19 +5848,19 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
         <v>141</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5840,19 +5868,19 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
         <v>141</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -5860,30 +5888,30 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
         <v>141</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
         <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E48" t="s">
         <v>119</v>
@@ -5898,18 +5926,18 @@
         <v>119</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
         <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E49" t="s">
         <v>119</v>
@@ -5924,18 +5952,18 @@
         <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s">
         <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E50" t="s">
         <v>119</v>
@@ -5950,18 +5978,18 @@
         <v>119</v>
       </c>
       <c r="J50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
         <v>119</v>
@@ -5976,18 +6004,18 @@
         <v>119</v>
       </c>
       <c r="J51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
         <v>119</v>
@@ -6002,18 +6030,18 @@
         <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
         <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
         <v>119</v>
@@ -6028,18 +6056,18 @@
         <v>119</v>
       </c>
       <c r="J53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
         <v>119</v>
@@ -6054,44 +6082,44 @@
         <v>119</v>
       </c>
       <c r="J54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H55" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" t="s">
         <v>199</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" t="s">
-        <v>119</v>
-      </c>
-      <c r="I55" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
         <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
         <v>119</v>
@@ -6106,19 +6134,19 @@
         <v>119</v>
       </c>
       <c r="J56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
         <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
         <v>119</v>
@@ -6133,19 +6161,19 @@
         <v>119</v>
       </c>
       <c r="J57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B58" t="s">
         <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
         <v>119</v>
@@ -6160,44 +6188,44 @@
         <v>119</v>
       </c>
       <c r="J58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>776</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>770</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59" t="s">
         <v>777</v>
-      </c>
-      <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" t="s">
-        <v>771</v>
-      </c>
-      <c r="E59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" t="s">
-        <v>141</v>
-      </c>
-      <c r="H59" t="s">
-        <v>119</v>
-      </c>
-      <c r="I59" t="s">
-        <v>119</v>
-      </c>
-      <c r="J59" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B60" t="s">
         <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E60" t="s">
         <v>119</v>
@@ -6212,18 +6240,18 @@
         <v>119</v>
       </c>
       <c r="J60" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B61" t="s">
         <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E61" t="s">
         <v>119</v>
@@ -6238,18 +6266,18 @@
         <v>119</v>
       </c>
       <c r="J61" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B62" t="s">
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E62" t="s">
         <v>119</v>
@@ -6264,18 +6292,18 @@
         <v>119</v>
       </c>
       <c r="J62" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s">
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E63" t="s">
         <v>119</v>
@@ -6290,18 +6318,18 @@
         <v>119</v>
       </c>
       <c r="J63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s">
         <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E64" t="s">
         <v>119</v>
@@ -6316,18 +6344,18 @@
         <v>119</v>
       </c>
       <c r="J64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s">
         <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E65" t="s">
         <v>119</v>
@@ -6342,18 +6370,18 @@
         <v>119</v>
       </c>
       <c r="J65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B66" t="s">
         <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E66" t="s">
         <v>119</v>
@@ -6368,18 +6396,18 @@
         <v>119</v>
       </c>
       <c r="J66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B67" t="s">
         <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E67" t="s">
         <v>119</v>
@@ -6394,18 +6422,18 @@
         <v>119</v>
       </c>
       <c r="J67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E68" t="s">
         <v>119</v>
@@ -6420,18 +6448,18 @@
         <v>119</v>
       </c>
       <c r="J68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E69" t="s">
         <v>119</v>
@@ -6446,21 +6474,21 @@
         <v>119</v>
       </c>
       <c r="J69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
         <v>141</v>
@@ -6472,21 +6500,21 @@
         <v>119</v>
       </c>
       <c r="J70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F71" t="s">
         <v>141</v>
@@ -6498,21 +6526,21 @@
         <v>119</v>
       </c>
       <c r="J71" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B72" t="s">
         <v>106</v>
       </c>
       <c r="D72" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F72" t="s">
         <v>141</v>
@@ -6524,21 +6552,21 @@
         <v>119</v>
       </c>
       <c r="J72" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B73" t="s">
         <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
         <v>141</v>
@@ -6550,21 +6578,21 @@
         <v>119</v>
       </c>
       <c r="J73" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B74" t="s">
         <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F74" t="s">
         <v>141</v>
@@ -6576,21 +6604,21 @@
         <v>119</v>
       </c>
       <c r="J74" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s">
         <v>141</v>
@@ -6602,21 +6630,21 @@
         <v>119</v>
       </c>
       <c r="J75" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B76" t="s">
         <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
         <v>141</v>
@@ -6628,21 +6656,21 @@
         <v>119</v>
       </c>
       <c r="J76" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B77" t="s">
         <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F77" t="s">
         <v>141</v>
@@ -6654,21 +6682,21 @@
         <v>119</v>
       </c>
       <c r="J77" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B78" t="s">
         <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
         <v>141</v>
@@ -6680,21 +6708,21 @@
         <v>119</v>
       </c>
       <c r="J78" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B79" t="s">
         <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
         <v>141</v>
@@ -6706,21 +6734,21 @@
         <v>119</v>
       </c>
       <c r="J79" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B80" t="s">
         <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
         <v>141</v>
@@ -6732,21 +6760,21 @@
         <v>119</v>
       </c>
       <c r="J80" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B81" t="s">
         <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
         <v>141</v>
@@ -6758,21 +6786,21 @@
         <v>119</v>
       </c>
       <c r="J81" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B82" t="s">
         <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
         <v>141</v>
@@ -6784,21 +6812,21 @@
         <v>119</v>
       </c>
       <c r="J82" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B83" t="s">
         <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
         <v>141</v>
@@ -6810,21 +6838,21 @@
         <v>119</v>
       </c>
       <c r="J83" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B84" t="s">
         <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
         <v>141</v>
@@ -6836,21 +6864,21 @@
         <v>119</v>
       </c>
       <c r="J84" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B85" t="s">
         <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
         <v>141</v>
@@ -6862,21 +6890,21 @@
         <v>119</v>
       </c>
       <c r="J85" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B86" t="s">
         <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F86" t="s">
         <v>141</v>
@@ -6888,21 +6916,21 @@
         <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B87" t="s">
         <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F87" t="s">
         <v>141</v>
@@ -6914,21 +6942,21 @@
         <v>119</v>
       </c>
       <c r="J87" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B88" t="s">
         <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F88" t="s">
         <v>141</v>
@@ -6940,21 +6968,21 @@
         <v>119</v>
       </c>
       <c r="J88" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B89" t="s">
         <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F89" t="s">
         <v>141</v>
@@ -6966,21 +6994,21 @@
         <v>119</v>
       </c>
       <c r="J89" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B90" t="s">
         <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F90" t="s">
         <v>141</v>
@@ -6992,21 +7020,21 @@
         <v>119</v>
       </c>
       <c r="J90" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F91" t="s">
         <v>141</v>
@@ -7018,18 +7046,18 @@
         <v>119</v>
       </c>
       <c r="J91" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E92" t="s">
         <v>119</v>
@@ -7044,18 +7072,18 @@
         <v>119</v>
       </c>
       <c r="J92" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B93" t="s">
         <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E93" t="s">
         <v>119</v>
@@ -7070,18 +7098,18 @@
         <v>119</v>
       </c>
       <c r="J93" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B94" t="s">
         <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E94" t="s">
         <v>119</v>
@@ -7096,18 +7124,18 @@
         <v>119</v>
       </c>
       <c r="J94" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
       </c>
       <c r="D95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E95" t="s">
         <v>119</v>
@@ -7122,21 +7150,21 @@
         <v>119</v>
       </c>
       <c r="J95" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B96" t="s">
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F96" t="s">
         <v>141</v>
@@ -7148,21 +7176,21 @@
         <v>119</v>
       </c>
       <c r="J96" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F97" t="s">
         <v>141</v>
@@ -7174,21 +7202,21 @@
         <v>119</v>
       </c>
       <c r="J97" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B98" t="s">
         <v>106</v>
       </c>
       <c r="D98" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F98" t="s">
         <v>141</v>
@@ -7200,21 +7228,21 @@
         <v>119</v>
       </c>
       <c r="J98" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F99" t="s">
         <v>141</v>
@@ -7226,18 +7254,18 @@
         <v>119</v>
       </c>
       <c r="J99" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E100" t="s">
         <v>119</v>
@@ -7252,21 +7280,21 @@
         <v>119</v>
       </c>
       <c r="J100" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F101" t="s">
         <v>141</v>
@@ -7278,21 +7306,21 @@
         <v>119</v>
       </c>
       <c r="J101" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F102" t="s">
         <v>141</v>
@@ -7304,21 +7332,21 @@
         <v>119</v>
       </c>
       <c r="J102" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B103" t="s">
         <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F103" t="s">
         <v>141</v>
@@ -7330,21 +7358,21 @@
         <v>119</v>
       </c>
       <c r="J103" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F104" t="s">
         <v>141</v>
@@ -7356,21 +7384,21 @@
         <v>119</v>
       </c>
       <c r="J104" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F105" t="s">
         <v>142</v>
@@ -7382,18 +7410,18 @@
         <v>119</v>
       </c>
       <c r="J105" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
       <c r="D106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E106" t="s">
         <v>119</v>
@@ -7408,18 +7436,18 @@
         <v>119</v>
       </c>
       <c r="J106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E107" t="s">
         <v>119</v>
@@ -7434,44 +7462,44 @@
         <v>119</v>
       </c>
       <c r="J107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>551</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>286</v>
+      </c>
+      <c r="E108" t="s">
+        <v>119</v>
+      </c>
+      <c r="F108" t="s">
+        <v>141</v>
+      </c>
+      <c r="H108" t="s">
+        <v>119</v>
+      </c>
+      <c r="I108" t="s">
+        <v>119</v>
+      </c>
+      <c r="J108" t="s">
         <v>552</v>
-      </c>
-      <c r="B108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" t="s">
-        <v>287</v>
-      </c>
-      <c r="E108" t="s">
-        <v>119</v>
-      </c>
-      <c r="F108" t="s">
-        <v>141</v>
-      </c>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-      <c r="I108" t="s">
-        <v>119</v>
-      </c>
-      <c r="J108" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B109" t="s">
         <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E109" t="s">
         <v>119</v>
@@ -7486,18 +7514,18 @@
         <v>119</v>
       </c>
       <c r="J109" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B110" t="s">
         <v>106</v>
       </c>
       <c r="D110" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E110" t="s">
         <v>119</v>
@@ -7512,21 +7540,21 @@
         <v>119</v>
       </c>
       <c r="J110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B111" t="s">
         <v>106</v>
       </c>
       <c r="D111" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F111" t="s">
         <v>141</v>
@@ -7538,21 +7566,21 @@
         <v>119</v>
       </c>
       <c r="J111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B112" t="s">
         <v>106</v>
       </c>
       <c r="D112" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F112" t="s">
         <v>141</v>
@@ -7564,21 +7592,21 @@
         <v>119</v>
       </c>
       <c r="J112" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B113" t="s">
         <v>106</v>
       </c>
       <c r="D113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F113" t="s">
         <v>141</v>
@@ -7590,21 +7618,21 @@
         <v>119</v>
       </c>
       <c r="J113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B114" t="s">
         <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F114" t="s">
         <v>141</v>
@@ -7616,18 +7644,18 @@
         <v>119</v>
       </c>
       <c r="J114" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B115" t="s">
         <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E115" t="s">
         <v>119</v>
@@ -7642,7 +7670,7 @@
         <v>119</v>
       </c>
       <c r="J115" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -7653,7 +7681,7 @@
         <v>106</v>
       </c>
       <c r="D116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E116" t="s">
         <v>119</v>
@@ -7668,44 +7696,44 @@
         <v>119</v>
       </c>
       <c r="J116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>948</v>
+      </c>
+      <c r="B117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" t="s">
         <v>949</v>
       </c>
-      <c r="B117" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" t="s">
+        <v>141</v>
+      </c>
+      <c r="H117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I117" t="s">
+        <v>119</v>
+      </c>
+      <c r="J117" t="s">
         <v>950</v>
-      </c>
-      <c r="E117" t="s">
-        <v>119</v>
-      </c>
-      <c r="F117" t="s">
-        <v>141</v>
-      </c>
-      <c r="H117" t="s">
-        <v>119</v>
-      </c>
-      <c r="I117" t="s">
-        <v>119</v>
-      </c>
-      <c r="J117" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B118" t="s">
         <v>106</v>
       </c>
       <c r="D118" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E118" t="s">
         <v>119</v>
@@ -7720,44 +7748,44 @@
         <v>119</v>
       </c>
       <c r="J118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B119" t="s">
         <v>106</v>
       </c>
       <c r="D119" t="s">
+        <v>480</v>
+      </c>
+      <c r="E119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F119" t="s">
+        <v>141</v>
+      </c>
+      <c r="H119" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" t="s">
+        <v>119</v>
+      </c>
+      <c r="J119" t="s">
         <v>481</v>
-      </c>
-      <c r="E119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="H119" t="s">
-        <v>119</v>
-      </c>
-      <c r="I119" t="s">
-        <v>119</v>
-      </c>
-      <c r="J119" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B120" t="s">
         <v>106</v>
       </c>
       <c r="D120" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E120" t="s">
         <v>119</v>
@@ -7772,19 +7800,19 @@
         <v>119</v>
       </c>
       <c r="J120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>282</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" t="s">
         <v>283</v>
       </c>
-      <c r="B121" t="s">
-        <v>106</v>
-      </c>
-      <c r="D121" t="s">
-        <v>284</v>
-      </c>
       <c r="E121" t="s">
         <v>119</v>
       </c>
@@ -7798,18 +7826,18 @@
         <v>119</v>
       </c>
       <c r="J121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B122" t="s">
         <v>106</v>
       </c>
       <c r="D122" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E122" t="s">
         <v>119</v>
@@ -7824,18 +7852,18 @@
         <v>119</v>
       </c>
       <c r="J122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B123" t="s">
         <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E123" t="s">
         <v>119</v>
@@ -7850,18 +7878,18 @@
         <v>119</v>
       </c>
       <c r="J123" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B124" t="s">
         <v>106</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E124" t="s">
         <v>119</v>
@@ -7876,18 +7904,18 @@
         <v>119</v>
       </c>
       <c r="J124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B125" t="s">
         <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E125" t="s">
         <v>119</v>
@@ -7902,18 +7930,18 @@
         <v>119</v>
       </c>
       <c r="J125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B126" t="s">
         <v>106</v>
       </c>
       <c r="D126" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E126" t="s">
         <v>119</v>
@@ -7928,18 +7956,18 @@
         <v>119</v>
       </c>
       <c r="J126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
         <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E127" t="s">
         <v>119</v>
@@ -7954,18 +7982,18 @@
         <v>119</v>
       </c>
       <c r="J127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B128" t="s">
         <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E128" t="s">
         <v>119</v>
@@ -7980,18 +8008,18 @@
         <v>119</v>
       </c>
       <c r="J128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B129" t="s">
         <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E129" t="s">
         <v>119</v>
@@ -8006,18 +8034,18 @@
         <v>119</v>
       </c>
       <c r="J129" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B130" t="s">
         <v>106</v>
       </c>
       <c r="D130" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E130" t="s">
         <v>119</v>
@@ -8032,18 +8060,18 @@
         <v>119</v>
       </c>
       <c r="J130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B131" t="s">
         <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E131" t="s">
         <v>119</v>
@@ -8058,18 +8086,18 @@
         <v>119</v>
       </c>
       <c r="J131" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B132" t="s">
         <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E132" t="s">
         <v>119</v>
@@ -8084,19 +8112,19 @@
         <v>119</v>
       </c>
       <c r="J132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" t="s">
+        <v>106</v>
+      </c>
+      <c r="D133" t="s">
         <v>314</v>
       </c>
-      <c r="B133" t="s">
-        <v>106</v>
-      </c>
-      <c r="D133" t="s">
-        <v>315</v>
-      </c>
       <c r="E133" t="s">
         <v>119</v>
       </c>
@@ -8110,18 +8138,18 @@
         <v>119</v>
       </c>
       <c r="J133" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B134" t="s">
         <v>106</v>
       </c>
       <c r="D134" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E134" t="s">
         <v>119</v>
@@ -8136,21 +8164,21 @@
         <v>119</v>
       </c>
       <c r="J134" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B135" t="s">
         <v>106</v>
       </c>
       <c r="D135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E135" t="s">
         <v>119</v>
@@ -8165,21 +8193,21 @@
         <v>119</v>
       </c>
       <c r="J135" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K135" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B136" t="s">
         <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E136" t="s">
         <v>119</v>
@@ -8194,21 +8222,21 @@
         <v>119</v>
       </c>
       <c r="J136" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K136" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B137" t="s">
         <v>106</v>
       </c>
       <c r="D137" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E137" t="s">
         <v>119</v>
@@ -8223,21 +8251,21 @@
         <v>119</v>
       </c>
       <c r="J137" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B138" t="s">
         <v>106</v>
       </c>
       <c r="D138" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E138" t="s">
         <v>119</v>
@@ -8252,21 +8280,21 @@
         <v>119</v>
       </c>
       <c r="J138" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B139" t="s">
         <v>106</v>
       </c>
       <c r="D139" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E139" t="s">
         <v>119</v>
@@ -8281,18 +8309,18 @@
         <v>119</v>
       </c>
       <c r="J139" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B140" t="s">
         <v>106</v>
       </c>
       <c r="D140" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E140" t="s">
         <v>119</v>
@@ -8307,19 +8335,19 @@
         <v>119</v>
       </c>
       <c r="J140" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>295</v>
+      </c>
+      <c r="B141" t="s">
+        <v>106</v>
+      </c>
+      <c r="D141" t="s">
         <v>296</v>
       </c>
-      <c r="B141" t="s">
-        <v>106</v>
-      </c>
-      <c r="D141" t="s">
-        <v>297</v>
-      </c>
       <c r="E141" t="s">
         <v>119</v>
       </c>
@@ -8333,18 +8361,18 @@
         <v>119</v>
       </c>
       <c r="J141" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B142" t="s">
         <v>106</v>
       </c>
       <c r="D142" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E142" t="s">
         <v>119</v>
@@ -8359,18 +8387,18 @@
         <v>119</v>
       </c>
       <c r="J142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B143" t="s">
         <v>106</v>
       </c>
       <c r="D143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E143" t="s">
         <v>119</v>
@@ -8385,19 +8413,19 @@
         <v>119</v>
       </c>
       <c r="J143" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>591</v>
+      </c>
+      <c r="B144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D144" t="s">
         <v>592</v>
       </c>
-      <c r="B144" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" t="s">
-        <v>593</v>
-      </c>
       <c r="E144" t="s">
         <v>119</v>
       </c>
@@ -8411,18 +8439,18 @@
         <v>119</v>
       </c>
       <c r="J144" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B145" t="s">
         <v>106</v>
       </c>
       <c r="D145" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E145" t="s">
         <v>119</v>
@@ -8437,18 +8465,18 @@
         <v>119</v>
       </c>
       <c r="J145" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B146" t="s">
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E146" t="s">
         <v>119</v>
@@ -8463,18 +8491,18 @@
         <v>119</v>
       </c>
       <c r="J146" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B147" t="s">
         <v>106</v>
       </c>
       <c r="D147" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E147" t="s">
         <v>119</v>
@@ -8489,18 +8517,18 @@
         <v>119</v>
       </c>
       <c r="J147" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B148" t="s">
         <v>106</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E148" t="s">
         <v>119</v>
@@ -8515,7 +8543,7 @@
         <v>119</v>
       </c>
       <c r="J148" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K148" s="3"/>
     </row>
@@ -8524,7 +8552,7 @@
         <v>106</v>
       </c>
       <c r="D149" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E149" t="s">
         <v>119</v>
@@ -8539,19 +8567,19 @@
         <v>119</v>
       </c>
       <c r="J149" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K149" s="3"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B150" t="s">
         <v>106</v>
       </c>
       <c r="D150" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E150" t="s">
         <v>119</v>
@@ -8566,19 +8594,19 @@
         <v>119</v>
       </c>
       <c r="J150" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K150" s="3"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B151" t="s">
         <v>106</v>
       </c>
       <c r="D151" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E151" t="s">
         <v>119</v>
@@ -8593,7 +8621,7 @@
         <v>119</v>
       </c>
       <c r="J151" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K151" s="3"/>
     </row>
@@ -8602,7 +8630,7 @@
         <v>106</v>
       </c>
       <c r="D152" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E152" t="s">
         <v>119</v>
@@ -8617,7 +8645,7 @@
         <v>119</v>
       </c>
       <c r="J152" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K152" s="3"/>
     </row>
@@ -8626,7 +8654,7 @@
         <v>106</v>
       </c>
       <c r="D153" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E153" t="s">
         <v>119</v>
@@ -8641,7 +8669,7 @@
         <v>119</v>
       </c>
       <c r="J153" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K153" s="3"/>
     </row>
@@ -8650,7 +8678,7 @@
         <v>106</v>
       </c>
       <c r="D154" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E154" t="s">
         <v>119</v>
@@ -8665,19 +8693,19 @@
         <v>119</v>
       </c>
       <c r="J154" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K154" s="3"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B155" t="s">
         <v>106</v>
       </c>
       <c r="D155" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E155" t="s">
         <v>119</v>
@@ -8692,19 +8720,19 @@
         <v>119</v>
       </c>
       <c r="J155" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K155" s="3"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B156" t="s">
         <v>106</v>
       </c>
       <c r="D156" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E156" t="s">
         <v>119</v>
@@ -8719,7 +8747,7 @@
         <v>119</v>
       </c>
       <c r="J156" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K156" s="3"/>
     </row>
@@ -8728,7 +8756,7 @@
         <v>106</v>
       </c>
       <c r="D157" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E157" t="s">
         <v>119</v>
@@ -8743,7 +8771,7 @@
         <v>119</v>
       </c>
       <c r="J157" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K157" s="3"/>
     </row>
@@ -8752,7 +8780,7 @@
         <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E158" t="s">
         <v>119</v>
@@ -8767,19 +8795,19 @@
         <v>119</v>
       </c>
       <c r="J158" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K158" s="3"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B159" t="s">
         <v>106</v>
       </c>
       <c r="D159" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E159" t="s">
         <v>119</v>
@@ -8794,18 +8822,18 @@
         <v>119</v>
       </c>
       <c r="J159" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
         <v>106</v>
       </c>
       <c r="D160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E160" t="s">
         <v>119</v>
@@ -8820,18 +8848,18 @@
         <v>119</v>
       </c>
       <c r="J160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B161" t="s">
         <v>106</v>
       </c>
       <c r="D161" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E161" t="s">
         <v>119</v>
@@ -8846,18 +8874,18 @@
         <v>119</v>
       </c>
       <c r="J161" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B162" t="s">
         <v>106</v>
       </c>
       <c r="D162" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E162" t="s">
         <v>119</v>
@@ -8872,18 +8900,18 @@
         <v>119</v>
       </c>
       <c r="J162" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B163" t="s">
         <v>106</v>
       </c>
       <c r="D163" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E163" t="s">
         <v>119</v>
@@ -8898,18 +8926,18 @@
         <v>119</v>
       </c>
       <c r="J163" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B164" t="s">
         <v>106</v>
       </c>
       <c r="D164" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E164" t="s">
         <v>119</v>
@@ -8924,18 +8952,18 @@
         <v>119</v>
       </c>
       <c r="J164" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B165" t="s">
         <v>106</v>
       </c>
       <c r="D165" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E165" t="s">
         <v>119</v>
@@ -8950,18 +8978,18 @@
         <v>119</v>
       </c>
       <c r="J165" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B166" t="s">
         <v>106</v>
       </c>
       <c r="D166" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E166" t="s">
         <v>119</v>
@@ -8976,18 +9004,18 @@
         <v>119</v>
       </c>
       <c r="J166" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B167" t="s">
         <v>106</v>
       </c>
       <c r="D167" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E167" t="s">
         <v>119</v>
@@ -9002,18 +9030,18 @@
         <v>119</v>
       </c>
       <c r="J167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B168" t="s">
         <v>106</v>
       </c>
       <c r="D168" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E168" t="s">
         <v>119</v>
@@ -9028,18 +9056,18 @@
         <v>119</v>
       </c>
       <c r="J168" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B169" t="s">
         <v>106</v>
       </c>
       <c r="D169" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E169" t="s">
         <v>119</v>
@@ -9054,18 +9082,18 @@
         <v>119</v>
       </c>
       <c r="J169" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B170" t="s">
         <v>106</v>
       </c>
       <c r="D170" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E170" t="s">
         <v>119</v>
@@ -9080,18 +9108,18 @@
         <v>119</v>
       </c>
       <c r="J170" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B171" t="s">
         <v>106</v>
       </c>
       <c r="D171" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E171" t="s">
         <v>119</v>
@@ -9106,21 +9134,21 @@
         <v>119</v>
       </c>
       <c r="J171" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>504</v>
+      </c>
+      <c r="B172" t="s">
+        <v>106</v>
+      </c>
+      <c r="D172" t="s">
         <v>505</v>
       </c>
-      <c r="B172" t="s">
-        <v>106</v>
-      </c>
-      <c r="D172" t="s">
-        <v>506</v>
-      </c>
       <c r="E172" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F172" t="s">
         <v>141</v>
@@ -9132,21 +9160,21 @@
         <v>119</v>
       </c>
       <c r="J172" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B173" t="s">
         <v>106</v>
       </c>
       <c r="D173" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E173" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F173" t="s">
         <v>141</v>
@@ -9158,18 +9186,18 @@
         <v>119</v>
       </c>
       <c r="J173" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B174" t="s">
         <v>106</v>
       </c>
       <c r="D174" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E174" t="s">
         <v>119</v>
@@ -9184,18 +9212,18 @@
         <v>119</v>
       </c>
       <c r="J174" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B175" t="s">
         <v>106</v>
       </c>
       <c r="D175" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E175" t="s">
         <v>119</v>
@@ -9210,70 +9238,70 @@
         <v>119</v>
       </c>
       <c r="J175" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B176" t="s">
         <v>106</v>
       </c>
       <c r="D176" t="s">
+        <v>520</v>
+      </c>
+      <c r="E176" t="s">
+        <v>119</v>
+      </c>
+      <c r="F176" t="s">
+        <v>141</v>
+      </c>
+      <c r="H176" t="s">
+        <v>119</v>
+      </c>
+      <c r="I176" t="s">
+        <v>119</v>
+      </c>
+      <c r="J176" t="s">
         <v>521</v>
-      </c>
-      <c r="E176" t="s">
-        <v>119</v>
-      </c>
-      <c r="F176" t="s">
-        <v>141</v>
-      </c>
-      <c r="H176" t="s">
-        <v>119</v>
-      </c>
-      <c r="I176" t="s">
-        <v>119</v>
-      </c>
-      <c r="J176" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>483</v>
+      </c>
+      <c r="B177" t="s">
+        <v>106</v>
+      </c>
+      <c r="D177" t="s">
         <v>484</v>
       </c>
-      <c r="B177" t="s">
-        <v>106</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
+        <v>119</v>
+      </c>
+      <c r="F177" t="s">
+        <v>141</v>
+      </c>
+      <c r="H177" t="s">
+        <v>119</v>
+      </c>
+      <c r="I177" t="s">
+        <v>119</v>
+      </c>
+      <c r="J177" t="s">
         <v>485</v>
-      </c>
-      <c r="E177" t="s">
-        <v>119</v>
-      </c>
-      <c r="F177" t="s">
-        <v>141</v>
-      </c>
-      <c r="H177" t="s">
-        <v>119</v>
-      </c>
-      <c r="I177" t="s">
-        <v>119</v>
-      </c>
-      <c r="J177" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B178" t="s">
         <v>106</v>
       </c>
       <c r="D178" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E178" t="s">
         <v>119</v>
@@ -9288,18 +9316,18 @@
         <v>119</v>
       </c>
       <c r="J178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
         <v>106</v>
       </c>
       <c r="D179" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E179" t="s">
         <v>119</v>
@@ -9314,19 +9342,19 @@
         <v>119</v>
       </c>
       <c r="J179" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>316</v>
+      </c>
+      <c r="B180" t="s">
+        <v>106</v>
+      </c>
+      <c r="D180" t="s">
         <v>317</v>
       </c>
-      <c r="B180" t="s">
-        <v>106</v>
-      </c>
-      <c r="D180" t="s">
-        <v>318</v>
-      </c>
       <c r="E180" t="s">
         <v>119</v>
       </c>
@@ -9340,18 +9368,18 @@
         <v>119</v>
       </c>
       <c r="J180" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B181" t="s">
         <v>106</v>
       </c>
       <c r="D181" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E181" t="s">
         <v>119</v>
@@ -9366,18 +9394,18 @@
         <v>119</v>
       </c>
       <c r="J181" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B182" t="s">
         <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E182" t="s">
         <v>119</v>
@@ -9392,44 +9420,44 @@
         <v>119</v>
       </c>
       <c r="J182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>486</v>
+      </c>
+      <c r="B183" t="s">
+        <v>106</v>
+      </c>
+      <c r="D183" t="s">
         <v>487</v>
       </c>
-      <c r="B183" t="s">
-        <v>106</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
+        <v>119</v>
+      </c>
+      <c r="F183" t="s">
+        <v>141</v>
+      </c>
+      <c r="H183" t="s">
+        <v>119</v>
+      </c>
+      <c r="I183" t="s">
+        <v>119</v>
+      </c>
+      <c r="J183" t="s">
         <v>488</v>
-      </c>
-      <c r="E183" t="s">
-        <v>119</v>
-      </c>
-      <c r="F183" t="s">
-        <v>141</v>
-      </c>
-      <c r="H183" t="s">
-        <v>119</v>
-      </c>
-      <c r="I183" t="s">
-        <v>119</v>
-      </c>
-      <c r="J183" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B184" t="s">
         <v>106</v>
       </c>
       <c r="D184" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E184" t="s">
         <v>119</v>
@@ -9444,18 +9472,18 @@
         <v>119</v>
       </c>
       <c r="J184" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B185" t="s">
         <v>106</v>
       </c>
       <c r="D185" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E185" t="s">
         <v>119</v>
@@ -9470,18 +9498,18 @@
         <v>119</v>
       </c>
       <c r="J185" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B186" t="s">
         <v>106</v>
       </c>
       <c r="D186" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E186" t="s">
         <v>119</v>
@@ -9496,18 +9524,18 @@
         <v>119</v>
       </c>
       <c r="J186" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B187" t="s">
         <v>106</v>
       </c>
       <c r="D187" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E187" t="s">
         <v>119</v>
@@ -9522,18 +9550,18 @@
         <v>119</v>
       </c>
       <c r="J187" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B188" t="s">
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E188" t="s">
         <v>119</v>
@@ -9548,18 +9576,18 @@
         <v>119</v>
       </c>
       <c r="J188" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B189" t="s">
         <v>106</v>
       </c>
       <c r="D189" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E189" t="s">
         <v>119</v>
@@ -9574,18 +9602,18 @@
         <v>119</v>
       </c>
       <c r="J189" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B190" t="s">
         <v>106</v>
       </c>
       <c r="D190" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E190" t="s">
         <v>119</v>
@@ -9600,19 +9628,19 @@
         <v>119</v>
       </c>
       <c r="J190" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>511</v>
+      </c>
+      <c r="B191" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" t="s">
         <v>512</v>
       </c>
-      <c r="B191" t="s">
-        <v>106</v>
-      </c>
-      <c r="D191" t="s">
-        <v>513</v>
-      </c>
       <c r="E191" t="s">
         <v>119</v>
       </c>
@@ -9626,44 +9654,44 @@
         <v>119</v>
       </c>
       <c r="J191" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B192" t="s">
         <v>106</v>
       </c>
       <c r="D192" t="s">
+        <v>513</v>
+      </c>
+      <c r="E192" t="s">
+        <v>119</v>
+      </c>
+      <c r="F192" t="s">
+        <v>141</v>
+      </c>
+      <c r="H192" t="s">
+        <v>119</v>
+      </c>
+      <c r="I192" t="s">
+        <v>119</v>
+      </c>
+      <c r="J192" t="s">
         <v>514</v>
-      </c>
-      <c r="E192" t="s">
-        <v>119</v>
-      </c>
-      <c r="F192" t="s">
-        <v>141</v>
-      </c>
-      <c r="H192" t="s">
-        <v>119</v>
-      </c>
-      <c r="I192" t="s">
-        <v>119</v>
-      </c>
-      <c r="J192" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B193" t="s">
         <v>106</v>
       </c>
       <c r="D193" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E193" t="s">
         <v>119</v>
@@ -9678,18 +9706,18 @@
         <v>119</v>
       </c>
       <c r="J193" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B194" t="s">
         <v>106</v>
       </c>
       <c r="D194" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E194" t="s">
         <v>119</v>
@@ -9704,18 +9732,18 @@
         <v>119</v>
       </c>
       <c r="J194" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B195" t="s">
         <v>106</v>
       </c>
       <c r="D195" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E195" t="s">
         <v>119</v>
@@ -9730,18 +9758,18 @@
         <v>119</v>
       </c>
       <c r="J195" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B196" t="s">
         <v>106</v>
       </c>
       <c r="D196" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E196" t="s">
         <v>119</v>
@@ -9756,18 +9784,18 @@
         <v>119</v>
       </c>
       <c r="J196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B197" t="s">
         <v>106</v>
       </c>
       <c r="D197" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E197" t="s">
         <v>119</v>
@@ -9782,21 +9810,21 @@
         <v>119</v>
       </c>
       <c r="J197" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B198" t="s">
         <v>106</v>
       </c>
       <c r="D198" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E198" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F198" t="s">
         <v>141</v>
@@ -9808,21 +9836,21 @@
         <v>119</v>
       </c>
       <c r="J198" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B199" t="s">
         <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F199" t="s">
         <v>141</v>
@@ -9834,21 +9862,21 @@
         <v>119</v>
       </c>
       <c r="J199" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B200" t="s">
         <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F200" t="s">
         <v>141</v>
@@ -9860,21 +9888,21 @@
         <v>119</v>
       </c>
       <c r="J200" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B201" t="s">
         <v>106</v>
       </c>
       <c r="D201" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F201" t="s">
         <v>141</v>
@@ -9886,21 +9914,21 @@
         <v>119</v>
       </c>
       <c r="J201" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B202" t="s">
         <v>106</v>
       </c>
       <c r="D202" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E202" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F202" t="s">
         <v>141</v>
@@ -9912,21 +9940,21 @@
         <v>119</v>
       </c>
       <c r="J202" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B203" t="s">
         <v>106</v>
       </c>
       <c r="D203" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E203" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F203" t="s">
         <v>141</v>
@@ -9938,21 +9966,21 @@
         <v>119</v>
       </c>
       <c r="J203" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B204" t="s">
         <v>106</v>
       </c>
       <c r="D204" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F204" t="s">
         <v>141</v>
@@ -9964,21 +9992,21 @@
         <v>119</v>
       </c>
       <c r="J204" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B205" t="s">
         <v>106</v>
       </c>
       <c r="D205" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F205" t="s">
         <v>141</v>
@@ -9990,18 +10018,18 @@
         <v>119</v>
       </c>
       <c r="J205" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
         <v>106</v>
       </c>
       <c r="D206" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E206" t="s">
         <v>119</v>
@@ -10016,19 +10044,19 @@
         <v>119</v>
       </c>
       <c r="J206" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>829</v>
+      </c>
+      <c r="B207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" t="s">
         <v>830</v>
       </c>
-      <c r="B207" t="s">
-        <v>106</v>
-      </c>
-      <c r="D207" t="s">
-        <v>831</v>
-      </c>
       <c r="E207" t="s">
         <v>119</v>
       </c>
@@ -10042,19 +10070,19 @@
         <v>119</v>
       </c>
       <c r="J207" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>831</v>
+      </c>
+      <c r="B208" t="s">
+        <v>106</v>
+      </c>
+      <c r="D208" t="s">
         <v>832</v>
       </c>
-      <c r="B208" t="s">
-        <v>106</v>
-      </c>
-      <c r="D208" t="s">
-        <v>833</v>
-      </c>
       <c r="E208" t="s">
         <v>119</v>
       </c>
@@ -10068,19 +10096,19 @@
         <v>119</v>
       </c>
       <c r="J208" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>833</v>
+      </c>
+      <c r="B209" t="s">
+        <v>106</v>
+      </c>
+      <c r="D209" t="s">
         <v>834</v>
       </c>
-      <c r="B209" t="s">
-        <v>106</v>
-      </c>
-      <c r="D209" t="s">
-        <v>835</v>
-      </c>
       <c r="E209" t="s">
         <v>119</v>
       </c>
@@ -10094,19 +10122,19 @@
         <v>119</v>
       </c>
       <c r="J209" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>835</v>
+      </c>
+      <c r="B210" t="s">
+        <v>106</v>
+      </c>
+      <c r="D210" t="s">
         <v>836</v>
       </c>
-      <c r="B210" t="s">
-        <v>106</v>
-      </c>
-      <c r="D210" t="s">
-        <v>837</v>
-      </c>
       <c r="E210" t="s">
         <v>119</v>
       </c>
@@ -10120,21 +10148,21 @@
         <v>119</v>
       </c>
       <c r="J210" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>837</v>
+      </c>
+      <c r="B211" t="s">
+        <v>106</v>
+      </c>
+      <c r="D211" t="s">
         <v>838</v>
       </c>
-      <c r="B211" t="s">
-        <v>106</v>
-      </c>
-      <c r="D211" t="s">
-        <v>839</v>
-      </c>
       <c r="E211" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F211" t="s">
         <v>141</v>
@@ -10146,73 +10174,73 @@
         <v>119</v>
       </c>
       <c r="J211" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>839</v>
+      </c>
+      <c r="B212" t="s">
+        <v>106</v>
+      </c>
+      <c r="D212" t="s">
         <v>840</v>
       </c>
-      <c r="B212" t="s">
-        <v>106</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
+        <v>152</v>
+      </c>
+      <c r="F212" t="s">
+        <v>141</v>
+      </c>
+      <c r="H212" t="s">
+        <v>119</v>
+      </c>
+      <c r="I212" t="s">
+        <v>119</v>
+      </c>
+      <c r="J212" t="s">
         <v>841</v>
-      </c>
-      <c r="E212" t="s">
-        <v>153</v>
-      </c>
-      <c r="F212" t="s">
-        <v>141</v>
-      </c>
-      <c r="H212" t="s">
-        <v>119</v>
-      </c>
-      <c r="I212" t="s">
-        <v>119</v>
-      </c>
-      <c r="J212" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>842</v>
+      </c>
+      <c r="B213" t="s">
+        <v>106</v>
+      </c>
+      <c r="D213" t="s">
         <v>843</v>
       </c>
-      <c r="B213" t="s">
-        <v>106</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
+        <v>152</v>
+      </c>
+      <c r="F213" t="s">
+        <v>141</v>
+      </c>
+      <c r="H213" t="s">
+        <v>119</v>
+      </c>
+      <c r="I213" t="s">
+        <v>119</v>
+      </c>
+      <c r="J213" t="s">
         <v>844</v>
-      </c>
-      <c r="E213" t="s">
-        <v>153</v>
-      </c>
-      <c r="F213" t="s">
-        <v>141</v>
-      </c>
-      <c r="H213" t="s">
-        <v>119</v>
-      </c>
-      <c r="I213" t="s">
-        <v>119</v>
-      </c>
-      <c r="J213" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B214" t="s">
         <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F214" t="s">
         <v>141</v>
@@ -10224,18 +10252,18 @@
         <v>119</v>
       </c>
       <c r="J214" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B215" t="s">
         <v>106</v>
       </c>
       <c r="D215" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E215" t="s">
         <v>119</v>
@@ -10250,18 +10278,18 @@
         <v>119</v>
       </c>
       <c r="J215" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B216" t="s">
         <v>106</v>
       </c>
       <c r="D216" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E216" t="s">
         <v>119</v>
@@ -10276,18 +10304,18 @@
         <v>119</v>
       </c>
       <c r="J216" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B217" t="s">
         <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E217" t="s">
         <v>119</v>
@@ -10302,18 +10330,18 @@
         <v>119</v>
       </c>
       <c r="J217" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B218" t="s">
         <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E218" t="s">
         <v>119</v>
@@ -10328,21 +10356,21 @@
         <v>119</v>
       </c>
       <c r="J218" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B219" t="s">
         <v>106</v>
       </c>
       <c r="D219" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E219" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F219" t="s">
         <v>141</v>
@@ -10354,21 +10382,21 @@
         <v>119</v>
       </c>
       <c r="J219" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B220" t="s">
         <v>106</v>
       </c>
       <c r="D220" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E220" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F220" t="s">
         <v>141</v>
@@ -10380,21 +10408,21 @@
         <v>119</v>
       </c>
       <c r="J220" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
       </c>
       <c r="D221" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E221" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F221" t="s">
         <v>141</v>
@@ -10406,21 +10434,21 @@
         <v>119</v>
       </c>
       <c r="J221" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B222" t="s">
         <v>106</v>
       </c>
       <c r="D222" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E222" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F222" t="s">
         <v>141</v>
@@ -10432,21 +10460,21 @@
         <v>119</v>
       </c>
       <c r="J222" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B223" t="s">
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F223" t="s">
         <v>141</v>
@@ -10458,21 +10486,21 @@
         <v>119</v>
       </c>
       <c r="J223" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E224" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F224" t="s">
         <v>141</v>
@@ -10484,21 +10512,21 @@
         <v>119</v>
       </c>
       <c r="J224" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B225" t="s">
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E225" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F225" t="s">
         <v>141</v>
@@ -10510,21 +10538,21 @@
         <v>119</v>
       </c>
       <c r="J225" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B226" t="s">
         <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E226" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F226" t="s">
         <v>141</v>
@@ -10536,21 +10564,21 @@
         <v>119</v>
       </c>
       <c r="J226" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B227" t="s">
         <v>106</v>
       </c>
       <c r="D227" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E227" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F227" t="s">
         <v>141</v>
@@ -10562,21 +10590,21 @@
         <v>119</v>
       </c>
       <c r="J227" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B228" t="s">
         <v>106</v>
       </c>
       <c r="D228" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E228" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F228" t="s">
         <v>141</v>
@@ -10588,21 +10616,21 @@
         <v>119</v>
       </c>
       <c r="J228" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B229" t="s">
         <v>106</v>
       </c>
       <c r="D229" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E229" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F229" t="s">
         <v>141</v>
@@ -10614,21 +10642,21 @@
         <v>119</v>
       </c>
       <c r="J229" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F230" t="s">
         <v>141</v>
@@ -10640,21 +10668,21 @@
         <v>119</v>
       </c>
       <c r="J230" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B231" t="s">
         <v>106</v>
       </c>
       <c r="D231" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E231" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F231" t="s">
         <v>141</v>
@@ -10666,21 +10694,21 @@
         <v>119</v>
       </c>
       <c r="J231" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B232" t="s">
         <v>106</v>
       </c>
       <c r="D232" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E232" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F232" t="s">
         <v>141</v>
@@ -10692,21 +10720,21 @@
         <v>119</v>
       </c>
       <c r="J232" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B233" t="s">
         <v>106</v>
       </c>
       <c r="D233" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E233" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F233" t="s">
         <v>141</v>
@@ -10718,18 +10746,18 @@
         <v>119</v>
       </c>
       <c r="J233" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B234" t="s">
         <v>106</v>
       </c>
       <c r="D234" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E234" t="s">
         <v>119</v>
@@ -10744,18 +10772,18 @@
         <v>119</v>
       </c>
       <c r="J234" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B235" t="s">
         <v>106</v>
       </c>
       <c r="D235" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E235" t="s">
         <v>119</v>
@@ -10770,18 +10798,18 @@
         <v>119</v>
       </c>
       <c r="J235" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B236" t="s">
         <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E236" t="s">
         <v>119</v>
@@ -10796,21 +10824,21 @@
         <v>119</v>
       </c>
       <c r="J236" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B237" t="s">
         <v>106</v>
       </c>
       <c r="D237" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E237" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F237" t="s">
         <v>141</v>
@@ -10822,18 +10850,18 @@
         <v>119</v>
       </c>
       <c r="J237" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B238" t="s">
         <v>106</v>
       </c>
       <c r="D238" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E238" t="s">
         <v>119</v>
@@ -10848,18 +10876,18 @@
         <v>119</v>
       </c>
       <c r="J238" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B239" t="s">
         <v>106</v>
       </c>
       <c r="D239" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E239" t="s">
         <v>119</v>
@@ -10874,18 +10902,18 @@
         <v>119</v>
       </c>
       <c r="J239" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B240" t="s">
         <v>106</v>
       </c>
       <c r="D240" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E240" t="s">
         <v>119</v>
@@ -10900,18 +10928,18 @@
         <v>119</v>
       </c>
       <c r="J240" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B241" t="s">
         <v>106</v>
       </c>
       <c r="D241" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E241" t="s">
         <v>119</v>
@@ -10926,47 +10954,47 @@
         <v>119</v>
       </c>
       <c r="J241" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B242" t="s">
+        <v>601</v>
+      </c>
+      <c r="D242" t="s">
+        <v>658</v>
+      </c>
+      <c r="E242" t="s">
+        <v>152</v>
+      </c>
+      <c r="F242" t="s">
+        <v>141</v>
+      </c>
+      <c r="H242" t="s">
+        <v>119</v>
+      </c>
+      <c r="I242" t="s">
+        <v>119</v>
+      </c>
+      <c r="J242" t="s">
         <v>602</v>
-      </c>
-      <c r="D242" t="s">
-        <v>659</v>
-      </c>
-      <c r="E242" t="s">
-        <v>153</v>
-      </c>
-      <c r="F242" t="s">
-        <v>141</v>
-      </c>
-      <c r="H242" t="s">
-        <v>119</v>
-      </c>
-      <c r="I242" t="s">
-        <v>119</v>
-      </c>
-      <c r="J242" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B243" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D243" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E243" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F243" t="s">
         <v>141</v>
@@ -10978,21 +11006,21 @@
         <v>119</v>
       </c>
       <c r="J243" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B244" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D244" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E244" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F244" t="s">
         <v>141</v>
@@ -11004,21 +11032,21 @@
         <v>119</v>
       </c>
       <c r="J244" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B245" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D245" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E245" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F245" t="s">
         <v>141</v>
@@ -11030,21 +11058,21 @@
         <v>119</v>
       </c>
       <c r="J245" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B246" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D246" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E246" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F246" t="s">
         <v>141</v>
@@ -11056,21 +11084,21 @@
         <v>119</v>
       </c>
       <c r="J246" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B247" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D247" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E247" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F247" t="s">
         <v>141</v>
@@ -11082,21 +11110,21 @@
         <v>119</v>
       </c>
       <c r="J247" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B248" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D248" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E248" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F248" t="s">
         <v>141</v>
@@ -11108,21 +11136,21 @@
         <v>119</v>
       </c>
       <c r="J248" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B249" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D249" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E249" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F249" t="s">
         <v>141</v>
@@ -11134,21 +11162,21 @@
         <v>119</v>
       </c>
       <c r="J249" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B250" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D250" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F250" t="s">
         <v>141</v>
@@ -11160,21 +11188,21 @@
         <v>119</v>
       </c>
       <c r="J250" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B251" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D251" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E251" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F251" t="s">
         <v>141</v>
@@ -11186,21 +11214,21 @@
         <v>119</v>
       </c>
       <c r="J251" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B252" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D252" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E252" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F252" t="s">
         <v>141</v>
@@ -11212,21 +11240,21 @@
         <v>119</v>
       </c>
       <c r="J252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B253" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D253" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E253" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F253" t="s">
         <v>141</v>
@@ -11238,21 +11266,21 @@
         <v>119</v>
       </c>
       <c r="J253" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B254" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D254" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E254" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F254" t="s">
         <v>141</v>
@@ -11264,21 +11292,21 @@
         <v>119</v>
       </c>
       <c r="J254" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B255" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D255" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E255" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F255" t="s">
         <v>141</v>
@@ -11290,21 +11318,21 @@
         <v>119</v>
       </c>
       <c r="J255" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B256" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D256" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E256" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F256" t="s">
         <v>141</v>
@@ -11316,21 +11344,21 @@
         <v>119</v>
       </c>
       <c r="J256" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B257" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D257" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E257" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F257" t="s">
         <v>141</v>
@@ -11342,21 +11370,21 @@
         <v>119</v>
       </c>
       <c r="J257" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B258" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D258" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E258" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F258" t="s">
         <v>141</v>
@@ -11368,21 +11396,21 @@
         <v>119</v>
       </c>
       <c r="J258" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B259" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D259" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E259" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F259" t="s">
         <v>141</v>
@@ -11394,21 +11422,21 @@
         <v>119</v>
       </c>
       <c r="J259" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B260" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D260" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E260" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F260" t="s">
         <v>141</v>
@@ -11420,21 +11448,21 @@
         <v>119</v>
       </c>
       <c r="J260" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B261" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D261" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E261" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F261" t="s">
         <v>141</v>
@@ -11446,21 +11474,21 @@
         <v>119</v>
       </c>
       <c r="J261" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B262" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D262" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E262" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F262" t="s">
         <v>141</v>
@@ -11472,21 +11500,21 @@
         <v>119</v>
       </c>
       <c r="J262" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B263" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D263" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E263" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F263" t="s">
         <v>141</v>
@@ -11498,21 +11526,21 @@
         <v>119</v>
       </c>
       <c r="J263" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B264" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D264" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E264" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F264" t="s">
         <v>141</v>
@@ -11524,21 +11552,21 @@
         <v>119</v>
       </c>
       <c r="J264" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B265" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D265" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E265" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F265" t="s">
         <v>141</v>
@@ -11550,21 +11578,21 @@
         <v>119</v>
       </c>
       <c r="J265" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B266" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D266" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E266" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F266" t="s">
         <v>141</v>
@@ -11576,21 +11604,21 @@
         <v>119</v>
       </c>
       <c r="J266" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B267" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D267" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E267" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F267" t="s">
         <v>141</v>
@@ -11602,21 +11630,21 @@
         <v>119</v>
       </c>
       <c r="J267" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B268" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D268" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E268" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F268" t="s">
         <v>141</v>
@@ -11628,21 +11656,21 @@
         <v>119</v>
       </c>
       <c r="J268" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B269" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D269" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E269" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F269" t="s">
         <v>141</v>
@@ -11654,21 +11682,21 @@
         <v>119</v>
       </c>
       <c r="J269" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B270" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D270" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E270" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F270" t="s">
         <v>141</v>
@@ -11680,21 +11708,21 @@
         <v>119</v>
       </c>
       <c r="J270" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B271" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D271" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E271" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F271" t="s">
         <v>141</v>
@@ -11706,21 +11734,21 @@
         <v>119</v>
       </c>
       <c r="J271" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B272" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D272" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E272" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F272" t="s">
         <v>141</v>
@@ -11732,21 +11760,21 @@
         <v>119</v>
       </c>
       <c r="J272" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B273" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D273" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E273" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F273" t="s">
         <v>141</v>
@@ -11758,21 +11786,21 @@
         <v>119</v>
       </c>
       <c r="J273" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B274" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D274" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E274" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F274" t="s">
         <v>141</v>
@@ -11784,21 +11812,21 @@
         <v>119</v>
       </c>
       <c r="J274" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B275" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D275" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E275" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F275" t="s">
         <v>141</v>
@@ -11810,21 +11838,21 @@
         <v>119</v>
       </c>
       <c r="J275" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B276" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D276" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E276" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F276" t="s">
         <v>141</v>
@@ -11836,21 +11864,21 @@
         <v>119</v>
       </c>
       <c r="J276" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B277" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D277" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E277" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F277" t="s">
         <v>141</v>
@@ -11862,21 +11890,21 @@
         <v>119</v>
       </c>
       <c r="J277" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B278" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D278" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E278" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F278" t="s">
         <v>141</v>
@@ -11888,21 +11916,21 @@
         <v>119</v>
       </c>
       <c r="J278" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B279" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D279" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E279" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F279" t="s">
         <v>141</v>
@@ -11914,47 +11942,47 @@
         <v>119</v>
       </c>
       <c r="J279" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>866</v>
+      </c>
+      <c r="B280" t="s">
+        <v>601</v>
+      </c>
+      <c r="D280" t="s">
         <v>867</v>
       </c>
-      <c r="B280" t="s">
-        <v>602</v>
-      </c>
-      <c r="D280" t="s">
+      <c r="E280" t="s">
+        <v>152</v>
+      </c>
+      <c r="F280" t="s">
+        <v>141</v>
+      </c>
+      <c r="H280" t="s">
+        <v>119</v>
+      </c>
+      <c r="I280" t="s">
+        <v>119</v>
+      </c>
+      <c r="J280" t="s">
         <v>868</v>
-      </c>
-      <c r="E280" t="s">
-        <v>153</v>
-      </c>
-      <c r="F280" t="s">
-        <v>141</v>
-      </c>
-      <c r="H280" t="s">
-        <v>119</v>
-      </c>
-      <c r="I280" t="s">
-        <v>119</v>
-      </c>
-      <c r="J280" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B281" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D281" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E281" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F281" t="s">
         <v>141</v>
@@ -11966,21 +11994,21 @@
         <v>119</v>
       </c>
       <c r="J281" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B282" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D282" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E282" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F282" t="s">
         <v>141</v>
@@ -11992,21 +12020,21 @@
         <v>119</v>
       </c>
       <c r="J282" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B283" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D283" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E283" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F283" t="s">
         <v>141</v>
@@ -12018,21 +12046,21 @@
         <v>119</v>
       </c>
       <c r="J283" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B284" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D284" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E284" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F284" t="s">
         <v>141</v>
@@ -12044,18 +12072,18 @@
         <v>119</v>
       </c>
       <c r="J284" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B285" t="s">
         <v>106</v>
       </c>
       <c r="D285" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E285" t="s">
         <v>119</v>
@@ -12070,18 +12098,18 @@
         <v>119</v>
       </c>
       <c r="J285" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B286" t="s">
         <v>106</v>
       </c>
       <c r="D286" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E286" t="s">
         <v>119</v>
@@ -12096,18 +12124,18 @@
         <v>119</v>
       </c>
       <c r="J286" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B287" t="s">
         <v>106</v>
       </c>
       <c r="D287" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E287" t="s">
         <v>119</v>
@@ -12122,7 +12150,7 @@
         <v>119</v>
       </c>
       <c r="J287" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -12142,10 +12170,10 @@
         <v>119</v>
       </c>
       <c r="I288" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J288" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K288" s="3"/>
     </row>
@@ -12166,13 +12194,13 @@
         <v>119</v>
       </c>
       <c r="I289" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J289" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K289" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -12192,10 +12220,10 @@
         <v>119</v>
       </c>
       <c r="I290" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J290" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -12215,13 +12243,13 @@
         <v>119</v>
       </c>
       <c r="I291" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J291" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K291" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -12241,24 +12269,24 @@
         <v>119</v>
       </c>
       <c r="I292" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J292" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K292" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B293" t="s">
         <v>106</v>
       </c>
       <c r="C293" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E293" t="s">
         <v>119</v>
@@ -12267,15 +12295,15 @@
         <v>142</v>
       </c>
       <c r="H293" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J293" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B294" t="s">
         <v>106</v>
@@ -12287,30 +12315,30 @@
         <v>141</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J294" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B295" t="s">
         <v>106</v>
       </c>
       <c r="E295" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F295" t="s">
         <v>141</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J295" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -12321,16 +12349,16 @@
         <v>106</v>
       </c>
       <c r="E296" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F296" t="s">
         <v>141</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J296" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -12341,16 +12369,16 @@
         <v>106</v>
       </c>
       <c r="E297" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F297" t="s">
         <v>141</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J297" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -12361,16 +12389,16 @@
         <v>106</v>
       </c>
       <c r="E298" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F298" t="s">
         <v>141</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J298" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -12381,16 +12409,16 @@
         <v>106</v>
       </c>
       <c r="E299" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F299" t="s">
         <v>141</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J299" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -12401,16 +12429,16 @@
         <v>106</v>
       </c>
       <c r="E300" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F300" t="s">
         <v>141</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J300" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -12421,16 +12449,16 @@
         <v>106</v>
       </c>
       <c r="E301" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F301" t="s">
         <v>141</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J301" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -12441,16 +12469,16 @@
         <v>106</v>
       </c>
       <c r="E302" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F302" t="s">
         <v>141</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J302" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -12461,56 +12489,56 @@
         <v>106</v>
       </c>
       <c r="E303" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F303" t="s">
         <v>141</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J303" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B304" t="s">
         <v>106</v>
       </c>
       <c r="E304" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F304" t="s">
         <v>141</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J304" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B305" t="s">
         <v>106</v>
       </c>
       <c r="E305" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F305" t="s">
         <v>141</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J305" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -12521,16 +12549,16 @@
         <v>106</v>
       </c>
       <c r="E306" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F306" t="s">
         <v>141</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J306" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -12541,16 +12569,16 @@
         <v>106</v>
       </c>
       <c r="E307" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F307" t="s">
         <v>141</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J307" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -12561,16 +12589,16 @@
         <v>106</v>
       </c>
       <c r="E308" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F308" t="s">
         <v>141</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J308" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -12581,16 +12609,16 @@
         <v>106</v>
       </c>
       <c r="E309" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F309" t="s">
         <v>141</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J309" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -12601,16 +12629,16 @@
         <v>106</v>
       </c>
       <c r="E310" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F310" t="s">
         <v>141</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J310" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -12621,16 +12649,16 @@
         <v>106</v>
       </c>
       <c r="E311" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F311" t="s">
         <v>141</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J311" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -12641,16 +12669,16 @@
         <v>106</v>
       </c>
       <c r="E312" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F312" t="s">
         <v>141</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J312" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -12661,16 +12689,16 @@
         <v>106</v>
       </c>
       <c r="E313" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F313" t="s">
         <v>141</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J313" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -12681,7 +12709,7 @@
         <v>110</v>
       </c>
       <c r="D314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E314" t="s">
         <v>119</v>
@@ -12696,18 +12724,18 @@
         <v>119</v>
       </c>
       <c r="J314" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B315" t="s">
         <v>110</v>
       </c>
       <c r="D315" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E315" t="s">
         <v>119</v>
@@ -12722,18 +12750,18 @@
         <v>119</v>
       </c>
       <c r="J315" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B316" t="s">
         <v>110</v>
       </c>
       <c r="D316" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E316" t="s">
         <v>119</v>
@@ -12759,7 +12787,7 @@
         <v>110</v>
       </c>
       <c r="D317" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E317" t="s">
         <v>119</v>
@@ -12774,18 +12802,18 @@
         <v>119</v>
       </c>
       <c r="J317" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B318" t="s">
         <v>110</v>
       </c>
       <c r="D318" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E318" t="s">
         <v>119</v>
@@ -12800,19 +12828,19 @@
         <v>119</v>
       </c>
       <c r="J318" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K318" s="3"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B319" t="s">
         <v>110</v>
       </c>
       <c r="D319" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E319" t="s">
         <v>119</v>
@@ -12827,18 +12855,18 @@
         <v>119</v>
       </c>
       <c r="J319" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B320" t="s">
         <v>110</v>
       </c>
       <c r="D320" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E320" t="s">
         <v>119</v>
@@ -12853,137 +12881,146 @@
         <v>119</v>
       </c>
       <c r="J320" t="s">
-        <v>147</v>
+        <v>957</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>264</v>
+        <v>957</v>
       </c>
       <c r="B321" t="s">
-        <v>110</v>
+        <v>955</v>
       </c>
       <c r="D321" t="s">
-        <v>224</v>
+        <v>951</v>
       </c>
       <c r="E321" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F321" t="s">
         <v>141</v>
       </c>
-      <c r="H321" t="s">
-        <v>119</v>
+      <c r="H321" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I321" t="s">
         <v>119</v>
       </c>
       <c r="J321" t="s">
-        <v>152</v>
+        <v>958</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>115</v>
+        <v>958</v>
       </c>
       <c r="B322" t="s">
-        <v>110</v>
+        <v>956</v>
       </c>
       <c r="D322" t="s">
-        <v>225</v>
+        <v>952</v>
       </c>
       <c r="E322" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F322" t="s">
         <v>141</v>
       </c>
-      <c r="H322" t="s">
-        <v>119</v>
+      <c r="H322" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I322" t="s">
         <v>119</v>
       </c>
       <c r="J322" t="s">
-        <v>166</v>
+        <v>959</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>184</v>
+        <v>959</v>
       </c>
       <c r="B323" t="s">
-        <v>110</v>
+        <v>956</v>
+      </c>
+      <c r="D323" t="s">
+        <v>953</v>
       </c>
       <c r="E323" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F323" t="s">
         <v>141</v>
       </c>
-      <c r="H323" t="s">
-        <v>119</v>
+      <c r="H323" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I323" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J323" t="s">
-        <v>250</v>
+        <v>960</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="B324" t="s">
-        <v>110</v>
+        <v>956</v>
+      </c>
+      <c r="D324" t="s">
+        <v>954</v>
       </c>
       <c r="E324" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F324" t="s">
         <v>141</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="I324" t="s">
-        <v>153</v>
-      </c>
-      <c r="J324" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="B325" t="s">
         <v>110</v>
       </c>
+      <c r="D325" t="s">
+        <v>223</v>
+      </c>
       <c r="E325" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F325" t="s">
         <v>141</v>
       </c>
-      <c r="H325" s="2" t="s">
+      <c r="H325" t="s">
         <v>119</v>
       </c>
       <c r="I325" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="J325" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B326" t="s">
         <v>110</v>
       </c>
+      <c r="D326" t="s">
+        <v>224</v>
+      </c>
       <c r="E326" t="s">
         <v>119</v>
       </c>
@@ -12991,236 +13028,233 @@
         <v>141</v>
       </c>
       <c r="H326" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="I326" t="s">
+        <v>119</v>
       </c>
       <c r="J326" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="B327" t="s">
         <v>110</v>
       </c>
       <c r="E327" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F327" t="s">
         <v>141</v>
       </c>
-      <c r="H327" s="2" t="s">
-        <v>153</v>
+      <c r="H327" t="s">
+        <v>119</v>
+      </c>
+      <c r="I327" t="s">
+        <v>152</v>
       </c>
       <c r="J327" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B328" t="s">
         <v>110</v>
       </c>
       <c r="E328" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F328" t="s">
         <v>141</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="I328" t="s">
+        <v>152</v>
       </c>
       <c r="J328" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B329" t="s">
         <v>110</v>
       </c>
       <c r="E329" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F329" t="s">
         <v>141</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="I329" t="s">
+        <v>152</v>
       </c>
       <c r="J329" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="B330" t="s">
         <v>110</v>
       </c>
       <c r="E330" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F330" t="s">
         <v>141</v>
       </c>
-      <c r="H330" s="2" t="s">
-        <v>153</v>
+      <c r="H330" t="s">
+        <v>152</v>
       </c>
       <c r="J330" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B331" t="s">
         <v>110</v>
       </c>
       <c r="E331" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F331" t="s">
         <v>141</v>
       </c>
       <c r="H331" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J331" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B332" t="s">
         <v>110</v>
       </c>
       <c r="E332" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F332" t="s">
         <v>141</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J332" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>602</v>
-      </c>
-      <c r="D333" t="s">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="E333" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F333" t="s">
         <v>141</v>
       </c>
-      <c r="H333" t="s">
-        <v>119</v>
-      </c>
-      <c r="I333" t="s">
-        <v>119</v>
+      <c r="H333" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="J333" t="s">
-        <v>551</v>
+        <v>189</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B334" t="s">
-        <v>602</v>
+        <v>110</v>
       </c>
       <c r="E334" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F334" t="s">
         <v>141</v>
       </c>
-      <c r="H334" t="s">
-        <v>119</v>
-      </c>
-      <c r="I334" t="s">
-        <v>153</v>
+      <c r="H334" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="J334" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B335" t="s">
-        <v>602</v>
+        <v>110</v>
       </c>
       <c r="E335" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F335" t="s">
         <v>141</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I335" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J335" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B336" t="s">
-        <v>602</v>
+        <v>110</v>
       </c>
       <c r="E336" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F336" t="s">
         <v>141</v>
       </c>
-      <c r="H336" t="s">
-        <v>119</v>
-      </c>
-      <c r="I336" t="s">
-        <v>153</v>
+      <c r="H336" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="J336" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>90</v>
+        <v>549</v>
       </c>
       <c r="B337" t="s">
-        <v>602</v>
-      </c>
-      <c r="C337" t="s">
-        <v>208</v>
+        <v>601</v>
+      </c>
+      <c r="D337" t="s">
+        <v>548</v>
       </c>
       <c r="E337" t="s">
         <v>119</v>
@@ -13229,41 +13263,136 @@
         <v>141</v>
       </c>
       <c r="H337" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="I337" t="s">
+        <v>119</v>
       </c>
       <c r="J337" t="s">
-        <v>186</v>
+        <v>550</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>945</v>
+        <v>164</v>
       </c>
       <c r="B338" t="s">
-        <v>106</v>
-      </c>
-      <c r="D338" t="s">
-        <v>946</v>
+        <v>601</v>
+      </c>
+      <c r="E338" t="s">
+        <v>129</v>
+      </c>
+      <c r="F338" t="s">
+        <v>141</v>
+      </c>
+      <c r="H338" t="s">
+        <v>119</v>
+      </c>
+      <c r="I338" t="s">
+        <v>152</v>
+      </c>
+      <c r="J338" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>93</v>
+      </c>
+      <c r="B339" t="s">
+        <v>601</v>
+      </c>
+      <c r="E339" t="s">
+        <v>129</v>
+      </c>
+      <c r="F339" t="s">
+        <v>141</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I339" t="s">
+        <v>152</v>
+      </c>
+      <c r="J339" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>91</v>
+      </c>
+      <c r="B340" t="s">
+        <v>601</v>
+      </c>
+      <c r="E340" t="s">
+        <v>129</v>
+      </c>
+      <c r="F340" t="s">
+        <v>141</v>
+      </c>
+      <c r="H340" t="s">
+        <v>119</v>
+      </c>
+      <c r="I340" t="s">
+        <v>152</v>
+      </c>
+      <c r="J340" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>90</v>
+      </c>
+      <c r="B341" t="s">
+        <v>601</v>
+      </c>
+      <c r="C341" t="s">
+        <v>207</v>
+      </c>
+      <c r="E341" t="s">
+        <v>119</v>
+      </c>
+      <c r="F341" t="s">
+        <v>141</v>
+      </c>
+      <c r="H341" t="s">
+        <v>152</v>
+      </c>
+      <c r="J341" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>944</v>
+      </c>
+      <c r="B342" t="s">
+        <v>106</v>
+      </c>
+      <c r="D342" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>946</v>
+      </c>
+      <c r="B343" t="s">
+        <v>106</v>
+      </c>
+      <c r="D343" t="s">
         <v>947</v>
       </c>
-      <c r="B339" t="s">
-        <v>106</v>
-      </c>
-      <c r="D339" t="s">
-        <v>948</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K337" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K337">
-      <sortCondition ref="B1:B337"/>
+  <autoFilter ref="A1:K341" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K341">
+      <sortCondition ref="B1:B341"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E337 H2:I337 J16:J21 J86:J91 J105 J117 J149 J214">
+  <conditionalFormatting sqref="J16:J21 J86:J91 J105 J117 J149 J214 H2:I341 E2:E341">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
@@ -13271,7 +13400,7 @@
       <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E337">
+  <conditionalFormatting sqref="E2:E341">
     <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdahlhau\Documents\GitHub\NREL\comstock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alebar\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3DA4A-23E1-48DA-A20C-E70AF45504F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BA88F2-09AF-4F13-94EC-4AF1D3E934C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1620" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2469,129 +2469,15 @@
     <t>HVAC VRF outdoor temperature type use for eir performance curves</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_heating_total_load_j</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_total_electric_j</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_capacity_kbtuh</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_average_cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_capacity_weighted_design_cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_load_weighted_design_cop</t>
-  </si>
-  <si>
-    <t>Heat pump heating load weighted average cop</t>
-  </si>
-  <si>
-    <t>Heat pump heating capacity</t>
-  </si>
-  <si>
-    <t>Heat pump heating load weighted design cop</t>
-  </si>
-  <si>
-    <t>Heat pump heating electric use</t>
-  </si>
-  <si>
-    <t>Heat pump heating heating load served</t>
-  </si>
-  <si>
-    <t>Heat pump heating capacity weighted design cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_heating</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_heating_0_to_300_kbtuh</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_heating_300_to_2500_kbtuh</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_heating_2500_plus_kbtuh</t>
-  </si>
-  <si>
     <t>number of heat pumps for heating</t>
   </si>
   <si>
-    <t>Number of heat pumps for heating</t>
-  </si>
-  <si>
-    <t>Number of heat pumps for heating between 0 and 300 kbtuh</t>
-  </si>
-  <si>
-    <t>Number of heat pumps for heating larger than 2500 kbtuh</t>
-  </si>
-  <si>
-    <t>Number of heat pumps for heating between 300 and 2500 kbtuh</t>
-  </si>
-  <si>
-    <t>Heat pump cooling load weighted average cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_average_cop</t>
-  </si>
-  <si>
-    <t>Heat pump cooling capacity</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_capacity_kbtuh</t>
-  </si>
-  <si>
-    <t>Heat pump cooling capacity weighted design cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_capacity_weighted_design_cop</t>
-  </si>
-  <si>
-    <t>Heat pump cooling load weighted design cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_load_weighted_design_cop</t>
-  </si>
-  <si>
-    <t>Heat pump cooling electric use</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_total_electric_j</t>
-  </si>
-  <si>
-    <t>Heat pump cooling cooling load served</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_total_load_j</t>
-  </si>
-  <si>
     <t>total heat pump cooling load served</t>
   </si>
   <si>
-    <t>Number of heat pumps for cooling</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_cooling</t>
-  </si>
-  <si>
     <t>number of heat pumps for cooling</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_heating_load_weighted_source_inlet_temperature_c</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_load_weighted_source_inlet_temperature_c</t>
-  </si>
-  <si>
-    <t>Heat pump cooling source inlet temperature</t>
-  </si>
-  <si>
-    <t>Heat pump heating source inlet temperature</t>
-  </si>
-  <si>
     <t>heat pump cooling load weighted annual average source inlet temperature</t>
   </si>
   <si>
@@ -2896,6 +2782,120 @@
   </si>
   <si>
     <t>total water use from cooling towers includeing evaporation, drift, and blowdown</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_average_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_capacity_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_capacity_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_load_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_total_electric_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_total_load_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_load_weighted_source_inlet_temperature_c</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_average_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_capacity_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_capacity_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_load_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_total_electric_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_total_load_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_load_weighted_source_inlet_temperature_c</t>
+  </si>
+  <si>
+    <t>Water to water heat pump cooling load weighted average cop</t>
+  </si>
+  <si>
+    <t>Water to water heat pump cooling capacity</t>
+  </si>
+  <si>
+    <t>Water to water heat pump cooling capacity weighted design cop</t>
+  </si>
+  <si>
+    <t>Water to water heat pump cooling load weighted design cop</t>
+  </si>
+  <si>
+    <t>Water to water heat pump cooling electric use</t>
+  </si>
+  <si>
+    <t>Water to water heat pump cooling cooling load served</t>
+  </si>
+  <si>
+    <t>Water to water heat pump cooling source inlet temperature</t>
+  </si>
+  <si>
+    <t>Water to water heat pump heating load weighted average cop</t>
+  </si>
+  <si>
+    <t>Water to water heat pump heating capacity</t>
+  </si>
+  <si>
+    <t>Water to water heat pump heating capacity weighted design cop</t>
+  </si>
+  <si>
+    <t>Water to water heat pump heating load weighted design cop</t>
+  </si>
+  <si>
+    <t>Water to water heat pump heating electric use</t>
+  </si>
+  <si>
+    <t>Water to water heat pump heating heating load served</t>
+  </si>
+  <si>
+    <t>Water to water heat pump heating source inlet temperature</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating_0_to_300_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating_300_to_2500_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating_2500_plus_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_cooling</t>
+  </si>
+  <si>
+    <t>Number of water to water heat pumps for cooling</t>
+  </si>
+  <si>
+    <t>Number of water to water heat pumps for heating</t>
+  </si>
+  <si>
+    <t>Number of water to water heat pumps for heating between 0 and 300 kbtuh</t>
+  </si>
+  <si>
+    <t>Number of water to water heat pumps for heating between 300 and 2500 kbtuh</t>
+  </si>
+  <si>
+    <t>Number of water to water heat pumps for heating larger than 2500 kbtuh</t>
   </si>
 </sst>
 </file>
@@ -3355,16 +3355,16 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -4712,26 +4712,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>525</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>526</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>523</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>533</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>453</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>534</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -5118,9 +5118,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>942</v>
+        <v>904</v>
       </c>
       <c r="B16" t="s">
         <v>253</v>
@@ -5138,18 +5138,18 @@
         <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>936</v>
+        <v>898</v>
       </c>
       <c r="B17" t="s">
         <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>932</v>
+        <v>894</v>
       </c>
       <c r="E17" t="s">
         <v>153</v>
@@ -5164,12 +5164,12 @@
         <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>941</v>
+        <v>903</v>
       </c>
       <c r="B18" t="s">
         <v>253</v>
@@ -5187,18 +5187,18 @@
         <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>938</v>
+        <v>900</v>
       </c>
       <c r="B19" t="s">
         <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>933</v>
+        <v>895</v>
       </c>
       <c r="E19" t="s">
         <v>153</v>
@@ -5213,18 +5213,18 @@
         <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>939</v>
+        <v>901</v>
       </c>
       <c r="B20" t="s">
         <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>934</v>
+        <v>896</v>
       </c>
       <c r="E20" t="s">
         <v>153</v>
@@ -5239,18 +5239,18 @@
         <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>937</v>
+        <v>899</v>
       </c>
       <c r="B21" t="s">
         <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>935</v>
+        <v>897</v>
       </c>
       <c r="E21" t="s">
         <v>153</v>
@@ -5265,10 +5265,10 @@
         <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>472</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>479</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>266</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>268</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>232</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>206</v>
       </c>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>265</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>777</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>781</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>776</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>775</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>388</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>393</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>394</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>390</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>729</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>730</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>733</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>731</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>732</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>735</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>734</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>737</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>738</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>736</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>741</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>739</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>740</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>742</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>743</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>744</v>
       </c>
@@ -6865,15 +6865,15 @@
         <v>757</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
       <c r="B86" t="s">
         <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>910</v>
+        <v>872</v>
       </c>
       <c r="E86" t="s">
         <v>153</v>
@@ -6888,18 +6888,18 @@
         <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>917</v>
+        <v>879</v>
       </c>
       <c r="B87" t="s">
         <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>911</v>
+        <v>873</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -6914,18 +6914,18 @@
         <v>119</v>
       </c>
       <c r="J87" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>919</v>
+        <v>881</v>
       </c>
       <c r="B88" t="s">
         <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>912</v>
+        <v>874</v>
       </c>
       <c r="E88" t="s">
         <v>153</v>
@@ -6940,18 +6940,18 @@
         <v>119</v>
       </c>
       <c r="J88" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>918</v>
+        <v>880</v>
       </c>
       <c r="B89" t="s">
         <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>913</v>
+        <v>875</v>
       </c>
       <c r="E89" t="s">
         <v>153</v>
@@ -6966,18 +6966,18 @@
         <v>119</v>
       </c>
       <c r="J89" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>920</v>
+        <v>882</v>
       </c>
       <c r="B90" t="s">
         <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>914</v>
+        <v>876</v>
       </c>
       <c r="E90" t="s">
         <v>153</v>
@@ -6992,18 +6992,18 @@
         <v>119</v>
       </c>
       <c r="J90" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>921</v>
+        <v>883</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
       <c r="E91" t="s">
         <v>153</v>
@@ -7018,10 +7018,10 @@
         <v>119</v>
       </c>
       <c r="J91" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>746</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>745</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>752</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>747</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>795</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>796</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>797</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>798</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>748</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>791</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>940</v>
+        <v>902</v>
       </c>
       <c r="E101" t="s">
         <v>153</v>
@@ -7281,7 +7281,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>792</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>793</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>794</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>808</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>576</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>552</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>575</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>574</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>588</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>586</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>585</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>587</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>556</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -7671,15 +7671,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>949</v>
+        <v>911</v>
       </c>
       <c r="B117" t="s">
         <v>106</v>
       </c>
       <c r="D117" t="s">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="E117" t="s">
         <v>119</v>
@@ -7694,10 +7694,10 @@
         <v>119</v>
       </c>
       <c r="J117" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>340</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>483</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>281</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>283</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>276</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>278</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>279</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>280</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>277</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>309</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>313</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>312</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>310</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>311</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>314</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>288</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>290</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>291</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>289</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>402</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>292</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>295</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>296</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>293</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>294</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>592</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>591</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>590</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>589</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>247</v>
       </c>
@@ -8519,12 +8519,12 @@
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>106</v>
       </c>
       <c r="D149" t="s">
-        <v>870</v>
+        <v>832</v>
       </c>
       <c r="E149" t="s">
         <v>119</v>
@@ -8539,19 +8539,19 @@
         <v>119</v>
       </c>
       <c r="J149" t="s">
-        <v>889</v>
+        <v>851</v>
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>880</v>
+        <v>842</v>
       </c>
       <c r="B150" t="s">
         <v>106</v>
       </c>
       <c r="D150" t="s">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="E150" t="s">
         <v>119</v>
@@ -8566,19 +8566,19 @@
         <v>119</v>
       </c>
       <c r="J150" t="s">
-        <v>884</v>
+        <v>846</v>
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>883</v>
+        <v>845</v>
       </c>
       <c r="B151" t="s">
         <v>106</v>
       </c>
       <c r="D151" t="s">
-        <v>872</v>
+        <v>834</v>
       </c>
       <c r="E151" t="s">
         <v>119</v>
@@ -8593,16 +8593,16 @@
         <v>119</v>
       </c>
       <c r="J151" t="s">
-        <v>887</v>
+        <v>849</v>
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>106</v>
       </c>
       <c r="D152" t="s">
-        <v>873</v>
+        <v>835</v>
       </c>
       <c r="E152" t="s">
         <v>119</v>
@@ -8617,16 +8617,16 @@
         <v>119</v>
       </c>
       <c r="J152" t="s">
-        <v>891</v>
+        <v>853</v>
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>106</v>
       </c>
       <c r="D153" t="s">
-        <v>874</v>
+        <v>836</v>
       </c>
       <c r="E153" t="s">
         <v>119</v>
@@ -8641,16 +8641,16 @@
         <v>119</v>
       </c>
       <c r="J153" t="s">
-        <v>893</v>
+        <v>855</v>
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>106</v>
       </c>
       <c r="D154" t="s">
-        <v>875</v>
+        <v>837</v>
       </c>
       <c r="E154" t="s">
         <v>119</v>
@@ -8665,19 +8665,19 @@
         <v>119</v>
       </c>
       <c r="J154" t="s">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>881</v>
+        <v>843</v>
       </c>
       <c r="B155" t="s">
         <v>106</v>
       </c>
       <c r="D155" t="s">
-        <v>876</v>
+        <v>838</v>
       </c>
       <c r="E155" t="s">
         <v>119</v>
@@ -8692,19 +8692,19 @@
         <v>119</v>
       </c>
       <c r="J155" t="s">
-        <v>886</v>
+        <v>848</v>
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>882</v>
+        <v>844</v>
       </c>
       <c r="B156" t="s">
         <v>106</v>
       </c>
       <c r="D156" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
       <c r="E156" t="s">
         <v>119</v>
@@ -8719,16 +8719,16 @@
         <v>119</v>
       </c>
       <c r="J156" t="s">
-        <v>888</v>
+        <v>850</v>
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>106</v>
       </c>
       <c r="D157" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
       <c r="E157" t="s">
         <v>119</v>
@@ -8743,16 +8743,16 @@
         <v>119</v>
       </c>
       <c r="J157" t="s">
-        <v>892</v>
+        <v>854</v>
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>879</v>
+        <v>841</v>
       </c>
       <c r="E158" t="s">
         <v>119</v>
@@ -8767,11 +8767,11 @@
         <v>119</v>
       </c>
       <c r="J158" t="s">
-        <v>894</v>
+        <v>856</v>
       </c>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>273</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>246</v>
       </c>
@@ -8846,10 +8846,10 @@
         <v>119</v>
       </c>
       <c r="J161" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>441</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>443</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>439</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>445</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>442</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>444</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>440</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>446</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>437</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>438</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>505</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>510</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>275</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>345</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>275</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>484</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>317</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>456</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>487</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>404</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>363</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>405</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>364</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>403</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>400</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>401</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>512</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>511</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>450</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>451</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>369</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>370</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>368</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>499</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>583</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>584</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>501</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>502</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>500</v>
       </c>
@@ -9941,15 +9941,15 @@
         <v>496</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>906</v>
+        <v>868</v>
       </c>
       <c r="B204" t="s">
         <v>106</v>
       </c>
       <c r="D204" t="s">
-        <v>904</v>
+        <v>866</v>
       </c>
       <c r="E204" t="s">
         <v>153</v>
@@ -9964,18 +9964,18 @@
         <v>119</v>
       </c>
       <c r="J204" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>907</v>
+        <v>869</v>
       </c>
       <c r="B205" t="s">
         <v>106</v>
       </c>
       <c r="D205" t="s">
-        <v>905</v>
+        <v>867</v>
       </c>
       <c r="E205" t="s">
         <v>153</v>
@@ -9990,10 +9990,10 @@
         <v>119</v>
       </c>
       <c r="J205" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>285</v>
       </c>
@@ -10019,15 +10019,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>830</v>
+        <v>928</v>
       </c>
       <c r="B207" t="s">
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>831</v>
+        <v>914</v>
       </c>
       <c r="E207" t="s">
         <v>119</v>
@@ -10045,15 +10045,15 @@
         <v>597</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>832</v>
+        <v>929</v>
       </c>
       <c r="B208" t="s">
         <v>106</v>
       </c>
       <c r="D208" t="s">
-        <v>833</v>
+        <v>915</v>
       </c>
       <c r="E208" t="s">
         <v>119</v>
@@ -10071,15 +10071,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>834</v>
+        <v>930</v>
       </c>
       <c r="B209" t="s">
         <v>106</v>
       </c>
       <c r="D209" t="s">
-        <v>835</v>
+        <v>916</v>
       </c>
       <c r="E209" t="s">
         <v>119</v>
@@ -10097,15 +10097,15 @@
         <v>599</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>836</v>
+        <v>931</v>
       </c>
       <c r="B210" t="s">
         <v>106</v>
       </c>
       <c r="D210" t="s">
-        <v>837</v>
+        <v>917</v>
       </c>
       <c r="E210" t="s">
         <v>119</v>
@@ -10123,15 +10123,15 @@
         <v>598</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>838</v>
+        <v>932</v>
       </c>
       <c r="B211" t="s">
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>839</v>
+        <v>918</v>
       </c>
       <c r="E211" t="s">
         <v>153</v>
@@ -10149,15 +10149,15 @@
         <v>601</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>840</v>
+        <v>933</v>
       </c>
       <c r="B212" t="s">
         <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>841</v>
+        <v>919</v>
       </c>
       <c r="E212" t="s">
         <v>153</v>
@@ -10172,18 +10172,18 @@
         <v>119</v>
       </c>
       <c r="J212" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>843</v>
+        <v>947</v>
       </c>
       <c r="B213" t="s">
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>844</v>
+        <v>946</v>
       </c>
       <c r="E213" t="s">
         <v>153</v>
@@ -10198,18 +10198,18 @@
         <v>119</v>
       </c>
       <c r="J213" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>848</v>
+        <v>934</v>
       </c>
       <c r="B214" t="s">
         <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>847</v>
+        <v>920</v>
       </c>
       <c r="E214" t="s">
         <v>153</v>
@@ -10224,18 +10224,18 @@
         <v>119</v>
       </c>
       <c r="J214" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>815</v>
+        <v>935</v>
       </c>
       <c r="B215" t="s">
         <v>106</v>
       </c>
       <c r="D215" t="s">
-        <v>812</v>
+        <v>921</v>
       </c>
       <c r="E215" t="s">
         <v>119</v>
@@ -10253,15 +10253,15 @@
         <v>597</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>816</v>
+        <v>936</v>
       </c>
       <c r="B216" t="s">
         <v>106</v>
       </c>
       <c r="D216" t="s">
-        <v>811</v>
+        <v>922</v>
       </c>
       <c r="E216" t="s">
         <v>119</v>
@@ -10279,15 +10279,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>820</v>
+        <v>937</v>
       </c>
       <c r="B217" t="s">
         <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
       <c r="E217" t="s">
         <v>119</v>
@@ -10305,15 +10305,15 @@
         <v>599</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>817</v>
+        <v>938</v>
       </c>
       <c r="B218" t="s">
         <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>814</v>
+        <v>924</v>
       </c>
       <c r="E218" t="s">
         <v>119</v>
@@ -10331,15 +10331,15 @@
         <v>598</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>818</v>
+        <v>939</v>
       </c>
       <c r="B219" t="s">
         <v>106</v>
       </c>
       <c r="D219" t="s">
-        <v>810</v>
+        <v>925</v>
       </c>
       <c r="E219" t="s">
         <v>153</v>
@@ -10357,15 +10357,15 @@
         <v>601</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>819</v>
+        <v>940</v>
       </c>
       <c r="B220" t="s">
         <v>106</v>
       </c>
       <c r="D220" t="s">
-        <v>809</v>
+        <v>926</v>
       </c>
       <c r="E220" t="s">
         <v>153</v>
@@ -10383,15 +10383,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>826</v>
+        <v>948</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
       </c>
       <c r="D221" t="s">
-        <v>821</v>
+        <v>942</v>
       </c>
       <c r="E221" t="s">
         <v>153</v>
@@ -10406,18 +10406,18 @@
         <v>119</v>
       </c>
       <c r="J221" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>827</v>
+        <v>949</v>
       </c>
       <c r="B222" t="s">
         <v>106</v>
       </c>
       <c r="D222" t="s">
-        <v>822</v>
+        <v>943</v>
       </c>
       <c r="E222" t="s">
         <v>153</v>
@@ -10435,15 +10435,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>829</v>
+        <v>950</v>
       </c>
       <c r="B223" t="s">
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>823</v>
+        <v>944</v>
       </c>
       <c r="E223" t="s">
         <v>153</v>
@@ -10461,15 +10461,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>828</v>
+        <v>951</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>824</v>
+        <v>945</v>
       </c>
       <c r="E224" t="s">
         <v>153</v>
@@ -10487,15 +10487,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>849</v>
+        <v>941</v>
       </c>
       <c r="B225" t="s">
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>846</v>
+        <v>927</v>
       </c>
       <c r="E225" t="s">
         <v>153</v>
@@ -10510,18 +10510,18 @@
         <v>119</v>
       </c>
       <c r="J225" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
       <c r="B226" t="s">
         <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>895</v>
+        <v>857</v>
       </c>
       <c r="E226" t="s">
         <v>153</v>
@@ -10536,18 +10536,18 @@
         <v>119</v>
       </c>
       <c r="J226" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>902</v>
+        <v>864</v>
       </c>
       <c r="B227" t="s">
         <v>106</v>
       </c>
       <c r="D227" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
       <c r="E227" t="s">
         <v>153</v>
@@ -10562,18 +10562,18 @@
         <v>119</v>
       </c>
       <c r="J227" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>903</v>
+        <v>865</v>
       </c>
       <c r="B228" t="s">
         <v>106</v>
       </c>
       <c r="D228" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
       <c r="E228" t="s">
         <v>153</v>
@@ -10588,18 +10588,18 @@
         <v>119</v>
       </c>
       <c r="J228" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="B229" t="s">
         <v>106</v>
       </c>
       <c r="D229" t="s">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="E229" t="s">
         <v>153</v>
@@ -10614,18 +10614,18 @@
         <v>119</v>
       </c>
       <c r="J229" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>853</v>
+        <v>815</v>
       </c>
       <c r="E230" t="s">
         <v>153</v>
@@ -10640,18 +10640,18 @@
         <v>119</v>
       </c>
       <c r="J230" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>859</v>
+        <v>821</v>
       </c>
       <c r="B231" t="s">
         <v>106</v>
       </c>
       <c r="D231" t="s">
-        <v>854</v>
+        <v>816</v>
       </c>
       <c r="E231" t="s">
         <v>153</v>
@@ -10666,18 +10666,18 @@
         <v>119</v>
       </c>
       <c r="J231" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>860</v>
+        <v>822</v>
       </c>
       <c r="B232" t="s">
         <v>106</v>
       </c>
       <c r="D232" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="E232" t="s">
         <v>153</v>
@@ -10692,18 +10692,18 @@
         <v>119</v>
       </c>
       <c r="J232" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>861</v>
+        <v>823</v>
       </c>
       <c r="B233" t="s">
         <v>106</v>
       </c>
       <c r="D233" t="s">
-        <v>856</v>
+        <v>818</v>
       </c>
       <c r="E233" t="s">
         <v>153</v>
@@ -10718,10 +10718,10 @@
         <v>119</v>
       </c>
       <c r="J233" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>341</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>561</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>562</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>560</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>468</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>469</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>470</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>471</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>619</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>620</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>623</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>622</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>621</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>624</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>625</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>626</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>627</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>628</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>630</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>631</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>632</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>633</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>634</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>635</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>636</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>637</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>638</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>639</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>640</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>641</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>642</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>643</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>644</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>645</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>646</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>647</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>648</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>649</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>650</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>651</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>652</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>654</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>653</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>655</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>656</v>
       </c>
@@ -11917,15 +11917,15 @@
         <v>707</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>867</v>
+        <v>829</v>
       </c>
       <c r="B280" t="s">
         <v>602</v>
       </c>
       <c r="D280" t="s">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="E280" t="s">
         <v>153</v>
@@ -11940,10 +11940,10 @@
         <v>119</v>
       </c>
       <c r="J280" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>702</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>703</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>657</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>658</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>270</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>271</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>272</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>81</v>
       </c>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>72</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>69</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>170</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>178</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>187</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>71</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>70</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>76</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>75</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>74</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>88</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>89</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>50</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>188</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>177</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>95</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>94</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>97</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>96</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>84</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>83</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>38</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>183</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>263</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>260</v>
       </c>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="K318" s="3"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>262</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>261</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>264</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>115</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>184</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>18</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>19</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>133</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>20</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>31</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>550</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>165</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>93</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>91</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>90</v>
       </c>
@@ -13235,26 +13235,26 @@
         <v>186</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>945</v>
+        <v>907</v>
       </c>
       <c r="B338" t="s">
         <v>106</v>
       </c>
       <c r="D338" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>947</v>
+        <v>909</v>
       </c>
       <c r="B339" t="s">
         <v>106</v>
       </c>
       <c r="D339" t="s">
-        <v>948</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccaradon\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE7520C-564D-4C54-BCE7-05C5FDE7E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F525B-C61E-4E32-BD07-233845842D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="22932" yWindow="672" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2466,24 +2466,6 @@
     <t>HVAC VRF outdoor temperature type use for eir performance curves</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_heating_total_load_j</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_total_electric_j</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_capacity_kbtuh</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_average_cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_capacity_weighted_design_cop</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_heating_load_weighted_design_cop</t>
-  </si>
-  <si>
     <t>Heat pump heating load weighted average cop</t>
   </si>
   <si>
@@ -2502,18 +2484,6 @@
     <t>Heat pump heating capacity weighted design cop</t>
   </si>
   <si>
-    <t>com_report_hvac_count_heat_pumps_heating</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_heating_0_to_300_kbtuh</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_heating_300_to_2500_kbtuh</t>
-  </si>
-  <si>
-    <t>com_report_hvac_count_heat_pumps_heating_2500_plus_kbtuh</t>
-  </si>
-  <si>
     <t>number of heat pumps for heating</t>
   </si>
   <si>
@@ -2532,57 +2502,30 @@
     <t>Heat pump cooling load weighted average cop</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_cooling_average_cop</t>
-  </si>
-  <si>
     <t>Heat pump cooling capacity</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_cooling_capacity_kbtuh</t>
-  </si>
-  <si>
     <t>Heat pump cooling capacity weighted design cop</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_cooling_capacity_weighted_design_cop</t>
-  </si>
-  <si>
     <t>Heat pump cooling load weighted design cop</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_cooling_load_weighted_design_cop</t>
-  </si>
-  <si>
     <t>Heat pump cooling electric use</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_cooling_total_electric_j</t>
-  </si>
-  <si>
     <t>Heat pump cooling cooling load served</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_cooling_total_load_j</t>
-  </si>
-  <si>
     <t>total heat pump cooling load served</t>
   </si>
   <si>
     <t>Number of heat pumps for cooling</t>
   </si>
   <si>
-    <t>com_report_hvac_count_heat_pumps_cooling</t>
-  </si>
-  <si>
     <t>number of heat pumps for cooling</t>
   </si>
   <si>
-    <t>com_report_hvac_heat_pump_heating_load_weighted_source_inlet_temperature_c</t>
-  </si>
-  <si>
-    <t>com_report_hvac_heat_pump_cooling_load_weighted_source_inlet_temperature_c</t>
-  </si>
-  <si>
     <t>Heat pump cooling source inlet temperature</t>
   </si>
   <si>
@@ -2923,6 +2866,63 @@
   </si>
   <si>
     <t>Battery Storage max discharge capacity</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_average_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_capacity_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_capacity_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_load_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_total_electric_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_total_load_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_cooling_load_weighted_source_inlet_temperature_c</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_average_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_capacity_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_capacity_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_load_weighted_design_cop</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_total_electric_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_water_water_heat_pump_heating_total_load_j</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating_0_to_300_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating_300_to_2500_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_heating_2500_plus_kbtuh</t>
+  </si>
+  <si>
+    <t>com_report_hvac_heat_water_water_pump_heating_load_weighted_source_inlet_temperature_c</t>
+  </si>
+  <si>
+    <t>com_report_hvac_count_water_water_heat_pumps_cooling</t>
   </si>
 </sst>
 </file>
@@ -4740,8 +4740,8 @@
   <dimension ref="A1:K343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A317" sqref="A317"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="B16" t="s">
         <v>252</v>
@@ -5166,18 +5166,18 @@
         <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="B17" t="s">
         <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="E17" t="s">
         <v>152</v>
@@ -5192,12 +5192,12 @@
         <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="B18" t="s">
         <v>252</v>
@@ -5215,18 +5215,18 @@
         <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="B19" t="s">
         <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="E19" t="s">
         <v>152</v>
@@ -5241,18 +5241,18 @@
         <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="B20" t="s">
         <v>252</v>
       </c>
       <c r="D20" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="E20" t="s">
         <v>152</v>
@@ -5267,18 +5267,18 @@
         <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="B21" t="s">
         <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="E21" t="s">
         <v>152</v>
@@ -5293,7 +5293,7 @@
         <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6895,13 +6895,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="B86" t="s">
         <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="E86" t="s">
         <v>152</v>
@@ -6916,18 +6916,18 @@
         <v>119</v>
       </c>
       <c r="J86" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="B87" t="s">
         <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="E87" t="s">
         <v>152</v>
@@ -6942,18 +6942,18 @@
         <v>119</v>
       </c>
       <c r="J87" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="B88" t="s">
         <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="E88" t="s">
         <v>152</v>
@@ -6968,18 +6968,18 @@
         <v>119</v>
       </c>
       <c r="J88" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="B89" t="s">
         <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="E89" t="s">
         <v>152</v>
@@ -6994,18 +6994,18 @@
         <v>119</v>
       </c>
       <c r="J89" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="B90" t="s">
         <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="E90" t="s">
         <v>152</v>
@@ -7020,18 +7020,18 @@
         <v>119</v>
       </c>
       <c r="J90" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="E91" t="s">
         <v>152</v>
@@ -7046,7 +7046,7 @@
         <v>119</v>
       </c>
       <c r="J91" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -7291,7 +7291,7 @@
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="E101" t="s">
         <v>152</v>
@@ -7701,13 +7701,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="B117" t="s">
         <v>106</v>
       </c>
       <c r="D117" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="E117" t="s">
         <v>119</v>
@@ -7722,7 +7722,7 @@
         <v>119</v>
       </c>
       <c r="J117" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -8552,34 +8552,34 @@
         <v>106</v>
       </c>
       <c r="D149" t="s">
+        <v>850</v>
+      </c>
+      <c r="E149" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" t="s">
+        <v>141</v>
+      </c>
+      <c r="H149" t="s">
+        <v>119</v>
+      </c>
+      <c r="I149" t="s">
+        <v>119</v>
+      </c>
+      <c r="J149" t="s">
         <v>869</v>
-      </c>
-      <c r="E149" t="s">
-        <v>119</v>
-      </c>
-      <c r="F149" t="s">
-        <v>141</v>
-      </c>
-      <c r="H149" t="s">
-        <v>119</v>
-      </c>
-      <c r="I149" t="s">
-        <v>119</v>
-      </c>
-      <c r="J149" t="s">
-        <v>888</v>
       </c>
       <c r="K149" s="3"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="B150" t="s">
         <v>106</v>
       </c>
       <c r="D150" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="E150" t="s">
         <v>119</v>
@@ -8594,19 +8594,19 @@
         <v>119</v>
       </c>
       <c r="J150" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="K150" s="3"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="B151" t="s">
         <v>106</v>
       </c>
       <c r="D151" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="E151" t="s">
         <v>119</v>
@@ -8621,7 +8621,7 @@
         <v>119</v>
       </c>
       <c r="J151" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="K151" s="3"/>
     </row>
@@ -8630,7 +8630,7 @@
         <v>106</v>
       </c>
       <c r="D152" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="E152" t="s">
         <v>119</v>
@@ -8645,7 +8645,7 @@
         <v>119</v>
       </c>
       <c r="J152" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="K152" s="3"/>
     </row>
@@ -8654,22 +8654,22 @@
         <v>106</v>
       </c>
       <c r="D153" t="s">
+        <v>854</v>
+      </c>
+      <c r="E153" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" t="s">
+        <v>141</v>
+      </c>
+      <c r="H153" t="s">
+        <v>119</v>
+      </c>
+      <c r="I153" t="s">
+        <v>119</v>
+      </c>
+      <c r="J153" t="s">
         <v>873</v>
-      </c>
-      <c r="E153" t="s">
-        <v>119</v>
-      </c>
-      <c r="F153" t="s">
-        <v>141</v>
-      </c>
-      <c r="H153" t="s">
-        <v>119</v>
-      </c>
-      <c r="I153" t="s">
-        <v>119</v>
-      </c>
-      <c r="J153" t="s">
-        <v>892</v>
       </c>
       <c r="K153" s="3"/>
     </row>
@@ -8678,7 +8678,7 @@
         <v>106</v>
       </c>
       <c r="D154" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="E154" t="s">
         <v>119</v>
@@ -8693,19 +8693,19 @@
         <v>119</v>
       </c>
       <c r="J154" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="K154" s="3"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="B155" t="s">
         <v>106</v>
       </c>
       <c r="D155" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="E155" t="s">
         <v>119</v>
@@ -8720,19 +8720,19 @@
         <v>119</v>
       </c>
       <c r="J155" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="K155" s="3"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="B156" t="s">
         <v>106</v>
       </c>
       <c r="D156" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="E156" t="s">
         <v>119</v>
@@ -8747,7 +8747,7 @@
         <v>119</v>
       </c>
       <c r="J156" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="K156" s="3"/>
     </row>
@@ -8756,7 +8756,7 @@
         <v>106</v>
       </c>
       <c r="D157" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="E157" t="s">
         <v>119</v>
@@ -8771,7 +8771,7 @@
         <v>119</v>
       </c>
       <c r="J157" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="K157" s="3"/>
     </row>
@@ -8780,7 +8780,7 @@
         <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="E158" t="s">
         <v>119</v>
@@ -8795,7 +8795,7 @@
         <v>119</v>
       </c>
       <c r="J158" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="K158" s="3"/>
     </row>
@@ -8874,7 +8874,7 @@
         <v>119</v>
       </c>
       <c r="J161" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -9971,13 +9971,13 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="B204" t="s">
         <v>106</v>
       </c>
       <c r="D204" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="E204" t="s">
         <v>152</v>
@@ -9992,18 +9992,18 @@
         <v>119</v>
       </c>
       <c r="J204" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="B205" t="s">
         <v>106</v>
       </c>
       <c r="D205" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="E205" t="s">
         <v>152</v>
@@ -10018,7 +10018,7 @@
         <v>119</v>
       </c>
       <c r="J205" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -10049,13 +10049,13 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B207" t="s">
         <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="E207" t="s">
         <v>119</v>
@@ -10075,13 +10075,13 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="B208" t="s">
         <v>106</v>
       </c>
       <c r="D208" t="s">
-        <v>832</v>
+        <v>943</v>
       </c>
       <c r="E208" t="s">
         <v>119</v>
@@ -10101,13 +10101,13 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B209" t="s">
         <v>106</v>
       </c>
       <c r="D209" t="s">
-        <v>834</v>
+        <v>944</v>
       </c>
       <c r="E209" t="s">
         <v>119</v>
@@ -10127,13 +10127,13 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="B210" t="s">
         <v>106</v>
       </c>
       <c r="D210" t="s">
-        <v>836</v>
+        <v>945</v>
       </c>
       <c r="E210" t="s">
         <v>119</v>
@@ -10153,13 +10153,13 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="B211" t="s">
         <v>106</v>
       </c>
       <c r="D211" t="s">
-        <v>838</v>
+        <v>946</v>
       </c>
       <c r="E211" t="s">
         <v>152</v>
@@ -10179,13 +10179,13 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B212" t="s">
         <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>840</v>
+        <v>947</v>
       </c>
       <c r="E212" t="s">
         <v>152</v>
@@ -10200,18 +10200,18 @@
         <v>119</v>
       </c>
       <c r="J212" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="B213" t="s">
         <v>106</v>
       </c>
       <c r="D213" t="s">
-        <v>843</v>
+        <v>960</v>
       </c>
       <c r="E213" t="s">
         <v>152</v>
@@ -10226,18 +10226,18 @@
         <v>119</v>
       </c>
       <c r="J213" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="B214" t="s">
         <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>846</v>
+        <v>948</v>
       </c>
       <c r="E214" t="s">
         <v>152</v>
@@ -10252,18 +10252,18 @@
         <v>119</v>
       </c>
       <c r="J214" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B215" t="s">
         <v>106</v>
       </c>
       <c r="D215" t="s">
-        <v>811</v>
+        <v>949</v>
       </c>
       <c r="E215" t="s">
         <v>119</v>
@@ -10283,13 +10283,13 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B216" t="s">
         <v>106</v>
       </c>
       <c r="D216" t="s">
-        <v>810</v>
+        <v>950</v>
       </c>
       <c r="E216" t="s">
         <v>119</v>
@@ -10309,13 +10309,13 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B217" t="s">
         <v>106</v>
       </c>
       <c r="D217" t="s">
-        <v>812</v>
+        <v>951</v>
       </c>
       <c r="E217" t="s">
         <v>119</v>
@@ -10335,13 +10335,13 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B218" t="s">
         <v>106</v>
       </c>
       <c r="D218" t="s">
-        <v>813</v>
+        <v>952</v>
       </c>
       <c r="E218" t="s">
         <v>119</v>
@@ -10361,13 +10361,13 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B219" t="s">
         <v>106</v>
       </c>
       <c r="D219" t="s">
-        <v>809</v>
+        <v>953</v>
       </c>
       <c r="E219" t="s">
         <v>152</v>
@@ -10387,13 +10387,13 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B220" t="s">
         <v>106</v>
       </c>
       <c r="D220" t="s">
-        <v>808</v>
+        <v>954</v>
       </c>
       <c r="E220" t="s">
         <v>152</v>
@@ -10413,13 +10413,13 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
       </c>
       <c r="D221" t="s">
-        <v>820</v>
+        <v>955</v>
       </c>
       <c r="E221" t="s">
         <v>152</v>
@@ -10434,18 +10434,18 @@
         <v>119</v>
       </c>
       <c r="J221" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B222" t="s">
         <v>106</v>
       </c>
       <c r="D222" t="s">
-        <v>821</v>
+        <v>956</v>
       </c>
       <c r="E222" t="s">
         <v>152</v>
@@ -10465,13 +10465,13 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B223" t="s">
         <v>106</v>
       </c>
       <c r="D223" t="s">
-        <v>822</v>
+        <v>957</v>
       </c>
       <c r="E223" t="s">
         <v>152</v>
@@ -10491,13 +10491,13 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
       </c>
       <c r="D224" t="s">
-        <v>823</v>
+        <v>958</v>
       </c>
       <c r="E224" t="s">
         <v>152</v>
@@ -10517,13 +10517,13 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="B225" t="s">
         <v>106</v>
       </c>
       <c r="D225" t="s">
-        <v>845</v>
+        <v>959</v>
       </c>
       <c r="E225" t="s">
         <v>152</v>
@@ -10538,18 +10538,18 @@
         <v>119</v>
       </c>
       <c r="J225" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="B226" t="s">
         <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="E226" t="s">
         <v>152</v>
@@ -10564,18 +10564,18 @@
         <v>119</v>
       </c>
       <c r="J226" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="B227" t="s">
         <v>106</v>
       </c>
       <c r="D227" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="E227" t="s">
         <v>152</v>
@@ -10590,18 +10590,18 @@
         <v>119</v>
       </c>
       <c r="J227" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="B228" t="s">
         <v>106</v>
       </c>
       <c r="D228" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="E228" t="s">
         <v>152</v>
@@ -10616,18 +10616,18 @@
         <v>119</v>
       </c>
       <c r="J228" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="B229" t="s">
         <v>106</v>
       </c>
       <c r="D229" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="E229" t="s">
         <v>152</v>
@@ -10642,18 +10642,18 @@
         <v>119</v>
       </c>
       <c r="J229" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="E230" t="s">
         <v>152</v>
@@ -10668,18 +10668,18 @@
         <v>119</v>
       </c>
       <c r="J230" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="B231" t="s">
         <v>106</v>
       </c>
       <c r="D231" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="E231" t="s">
         <v>152</v>
@@ -10694,18 +10694,18 @@
         <v>119</v>
       </c>
       <c r="J231" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="B232" t="s">
         <v>106</v>
       </c>
       <c r="D232" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="E232" t="s">
         <v>152</v>
@@ -10720,18 +10720,18 @@
         <v>119</v>
       </c>
       <c r="J232" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="B233" t="s">
         <v>106</v>
       </c>
       <c r="D233" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="E233" t="s">
         <v>152</v>
@@ -10746,7 +10746,7 @@
         <v>119</v>
       </c>
       <c r="J233" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -11947,13 +11947,13 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="B280" t="s">
         <v>601</v>
       </c>
       <c r="D280" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="E280" t="s">
         <v>152</v>
@@ -11968,7 +11968,7 @@
         <v>119</v>
       </c>
       <c r="J280" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -12881,18 +12881,18 @@
         <v>119</v>
       </c>
       <c r="J320" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="B321" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="D321" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="E321" t="s">
         <v>152</v>
@@ -12907,18 +12907,18 @@
         <v>119</v>
       </c>
       <c r="J321" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="B322" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="D322" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="E322" t="s">
         <v>152</v>
@@ -12933,18 +12933,18 @@
         <v>119</v>
       </c>
       <c r="J322" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="B323" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="D323" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="E323" t="s">
         <v>152</v>
@@ -12959,18 +12959,18 @@
         <v>119</v>
       </c>
       <c r="J323" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="B324" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="D324" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="E324" t="s">
         <v>152</v>
@@ -13366,24 +13366,24 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="B342" t="s">
         <v>106</v>
       </c>
       <c r="D342" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="B343" t="s">
         <v>106</v>
       </c>
       <c r="D343" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -13392,7 +13392,7 @@
       <sortCondition ref="B1:B341"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J16:J21 J86:J91 J105 J117 J149 J214 H2:I341 E2:E341">
+  <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccaradon\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkim4\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F525B-C61E-4E32-BD07-233845842D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670A1B5-0D21-432D-A153-A855B71C01FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="672" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="980">
   <si>
     <t>Input List</t>
   </si>
@@ -2923,6 +2923,63 @@
   </si>
   <si>
     <t>com_report_hvac_count_water_water_heat_pumps_cooling</t>
+  </si>
+  <si>
+    <t>com_report_pump_flow_weighted_avg_motor_efficiency</t>
+  </si>
+  <si>
+    <t>com_report_pump_flow_weighted_avg_motor_efficiency_const_spd</t>
+  </si>
+  <si>
+    <t>com_report_pump_flow_weighted_avg_motor_efficiency_var_spd</t>
+  </si>
+  <si>
+    <t>com_report_pump_count_hvac_const_spd</t>
+  </si>
+  <si>
+    <t>com_report_pump_count_hvac_var_spd</t>
+  </si>
+  <si>
+    <t>com_report_pump_count_swh_const_spd</t>
+  </si>
+  <si>
+    <t>com_report_pump_count_swh_var_spd</t>
+  </si>
+  <si>
+    <t>com_report_pump_total_constant_speed_pump_power_w</t>
+  </si>
+  <si>
+    <t>com_report_pump_total_variable_speed_pump_power_w</t>
+  </si>
+  <si>
+    <t>HVAC/SHW</t>
+  </si>
+  <si>
+    <t>rated flow weighted average motor efficiency of constant speed pumps</t>
+  </si>
+  <si>
+    <t>rated flow weighted average motor efficiency of pumps</t>
+  </si>
+  <si>
+    <t>rated flow weighted average motor efficiency of variable speed pumps</t>
+  </si>
+  <si>
+    <t>total count of constant speed pumps used in HVAC</t>
+  </si>
+  <si>
+    <t>total count of variable speed pumps used in HVAC</t>
+  </si>
+  <si>
+    <t>total count of constant speed pumps used in service water heating</t>
+  </si>
+  <si>
+    <t>total count of variable speed pumps used in service water heating</t>
+  </si>
+  <si>
+    <t>total rated power of constant speed pumps</t>
+  </si>
+  <si>
+    <t>total rated power of variable speed pumps</t>
   </si>
 </sst>
 </file>
@@ -2995,7 +3052,315 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4737,11 +5102,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K343"/>
+  <dimension ref="A1:K352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D213" sqref="D213"/>
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G352" sqref="G352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13374,6 +13739,12 @@
       <c r="D342" t="s">
         <v>926</v>
       </c>
+      <c r="H342" t="s">
+        <v>119</v>
+      </c>
+      <c r="I342" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
@@ -13384,6 +13755,165 @@
       </c>
       <c r="D343" t="s">
         <v>928</v>
+      </c>
+      <c r="H343" t="s">
+        <v>119</v>
+      </c>
+      <c r="I343" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>972</v>
+      </c>
+      <c r="B344" t="s">
+        <v>970</v>
+      </c>
+      <c r="D344" t="s">
+        <v>961</v>
+      </c>
+      <c r="H344" t="s">
+        <v>119</v>
+      </c>
+      <c r="I344" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>971</v>
+      </c>
+      <c r="B345" t="s">
+        <v>970</v>
+      </c>
+      <c r="D345" t="s">
+        <v>962</v>
+      </c>
+      <c r="H345" t="s">
+        <v>119</v>
+      </c>
+      <c r="I345" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>973</v>
+      </c>
+      <c r="B346" t="s">
+        <v>970</v>
+      </c>
+      <c r="D346" t="s">
+        <v>963</v>
+      </c>
+      <c r="H346" t="s">
+        <v>119</v>
+      </c>
+      <c r="I346" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>974</v>
+      </c>
+      <c r="B347" t="s">
+        <v>970</v>
+      </c>
+      <c r="D347" t="s">
+        <v>964</v>
+      </c>
+      <c r="H347" t="s">
+        <v>119</v>
+      </c>
+      <c r="I347" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>975</v>
+      </c>
+      <c r="B348" t="s">
+        <v>970</v>
+      </c>
+      <c r="D348" t="s">
+        <v>965</v>
+      </c>
+      <c r="H348" t="s">
+        <v>119</v>
+      </c>
+      <c r="I348" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>976</v>
+      </c>
+      <c r="B349" t="s">
+        <v>970</v>
+      </c>
+      <c r="D349" t="s">
+        <v>966</v>
+      </c>
+      <c r="H349" t="s">
+        <v>119</v>
+      </c>
+      <c r="I349" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>977</v>
+      </c>
+      <c r="B350" t="s">
+        <v>970</v>
+      </c>
+      <c r="D350" t="s">
+        <v>967</v>
+      </c>
+      <c r="H350" t="s">
+        <v>119</v>
+      </c>
+      <c r="I350" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>978</v>
+      </c>
+      <c r="B351" t="s">
+        <v>970</v>
+      </c>
+      <c r="D351" t="s">
+        <v>968</v>
+      </c>
+      <c r="H351" t="s">
+        <v>119</v>
+      </c>
+      <c r="I351" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>979</v>
+      </c>
+      <c r="B352" t="s">
+        <v>970</v>
+      </c>
+      <c r="D352" t="s">
+        <v>969</v>
+      </c>
+      <c r="H352" t="s">
+        <v>119</v>
+      </c>
+      <c r="I352" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -13393,43 +13923,219 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214">
-    <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="53" priority="82" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="52" priority="83" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E341">
-    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="51" priority="79" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="50" priority="80" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J152:J154">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157:J158">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J225:J233">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J225)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H342">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H342)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H342)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H343">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H343)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H343)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H344">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H344)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H344)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H345">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H345)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H345)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H346">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H346)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H346)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H347">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H347)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H347)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H348">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H348)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H348)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H349">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H349)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H349)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H350">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H350)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H350)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H351">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H351)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H351)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H352">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H352)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I342">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I342)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I342)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I343">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I343)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I343)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I344">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I344)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I344)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I345">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I345)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I345)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I346">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I346)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I346)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I347">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I347)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I347)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I348">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I348)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I348)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I349">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I349)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I349)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I350">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I350)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I350)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I351">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I351)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I351)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I352">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccaradon\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aallen\Documents\GitHub\comstock_new_branch\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F525B-C61E-4E32-BD07-233845842D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816A07A-B17A-4A34-829C-9791585B7052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="672" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="963">
   <si>
     <t>Input List</t>
   </si>
@@ -2923,6 +2923,12 @@
   </si>
   <si>
     <t>com_report_hvac_count_water_water_heat_pumps_cooling</t>
+  </si>
+  <si>
+    <t>Average airflow ratio for VAV systems</t>
+  </si>
+  <si>
+    <t>air_system_vav_avg_flow_ratio</t>
   </si>
 </sst>
 </file>
@@ -4737,11 +4743,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K343"/>
+  <dimension ref="A1:K344"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D213" sqref="D213"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13386,13 +13392,36 @@
         <v>928</v>
       </c>
     </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>961</v>
+      </c>
+      <c r="B344" t="s">
+        <v>106</v>
+      </c>
+      <c r="D344" t="s">
+        <v>962</v>
+      </c>
+      <c r="E344" t="s">
+        <v>152</v>
+      </c>
+      <c r="F344" t="s">
+        <v>141</v>
+      </c>
+      <c r="H344" t="s">
+        <v>119</v>
+      </c>
+      <c r="I344" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K341" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K341">
       <sortCondition ref="B1:B341"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214">
+  <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214 E344">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
@@ -13400,7 +13429,7 @@
       <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E341">
+  <conditionalFormatting sqref="E2:E341 E344">
     <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccaradon\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aallen\Documents\GitHub\comstock_new_branch\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F525B-C61E-4E32-BD07-233845842D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8D4F7-3708-4E24-921D-CB6B622C9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="672" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="970">
   <si>
     <t>Input List</t>
   </si>
@@ -2923,6 +2923,33 @@
   </si>
   <si>
     <t>com_report_hvac_count_water_water_heat_pumps_cooling</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.has_htg_setback_all_tstats</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.has_clg_setback_all_tstats</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.at_least_one_htg_setback</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.at_least_one_clg_setback</t>
+  </si>
+  <si>
+    <t>Has heating setbacks in all thermostats</t>
+  </si>
+  <si>
+    <t>Has cooling setbacks in all thermostats</t>
+  </si>
+  <si>
+    <t>Has at least one zone with a heating setback</t>
+  </si>
+  <si>
+    <t>Has at least one zone with a cooling setback</t>
+  </si>
+  <si>
+    <t>to_string</t>
   </si>
 </sst>
 </file>
@@ -4737,16 +4764,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K343"/>
+  <dimension ref="A1:K347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D213" sqref="D213"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
@@ -13386,13 +13413,93 @@
         <v>928</v>
       </c>
     </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>965</v>
+      </c>
+      <c r="B344" t="s">
+        <v>106</v>
+      </c>
+      <c r="D344" t="s">
+        <v>961</v>
+      </c>
+      <c r="E344" t="s">
+        <v>152</v>
+      </c>
+      <c r="F344" t="s">
+        <v>969</v>
+      </c>
+      <c r="H344" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>966</v>
+      </c>
+      <c r="B345" t="s">
+        <v>106</v>
+      </c>
+      <c r="D345" t="s">
+        <v>962</v>
+      </c>
+      <c r="E345" t="s">
+        <v>152</v>
+      </c>
+      <c r="F345" t="s">
+        <v>969</v>
+      </c>
+      <c r="H345" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>967</v>
+      </c>
+      <c r="B346" t="s">
+        <v>106</v>
+      </c>
+      <c r="D346" t="s">
+        <v>963</v>
+      </c>
+      <c r="E346" t="s">
+        <v>152</v>
+      </c>
+      <c r="F346" t="s">
+        <v>969</v>
+      </c>
+      <c r="H346" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>968</v>
+      </c>
+      <c r="B347" t="s">
+        <v>106</v>
+      </c>
+      <c r="D347" t="s">
+        <v>964</v>
+      </c>
+      <c r="E347" t="s">
+        <v>152</v>
+      </c>
+      <c r="F347" t="s">
+        <v>969</v>
+      </c>
+      <c r="H347" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K341" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K341">
       <sortCondition ref="B1:B341"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214">
+  <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214 E344:F347">
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
@@ -13400,7 +13507,7 @@
       <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E341">
+  <conditionalFormatting sqref="E2:E341 E344:F347">
     <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aallen\Documents\GitHub\comstock_new_branch\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8D4F7-3708-4E24-921D-CB6B622C9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945DA14C-3A59-4019-A032-0A5D44E2F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,6 +39,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7F355479-69FB-4F2B-B6E9-2891052560A0}</author>
+  </authors>
+  <commentList>
+    <comment ref="F344" authorId="0" shapeId="0" xr:uid="{7F355479-69FB-4F2B-B6E9-2891052560A0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Output is boolean; do we need a converter?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="970">
   <si>
@@ -2949,14 +2967,14 @@
     <t>Has at least one zone with a cooling setback</t>
   </si>
   <si>
-    <t>to_string</t>
+    <t>to_boolean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2984,6 +3002,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3068,6 +3092,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -3076,13 +3107,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3104,6 +3128,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Allen, Amy" id="{ACA06C3B-0148-488D-A388-42BE1415BCC6}" userId="S::aallen@nrel.gov::33a0b304-09a2-42c5-97db-27c5663e3792" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3401,6 +3431,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F344" dT="2025-10-30T14:26:48.21" personId="{ACA06C3B-0148-488D-A388-42BE1415BCC6}" id="{7F355479-69FB-4F2B-B6E9-2891052560A0}">
+    <text>Output is boolean; do we need a converter?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86292BAF-2385-4D5F-A466-FB5CFB6DC29C}">
   <dimension ref="A1:F90"/>
@@ -3409,16 +3447,16 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3476,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3455,7 +3493,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3469,7 +3507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3483,7 +3521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -3497,7 +3535,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3511,7 +3549,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3525,7 +3563,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3539,7 +3577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3553,7 +3591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3567,7 +3605,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3581,7 +3619,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3598,7 +3636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3612,7 +3650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3626,7 +3664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3640,7 +3678,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3657,7 +3695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3671,7 +3709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3685,7 +3723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3699,7 +3737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3713,7 +3751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3730,7 +3768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3744,7 +3782,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3761,7 +3799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3778,7 +3816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3792,7 +3830,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3809,7 +3847,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3826,7 +3864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -3840,7 +3878,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3854,7 +3892,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3871,7 +3909,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +3923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3902,7 +3940,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3916,7 +3954,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3933,7 +3971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3947,7 +3985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3961,7 +3999,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3978,7 +4016,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3992,7 +4030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4006,7 +4044,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4020,7 +4058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4034,7 +4072,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4048,7 +4086,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4062,7 +4100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4076,7 +4114,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4093,7 +4131,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -4107,7 +4145,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -4124,7 +4162,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -4138,7 +4176,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4152,7 +4190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -4166,7 +4204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4183,7 +4221,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4197,7 +4235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4211,7 +4249,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4225,7 +4263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4239,7 +4277,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -4256,7 +4294,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4270,7 +4308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4284,7 +4322,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4298,7 +4336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -4312,7 +4350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -4326,7 +4364,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -4340,7 +4378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4354,7 +4392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4368,7 +4406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4382,7 +4420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4396,7 +4434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4413,7 +4451,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4427,7 +4465,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4441,7 +4479,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4458,7 +4496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4472,7 +4510,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4486,7 +4524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -4500,7 +4538,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -4534,7 +4572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4548,7 +4586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4562,7 +4600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -4576,7 +4614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -4590,7 +4628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -4604,7 +4642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -4618,7 +4656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4632,7 +4670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -4646,7 +4684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4663,7 +4701,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4677,7 +4715,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4691,7 +4729,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4708,7 +4746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4722,7 +4760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4739,7 +4777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -4763,30 +4801,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
   <dimension ref="A1:K347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I344" sqref="I344"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F344" sqref="F344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="91.42578125" customWidth="1"/>
+    <col min="1" max="1" width="91.453125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="4" max="4" width="70.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
@@ -4821,7 +4859,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>524</v>
       </c>
@@ -4847,7 +4885,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>525</v>
       </c>
@@ -4873,7 +4911,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>522</v>
       </c>
@@ -4899,7 +4937,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>523</v>
       </c>
@@ -4925,7 +4963,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>532</v>
       </c>
@@ -4951,7 +4989,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>452</v>
       </c>
@@ -4977,7 +5015,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>454</v>
       </c>
@@ -5003,7 +5041,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>453</v>
       </c>
@@ -5029,7 +5067,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>533</v>
       </c>
@@ -5055,7 +5093,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>451</v>
       </c>
@@ -5081,7 +5119,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -5104,7 +5142,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5133,7 +5171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -5153,7 +5191,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>254</v>
       </c>
@@ -5173,7 +5211,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>922</v>
       </c>
@@ -5196,7 +5234,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>916</v>
       </c>
@@ -5222,7 +5260,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>921</v>
       </c>
@@ -5245,7 +5283,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>918</v>
       </c>
@@ -5271,7 +5309,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>919</v>
       </c>
@@ -5297,7 +5335,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>917</v>
       </c>
@@ -5323,7 +5361,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -5349,7 +5387,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -5375,7 +5413,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -5401,7 +5439,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>474</v>
       </c>
@@ -5427,7 +5465,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -5456,7 +5494,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>471</v>
       </c>
@@ -5482,7 +5520,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -5508,7 +5546,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5534,7 +5572,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -5560,7 +5598,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5586,7 +5624,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -5612,7 +5650,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5635,7 +5673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -5658,7 +5696,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -5681,7 +5719,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -5704,7 +5742,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5730,7 +5768,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -5750,7 +5788,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5770,7 +5808,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -5790,7 +5828,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5810,7 +5848,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5830,7 +5868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -5850,7 +5888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5870,7 +5908,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -5890,7 +5928,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -5910,7 +5948,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5930,7 +5968,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>265</v>
       </c>
@@ -5956,7 +5994,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>267</v>
       </c>
@@ -5982,7 +6020,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -6008,7 +6046,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>229</v>
       </c>
@@ -6034,7 +6072,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -6060,7 +6098,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -6086,7 +6124,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>231</v>
       </c>
@@ -6112,7 +6150,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -6138,7 +6176,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -6165,7 +6203,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -6192,7 +6230,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>264</v>
       </c>
@@ -6218,7 +6256,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>776</v>
       </c>
@@ -6244,7 +6282,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>780</v>
       </c>
@@ -6270,7 +6308,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>775</v>
       </c>
@@ -6296,7 +6334,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>774</v>
       </c>
@@ -6322,7 +6360,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>387</v>
       </c>
@@ -6348,7 +6386,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>392</v>
       </c>
@@ -6374,7 +6412,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>393</v>
       </c>
@@ -6400,7 +6438,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>388</v>
       </c>
@@ -6426,7 +6464,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>389</v>
       </c>
@@ -6452,7 +6490,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>390</v>
       </c>
@@ -6478,7 +6516,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>391</v>
       </c>
@@ -6504,7 +6542,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>728</v>
       </c>
@@ -6530,7 +6568,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>729</v>
       </c>
@@ -6556,7 +6594,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>732</v>
       </c>
@@ -6582,7 +6620,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>730</v>
       </c>
@@ -6608,7 +6646,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>731</v>
       </c>
@@ -6634,7 +6672,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>734</v>
       </c>
@@ -6660,7 +6698,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>733</v>
       </c>
@@ -6686,7 +6724,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>736</v>
       </c>
@@ -6712,7 +6750,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>737</v>
       </c>
@@ -6738,7 +6776,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>735</v>
       </c>
@@ -6764,7 +6802,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>740</v>
       </c>
@@ -6790,7 +6828,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>738</v>
       </c>
@@ -6816,7 +6854,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>739</v>
       </c>
@@ -6842,7 +6880,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>741</v>
       </c>
@@ -6868,7 +6906,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>742</v>
       </c>
@@ -6894,7 +6932,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>743</v>
       </c>
@@ -6920,7 +6958,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>896</v>
       </c>
@@ -6946,7 +6984,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>897</v>
       </c>
@@ -6972,7 +7010,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>899</v>
       </c>
@@ -6998,7 +7036,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>898</v>
       </c>
@@ -7024,7 +7062,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>900</v>
       </c>
@@ -7050,7 +7088,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>901</v>
       </c>
@@ -7076,7 +7114,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>745</v>
       </c>
@@ -7102,7 +7140,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>744</v>
       </c>
@@ -7128,7 +7166,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>751</v>
       </c>
@@ -7154,7 +7192,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>746</v>
       </c>
@@ -7180,7 +7218,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>794</v>
       </c>
@@ -7206,7 +7244,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>795</v>
       </c>
@@ -7232,7 +7270,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>796</v>
       </c>
@@ -7258,7 +7296,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>797</v>
       </c>
@@ -7284,7 +7322,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>747</v>
       </c>
@@ -7310,7 +7348,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>790</v>
       </c>
@@ -7336,7 +7374,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>791</v>
       </c>
@@ -7362,7 +7400,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>792</v>
       </c>
@@ -7388,7 +7426,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>793</v>
       </c>
@@ -7414,7 +7452,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>807</v>
       </c>
@@ -7440,7 +7478,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>273</v>
       </c>
@@ -7466,7 +7504,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>575</v>
       </c>
@@ -7492,7 +7530,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>551</v>
       </c>
@@ -7518,7 +7556,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>574</v>
       </c>
@@ -7544,7 +7582,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>573</v>
       </c>
@@ -7570,7 +7608,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>587</v>
       </c>
@@ -7596,7 +7634,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>585</v>
       </c>
@@ -7622,7 +7660,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>584</v>
       </c>
@@ -7648,7 +7686,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>586</v>
       </c>
@@ -7674,7 +7712,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>555</v>
       </c>
@@ -7700,7 +7738,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -7726,7 +7764,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>929</v>
       </c>
@@ -7752,7 +7790,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>339</v>
       </c>
@@ -7778,7 +7816,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>482</v>
       </c>
@@ -7804,7 +7842,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>280</v>
       </c>
@@ -7830,7 +7868,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>282</v>
       </c>
@@ -7856,7 +7894,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>281</v>
       </c>
@@ -7882,7 +7920,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>275</v>
       </c>
@@ -7908,7 +7946,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>277</v>
       </c>
@@ -7934,7 +7972,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>278</v>
       </c>
@@ -7960,7 +7998,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>279</v>
       </c>
@@ -7986,7 +8024,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>276</v>
       </c>
@@ -8012,7 +8050,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>308</v>
       </c>
@@ -8038,7 +8076,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -8064,7 +8102,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>311</v>
       </c>
@@ -8090,7 +8128,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>309</v>
       </c>
@@ -8116,7 +8154,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>310</v>
       </c>
@@ -8142,7 +8180,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>313</v>
       </c>
@@ -8168,7 +8206,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>287</v>
       </c>
@@ -8197,7 +8235,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>289</v>
       </c>
@@ -8226,7 +8264,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>290</v>
       </c>
@@ -8255,7 +8293,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>288</v>
       </c>
@@ -8284,7 +8322,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>401</v>
       </c>
@@ -8313,7 +8351,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>291</v>
       </c>
@@ -8339,7 +8377,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>294</v>
       </c>
@@ -8365,7 +8403,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>295</v>
       </c>
@@ -8391,7 +8429,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>292</v>
       </c>
@@ -8417,7 +8455,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>293</v>
       </c>
@@ -8443,7 +8481,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>591</v>
       </c>
@@ -8469,7 +8507,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>590</v>
       </c>
@@ -8495,7 +8533,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>589</v>
       </c>
@@ -8521,7 +8559,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>588</v>
       </c>
@@ -8547,7 +8585,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>246</v>
       </c>
@@ -8574,7 +8612,7 @@
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>106</v>
       </c>
@@ -8598,7 +8636,7 @@
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>860</v>
       </c>
@@ -8625,7 +8663,7 @@
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>863</v>
       </c>
@@ -8652,7 +8690,7 @@
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>106</v>
       </c>
@@ -8676,7 +8714,7 @@
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>106</v>
       </c>
@@ -8700,7 +8738,7 @@
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>106</v>
       </c>
@@ -8724,7 +8762,7 @@
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>861</v>
       </c>
@@ -8751,7 +8789,7 @@
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>862</v>
       </c>
@@ -8778,7 +8816,7 @@
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>106</v>
       </c>
@@ -8802,7 +8840,7 @@
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>106</v>
       </c>
@@ -8826,7 +8864,7 @@
       </c>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -8852,7 +8890,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -8878,7 +8916,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>245</v>
       </c>
@@ -8904,7 +8942,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>440</v>
       </c>
@@ -8930,7 +8968,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>442</v>
       </c>
@@ -8956,7 +8994,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>438</v>
       </c>
@@ -8982,7 +9020,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>444</v>
       </c>
@@ -9008,7 +9046,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>441</v>
       </c>
@@ -9034,7 +9072,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>443</v>
       </c>
@@ -9060,7 +9098,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>439</v>
       </c>
@@ -9086,7 +9124,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>445</v>
       </c>
@@ -9112,7 +9150,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>436</v>
       </c>
@@ -9138,7 +9176,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>437</v>
       </c>
@@ -9164,7 +9202,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>504</v>
       </c>
@@ -9190,7 +9228,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>509</v>
       </c>
@@ -9216,7 +9254,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>274</v>
       </c>
@@ -9242,7 +9280,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>344</v>
       </c>
@@ -9268,7 +9306,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>274</v>
       </c>
@@ -9294,7 +9332,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>483</v>
       </c>
@@ -9320,7 +9358,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -9346,7 +9384,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>353</v>
       </c>
@@ -9372,7 +9410,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>316</v>
       </c>
@@ -9398,7 +9436,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>455</v>
       </c>
@@ -9424,7 +9462,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -9450,7 +9488,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>486</v>
       </c>
@@ -9476,7 +9514,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -9502,7 +9540,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>362</v>
       </c>
@@ -9528,7 +9566,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9554,7 +9592,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>363</v>
       </c>
@@ -9580,7 +9618,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>402</v>
       </c>
@@ -9606,7 +9644,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>399</v>
       </c>
@@ -9632,7 +9670,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>400</v>
       </c>
@@ -9658,7 +9696,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -9684,7 +9722,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>510</v>
       </c>
@@ -9710,7 +9748,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>449</v>
       </c>
@@ -9736,7 +9774,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>450</v>
       </c>
@@ -9762,7 +9800,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>368</v>
       </c>
@@ -9788,7 +9826,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>369</v>
       </c>
@@ -9814,7 +9852,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>367</v>
       </c>
@@ -9840,7 +9878,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -9866,7 +9904,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>582</v>
       </c>
@@ -9892,7 +9930,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>583</v>
       </c>
@@ -9918,7 +9956,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>500</v>
       </c>
@@ -9944,7 +9982,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>501</v>
       </c>
@@ -9970,7 +10008,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>499</v>
       </c>
@@ -9996,7 +10034,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>886</v>
       </c>
@@ -10022,7 +10060,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>887</v>
       </c>
@@ -10048,7 +10086,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>284</v>
       </c>
@@ -10074,7 +10112,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>819</v>
       </c>
@@ -10100,7 +10138,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>820</v>
       </c>
@@ -10126,7 +10164,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>821</v>
       </c>
@@ -10152,7 +10190,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>822</v>
       </c>
@@ -10178,7 +10216,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>823</v>
       </c>
@@ -10204,7 +10242,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>824</v>
       </c>
@@ -10230,7 +10268,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>826</v>
       </c>
@@ -10256,7 +10294,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>828</v>
       </c>
@@ -10282,7 +10320,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>808</v>
       </c>
@@ -10308,7 +10346,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>809</v>
       </c>
@@ -10334,7 +10372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>813</v>
       </c>
@@ -10360,7 +10398,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>810</v>
       </c>
@@ -10386,7 +10424,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>811</v>
       </c>
@@ -10412,7 +10450,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>812</v>
       </c>
@@ -10438,7 +10476,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>815</v>
       </c>
@@ -10464,7 +10502,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>816</v>
       </c>
@@ -10490,7 +10528,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>818</v>
       </c>
@@ -10516,7 +10554,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>817</v>
       </c>
@@ -10542,7 +10580,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>829</v>
       </c>
@@ -10568,7 +10606,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>881</v>
       </c>
@@ -10594,7 +10632,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>882</v>
       </c>
@@ -10620,7 +10658,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>883</v>
       </c>
@@ -10646,7 +10684,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>837</v>
       </c>
@@ -10672,7 +10710,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>838</v>
       </c>
@@ -10698,7 +10736,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>839</v>
       </c>
@@ -10724,7 +10762,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>840</v>
       </c>
@@ -10750,7 +10788,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>841</v>
       </c>
@@ -10776,7 +10814,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>340</v>
       </c>
@@ -10802,7 +10840,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>560</v>
       </c>
@@ -10828,7 +10866,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>561</v>
       </c>
@@ -10854,7 +10892,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>559</v>
       </c>
@@ -10880,7 +10918,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>467</v>
       </c>
@@ -10906,7 +10944,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>468</v>
       </c>
@@ -10932,7 +10970,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>469</v>
       </c>
@@ -10958,7 +10996,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>470</v>
       </c>
@@ -10984,7 +11022,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>618</v>
       </c>
@@ -11010,7 +11048,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>619</v>
       </c>
@@ -11036,7 +11074,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>622</v>
       </c>
@@ -11062,7 +11100,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>621</v>
       </c>
@@ -11088,7 +11126,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>620</v>
       </c>
@@ -11114,7 +11152,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>623</v>
       </c>
@@ -11140,7 +11178,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>624</v>
       </c>
@@ -11166,7 +11204,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>625</v>
       </c>
@@ -11192,7 +11230,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>626</v>
       </c>
@@ -11218,7 +11256,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>627</v>
       </c>
@@ -11244,7 +11282,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>628</v>
       </c>
@@ -11270,7 +11308,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>629</v>
       </c>
@@ -11296,7 +11334,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>630</v>
       </c>
@@ -11322,7 +11360,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>631</v>
       </c>
@@ -11348,7 +11386,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>632</v>
       </c>
@@ -11374,7 +11412,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>633</v>
       </c>
@@ -11400,7 +11438,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>634</v>
       </c>
@@ -11426,7 +11464,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>635</v>
       </c>
@@ -11452,7 +11490,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>636</v>
       </c>
@@ -11478,7 +11516,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>637</v>
       </c>
@@ -11504,7 +11542,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>638</v>
       </c>
@@ -11530,7 +11568,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>639</v>
       </c>
@@ -11556,7 +11594,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>640</v>
       </c>
@@ -11582,7 +11620,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>641</v>
       </c>
@@ -11608,7 +11646,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>642</v>
       </c>
@@ -11634,7 +11672,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>643</v>
       </c>
@@ -11660,7 +11698,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>644</v>
       </c>
@@ -11686,7 +11724,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>645</v>
       </c>
@@ -11712,7 +11750,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>646</v>
       </c>
@@ -11738,7 +11776,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>647</v>
       </c>
@@ -11764,7 +11802,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>648</v>
       </c>
@@ -11790,7 +11828,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>649</v>
       </c>
@@ -11816,7 +11854,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>650</v>
       </c>
@@ -11842,7 +11880,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>651</v>
       </c>
@@ -11868,7 +11906,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>653</v>
       </c>
@@ -11894,7 +11932,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>652</v>
       </c>
@@ -11920,7 +11958,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>654</v>
       </c>
@@ -11946,7 +11984,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>655</v>
       </c>
@@ -11972,7 +12010,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>847</v>
       </c>
@@ -11998,7 +12036,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>701</v>
       </c>
@@ -12024,7 +12062,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>702</v>
       </c>
@@ -12050,7 +12088,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>656</v>
       </c>
@@ -12076,7 +12114,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>657</v>
       </c>
@@ -12102,7 +12140,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>269</v>
       </c>
@@ -12128,7 +12166,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>270</v>
       </c>
@@ -12154,7 +12192,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>271</v>
       </c>
@@ -12180,7 +12218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>81</v>
       </c>
@@ -12204,7 +12242,7 @@
       </c>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -12230,7 +12268,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>72</v>
       </c>
@@ -12253,7 +12291,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -12279,7 +12317,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>69</v>
       </c>
@@ -12305,7 +12343,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>169</v>
       </c>
@@ -12328,7 +12366,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>177</v>
       </c>
@@ -12348,7 +12386,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>186</v>
       </c>
@@ -12368,7 +12406,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>71</v>
       </c>
@@ -12388,7 +12426,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>70</v>
       </c>
@@ -12408,7 +12446,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>76</v>
       </c>
@@ -12428,7 +12466,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>75</v>
       </c>
@@ -12448,7 +12486,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>74</v>
       </c>
@@ -12468,7 +12506,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>88</v>
       </c>
@@ -12488,7 +12526,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>89</v>
       </c>
@@ -12508,7 +12546,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>50</v>
       </c>
@@ -12528,7 +12566,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>187</v>
       </c>
@@ -12548,7 +12586,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>176</v>
       </c>
@@ -12568,7 +12606,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -12588,7 +12626,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>95</v>
       </c>
@@ -12608,7 +12646,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>94</v>
       </c>
@@ -12628,7 +12666,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>97</v>
       </c>
@@ -12648,7 +12686,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>96</v>
       </c>
@@ -12668,7 +12706,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -12688,7 +12726,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>84</v>
       </c>
@@ -12708,7 +12746,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>83</v>
       </c>
@@ -12728,7 +12766,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>38</v>
       </c>
@@ -12754,7 +12792,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>182</v>
       </c>
@@ -12780,7 +12818,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>262</v>
       </c>
@@ -12806,7 +12844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -12832,7 +12870,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>259</v>
       </c>
@@ -12859,7 +12897,7 @@
       </c>
       <c r="K318" s="3"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>261</v>
       </c>
@@ -12885,7 +12923,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>260</v>
       </c>
@@ -12911,7 +12949,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>938</v>
       </c>
@@ -12937,7 +12975,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>939</v>
       </c>
@@ -12963,7 +13001,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>940</v>
       </c>
@@ -12989,7 +13027,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>941</v>
       </c>
@@ -13012,7 +13050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>263</v>
       </c>
@@ -13038,7 +13076,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>115</v>
       </c>
@@ -13064,7 +13102,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>183</v>
       </c>
@@ -13087,7 +13125,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>18</v>
       </c>
@@ -13110,7 +13148,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>19</v>
       </c>
@@ -13133,7 +13171,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>133</v>
       </c>
@@ -13153,7 +13191,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -13173,7 +13211,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -13193,7 +13231,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -13213,7 +13251,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>20</v>
       </c>
@@ -13233,7 +13271,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>31</v>
       </c>
@@ -13253,7 +13291,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>27</v>
       </c>
@@ -13273,7 +13311,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>549</v>
       </c>
@@ -13299,7 +13337,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>164</v>
       </c>
@@ -13322,7 +13360,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>93</v>
       </c>
@@ -13345,7 +13383,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>91</v>
       </c>
@@ -13368,7 +13406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>90</v>
       </c>
@@ -13391,7 +13429,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>925</v>
       </c>
@@ -13402,7 +13440,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>927</v>
       </c>
@@ -13413,7 +13451,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>965</v>
       </c>
@@ -13433,7 +13471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>966</v>
       </c>
@@ -13453,7 +13491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>967</v>
       </c>
@@ -13473,7 +13511,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>968</v>
       </c>
@@ -13503,16 +13541,18 @@
     <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E341 E344:F347">
+    <cfRule type="containsText" dxfId="8" priority="35" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="36" operator="containsText" text="TBD">
+      <formula>NOT(ISERROR(SEARCH("TBD",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E341 E344:F347">
-    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="TBD">
-      <formula>NOT(ISERROR(SEARCH("TBD",E2)))</formula>
+  <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214 E344:F347">
+    <cfRule type="containsText" dxfId="6" priority="39" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J152:J154">
@@ -13541,6 +13581,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkim4\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccaradon\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670A1B5-0D21-432D-A153-A855B71C01FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A432A29-A965-4BAE-ADC9-EB500D5E361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
+    <workbookView xWindow="22932" yWindow="672" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,8 +39,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={41EBC68D-AB6D-4CC4-A69A-78845442F100}</author>
+  </authors>
+  <commentList>
+    <comment ref="F353" authorId="0" shapeId="0" xr:uid="{41EBC68D-AB6D-4CC4-A69A-78845442F100}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Output is boolean; do we need a converter?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="989">
   <si>
     <t>Input List</t>
   </si>
@@ -2980,13 +2998,40 @@
   </si>
   <si>
     <t>total rated power of variable speed pumps</t>
+  </si>
+  <si>
+    <t>Has heating setbacks in all thermostats</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.has_htg_setback_all_tstats</t>
+  </si>
+  <si>
+    <t>to_boolean</t>
+  </si>
+  <si>
+    <t>Has cooling setbacks in all thermostats</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.has_clg_setback_all_tstats</t>
+  </si>
+  <si>
+    <t>Has at least one zone with a heating setback</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.at_least_one_htg_setback</t>
+  </si>
+  <si>
+    <t>Has at least one zone with a cooling setback</t>
+  </si>
+  <si>
+    <t>com_stock_sensitivity_reports.at_least_one_clg_setback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3014,6 +3059,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3052,11 +3103,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3098,13 +3163,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -3113,279 +3171,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3420,14 +3205,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3442,6 +3227,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Allen, Amy" id="{77426C77-5C18-4B27-8B0E-67F1F50A374F}" userId="S::aallen@nrel.gov::33a0b304-09a2-42c5-97db-27c5663e3792" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3739,6 +3530,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F353" dT="2025-10-30T14:26:48.21" personId="{77426C77-5C18-4B27-8B0E-67F1F50A374F}" id="{41EBC68D-AB6D-4CC4-A69A-78845442F100}">
+    <text>Output is boolean; do we need a converter?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86292BAF-2385-4D5F-A466-FB5CFB6DC29C}">
   <dimension ref="A1:F90"/>
@@ -5101,12 +4900,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K352"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
+  <dimension ref="A1:K356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G352" sqref="G352"/>
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13916,230 +13715,161 @@
         <v>119</v>
       </c>
     </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>980</v>
+      </c>
+      <c r="B353" t="s">
+        <v>106</v>
+      </c>
+      <c r="D353" t="s">
+        <v>981</v>
+      </c>
+      <c r="E353" t="s">
+        <v>152</v>
+      </c>
+      <c r="F353" t="s">
+        <v>982</v>
+      </c>
+      <c r="H353" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>983</v>
+      </c>
+      <c r="B354" t="s">
+        <v>106</v>
+      </c>
+      <c r="D354" t="s">
+        <v>984</v>
+      </c>
+      <c r="E354" t="s">
+        <v>152</v>
+      </c>
+      <c r="F354" t="s">
+        <v>982</v>
+      </c>
+      <c r="H354" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>985</v>
+      </c>
+      <c r="B355" t="s">
+        <v>106</v>
+      </c>
+      <c r="D355" t="s">
+        <v>986</v>
+      </c>
+      <c r="E355" t="s">
+        <v>152</v>
+      </c>
+      <c r="F355" t="s">
+        <v>982</v>
+      </c>
+      <c r="H355" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>987</v>
+      </c>
+      <c r="B356" t="s">
+        <v>106</v>
+      </c>
+      <c r="D356" t="s">
+        <v>988</v>
+      </c>
+      <c r="E356" t="s">
+        <v>152</v>
+      </c>
+      <c r="F356" t="s">
+        <v>982</v>
+      </c>
+      <c r="H356" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K341" xr:uid="{723ACE23-DD34-4680-B6C8-8AA325E563AF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K341">
       <sortCondition ref="B1:B341"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E341 H2:I341 J16:J21 J86:J91 J105 J117 J149 J214">
-    <cfRule type="containsText" dxfId="53" priority="82" operator="containsText" text="no">
+  <conditionalFormatting sqref="E2:E341 J16:J21 J86:J91 J105 J117 J149 J214">
+    <cfRule type="containsText" dxfId="15" priority="87" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="86" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="83" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E341">
-    <cfRule type="containsText" dxfId="51" priority="79" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="13" priority="83" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="80" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="12" priority="84" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I352">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J152:J154">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="9" priority="52" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",J152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="51" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",J152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157:J158">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="7" priority="49" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="6" priority="50" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J225:J233">
-    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="5" priority="53" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="4" priority="54" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J225)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H342">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H342)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H342)))</formula>
+  <conditionalFormatting sqref="E353:F356">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E353)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H343">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H343)))</formula>
+  <conditionalFormatting sqref="E353:F356">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H343)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TBD">
+      <formula>NOT(ISERROR(SEARCH("TBD",E353)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H344">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H344)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H344)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H345">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H345)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H345)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H346">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H346)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H346)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H347">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H347)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H347)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H348">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H348)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H348)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H349">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H349)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H349)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H350">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H350)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H350)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H351">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H351)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H351)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H352">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",H352)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I342">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I342)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I342)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I343">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I343)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I343)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I344">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I344)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I344)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I345">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I345)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I345)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I346">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I346)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I346)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I347">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I347)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I347)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I348">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I348)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I348)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I349">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I349)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I349)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I350">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I350)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I350)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I351">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I351)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I351)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I352">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I352)))</formula>
+  <conditionalFormatting sqref="E353:F356">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",E353)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
+++ b/measures/comstock_sensitivity_reports/resources/Variable List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccaradon\Documents\GitHub\ComStock\measures\comstock_sensitivity_reports\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A432A29-A965-4BAE-ADC9-EB500D5E361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0781B6-2CFF-43BC-A295-C8D9EBDAEB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="672" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{35549412-5E91-4CB3-A95B-F037AB4A5442}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="991">
   <si>
     <t>Input List</t>
   </si>
@@ -3025,13 +3025,19 @@
   </si>
   <si>
     <t>com_stock_sensitivity_reports.at_least_one_clg_setback</t>
+  </si>
+  <si>
+    <t>Average airflow ratio for VAV systems</t>
+  </si>
+  <si>
+    <t>air_system_vav_avg_flow_ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3059,12 +3065,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3103,7 +3103,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -3163,6 +3163,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -3171,6 +3178,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3205,7 +3219,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3213,6 +3234,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4901,11 +4929,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE568D5-2279-4922-8B77-550F2E5B90B6}">
-  <dimension ref="A1:K356"/>
+  <dimension ref="A1:K357"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D343" sqref="D343"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D342" sqref="D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13715,7 +13743,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>980</v>
       </c>
@@ -13735,7 +13763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>983</v>
       </c>
@@ -13755,7 +13783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>985</v>
       </c>
@@ -13775,7 +13803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>987</v>
       </c>
@@ -13792,6 +13820,29 @@
         <v>982</v>
       </c>
       <c r="H356" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>989</v>
+      </c>
+      <c r="B357" t="s">
+        <v>106</v>
+      </c>
+      <c r="D357" t="s">
+        <v>990</v>
+      </c>
+      <c r="E357" t="s">
+        <v>152</v>
+      </c>
+      <c r="F357" t="s">
+        <v>141</v>
+      </c>
+      <c r="H357" t="s">
+        <v>119</v>
+      </c>
+      <c r="I357" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13802,69 +13853,83 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E2:E341 J16:J21 J86:J91 J105 J117 J149 J214">
-    <cfRule type="containsText" dxfId="15" priority="87" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="19" priority="90" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="91" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="86" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E341">
-    <cfRule type="containsText" dxfId="13" priority="83" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="17" priority="87" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="84" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="16" priority="88" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E353:F356">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="TBD">
+      <formula>NOT(ISERROR(SEARCH("TBD",E353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",E353)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H2:I352">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J152:J154">
-    <cfRule type="containsText" dxfId="9" priority="52" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="9" priority="55" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",J152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="56" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="51" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",J152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157:J158">
-    <cfRule type="containsText" dxfId="7" priority="49" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="7" priority="53" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="50" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="6" priority="54" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J225:J233">
-    <cfRule type="containsText" dxfId="5" priority="53" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="5" priority="57" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",J225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="54" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="4" priority="58" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",J225)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E353:F356">
+  <conditionalFormatting sqref="E357">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",E353)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",E357)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E353:F356">
+  <conditionalFormatting sqref="E357">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",E353)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",E357)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TBD">
-      <formula>NOT(ISERROR(SEARCH("TBD",E353)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TBD",E357)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E353:F356">
+  <conditionalFormatting sqref="E357">
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",E353)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",E357)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
